--- a/deliveryopenfiber.xlsx
+++ b/deliveryopenfiber.xlsx
@@ -1,18 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView/>
+    <workbookView xWindow="240" yWindow="510" windowWidth="28455" windowHeight="11955"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1" fullPrecision="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Foglio1!$A$2:$AD$17</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="235">
   <si>
     <t>Codice</t>
   </si>
@@ -524,52 +529,7 @@
     <t>19_089_089017_8001005529_129</t>
   </si>
   <si>
-    <t>DEL1003547185</t>
-  </si>
-  <si>
-    <t>4224696945446067864</t>
-  </si>
-  <si>
-    <t>SRBXA/EOF_0002</t>
-  </si>
-  <si>
-    <t>M257_CNO3-SP_01</t>
-  </si>
-  <si>
-    <t>TLC_00000000150262</t>
-  </si>
-  <si>
-    <t>VALERIA GENNARINO</t>
-  </si>
-  <si>
     <t>09/08/2025 11:30</t>
-  </si>
-  <si>
-    <t>GALIBRIO.111927</t>
-  </si>
-  <si>
-    <t>M257_CNO3/M257_133</t>
-  </si>
-  <si>
-    <t>05/08/2025 12:26</t>
-  </si>
-  <si>
-    <t>08/08/2025 17:56</t>
-  </si>
-  <si>
-    <t>PORTOPALO DI CAPO PASSERO</t>
-  </si>
-  <si>
-    <t>SRBXA</t>
-  </si>
-  <si>
-    <t>19_089_089020_8000967760_23</t>
-  </si>
-  <si>
-    <t>TELECOM ITALIA SPA</t>
-  </si>
-  <si>
-    <t>CD - FTTH - 125</t>
   </si>
   <si>
     <t>DEL1003551261</t>
@@ -768,7 +728,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -793,31 +752,346 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AD18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AD17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" customWidth="1" style="1"/>
+    <col min="1" max="1" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="58.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="25.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" style="1"/>
+    <col min="22" max="22" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="30" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="25.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -909,7 +1183,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:30">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
@@ -1001,11 +1275,10 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:30">
       <c r="A3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
         <v>32</v>
       </c>
@@ -1027,7 +1300,6 @@
       <c r="I3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="1"/>
       <c r="K3" s="1" t="s">
         <v>60</v>
       </c>
@@ -1037,7 +1309,6 @@
       <c r="M3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="N3" s="1"/>
       <c r="O3" s="1" t="s">
         <v>61</v>
       </c>
@@ -1087,7 +1358,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:30">
       <c r="A4" s="1" t="s">
         <v>69</v>
       </c>
@@ -1179,7 +1450,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:30">
       <c r="A5" s="1" t="s">
         <v>81</v>
       </c>
@@ -1271,7 +1542,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:30">
       <c r="A6" s="1" t="s">
         <v>97</v>
       </c>
@@ -1363,7 +1634,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:30">
       <c r="A7" s="1" t="s">
         <v>114</v>
       </c>
@@ -1455,7 +1726,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:30">
       <c r="A8" s="1" t="s">
         <v>126</v>
       </c>
@@ -1547,7 +1818,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:30">
       <c r="A9" s="1" t="s">
         <v>136</v>
       </c>
@@ -1639,7 +1910,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:30">
       <c r="A10" s="1" t="s">
         <v>149</v>
       </c>
@@ -1731,7 +2002,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:30">
       <c r="A11" s="1" t="s">
         <v>160</v>
       </c>
@@ -1823,146 +2094,146 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:30">
       <c r="A12" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>36</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="J12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L12" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L12" s="1" t="s">
+      <c r="M12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O12" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="M12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="O12" s="1" t="s">
+      <c r="P12" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="P12" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="Q12" s="1" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="R12" s="1" t="s">
         <v>47</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>181</v>
+        <v>48</v>
       </c>
       <c r="U12" s="1" t="s">
         <v>49</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>182</v>
+        <v>50</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>184</v>
+        <v>112</v>
       </c>
       <c r="AB12" s="1" t="s">
         <v>42</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>185</v>
+        <v>96</v>
       </c>
       <c r="AD12" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:30">
       <c r="A13" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>36</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>60</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>42</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>92</v>
@@ -1983,57 +2254,57 @@
         <v>47</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="X13" s="1" t="s">
         <v>50</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="Z13" s="1" t="s">
         <v>52</v>
       </c>
       <c r="AA13" s="1" t="s">
-        <v>112</v>
+        <v>191</v>
       </c>
       <c r="AB13" s="1" t="s">
         <v>42</v>
       </c>
       <c r="AC13" s="1" t="s">
-        <v>96</v>
+        <v>192</v>
       </c>
       <c r="AD13" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:30">
       <c r="A14" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>36</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>103</v>
@@ -2042,7 +2313,7 @@
         <v>60</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>42</v>
@@ -2051,13 +2322,13 @@
         <v>103</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="R14" s="1" t="s">
         <v>47</v>
@@ -2075,81 +2346,81 @@
         <v>47</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="X14" s="1" t="s">
         <v>50</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="Z14" s="1" t="s">
         <v>52</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>206</v>
+        <v>124</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>207</v>
+        <v>54</v>
       </c>
       <c r="AD14" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:30">
       <c r="A15" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>36</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>60</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>42</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>216</v>
+        <v>157</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="R15" s="1" t="s">
         <v>47</v>
@@ -2164,25 +2435,25 @@
         <v>49</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="X15" s="1" t="s">
         <v>50</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="Z15" s="1" t="s">
         <v>52</v>
       </c>
       <c r="AA15" s="1" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c r="AC15" s="1" t="s">
         <v>54</v>
@@ -2191,54 +2462,54 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:30">
       <c r="A16" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>36</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>60</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>42</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="Q16" s="1" t="s">
         <v>92</v>
@@ -2256,25 +2527,25 @@
         <v>49</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="X16" s="1" t="s">
         <v>50</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="Z16" s="1" t="s">
         <v>52</v>
       </c>
       <c r="AA16" s="1" t="s">
-        <v>148</v>
+        <v>223</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>42</v>
+        <v>224</v>
       </c>
       <c r="AC16" s="1" t="s">
         <v>54</v>
@@ -2283,54 +2554,54 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:30">
       <c r="A17" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>231</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>36</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>60</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>42</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="Q17" s="1" t="s">
         <v>92</v>
@@ -2348,25 +2619,25 @@
         <v>49</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="X17" s="1" t="s">
         <v>50</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="Z17" s="1" t="s">
         <v>52</v>
       </c>
       <c r="AA17" s="1" t="s">
-        <v>238</v>
+        <v>112</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>239</v>
+        <v>42</v>
       </c>
       <c r="AC17" s="1" t="s">
         <v>54</v>
@@ -2375,99 +2646,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="T18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="U18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="V18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="W18" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="X18" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y18" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="Z18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA18" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AB18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD18" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
   </sheetData>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/deliveryopenfiber.xlsx
+++ b/deliveryopenfiber.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14283" uniqueCount="2108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15613" uniqueCount="2312">
   <si>
     <t>Codice</t>
   </si>
@@ -6341,6 +6341,618 @@
   </si>
   <si>
     <t>SR_01/05e21/I754_VIA SAVOIA_48</t>
+  </si>
+  <si>
+    <t>DEL1003559519</t>
+  </si>
+  <si>
+    <t>4224696945532985291</t>
+  </si>
+  <si>
+    <t>13/08/2025 12:28</t>
+  </si>
+  <si>
+    <t>GRAZIA FELICE</t>
+  </si>
+  <si>
+    <t>13/08/2025 18:00</t>
+  </si>
+  <si>
+    <t>09/08/2025 14:36</t>
+  </si>
+  <si>
+    <t>TLC_00000000183159</t>
+  </si>
+  <si>
+    <t>19_089_089021_8001076745_1</t>
+  </si>
+  <si>
+    <t>SR_12/01w14-SP_01</t>
+  </si>
+  <si>
+    <t>SR_12/01w14/SR_12/01w14/M279_108</t>
+  </si>
+  <si>
+    <t>DEL1003561279</t>
+  </si>
+  <si>
+    <t>4224696945530038450</t>
+  </si>
+  <si>
+    <t>13/08/2025 11:08</t>
+  </si>
+  <si>
+    <t>MAURIZIO MOTTA</t>
+  </si>
+  <si>
+    <t>13/08/2025 08:30</t>
+  </si>
+  <si>
+    <t>13/08/2025 10:30</t>
+  </si>
+  <si>
+    <t>10/08/2025 13:36</t>
+  </si>
+  <si>
+    <t>ILA_1754504115317</t>
+  </si>
+  <si>
+    <t>19_089_089021_8000967740_23</t>
+  </si>
+  <si>
+    <t>SR_12/01w21/SR_12/01w21/M279_018</t>
+  </si>
+  <si>
+    <t>DEL1003561802</t>
+  </si>
+  <si>
+    <t>4224696945534948777</t>
+  </si>
+  <si>
+    <t>13/08/2025 18:26</t>
+  </si>
+  <si>
+    <t>CAROLINA DI SALVO</t>
+  </si>
+  <si>
+    <t>13/08/2025 11:30</t>
+  </si>
+  <si>
+    <t>13/08/2025 13:30</t>
+  </si>
+  <si>
+    <t>10/08/2025 21:56</t>
+  </si>
+  <si>
+    <t>ILA_1754826304431</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000969270_42D</t>
+  </si>
+  <si>
+    <t>SR_01/ILD_0110</t>
+  </si>
+  <si>
+    <t>SR_01/06w24-SP_10</t>
+  </si>
+  <si>
+    <t>SR_01/06w24/I754_VIA SALVATORE MONTEFORTE_42D_1_D</t>
+  </si>
+  <si>
+    <t>DEL1003563014</t>
+  </si>
+  <si>
+    <t>4224696945534949736</t>
+  </si>
+  <si>
+    <t>13/08/2025 13:48</t>
+  </si>
+  <si>
+    <t>GIANLUCA MUSCETTI</t>
+  </si>
+  <si>
+    <t>11/08/2025 11:36</t>
+  </si>
+  <si>
+    <t>WN_9002079629</t>
+  </si>
+  <si>
+    <t>19_089_089017_8001078352_126/2B</t>
+  </si>
+  <si>
+    <t>SR_01/WIN_0177</t>
+  </si>
+  <si>
+    <t>SR_01/06e34-SP_10</t>
+  </si>
+  <si>
+    <t>SR_01/06e34/I754_VIA GROTTA SANTA_126/2B_1_B</t>
+  </si>
+  <si>
+    <t>DEL1003564222</t>
+  </si>
+  <si>
+    <t>4224696945534952076</t>
+  </si>
+  <si>
+    <t>13/08/2025 13:38</t>
+  </si>
+  <si>
+    <t>NADIR LABIDI</t>
+  </si>
+  <si>
+    <t>11/08/2025 17:46</t>
+  </si>
+  <si>
+    <t>ILA_1754923224404</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000970763_45</t>
+  </si>
+  <si>
+    <t>SR_01/03e33-SP_07</t>
+  </si>
+  <si>
+    <t>SR_01/03e33/I754_VIA PINDARO_45_1</t>
+  </si>
+  <si>
+    <t>DEL1003566232</t>
+  </si>
+  <si>
+    <t>4224696945535863071</t>
+  </si>
+  <si>
+    <t>13/08/2025 16:28</t>
+  </si>
+  <si>
+    <t>DOMENICO PUGLISI</t>
+  </si>
+  <si>
+    <t>12/08/2025 12:26</t>
+  </si>
+  <si>
+    <t>WN_9002080640</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000969302_29</t>
+  </si>
+  <si>
+    <t>SR_01/WIN_0131</t>
+  </si>
+  <si>
+    <t>SR_01/06e22-SP_08</t>
+  </si>
+  <si>
+    <t>SR_01/06e22/I754_VIA DEI SERVI DI MARIA_29_1</t>
+  </si>
+  <si>
+    <t>DEL1003553441</t>
+  </si>
+  <si>
+    <t>4224696945531702136</t>
+  </si>
+  <si>
+    <t>13/08/2025 12:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Odontoiatria La Cittadella s.r</t>
+  </si>
+  <si>
+    <t>07/08/2025 11:36</t>
+  </si>
+  <si>
+    <t>OPI_AP_184670</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000970572_1</t>
+  </si>
+  <si>
+    <t>SR_01/VOD_0086</t>
+  </si>
+  <si>
+    <t>SR_01/01e32-SP_07</t>
+  </si>
+  <si>
+    <t>SR_01/01e32/I754_VIA PAPA STEFANO IV_3_1</t>
+  </si>
+  <si>
+    <t>DEL1003559207</t>
+  </si>
+  <si>
+    <t>4224696945525458511</t>
+  </si>
+  <si>
+    <t>13/08/2025 08:36</t>
+  </si>
+  <si>
+    <t>MATTEO GIONFRIDDO</t>
+  </si>
+  <si>
+    <t>09/08/2025 12:06</t>
+  </si>
+  <si>
+    <t>TLC_00000000180064</t>
+  </si>
+  <si>
+    <t>19_089_089005_8000917199_486</t>
+  </si>
+  <si>
+    <t>SR_11/01e12/SR_11/01e12/B603_131</t>
+  </si>
+  <si>
+    <t>DEL1003563533</t>
+  </si>
+  <si>
+    <t>4224696945534949815</t>
+  </si>
+  <si>
+    <t>13/08/2025 10:38</t>
+  </si>
+  <si>
+    <t>STEFANO ZITO</t>
+  </si>
+  <si>
+    <t>11/08/2025 14:36</t>
+  </si>
+  <si>
+    <t>ENE_00000723943</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000916391_153</t>
+  </si>
+  <si>
+    <t>SR_01/EOF_0010</t>
+  </si>
+  <si>
+    <t>SR_01/03w23-SP_03</t>
+  </si>
+  <si>
+    <t>SR_01/03w23/I754_VIA PIAVE_153_1</t>
+  </si>
+  <si>
+    <t>DEL1003564513</t>
+  </si>
+  <si>
+    <t>4224696945535863242</t>
+  </si>
+  <si>
+    <t>13/08/2025 11:38</t>
+  </si>
+  <si>
+    <t>HELENA MELANI</t>
+  </si>
+  <si>
+    <t>11/08/2025 20:16</t>
+  </si>
+  <si>
+    <t>ILA_1754935205408</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000970266_48</t>
+  </si>
+  <si>
+    <t>SR_01/02e34-SP_07</t>
+  </si>
+  <si>
+    <t>SR_01/02e34/I754_VIA FILIPPO JUVARA_48_1</t>
+  </si>
+  <si>
+    <t>DEL1003565950</t>
+  </si>
+  <si>
+    <t>4224696945535864304</t>
+  </si>
+  <si>
+    <t>13/08/2025 15:48</t>
+  </si>
+  <si>
+    <t>ENRICO SAETTA</t>
+  </si>
+  <si>
+    <t>12/08/2025 11:06</t>
+  </si>
+  <si>
+    <t>ILA_1754988319272</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000970274_23</t>
+  </si>
+  <si>
+    <t>SR_01/03e34-SP_07</t>
+  </si>
+  <si>
+    <t>SR_01/03e34/I754_VIA ESCHILO_23_1</t>
+  </si>
+  <si>
+    <t>DEL1003554679</t>
+  </si>
+  <si>
+    <t>4224696945531704319</t>
+  </si>
+  <si>
+    <t>13/08/2025 10:18</t>
+  </si>
+  <si>
+    <t>serena floridia</t>
+  </si>
+  <si>
+    <t>07/08/2025 18:36</t>
+  </si>
+  <si>
+    <t>OPI_AP_185154</t>
+  </si>
+  <si>
+    <t>19_089_089017_8001224337_3</t>
+  </si>
+  <si>
+    <t>SR_01/07w14-SP_05</t>
+  </si>
+  <si>
+    <t>SR_01/07w14/I754_VIA TEOFANE_3_Sc C_1</t>
+  </si>
+  <si>
+    <t>DEL1003557804</t>
+  </si>
+  <si>
+    <t>4224696945532984286</t>
+  </si>
+  <si>
+    <t>13/08/2025 12:08</t>
+  </si>
+  <si>
+    <t>bianca fiorentino</t>
+  </si>
+  <si>
+    <t>08/08/2025 19:56</t>
+  </si>
+  <si>
+    <t>OPI_AP_185495</t>
+  </si>
+  <si>
+    <t>19_089_089017_8001003866_35</t>
+  </si>
+  <si>
+    <t>SR_01/01e41-SP_05</t>
+  </si>
+  <si>
+    <t>SR_01/01e41/I754_VICOLO AI TELEFONI_35_1</t>
+  </si>
+  <si>
+    <t>DEL1003562841</t>
+  </si>
+  <si>
+    <t>4224696945534949525</t>
+  </si>
+  <si>
+    <t>13/08/2025 16:18</t>
+  </si>
+  <si>
+    <t>MARIA COLETTA</t>
+  </si>
+  <si>
+    <t>11/08/2025 10:46</t>
+  </si>
+  <si>
+    <t>FO0003984076001</t>
+  </si>
+  <si>
+    <t>19_089_089017_8001376585_28A</t>
+  </si>
+  <si>
+    <t>SR_01/06w43/I754_VIA LUIGI CASSIA_28A_1_A</t>
+  </si>
+  <si>
+    <t>DEL1003567072</t>
+  </si>
+  <si>
+    <t>4224696945535865664</t>
+  </si>
+  <si>
+    <t>13/08/2025 15:38</t>
+  </si>
+  <si>
+    <t>ROSARIA RITA AMATO</t>
+  </si>
+  <si>
+    <t>12/08/2025 17:26</t>
+  </si>
+  <si>
+    <t>ILA_1755011123095</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000970358_42</t>
+  </si>
+  <si>
+    <t>SR_01/ILD_0100</t>
+  </si>
+  <si>
+    <t>SR_01/02w24-SP_11</t>
+  </si>
+  <si>
+    <t>SR_01/02w24/I754_VIA ITALIA_42_1</t>
+  </si>
+  <si>
+    <t>DEL1003526701</t>
+  </si>
+  <si>
+    <t>4224696945515145003</t>
+  </si>
+  <si>
+    <t>Michelangelo Scire</t>
+  </si>
+  <si>
+    <t>ARU_173969454</t>
+  </si>
+  <si>
+    <t>19_089_089013_8001443715_53</t>
+  </si>
+  <si>
+    <t>F943_CNO6/F943_160</t>
+  </si>
+  <si>
+    <t>DEL1003556311</t>
+  </si>
+  <si>
+    <t>4224696945531705674</t>
+  </si>
+  <si>
+    <t>13/08/2025 09:58</t>
+  </si>
+  <si>
+    <t>DANILO PENNUTO</t>
+  </si>
+  <si>
+    <t>08/08/2025 11:06</t>
+  </si>
+  <si>
+    <t>ILA_1754328305936</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000916203_19</t>
+  </si>
+  <si>
+    <t>SR_01/ILD_0008</t>
+  </si>
+  <si>
+    <t>SR_01/02w43-SP_06</t>
+  </si>
+  <si>
+    <t>SR_01/02w43/I754_VIA EUROPA_19_1</t>
+  </si>
+  <si>
+    <t>DEL1003562845</t>
+  </si>
+  <si>
+    <t>4224696945534949100</t>
+  </si>
+  <si>
+    <t>Cinzia Ciresi</t>
+  </si>
+  <si>
+    <t>OPI_3724844</t>
+  </si>
+  <si>
+    <t>19_089_089017_8001376585_67</t>
+  </si>
+  <si>
+    <t>SR_01/VOD_0096</t>
+  </si>
+  <si>
+    <t>SR_01/06w41-SP_08</t>
+  </si>
+  <si>
+    <t>SR_01/06w41/I754_VIA LUIGI CASSIA_67_1</t>
+  </si>
+  <si>
+    <t>DEL1003562911</t>
+  </si>
+  <si>
+    <t>4224696945534949381</t>
+  </si>
+  <si>
+    <t>13/08/2025 08:38</t>
+  </si>
+  <si>
+    <t>MASSIMILIANO SCIRPA</t>
+  </si>
+  <si>
+    <t>11/08/2025 11:06</t>
+  </si>
+  <si>
+    <t>OPI_3725613</t>
+  </si>
+  <si>
+    <t>19_089_089017_8001005529_11</t>
+  </si>
+  <si>
+    <t>SR_01/VOD_0009</t>
+  </si>
+  <si>
+    <t>SR_01/03w14-SP_02</t>
+  </si>
+  <si>
+    <t>SR_01/03w14/I754_VIALE TEOCRITO_11_C_1</t>
+  </si>
+  <si>
+    <t>DEL1003563370</t>
+  </si>
+  <si>
+    <t>4224696945534950005</t>
+  </si>
+  <si>
+    <t>13/08/2025 11:18</t>
+  </si>
+  <si>
+    <t>ALESSANDRO DIARA</t>
+  </si>
+  <si>
+    <t>11/08/2025 13:36</t>
+  </si>
+  <si>
+    <t>ENE_00000724010</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000970256_8</t>
+  </si>
+  <si>
+    <t>SR_01/02w42-SP_09</t>
+  </si>
+  <si>
+    <t>SR_01/02w42/I754_VIA BARTOLOMEO CANNIZZO_8_1</t>
+  </si>
+  <si>
+    <t>DEL1003564528</t>
+  </si>
+  <si>
+    <t>4224696945535862830</t>
+  </si>
+  <si>
+    <t>13/08/2025 09:38</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LO CARMINE GIUSEPPE</t>
+  </si>
+  <si>
+    <t>OPI_3725959</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000970113_55</t>
+  </si>
+  <si>
+    <t>SR_01/VOD_0060</t>
+  </si>
+  <si>
+    <t>SR_01/06e24-SP_05</t>
+  </si>
+  <si>
+    <t>SR_01/06e24/I754_VIA ALCIBIADE_55_1_B</t>
+  </si>
+  <si>
+    <t>DEL1003566034</t>
+  </si>
+  <si>
+    <t>4224696945535864377</t>
+  </si>
+  <si>
+    <t>ENRICO CUCCI</t>
+  </si>
+  <si>
+    <t>12/08/2025 11:26</t>
+  </si>
+  <si>
+    <t>DA08796939</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000970265_142_1_B</t>
+  </si>
+  <si>
+    <t>SR_01/EOF_0100</t>
+  </si>
+  <si>
+    <t>SR_01/06e23-SP_10</t>
+  </si>
+  <si>
+    <t>SR_01/06e23/I754_VIA FILISTO_142_1_B_1</t>
   </si>
 </sst>
 </file>
@@ -6671,10 +7283,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI409"/>
+  <dimension ref="A1:AI447"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A346" workbookViewId="0">
-      <selection activeCell="A370" sqref="A370"/>
+    <sheetView tabSelected="1" topLeftCell="A383" workbookViewId="0">
+      <selection activeCell="E408" sqref="E408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -50353,6 +50965,4072 @@
         <v>57</v>
       </c>
     </row>
+    <row r="410" spans="1:35">
+      <c r="A410" s="1" t="s">
+        <v>2108</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>2109</v>
+      </c>
+      <c r="C410" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D410" s="1" t="s">
+        <v>2110</v>
+      </c>
+      <c r="E410" s="1" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F410" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G410" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H410" s="1" t="s">
+        <v>2111</v>
+      </c>
+      <c r="I410" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J410" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="K410" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L410" s="1" t="s">
+        <v>2112</v>
+      </c>
+      <c r="M410" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N410" s="1" t="s">
+        <v>2113</v>
+      </c>
+      <c r="O410" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P410" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q410" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R410" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S410" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="T410" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U410" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V410" s="1" t="s">
+        <v>2114</v>
+      </c>
+      <c r="W410" s="1" t="s">
+        <v>2109</v>
+      </c>
+      <c r="X410" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y410" s="1" t="s">
+        <v>2115</v>
+      </c>
+      <c r="Z410" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA410" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB410" s="1" t="s">
+        <v>2116</v>
+      </c>
+      <c r="AC410" s="1" t="s">
+        <v>2117</v>
+      </c>
+      <c r="AD410" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE410" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF410" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG410" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH410" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI410" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="411" spans="1:35">
+      <c r="A411" s="1" t="s">
+        <v>2118</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>2119</v>
+      </c>
+      <c r="C411" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D411" s="1" t="s">
+        <v>2120</v>
+      </c>
+      <c r="E411" s="1" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F411" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G411" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H411" s="1" t="s">
+        <v>2121</v>
+      </c>
+      <c r="I411" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J411" s="1" t="s">
+        <v>2122</v>
+      </c>
+      <c r="K411" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L411" s="1" t="s">
+        <v>2123</v>
+      </c>
+      <c r="M411" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N411" s="1" t="s">
+        <v>2124</v>
+      </c>
+      <c r="O411" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P411" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q411" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R411" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S411" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="T411" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U411" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V411" s="1" t="s">
+        <v>2125</v>
+      </c>
+      <c r="W411" s="1" t="s">
+        <v>2119</v>
+      </c>
+      <c r="X411" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y411" s="1" t="s">
+        <v>2126</v>
+      </c>
+      <c r="Z411" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA411" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="AB411" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="AC411" s="1" t="s">
+        <v>2127</v>
+      </c>
+      <c r="AD411" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE411" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF411" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG411" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH411" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI411" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="412" spans="1:35">
+      <c r="A412" s="1" t="s">
+        <v>2128</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>2129</v>
+      </c>
+      <c r="C412" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D412" s="1" t="s">
+        <v>2130</v>
+      </c>
+      <c r="E412" s="1" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F412" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G412" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H412" s="1" t="s">
+        <v>2131</v>
+      </c>
+      <c r="I412" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J412" s="1" t="s">
+        <v>2132</v>
+      </c>
+      <c r="K412" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L412" s="1" t="s">
+        <v>2133</v>
+      </c>
+      <c r="M412" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N412" s="1" t="s">
+        <v>2134</v>
+      </c>
+      <c r="O412" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P412" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q412" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R412" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S412" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T412" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U412" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V412" s="1" t="s">
+        <v>2135</v>
+      </c>
+      <c r="W412" s="1" t="s">
+        <v>2129</v>
+      </c>
+      <c r="X412" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y412" s="1" t="s">
+        <v>2136</v>
+      </c>
+      <c r="Z412" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA412" s="1" t="s">
+        <v>2137</v>
+      </c>
+      <c r="AB412" s="1" t="s">
+        <v>2138</v>
+      </c>
+      <c r="AC412" s="1" t="s">
+        <v>2139</v>
+      </c>
+      <c r="AD412" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE412" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF412" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG412" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH412" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI412" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="413" spans="1:35">
+      <c r="A413" s="1" t="s">
+        <v>2140</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>2141</v>
+      </c>
+      <c r="C413" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D413" s="1" t="s">
+        <v>2142</v>
+      </c>
+      <c r="E413" s="1" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F413" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G413" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H413" s="1" t="s">
+        <v>2143</v>
+      </c>
+      <c r="I413" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J413" s="1" t="s">
+        <v>2132</v>
+      </c>
+      <c r="K413" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L413" s="1" t="s">
+        <v>2133</v>
+      </c>
+      <c r="M413" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N413" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="O413" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P413" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q413" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R413" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S413" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T413" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U413" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V413" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="W413" s="1" t="s">
+        <v>2141</v>
+      </c>
+      <c r="X413" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y413" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="Z413" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA413" s="1" t="s">
+        <v>2147</v>
+      </c>
+      <c r="AB413" s="1" t="s">
+        <v>2148</v>
+      </c>
+      <c r="AC413" s="1" t="s">
+        <v>2149</v>
+      </c>
+      <c r="AD413" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE413" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF413" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG413" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH413" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI413" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="414" spans="1:35">
+      <c r="A414" s="1" t="s">
+        <v>2150</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="C414" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D414" s="1" t="s">
+        <v>2152</v>
+      </c>
+      <c r="E414" s="1" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F414" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G414" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H414" s="1" t="s">
+        <v>2153</v>
+      </c>
+      <c r="I414" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J414" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="K414" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L414" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="M414" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N414" s="1" t="s">
+        <v>2154</v>
+      </c>
+      <c r="O414" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P414" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q414" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R414" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S414" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T414" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U414" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V414" s="1" t="s">
+        <v>2155</v>
+      </c>
+      <c r="W414" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="X414" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y414" s="1" t="s">
+        <v>2156</v>
+      </c>
+      <c r="Z414" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA414" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="AB414" s="1" t="s">
+        <v>2157</v>
+      </c>
+      <c r="AC414" s="1" t="s">
+        <v>2158</v>
+      </c>
+      <c r="AD414" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE414" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF414" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG414" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH414" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI414" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="415" spans="1:35">
+      <c r="A415" s="1" t="s">
+        <v>2159</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>2160</v>
+      </c>
+      <c r="C415" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D415" s="1" t="s">
+        <v>2161</v>
+      </c>
+      <c r="E415" s="1" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F415" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G415" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H415" s="1" t="s">
+        <v>2162</v>
+      </c>
+      <c r="I415" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J415" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="K415" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L415" s="1" t="s">
+        <v>2112</v>
+      </c>
+      <c r="M415" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N415" s="1" t="s">
+        <v>2163</v>
+      </c>
+      <c r="O415" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P415" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q415" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R415" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S415" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T415" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U415" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V415" s="1" t="s">
+        <v>2164</v>
+      </c>
+      <c r="W415" s="1" t="s">
+        <v>2160</v>
+      </c>
+      <c r="X415" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y415" s="1" t="s">
+        <v>2165</v>
+      </c>
+      <c r="Z415" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA415" s="1" t="s">
+        <v>2166</v>
+      </c>
+      <c r="AB415" s="1" t="s">
+        <v>2167</v>
+      </c>
+      <c r="AC415" s="1" t="s">
+        <v>2168</v>
+      </c>
+      <c r="AD415" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE415" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF415" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG415" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH415" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI415" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="416" spans="1:35">
+      <c r="A416" s="1" t="s">
+        <v>2169</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>2170</v>
+      </c>
+      <c r="C416" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D416" s="1" t="s">
+        <v>2171</v>
+      </c>
+      <c r="E416" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F416" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G416" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H416" s="1" t="s">
+        <v>2172</v>
+      </c>
+      <c r="I416" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J416" s="1" t="s">
+        <v>2132</v>
+      </c>
+      <c r="K416" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L416" s="1" t="s">
+        <v>2133</v>
+      </c>
+      <c r="M416" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N416" s="1" t="s">
+        <v>2173</v>
+      </c>
+      <c r="O416" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P416" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q416" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R416" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S416" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T416" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U416" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V416" s="1" t="s">
+        <v>2174</v>
+      </c>
+      <c r="W416" s="1" t="s">
+        <v>2170</v>
+      </c>
+      <c r="X416" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y416" s="1" t="s">
+        <v>2175</v>
+      </c>
+      <c r="Z416" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA416" s="1" t="s">
+        <v>2176</v>
+      </c>
+      <c r="AB416" s="1" t="s">
+        <v>2177</v>
+      </c>
+      <c r="AC416" s="1" t="s">
+        <v>2178</v>
+      </c>
+      <c r="AD416" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE416" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF416" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG416" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH416" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI416" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="417" spans="1:35">
+      <c r="A417" s="1" t="s">
+        <v>2179</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>2180</v>
+      </c>
+      <c r="C417" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D417" s="1" t="s">
+        <v>2181</v>
+      </c>
+      <c r="E417" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F417" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G417" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H417" s="1" t="s">
+        <v>2182</v>
+      </c>
+      <c r="I417" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J417" s="1" t="s">
+        <v>2122</v>
+      </c>
+      <c r="K417" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L417" s="1" t="s">
+        <v>2123</v>
+      </c>
+      <c r="M417" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N417" s="1" t="s">
+        <v>2183</v>
+      </c>
+      <c r="O417" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P417" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q417" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R417" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S417" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="T417" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U417" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V417" s="1" t="s">
+        <v>2184</v>
+      </c>
+      <c r="W417" s="1" t="s">
+        <v>2180</v>
+      </c>
+      <c r="X417" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="Y417" s="1" t="s">
+        <v>2185</v>
+      </c>
+      <c r="Z417" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA417" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="AB417" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="AC417" s="1" t="s">
+        <v>2186</v>
+      </c>
+      <c r="AD417" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE417" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF417" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG417" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH417" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI417" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="418" spans="1:35">
+      <c r="A418" s="1" t="s">
+        <v>2187</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>2188</v>
+      </c>
+      <c r="C418" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D418" s="1" t="s">
+        <v>2189</v>
+      </c>
+      <c r="E418" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F418" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G418" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H418" s="1" t="s">
+        <v>2190</v>
+      </c>
+      <c r="I418" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J418" s="1" t="s">
+        <v>2122</v>
+      </c>
+      <c r="K418" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L418" s="1" t="s">
+        <v>2123</v>
+      </c>
+      <c r="M418" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N418" s="1" t="s">
+        <v>2191</v>
+      </c>
+      <c r="O418" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P418" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q418" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R418" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S418" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T418" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U418" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V418" s="1" t="s">
+        <v>2192</v>
+      </c>
+      <c r="W418" s="1" t="s">
+        <v>2188</v>
+      </c>
+      <c r="X418" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y418" s="1" t="s">
+        <v>2193</v>
+      </c>
+      <c r="Z418" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA418" s="1" t="s">
+        <v>2194</v>
+      </c>
+      <c r="AB418" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="AC418" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="AD418" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AE418" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF418" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG418" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH418" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI418" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="419" spans="1:35">
+      <c r="A419" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>2198</v>
+      </c>
+      <c r="C419" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D419" s="1" t="s">
+        <v>2199</v>
+      </c>
+      <c r="E419" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F419" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G419" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H419" s="1" t="s">
+        <v>2200</v>
+      </c>
+      <c r="I419" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J419" s="1" t="s">
+        <v>2132</v>
+      </c>
+      <c r="K419" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L419" s="1" t="s">
+        <v>2133</v>
+      </c>
+      <c r="M419" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N419" s="1" t="s">
+        <v>2201</v>
+      </c>
+      <c r="O419" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P419" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q419" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R419" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S419" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T419" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U419" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V419" s="1" t="s">
+        <v>2202</v>
+      </c>
+      <c r="W419" s="1" t="s">
+        <v>2198</v>
+      </c>
+      <c r="X419" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y419" s="1" t="s">
+        <v>2203</v>
+      </c>
+      <c r="Z419" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA419" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="AB419" s="1" t="s">
+        <v>2204</v>
+      </c>
+      <c r="AC419" s="1" t="s">
+        <v>2205</v>
+      </c>
+      <c r="AD419" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE419" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF419" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG419" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH419" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI419" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="420" spans="1:35">
+      <c r="A420" s="1" t="s">
+        <v>2206</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>2207</v>
+      </c>
+      <c r="C420" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D420" s="1" t="s">
+        <v>2208</v>
+      </c>
+      <c r="E420" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F420" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G420" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H420" s="1" t="s">
+        <v>2209</v>
+      </c>
+      <c r="I420" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J420" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="K420" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L420" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="M420" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N420" s="1" t="s">
+        <v>2210</v>
+      </c>
+      <c r="O420" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P420" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q420" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R420" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S420" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T420" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U420" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V420" s="1" t="s">
+        <v>2211</v>
+      </c>
+      <c r="W420" s="1" t="s">
+        <v>2207</v>
+      </c>
+      <c r="X420" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y420" s="1" t="s">
+        <v>2212</v>
+      </c>
+      <c r="Z420" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA420" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="AB420" s="1" t="s">
+        <v>2213</v>
+      </c>
+      <c r="AC420" s="1" t="s">
+        <v>2214</v>
+      </c>
+      <c r="AD420" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE420" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF420" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG420" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH420" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI420" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="421" spans="1:35">
+      <c r="A421" s="1" t="s">
+        <v>2215</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>2216</v>
+      </c>
+      <c r="C421" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D421" s="1" t="s">
+        <v>2217</v>
+      </c>
+      <c r="E421" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F421" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G421" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H421" s="1" t="s">
+        <v>2218</v>
+      </c>
+      <c r="I421" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J421" s="1" t="s">
+        <v>2122</v>
+      </c>
+      <c r="K421" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L421" s="1" t="s">
+        <v>2123</v>
+      </c>
+      <c r="M421" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N421" s="1" t="s">
+        <v>2219</v>
+      </c>
+      <c r="O421" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P421" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q421" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R421" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S421" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T421" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U421" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V421" s="1" t="s">
+        <v>2220</v>
+      </c>
+      <c r="W421" s="1" t="s">
+        <v>2216</v>
+      </c>
+      <c r="X421" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y421" s="1" t="s">
+        <v>2221</v>
+      </c>
+      <c r="Z421" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA421" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="AB421" s="1" t="s">
+        <v>2222</v>
+      </c>
+      <c r="AC421" s="1" t="s">
+        <v>2223</v>
+      </c>
+      <c r="AD421" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE421" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF421" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG421" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH421" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI421" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="422" spans="1:35">
+      <c r="A422" s="1" t="s">
+        <v>2224</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="C422" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D422" s="1" t="s">
+        <v>2226</v>
+      </c>
+      <c r="E422" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F422" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G422" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H422" s="1" t="s">
+        <v>2227</v>
+      </c>
+      <c r="I422" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J422" s="1" t="s">
+        <v>2122</v>
+      </c>
+      <c r="K422" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L422" s="1" t="s">
+        <v>2123</v>
+      </c>
+      <c r="M422" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N422" s="1" t="s">
+        <v>2228</v>
+      </c>
+      <c r="O422" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P422" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q422" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R422" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S422" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T422" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U422" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V422" s="1" t="s">
+        <v>2229</v>
+      </c>
+      <c r="W422" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="X422" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y422" s="1" t="s">
+        <v>2230</v>
+      </c>
+      <c r="Z422" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA422" s="1" t="s">
+        <v>1372</v>
+      </c>
+      <c r="AB422" s="1" t="s">
+        <v>2231</v>
+      </c>
+      <c r="AC422" s="1" t="s">
+        <v>2232</v>
+      </c>
+      <c r="AD422" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE422" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF422" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG422" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH422" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI422" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="423" spans="1:35">
+      <c r="A423" s="1" t="s">
+        <v>2233</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>2234</v>
+      </c>
+      <c r="C423" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D423" s="1" t="s">
+        <v>2235</v>
+      </c>
+      <c r="E423" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F423" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G423" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H423" s="1" t="s">
+        <v>2236</v>
+      </c>
+      <c r="I423" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J423" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="K423" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L423" s="1" t="s">
+        <v>2112</v>
+      </c>
+      <c r="M423" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N423" s="1" t="s">
+        <v>2237</v>
+      </c>
+      <c r="O423" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P423" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q423" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R423" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S423" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T423" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U423" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V423" s="1" t="s">
+        <v>2238</v>
+      </c>
+      <c r="W423" s="1" t="s">
+        <v>2234</v>
+      </c>
+      <c r="X423" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y423" s="1" t="s">
+        <v>2239</v>
+      </c>
+      <c r="Z423" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA423" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="AB423" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="AC423" s="1" t="s">
+        <v>2240</v>
+      </c>
+      <c r="AD423" s="1" t="s">
+        <v>1360</v>
+      </c>
+      <c r="AE423" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF423" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG423" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH423" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI423" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="424" spans="1:35">
+      <c r="A424" s="1" t="s">
+        <v>2241</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>2242</v>
+      </c>
+      <c r="C424" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D424" s="1" t="s">
+        <v>2243</v>
+      </c>
+      <c r="E424" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F424" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G424" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H424" s="1" t="s">
+        <v>2244</v>
+      </c>
+      <c r="I424" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J424" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="K424" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L424" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="M424" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N424" s="1" t="s">
+        <v>2245</v>
+      </c>
+      <c r="O424" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P424" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q424" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R424" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S424" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T424" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U424" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V424" s="1" t="s">
+        <v>2246</v>
+      </c>
+      <c r="W424" s="1" t="s">
+        <v>2242</v>
+      </c>
+      <c r="X424" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y424" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="Z424" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA424" s="1" t="s">
+        <v>2248</v>
+      </c>
+      <c r="AB424" s="1" t="s">
+        <v>2249</v>
+      </c>
+      <c r="AC424" s="1" t="s">
+        <v>2250</v>
+      </c>
+      <c r="AD424" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE424" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF424" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG424" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH424" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI424" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="425" spans="1:35">
+      <c r="A425" s="1" t="s">
+        <v>2251</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>2252</v>
+      </c>
+      <c r="C425" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D425" s="1" t="s">
+        <v>2217</v>
+      </c>
+      <c r="E425" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F425" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G425" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H425" s="1" t="s">
+        <v>2253</v>
+      </c>
+      <c r="I425" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J425" s="1" t="s">
+        <v>2122</v>
+      </c>
+      <c r="K425" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="L425" s="1" t="s">
+        <v>2123</v>
+      </c>
+      <c r="M425" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N425" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="O425" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P425" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q425" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R425" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S425" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="T425" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U425" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="V425" s="1" t="s">
+        <v>2254</v>
+      </c>
+      <c r="W425" s="1" t="s">
+        <v>2252</v>
+      </c>
+      <c r="X425" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y425" s="1" t="s">
+        <v>2255</v>
+      </c>
+      <c r="Z425" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA425" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="AB425" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="AC425" s="1" t="s">
+        <v>2256</v>
+      </c>
+      <c r="AD425" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="AE425" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF425" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG425" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH425" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI425" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="426" spans="1:35">
+      <c r="A426" s="1" t="s">
+        <v>2257</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>2258</v>
+      </c>
+      <c r="C426" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D426" s="1" t="s">
+        <v>2259</v>
+      </c>
+      <c r="E426" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F426" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G426" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H426" s="1" t="s">
+        <v>2260</v>
+      </c>
+      <c r="I426" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J426" s="1" t="s">
+        <v>2122</v>
+      </c>
+      <c r="K426" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L426" s="1" t="s">
+        <v>2123</v>
+      </c>
+      <c r="M426" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N426" s="1" t="s">
+        <v>2261</v>
+      </c>
+      <c r="O426" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P426" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q426" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R426" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S426" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T426" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U426" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V426" s="1" t="s">
+        <v>2262</v>
+      </c>
+      <c r="W426" s="1" t="s">
+        <v>2258</v>
+      </c>
+      <c r="X426" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y426" s="1" t="s">
+        <v>2263</v>
+      </c>
+      <c r="Z426" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA426" s="1" t="s">
+        <v>2264</v>
+      </c>
+      <c r="AB426" s="1" t="s">
+        <v>2265</v>
+      </c>
+      <c r="AC426" s="1" t="s">
+        <v>2266</v>
+      </c>
+      <c r="AD426" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE426" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF426" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG426" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH426" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI426" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="427" spans="1:35">
+      <c r="A427" s="1" t="s">
+        <v>2267</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>2268</v>
+      </c>
+      <c r="C427" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D427" s="1" t="s">
+        <v>2226</v>
+      </c>
+      <c r="E427" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F427" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G427" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H427" s="1" t="s">
+        <v>2269</v>
+      </c>
+      <c r="I427" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J427" s="1" t="s">
+        <v>2132</v>
+      </c>
+      <c r="K427" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L427" s="1" t="s">
+        <v>2133</v>
+      </c>
+      <c r="M427" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N427" s="1" t="s">
+        <v>2237</v>
+      </c>
+      <c r="O427" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P427" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q427" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R427" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S427" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T427" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U427" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V427" s="1" t="s">
+        <v>2270</v>
+      </c>
+      <c r="W427" s="1" t="s">
+        <v>2268</v>
+      </c>
+      <c r="X427" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y427" s="1" t="s">
+        <v>2271</v>
+      </c>
+      <c r="Z427" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA427" s="1" t="s">
+        <v>2272</v>
+      </c>
+      <c r="AB427" s="1" t="s">
+        <v>2273</v>
+      </c>
+      <c r="AC427" s="1" t="s">
+        <v>2274</v>
+      </c>
+      <c r="AD427" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE427" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF427" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG427" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH427" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI427" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="428" spans="1:35">
+      <c r="A428" s="1" t="s">
+        <v>2275</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>2276</v>
+      </c>
+      <c r="C428" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D428" s="1" t="s">
+        <v>2277</v>
+      </c>
+      <c r="E428" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F428" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G428" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H428" s="1" t="s">
+        <v>2278</v>
+      </c>
+      <c r="I428" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J428" s="1" t="s">
+        <v>2122</v>
+      </c>
+      <c r="K428" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L428" s="1" t="s">
+        <v>2123</v>
+      </c>
+      <c r="M428" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N428" s="1" t="s">
+        <v>2279</v>
+      </c>
+      <c r="O428" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P428" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q428" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R428" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S428" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T428" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U428" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V428" s="1" t="s">
+        <v>2280</v>
+      </c>
+      <c r="W428" s="1" t="s">
+        <v>2276</v>
+      </c>
+      <c r="X428" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y428" s="1" t="s">
+        <v>2281</v>
+      </c>
+      <c r="Z428" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA428" s="1" t="s">
+        <v>2282</v>
+      </c>
+      <c r="AB428" s="1" t="s">
+        <v>2283</v>
+      </c>
+      <c r="AC428" s="1" t="s">
+        <v>2284</v>
+      </c>
+      <c r="AD428" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE428" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF428" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG428" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH428" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI428" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="429" spans="1:35">
+      <c r="A429" s="1" t="s">
+        <v>2285</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>2286</v>
+      </c>
+      <c r="C429" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D429" s="1" t="s">
+        <v>2287</v>
+      </c>
+      <c r="E429" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F429" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G429" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H429" s="1" t="s">
+        <v>2288</v>
+      </c>
+      <c r="I429" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J429" s="1" t="s">
+        <v>2132</v>
+      </c>
+      <c r="K429" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L429" s="1" t="s">
+        <v>2133</v>
+      </c>
+      <c r="M429" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N429" s="1" t="s">
+        <v>2289</v>
+      </c>
+      <c r="O429" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P429" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q429" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R429" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S429" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T429" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U429" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V429" s="1" t="s">
+        <v>2290</v>
+      </c>
+      <c r="W429" s="1" t="s">
+        <v>2286</v>
+      </c>
+      <c r="X429" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y429" s="1" t="s">
+        <v>2291</v>
+      </c>
+      <c r="Z429" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA429" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="AB429" s="1" t="s">
+        <v>2292</v>
+      </c>
+      <c r="AC429" s="1" t="s">
+        <v>2293</v>
+      </c>
+      <c r="AD429" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AE429" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF429" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG429" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH429" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI429" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="430" spans="1:35">
+      <c r="A430" s="1" t="s">
+        <v>2294</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>2295</v>
+      </c>
+      <c r="C430" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D430" s="1" t="s">
+        <v>2296</v>
+      </c>
+      <c r="E430" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F430" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G430" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H430" s="1" t="s">
+        <v>2297</v>
+      </c>
+      <c r="I430" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J430" s="1" t="s">
+        <v>2122</v>
+      </c>
+      <c r="K430" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L430" s="1" t="s">
+        <v>2123</v>
+      </c>
+      <c r="M430" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N430" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="O430" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P430" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q430" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R430" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S430" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T430" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U430" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V430" s="1" t="s">
+        <v>2298</v>
+      </c>
+      <c r="W430" s="1" t="s">
+        <v>2295</v>
+      </c>
+      <c r="X430" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y430" s="1" t="s">
+        <v>2299</v>
+      </c>
+      <c r="Z430" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA430" s="1" t="s">
+        <v>2300</v>
+      </c>
+      <c r="AB430" s="1" t="s">
+        <v>2301</v>
+      </c>
+      <c r="AC430" s="1" t="s">
+        <v>2302</v>
+      </c>
+      <c r="AD430" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE430" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF430" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG430" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH430" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI430" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="431" spans="1:35">
+      <c r="A431" s="1" t="s">
+        <v>2303</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>2304</v>
+      </c>
+      <c r="C431" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D431" s="1" t="s">
+        <v>2243</v>
+      </c>
+      <c r="E431" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F431" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G431" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H431" s="1" t="s">
+        <v>2305</v>
+      </c>
+      <c r="I431" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J431" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="K431" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L431" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="M431" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N431" s="1" t="s">
+        <v>2306</v>
+      </c>
+      <c r="O431" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P431" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q431" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R431" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S431" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T431" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U431" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V431" s="1" t="s">
+        <v>2307</v>
+      </c>
+      <c r="W431" s="1" t="s">
+        <v>2304</v>
+      </c>
+      <c r="X431" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y431" s="1" t="s">
+        <v>2308</v>
+      </c>
+      <c r="Z431" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA431" s="1" t="s">
+        <v>2309</v>
+      </c>
+      <c r="AB431" s="1" t="s">
+        <v>2310</v>
+      </c>
+      <c r="AC431" s="1" t="s">
+        <v>2311</v>
+      </c>
+      <c r="AD431" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="AE431" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF431" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG431" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH431" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI431" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="432" spans="1:35">
+      <c r="A432" s="1" t="s">
+        <v>2108</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>2109</v>
+      </c>
+      <c r="C432" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D432" s="1" t="s">
+        <v>2110</v>
+      </c>
+      <c r="E432" s="1" t="s">
+        <v>1900</v>
+      </c>
+      <c r="F432" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G432" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H432" s="1" t="s">
+        <v>2111</v>
+      </c>
+      <c r="I432" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J432" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="K432" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L432" s="1" t="s">
+        <v>2112</v>
+      </c>
+      <c r="M432" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N432" s="1" t="s">
+        <v>2113</v>
+      </c>
+      <c r="O432" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P432" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q432" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R432" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S432" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="T432" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U432" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V432" s="1" t="s">
+        <v>2114</v>
+      </c>
+      <c r="W432" s="1" t="s">
+        <v>2109</v>
+      </c>
+      <c r="X432" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y432" s="1" t="s">
+        <v>2115</v>
+      </c>
+      <c r="Z432" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA432" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB432" s="1" t="s">
+        <v>2116</v>
+      </c>
+      <c r="AC432" s="1" t="s">
+        <v>2117</v>
+      </c>
+      <c r="AD432" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE432" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF432" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG432" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH432" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI432" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="433" spans="1:35">
+      <c r="A433" s="1" t="s">
+        <v>2118</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>2119</v>
+      </c>
+      <c r="C433" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D433" s="1" t="s">
+        <v>2120</v>
+      </c>
+      <c r="E433" s="1" t="s">
+        <v>1900</v>
+      </c>
+      <c r="F433" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G433" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H433" s="1" t="s">
+        <v>2121</v>
+      </c>
+      <c r="I433" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J433" s="1" t="s">
+        <v>2122</v>
+      </c>
+      <c r="K433" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L433" s="1" t="s">
+        <v>2123</v>
+      </c>
+      <c r="M433" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N433" s="1" t="s">
+        <v>2124</v>
+      </c>
+      <c r="O433" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P433" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q433" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R433" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S433" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="T433" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U433" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V433" s="1" t="s">
+        <v>2125</v>
+      </c>
+      <c r="W433" s="1" t="s">
+        <v>2119</v>
+      </c>
+      <c r="X433" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y433" s="1" t="s">
+        <v>2126</v>
+      </c>
+      <c r="Z433" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA433" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="AB433" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="AC433" s="1" t="s">
+        <v>2127</v>
+      </c>
+      <c r="AD433" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE433" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF433" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG433" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH433" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI433" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="434" spans="1:35">
+      <c r="A434" s="1" t="s">
+        <v>2128</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>2129</v>
+      </c>
+      <c r="C434" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D434" s="1" t="s">
+        <v>2130</v>
+      </c>
+      <c r="E434" s="1" t="s">
+        <v>1900</v>
+      </c>
+      <c r="F434" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G434" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H434" s="1" t="s">
+        <v>2131</v>
+      </c>
+      <c r="I434" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J434" s="1" t="s">
+        <v>2132</v>
+      </c>
+      <c r="K434" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L434" s="1" t="s">
+        <v>2133</v>
+      </c>
+      <c r="M434" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N434" s="1" t="s">
+        <v>2134</v>
+      </c>
+      <c r="O434" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P434" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q434" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R434" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S434" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T434" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U434" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V434" s="1" t="s">
+        <v>2135</v>
+      </c>
+      <c r="W434" s="1" t="s">
+        <v>2129</v>
+      </c>
+      <c r="X434" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y434" s="1" t="s">
+        <v>2136</v>
+      </c>
+      <c r="Z434" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA434" s="1" t="s">
+        <v>2137</v>
+      </c>
+      <c r="AB434" s="1" t="s">
+        <v>2138</v>
+      </c>
+      <c r="AC434" s="1" t="s">
+        <v>2139</v>
+      </c>
+      <c r="AD434" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE434" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF434" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG434" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH434" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI434" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="435" spans="1:35">
+      <c r="A435" s="1" t="s">
+        <v>2140</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>2141</v>
+      </c>
+      <c r="C435" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D435" s="1" t="s">
+        <v>2142</v>
+      </c>
+      <c r="E435" s="1" t="s">
+        <v>1900</v>
+      </c>
+      <c r="F435" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G435" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H435" s="1" t="s">
+        <v>2143</v>
+      </c>
+      <c r="I435" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J435" s="1" t="s">
+        <v>2132</v>
+      </c>
+      <c r="K435" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L435" s="1" t="s">
+        <v>2133</v>
+      </c>
+      <c r="M435" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N435" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="O435" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P435" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q435" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R435" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S435" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T435" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U435" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V435" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="W435" s="1" t="s">
+        <v>2141</v>
+      </c>
+      <c r="X435" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y435" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="Z435" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA435" s="1" t="s">
+        <v>2147</v>
+      </c>
+      <c r="AB435" s="1" t="s">
+        <v>2148</v>
+      </c>
+      <c r="AC435" s="1" t="s">
+        <v>2149</v>
+      </c>
+      <c r="AD435" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE435" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF435" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG435" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH435" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI435" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="436" spans="1:35">
+      <c r="A436" s="1" t="s">
+        <v>2150</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="C436" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D436" s="1" t="s">
+        <v>2152</v>
+      </c>
+      <c r="E436" s="1" t="s">
+        <v>1900</v>
+      </c>
+      <c r="F436" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G436" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H436" s="1" t="s">
+        <v>2153</v>
+      </c>
+      <c r="I436" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J436" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="K436" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L436" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="M436" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N436" s="1" t="s">
+        <v>2154</v>
+      </c>
+      <c r="O436" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P436" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q436" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R436" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S436" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T436" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U436" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V436" s="1" t="s">
+        <v>2155</v>
+      </c>
+      <c r="W436" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="X436" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y436" s="1" t="s">
+        <v>2156</v>
+      </c>
+      <c r="Z436" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA436" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="AB436" s="1" t="s">
+        <v>2157</v>
+      </c>
+      <c r="AC436" s="1" t="s">
+        <v>2158</v>
+      </c>
+      <c r="AD436" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE436" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF436" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG436" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH436" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI436" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="437" spans="1:35">
+      <c r="A437" s="1" t="s">
+        <v>2159</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>2160</v>
+      </c>
+      <c r="C437" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D437" s="1" t="s">
+        <v>2161</v>
+      </c>
+      <c r="E437" s="1" t="s">
+        <v>1900</v>
+      </c>
+      <c r="F437" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G437" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H437" s="1" t="s">
+        <v>2162</v>
+      </c>
+      <c r="I437" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J437" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="K437" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L437" s="1" t="s">
+        <v>2112</v>
+      </c>
+      <c r="M437" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N437" s="1" t="s">
+        <v>2163</v>
+      </c>
+      <c r="O437" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P437" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q437" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R437" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S437" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T437" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U437" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V437" s="1" t="s">
+        <v>2164</v>
+      </c>
+      <c r="W437" s="1" t="s">
+        <v>2160</v>
+      </c>
+      <c r="X437" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y437" s="1" t="s">
+        <v>2165</v>
+      </c>
+      <c r="Z437" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA437" s="1" t="s">
+        <v>2166</v>
+      </c>
+      <c r="AB437" s="1" t="s">
+        <v>2167</v>
+      </c>
+      <c r="AC437" s="1" t="s">
+        <v>2168</v>
+      </c>
+      <c r="AD437" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE437" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF437" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG437" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH437" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI437" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="438" spans="1:35">
+      <c r="A438" s="1" t="s">
+        <v>2169</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>2170</v>
+      </c>
+      <c r="C438" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D438" s="1" t="s">
+        <v>2171</v>
+      </c>
+      <c r="E438" s="1" t="s">
+        <v>1907</v>
+      </c>
+      <c r="F438" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G438" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H438" s="1" t="s">
+        <v>2172</v>
+      </c>
+      <c r="I438" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J438" s="1" t="s">
+        <v>2132</v>
+      </c>
+      <c r="K438" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L438" s="1" t="s">
+        <v>2133</v>
+      </c>
+      <c r="M438" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N438" s="1" t="s">
+        <v>2173</v>
+      </c>
+      <c r="O438" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P438" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q438" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R438" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S438" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T438" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U438" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V438" s="1" t="s">
+        <v>2174</v>
+      </c>
+      <c r="W438" s="1" t="s">
+        <v>2170</v>
+      </c>
+      <c r="X438" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y438" s="1" t="s">
+        <v>2175</v>
+      </c>
+      <c r="Z438" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA438" s="1" t="s">
+        <v>2176</v>
+      </c>
+      <c r="AB438" s="1" t="s">
+        <v>2177</v>
+      </c>
+      <c r="AC438" s="1" t="s">
+        <v>2178</v>
+      </c>
+      <c r="AD438" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE438" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF438" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG438" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH438" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI438" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="439" spans="1:35">
+      <c r="A439" s="1" t="s">
+        <v>2179</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>2180</v>
+      </c>
+      <c r="C439" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D439" s="1" t="s">
+        <v>2181</v>
+      </c>
+      <c r="E439" s="1" t="s">
+        <v>1907</v>
+      </c>
+      <c r="F439" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G439" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H439" s="1" t="s">
+        <v>2182</v>
+      </c>
+      <c r="I439" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J439" s="1" t="s">
+        <v>2122</v>
+      </c>
+      <c r="K439" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L439" s="1" t="s">
+        <v>2123</v>
+      </c>
+      <c r="M439" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N439" s="1" t="s">
+        <v>2183</v>
+      </c>
+      <c r="O439" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P439" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q439" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R439" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S439" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="T439" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U439" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V439" s="1" t="s">
+        <v>2184</v>
+      </c>
+      <c r="W439" s="1" t="s">
+        <v>2180</v>
+      </c>
+      <c r="X439" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="Y439" s="1" t="s">
+        <v>2185</v>
+      </c>
+      <c r="Z439" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA439" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="AB439" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="AC439" s="1" t="s">
+        <v>2186</v>
+      </c>
+      <c r="AD439" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE439" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF439" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG439" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH439" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI439" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="440" spans="1:35">
+      <c r="A440" s="1" t="s">
+        <v>2187</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>2188</v>
+      </c>
+      <c r="C440" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D440" s="1" t="s">
+        <v>2189</v>
+      </c>
+      <c r="E440" s="1" t="s">
+        <v>1907</v>
+      </c>
+      <c r="F440" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G440" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H440" s="1" t="s">
+        <v>2190</v>
+      </c>
+      <c r="I440" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J440" s="1" t="s">
+        <v>2122</v>
+      </c>
+      <c r="K440" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L440" s="1" t="s">
+        <v>2123</v>
+      </c>
+      <c r="M440" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N440" s="1" t="s">
+        <v>2191</v>
+      </c>
+      <c r="O440" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P440" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q440" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R440" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S440" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T440" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U440" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V440" s="1" t="s">
+        <v>2192</v>
+      </c>
+      <c r="W440" s="1" t="s">
+        <v>2188</v>
+      </c>
+      <c r="X440" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y440" s="1" t="s">
+        <v>2193</v>
+      </c>
+      <c r="Z440" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA440" s="1" t="s">
+        <v>2194</v>
+      </c>
+      <c r="AB440" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="AC440" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="AD440" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AE440" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF440" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG440" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH440" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI440" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="441" spans="1:35">
+      <c r="A441" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>2198</v>
+      </c>
+      <c r="C441" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D441" s="1" t="s">
+        <v>2199</v>
+      </c>
+      <c r="E441" s="1" t="s">
+        <v>1907</v>
+      </c>
+      <c r="F441" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G441" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H441" s="1" t="s">
+        <v>2200</v>
+      </c>
+      <c r="I441" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J441" s="1" t="s">
+        <v>2132</v>
+      </c>
+      <c r="K441" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L441" s="1" t="s">
+        <v>2133</v>
+      </c>
+      <c r="M441" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N441" s="1" t="s">
+        <v>2201</v>
+      </c>
+      <c r="O441" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P441" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q441" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R441" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S441" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T441" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U441" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V441" s="1" t="s">
+        <v>2202</v>
+      </c>
+      <c r="W441" s="1" t="s">
+        <v>2198</v>
+      </c>
+      <c r="X441" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y441" s="1" t="s">
+        <v>2203</v>
+      </c>
+      <c r="Z441" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA441" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="AB441" s="1" t="s">
+        <v>2204</v>
+      </c>
+      <c r="AC441" s="1" t="s">
+        <v>2205</v>
+      </c>
+      <c r="AD441" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE441" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF441" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG441" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH441" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI441" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="442" spans="1:35">
+      <c r="A442" s="1" t="s">
+        <v>2206</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>2207</v>
+      </c>
+      <c r="C442" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D442" s="1" t="s">
+        <v>2208</v>
+      </c>
+      <c r="E442" s="1" t="s">
+        <v>1907</v>
+      </c>
+      <c r="F442" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G442" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H442" s="1" t="s">
+        <v>2209</v>
+      </c>
+      <c r="I442" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J442" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="K442" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L442" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="M442" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N442" s="1" t="s">
+        <v>2210</v>
+      </c>
+      <c r="O442" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P442" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q442" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R442" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S442" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T442" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U442" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V442" s="1" t="s">
+        <v>2211</v>
+      </c>
+      <c r="W442" s="1" t="s">
+        <v>2207</v>
+      </c>
+      <c r="X442" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y442" s="1" t="s">
+        <v>2212</v>
+      </c>
+      <c r="Z442" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA442" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="AB442" s="1" t="s">
+        <v>2213</v>
+      </c>
+      <c r="AC442" s="1" t="s">
+        <v>2214</v>
+      </c>
+      <c r="AD442" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE442" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF442" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG442" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH442" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI442" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="443" spans="1:35">
+      <c r="A443" s="1" t="s">
+        <v>2215</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>2216</v>
+      </c>
+      <c r="C443" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D443" s="1" t="s">
+        <v>2217</v>
+      </c>
+      <c r="E443" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F443" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G443" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H443" s="1" t="s">
+        <v>2218</v>
+      </c>
+      <c r="I443" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J443" s="1" t="s">
+        <v>2122</v>
+      </c>
+      <c r="K443" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L443" s="1" t="s">
+        <v>2123</v>
+      </c>
+      <c r="M443" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N443" s="1" t="s">
+        <v>2219</v>
+      </c>
+      <c r="O443" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P443" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q443" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R443" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S443" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T443" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U443" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V443" s="1" t="s">
+        <v>2220</v>
+      </c>
+      <c r="W443" s="1" t="s">
+        <v>2216</v>
+      </c>
+      <c r="X443" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y443" s="1" t="s">
+        <v>2221</v>
+      </c>
+      <c r="Z443" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA443" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="AB443" s="1" t="s">
+        <v>2222</v>
+      </c>
+      <c r="AC443" s="1" t="s">
+        <v>2223</v>
+      </c>
+      <c r="AD443" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE443" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF443" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG443" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH443" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI443" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="444" spans="1:35">
+      <c r="A444" s="1" t="s">
+        <v>2224</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="C444" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D444" s="1" t="s">
+        <v>2226</v>
+      </c>
+      <c r="E444" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F444" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G444" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H444" s="1" t="s">
+        <v>2227</v>
+      </c>
+      <c r="I444" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J444" s="1" t="s">
+        <v>2122</v>
+      </c>
+      <c r="K444" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L444" s="1" t="s">
+        <v>2123</v>
+      </c>
+      <c r="M444" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N444" s="1" t="s">
+        <v>2228</v>
+      </c>
+      <c r="O444" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P444" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q444" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R444" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S444" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T444" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U444" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V444" s="1" t="s">
+        <v>2229</v>
+      </c>
+      <c r="W444" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="X444" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y444" s="1" t="s">
+        <v>2230</v>
+      </c>
+      <c r="Z444" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA444" s="1" t="s">
+        <v>1372</v>
+      </c>
+      <c r="AB444" s="1" t="s">
+        <v>2231</v>
+      </c>
+      <c r="AC444" s="1" t="s">
+        <v>2232</v>
+      </c>
+      <c r="AD444" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE444" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF444" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG444" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH444" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI444" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="445" spans="1:35">
+      <c r="A445" s="1" t="s">
+        <v>2233</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>2234</v>
+      </c>
+      <c r="C445" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D445" s="1" t="s">
+        <v>2235</v>
+      </c>
+      <c r="E445" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F445" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G445" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H445" s="1" t="s">
+        <v>2236</v>
+      </c>
+      <c r="I445" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J445" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="K445" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L445" s="1" t="s">
+        <v>2112</v>
+      </c>
+      <c r="M445" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N445" s="1" t="s">
+        <v>2237</v>
+      </c>
+      <c r="O445" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P445" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q445" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R445" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S445" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T445" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U445" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V445" s="1" t="s">
+        <v>2238</v>
+      </c>
+      <c r="W445" s="1" t="s">
+        <v>2234</v>
+      </c>
+      <c r="X445" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y445" s="1" t="s">
+        <v>2239</v>
+      </c>
+      <c r="Z445" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA445" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="AB445" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="AC445" s="1" t="s">
+        <v>2240</v>
+      </c>
+      <c r="AD445" s="1" t="s">
+        <v>1360</v>
+      </c>
+      <c r="AE445" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF445" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG445" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH445" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI445" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="446" spans="1:35">
+      <c r="A446" s="1" t="s">
+        <v>2241</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>2242</v>
+      </c>
+      <c r="C446" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D446" s="1" t="s">
+        <v>2243</v>
+      </c>
+      <c r="E446" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F446" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G446" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H446" s="1" t="s">
+        <v>2244</v>
+      </c>
+      <c r="I446" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J446" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="K446" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L446" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="M446" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N446" s="1" t="s">
+        <v>2245</v>
+      </c>
+      <c r="O446" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P446" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q446" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R446" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S446" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T446" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U446" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V446" s="1" t="s">
+        <v>2246</v>
+      </c>
+      <c r="W446" s="1" t="s">
+        <v>2242</v>
+      </c>
+      <c r="X446" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y446" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="Z446" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA446" s="1" t="s">
+        <v>2248</v>
+      </c>
+      <c r="AB446" s="1" t="s">
+        <v>2249</v>
+      </c>
+      <c r="AC446" s="1" t="s">
+        <v>2250</v>
+      </c>
+      <c r="AD446" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE446" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF446" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG446" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH446" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI446" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="447" spans="1:35">
+      <c r="A447" s="1" t="s">
+        <v>2251</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>2252</v>
+      </c>
+      <c r="C447" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D447" s="1" t="s">
+        <v>2217</v>
+      </c>
+      <c r="E447" s="1" t="s">
+        <v>1905</v>
+      </c>
+      <c r="F447" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G447" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H447" s="1" t="s">
+        <v>2253</v>
+      </c>
+      <c r="I447" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J447" s="1" t="s">
+        <v>2122</v>
+      </c>
+      <c r="K447" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="L447" s="1" t="s">
+        <v>2123</v>
+      </c>
+      <c r="M447" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N447" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="O447" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P447" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q447" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R447" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S447" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="T447" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U447" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="V447" s="1" t="s">
+        <v>2254</v>
+      </c>
+      <c r="W447" s="1" t="s">
+        <v>2252</v>
+      </c>
+      <c r="X447" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y447" s="1" t="s">
+        <v>2255</v>
+      </c>
+      <c r="Z447" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA447" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="AB447" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="AC447" s="1" t="s">
+        <v>2256</v>
+      </c>
+      <c r="AD447" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="AE447" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF447" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG447" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH447" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI447" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AI369">
     <sortState ref="A2:AI369">

--- a/deliveryopenfiber.xlsx
+++ b/deliveryopenfiber.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15613" uniqueCount="2312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17465" uniqueCount="2536">
   <si>
     <t>Codice</t>
   </si>
@@ -6953,6 +6953,678 @@
   </si>
   <si>
     <t>SR_01/06e23/I754_VIA FILISTO_142_1_B_1</t>
+  </si>
+  <si>
+    <t>DEL1003563120</t>
+  </si>
+  <si>
+    <t>16/08/2025 11:26</t>
+  </si>
+  <si>
+    <t>16/08/2025 08:30</t>
+  </si>
+  <si>
+    <t>16/08/2025 10:30</t>
+  </si>
+  <si>
+    <t>11/08/2025 12:06</t>
+  </si>
+  <si>
+    <t>DEL1003563144</t>
+  </si>
+  <si>
+    <t>4224696945534949567</t>
+  </si>
+  <si>
+    <t>14/08/2025 09:16</t>
+  </si>
+  <si>
+    <t>GRAZIELLA MESSINA</t>
+  </si>
+  <si>
+    <t>11/08/2025 12:16</t>
+  </si>
+  <si>
+    <t>FW_SP0000001632798</t>
+  </si>
+  <si>
+    <t>DEL1003563393</t>
+  </si>
+  <si>
+    <t>4224696945534950411</t>
+  </si>
+  <si>
+    <t>16/08/2025 12:26</t>
+  </si>
+  <si>
+    <t>DANIEL GIALLONGO</t>
+  </si>
+  <si>
+    <t>16/08/2025 11:30</t>
+  </si>
+  <si>
+    <t>16/08/2025 13:30</t>
+  </si>
+  <si>
+    <t>11/08/2025 13:46</t>
+  </si>
+  <si>
+    <t>ILA_1754910916294</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000916253_75</t>
+  </si>
+  <si>
+    <t>SR_01/05e42-SP_05</t>
+  </si>
+  <si>
+    <t>SR_01/05e42/I754_VIA DELLA GIUDECCA_75</t>
+  </si>
+  <si>
+    <t>DEL1003568662</t>
+  </si>
+  <si>
+    <t>4224696945536623849</t>
+  </si>
+  <si>
+    <t>14/08/2025 12:58</t>
+  </si>
+  <si>
+    <t>VINCENZO MILAZZO</t>
+  </si>
+  <si>
+    <t>14/08/2025 16:30</t>
+  </si>
+  <si>
+    <t>14/08/2025 18:00</t>
+  </si>
+  <si>
+    <t>13/08/2025 10:56</t>
+  </si>
+  <si>
+    <t>ILA_1755073520382</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000969267_3C</t>
+  </si>
+  <si>
+    <t>SR_01/06w43-SP_07</t>
+  </si>
+  <si>
+    <t>SR_01/06w43/I754_VIA SALVATORE NANNA_3C_1_C</t>
+  </si>
+  <si>
+    <t>DEL1003569057</t>
+  </si>
+  <si>
+    <t>4224696945536623957</t>
+  </si>
+  <si>
+    <t>14/08/2025 14:18</t>
+  </si>
+  <si>
+    <t>DANIELE CAMPISI</t>
+  </si>
+  <si>
+    <t>14/08/2025 14:30</t>
+  </si>
+  <si>
+    <t>13/08/2025 13:16</t>
+  </si>
+  <si>
+    <t>ILA_1755001209169</t>
+  </si>
+  <si>
+    <t>19_089_089017_8001078203_6B</t>
+  </si>
+  <si>
+    <t>SR_01/ILD_0046</t>
+  </si>
+  <si>
+    <t>SR_01/06e22-SP_06</t>
+  </si>
+  <si>
+    <t>SR_01/06e22/I754_RONCO III AI SERVI DI MARIA_2A_1</t>
+  </si>
+  <si>
+    <t>DEL1003569210</t>
+  </si>
+  <si>
+    <t>4224696945536623829</t>
+  </si>
+  <si>
+    <t>16/08/2025 09:46</t>
+  </si>
+  <si>
+    <t>STEFANIA SPATOLA</t>
+  </si>
+  <si>
+    <t>13/08/2025 14:16</t>
+  </si>
+  <si>
+    <t>FW_SP0000001634628</t>
+  </si>
+  <si>
+    <t>19_089_089021_8001005500_81</t>
+  </si>
+  <si>
+    <t>SR_12/01w12/SR_12/01w12/M279_014</t>
+  </si>
+  <si>
+    <t>DEL1003569319</t>
+  </si>
+  <si>
+    <t>4224696945536624472</t>
+  </si>
+  <si>
+    <t>14/08/2025 15:18</t>
+  </si>
+  <si>
+    <t>ROBERTO CASCHETTO</t>
+  </si>
+  <si>
+    <t>13/08/2025 14:56</t>
+  </si>
+  <si>
+    <t>WN_9002082793</t>
+  </si>
+  <si>
+    <t>19_089_089017_8001078469_10</t>
+  </si>
+  <si>
+    <t>SR_01/WIN_0099</t>
+  </si>
+  <si>
+    <t>SR_01/05e21-SP_08</t>
+  </si>
+  <si>
+    <t>SR_01/05e21/I754_VIA FRA BENEDETTO LA VECCHIA_10_1</t>
+  </si>
+  <si>
+    <t>DEL1003569479</t>
+  </si>
+  <si>
+    <t>14/08/2025 11:38</t>
+  </si>
+  <si>
+    <t>13/08/2025 15:56</t>
+  </si>
+  <si>
+    <t>DEL1003545019</t>
+  </si>
+  <si>
+    <t>4224696945524246353</t>
+  </si>
+  <si>
+    <t>14/08/2025 09:56</t>
+  </si>
+  <si>
+    <t>MARIA GALLITTO</t>
+  </si>
+  <si>
+    <t>OPI_3717403</t>
+  </si>
+  <si>
+    <t>19_089_089017_8001395588_26</t>
+  </si>
+  <si>
+    <t>SR_01/VOD_0063</t>
+  </si>
+  <si>
+    <t>SR_01/07e34-SP_02</t>
+  </si>
+  <si>
+    <t>SR_01/07e34/I754_VIA FRANCA MARIA GIANNI_26</t>
+  </si>
+  <si>
+    <t>DEL1003549976</t>
+  </si>
+  <si>
+    <t>4224696945450255761</t>
+  </si>
+  <si>
+    <t>16/08/2025 08:36</t>
+  </si>
+  <si>
+    <t>LUCIANO MERLINO</t>
+  </si>
+  <si>
+    <t>06/08/2025 10:56</t>
+  </si>
+  <si>
+    <t>1487667530308761</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000954120_1</t>
+  </si>
+  <si>
+    <t>SR_01/SKY_0005</t>
+  </si>
+  <si>
+    <t>SR_01/02w13-SP_04</t>
+  </si>
+  <si>
+    <t>SR_01/02w13/I754_VIA SCICLI_35</t>
+  </si>
+  <si>
+    <t>DEL1003551539</t>
+  </si>
+  <si>
+    <t>4224696945530037922</t>
+  </si>
+  <si>
+    <t>16/08/2025 08:56</t>
+  </si>
+  <si>
+    <t>MASSIMO MILARDI</t>
+  </si>
+  <si>
+    <t>06/08/2025 18:16</t>
+  </si>
+  <si>
+    <t>0081702464422754</t>
+  </si>
+  <si>
+    <t>SR_01/SKY_0022</t>
+  </si>
+  <si>
+    <t>SR_01/03e22-SP_04</t>
+  </si>
+  <si>
+    <t>DEL1003558922</t>
+  </si>
+  <si>
+    <t>4224696945515564267</t>
+  </si>
+  <si>
+    <t>14/08/2025 09:28</t>
+  </si>
+  <si>
+    <t>MAURIZIO IERNA</t>
+  </si>
+  <si>
+    <t>WN_9002068586</t>
+  </si>
+  <si>
+    <t>19_089_089021_8001076739_5</t>
+  </si>
+  <si>
+    <t>SR_12/01w23/SR_12/01w23/M279_002</t>
+  </si>
+  <si>
+    <t>DEL1003562942</t>
+  </si>
+  <si>
+    <t>4224696945534949234</t>
+  </si>
+  <si>
+    <t>16/08/2025 10:06</t>
+  </si>
+  <si>
+    <t>EMANUELE TARASCIO</t>
+  </si>
+  <si>
+    <t>11/08/2025 11:16</t>
+  </si>
+  <si>
+    <t>FW_SP0000001632741</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000970342_30</t>
+  </si>
+  <si>
+    <t>SR_01/EOF_0123</t>
+  </si>
+  <si>
+    <t>SR_01/02w34-SP_12</t>
+  </si>
+  <si>
+    <t>SR_01/02w34/I754_VIA IRLANDA_32</t>
+  </si>
+  <si>
+    <t>DEL1003565470</t>
+  </si>
+  <si>
+    <t>4224696945535863014</t>
+  </si>
+  <si>
+    <t>16/08/2025 07:36</t>
+  </si>
+  <si>
+    <t>12/08/2025 08:36</t>
+  </si>
+  <si>
+    <t>OPI_3724085</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000970384_13</t>
+  </si>
+  <si>
+    <t>SR_01/VOD_0022</t>
+  </si>
+  <si>
+    <t>SR_01/03e23-SP_02</t>
+  </si>
+  <si>
+    <t>SR_01/03e23/I754_VIA GARIGLIANO_13</t>
+  </si>
+  <si>
+    <t>DEL1003565796</t>
+  </si>
+  <si>
+    <t>4224696945535863635</t>
+  </si>
+  <si>
+    <t>16/08/2025 06:46</t>
+  </si>
+  <si>
+    <t>GIUSEPPE CARUSO</t>
+  </si>
+  <si>
+    <t>12/08/2025 10:26</t>
+  </si>
+  <si>
+    <t>WN_9002079512</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000954123_31</t>
+  </si>
+  <si>
+    <t>SR_01/05e42/I754_PIAZZA SAN GIUSEPPE_31</t>
+  </si>
+  <si>
+    <t>DEL1003568338</t>
+  </si>
+  <si>
+    <t>4224696945501937831</t>
+  </si>
+  <si>
+    <t>PAOLA GUARRERA</t>
+  </si>
+  <si>
+    <t>13/08/2025 08:56</t>
+  </si>
+  <si>
+    <t>TLC_00000000172505</t>
+  </si>
+  <si>
+    <t>19_089_089009_8000975466_141</t>
+  </si>
+  <si>
+    <t>SR_09/01e23/SR_09/01e23/D636_087</t>
+  </si>
+  <si>
+    <t>DEL1003569310</t>
+  </si>
+  <si>
+    <t>4224696945536623868</t>
+  </si>
+  <si>
+    <t>14/08/2025 11:58</t>
+  </si>
+  <si>
+    <t>DIGOL CALISTUS LIYANAGE</t>
+  </si>
+  <si>
+    <t>14/08/2025 11:30</t>
+  </si>
+  <si>
+    <t>14/08/2025 13:30</t>
+  </si>
+  <si>
+    <t>WN_9002082590</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000970265_46</t>
+  </si>
+  <si>
+    <t>SR_01/04w34/I754_VIA FILISTO_46_1</t>
+  </si>
+  <si>
+    <t>DEL1003569572</t>
+  </si>
+  <si>
+    <t>4224696945536624990</t>
+  </si>
+  <si>
+    <t>14/08/2025 13:28</t>
+  </si>
+  <si>
+    <t>ALESSANDRO IPPOLITO</t>
+  </si>
+  <si>
+    <t>13/08/2025 16:26</t>
+  </si>
+  <si>
+    <t>ILA_1755093310160</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000970053_3</t>
+  </si>
+  <si>
+    <t>SR_01/ILD_0095</t>
+  </si>
+  <si>
+    <t>SR_01/01w42-SP_10</t>
+  </si>
+  <si>
+    <t>SR_01/01w42/I754_VIA ANTONELLO DA MESSINA_3_1</t>
+  </si>
+  <si>
+    <t>DEL1003563544</t>
+  </si>
+  <si>
+    <t>4224696945534950437</t>
+  </si>
+  <si>
+    <t>14/08/2025 11:08</t>
+  </si>
+  <si>
+    <t>MARGHERITA MARISCHI</t>
+  </si>
+  <si>
+    <t>WN_9002080341</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000969259_12</t>
+  </si>
+  <si>
+    <t>SR_01/05e41-SP_08</t>
+  </si>
+  <si>
+    <t>SR_01/05e41/I754_VIA SALOMONE_8</t>
+  </si>
+  <si>
+    <t>DEL1003563828</t>
+  </si>
+  <si>
+    <t>4224696945534950807</t>
+  </si>
+  <si>
+    <t>16/08/2025 07:56</t>
+  </si>
+  <si>
+    <t>GABRIELLA CAMPAILLA</t>
+  </si>
+  <si>
+    <t>11/08/2025 15:46</t>
+  </si>
+  <si>
+    <t>ILA_1754917820331</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000969024_12</t>
+  </si>
+  <si>
+    <t>SR_01/03e32/I754_VIA IERONE I L'ETNEO_12</t>
+  </si>
+  <si>
+    <t>DEL1003566713</t>
+  </si>
+  <si>
+    <t>4224696945535865151</t>
+  </si>
+  <si>
+    <t>16/08/2025 08:16</t>
+  </si>
+  <si>
+    <t>MAURIZIO PILATO</t>
+  </si>
+  <si>
+    <t>12/08/2025 15:16</t>
+  </si>
+  <si>
+    <t>WN_9002082061</t>
+  </si>
+  <si>
+    <t>DEL1003569015</t>
+  </si>
+  <si>
+    <t>4224696945536624381</t>
+  </si>
+  <si>
+    <t>14/08/2025 08:38</t>
+  </si>
+  <si>
+    <t>SALVATORE FIORELLA</t>
+  </si>
+  <si>
+    <t>13/08/2025 12:56</t>
+  </si>
+  <si>
+    <t>ILA_1755080712766</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000970289_3/A</t>
+  </si>
+  <si>
+    <t>SR_01/06w32-SP_11</t>
+  </si>
+  <si>
+    <t>SR_01/06w32/I754_VIA GAETANO BARRESI_3/A_1_A</t>
+  </si>
+  <si>
+    <t>DEL1003569396</t>
+  </si>
+  <si>
+    <t>4224696945535866576</t>
+  </si>
+  <si>
+    <t>14/08/2025 16:58</t>
+  </si>
+  <si>
+    <t>FABIO CASTROIANNI</t>
+  </si>
+  <si>
+    <t>13/08/2025 15:26</t>
+  </si>
+  <si>
+    <t>WN_9002082369</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000970002_48</t>
+  </si>
+  <si>
+    <t>SR_01/WIN_0186</t>
+  </si>
+  <si>
+    <t>SR_01/07e14-SP_09</t>
+  </si>
+  <si>
+    <t>SR_01/07e14/I754_VIA MISTERBIANCO_48_1</t>
+  </si>
+  <si>
+    <t>DEL1003569401</t>
+  </si>
+  <si>
+    <t>4224696945536623877</t>
+  </si>
+  <si>
+    <t>14/08/2025 14:48</t>
+  </si>
+  <si>
+    <t>AMEDEO SCOTTOLI</t>
+  </si>
+  <si>
+    <t>WN_9002082615</t>
+  </si>
+  <si>
+    <t>SR_01/01e44/I754_VIALE TICA_167_C</t>
+  </si>
+  <si>
+    <t>DEL1003569426</t>
+  </si>
+  <si>
+    <t>4224696945536624556</t>
+  </si>
+  <si>
+    <t>13/08/2025 15:36</t>
+  </si>
+  <si>
+    <t>WN_9002082816</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000969308_5</t>
+  </si>
+  <si>
+    <t>SR_01/05w12-SP_09</t>
+  </si>
+  <si>
+    <t>SR_01/05w12/I754_VIA SENATORE GIUSEPPE MAIELLI_5_1</t>
+  </si>
+  <si>
+    <t>DEL1003569845</t>
+  </si>
+  <si>
+    <t>4224696945535865588</t>
+  </si>
+  <si>
+    <t>14/08/2025 11:48</t>
+  </si>
+  <si>
+    <t>JACQUELINE SPICHETTI</t>
+  </si>
+  <si>
+    <t>13/08/2025 18:16</t>
+  </si>
+  <si>
+    <t>ENE_00000725178</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000970361_9</t>
+  </si>
+  <si>
+    <t>SR_01/07e42-SP_03</t>
+  </si>
+  <si>
+    <t>SR_01/07e42/I754_VIA SORTINO_2A_1</t>
+  </si>
+  <si>
+    <t>DEL1003563705</t>
+  </si>
+  <si>
+    <t>14/08/2025 09:48</t>
+  </si>
+  <si>
+    <t>SEBASTIANO DI PIETRO</t>
+  </si>
+  <si>
+    <t>19/08/2025 08:30</t>
+  </si>
+  <si>
+    <t>19/08/2025 10:30</t>
+  </si>
+  <si>
+    <t>11/08/2025 15:16</t>
+  </si>
+  <si>
+    <t>TLC_00000000180487</t>
+  </si>
+  <si>
+    <t>19_089_089013_8001063945_SNC</t>
+  </si>
+  <si>
+    <t>RUSSO GIOVANNI</t>
   </si>
 </sst>
 </file>
@@ -7283,10 +7955,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI447"/>
+  <dimension ref="A1:AI500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A383" workbookViewId="0">
-      <selection activeCell="E408" sqref="E408"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A448" sqref="A448:AI500"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -55031,6 +55703,5668 @@
         <v>57</v>
       </c>
     </row>
+    <row r="448" spans="1:35">
+      <c r="A448" s="1" t="s">
+        <v>2312</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C448" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D448" s="1" t="s">
+        <v>2313</v>
+      </c>
+      <c r="E448" s="1" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F448" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G448" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H448" s="1" t="s">
+        <v>1443</v>
+      </c>
+      <c r="I448" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J448" s="1" t="s">
+        <v>2314</v>
+      </c>
+      <c r="K448" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L448" s="1" t="s">
+        <v>2315</v>
+      </c>
+      <c r="M448" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N448" s="1" t="s">
+        <v>2316</v>
+      </c>
+      <c r="O448" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P448" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q448" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R448" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S448" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T448" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U448" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="V448" s="1" t="s">
+        <v>1445</v>
+      </c>
+      <c r="W448" s="1" t="s">
+        <v>1441</v>
+      </c>
+      <c r="X448" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y448" s="1" t="s">
+        <v>1446</v>
+      </c>
+      <c r="Z448" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA448" s="1" t="s">
+        <v>1447</v>
+      </c>
+      <c r="AB448" s="1" t="s">
+        <v>1448</v>
+      </c>
+      <c r="AC448" s="1" t="s">
+        <v>1449</v>
+      </c>
+      <c r="AD448" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE448" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="AF448" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG448" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH448" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI448" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="449" spans="1:35">
+      <c r="A449" s="1" t="s">
+        <v>2317</v>
+      </c>
+      <c r="B449" s="1" t="s">
+        <v>2318</v>
+      </c>
+      <c r="C449" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D449" s="1" t="s">
+        <v>2319</v>
+      </c>
+      <c r="E449" s="1" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F449" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G449" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H449" s="1" t="s">
+        <v>2320</v>
+      </c>
+      <c r="I449" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J449" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="K449" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L449" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="M449" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N449" s="1" t="s">
+        <v>2321</v>
+      </c>
+      <c r="O449" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P449" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q449" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R449" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S449" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="T449" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U449" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V449" s="1" t="s">
+        <v>2322</v>
+      </c>
+      <c r="W449" s="1" t="s">
+        <v>2318</v>
+      </c>
+      <c r="X449" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y449" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="Z449" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA449" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB449" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AC449" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AD449" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AE449" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="AF449" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG449" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH449" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI449" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="450" spans="1:35">
+      <c r="A450" s="1" t="s">
+        <v>2323</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>2324</v>
+      </c>
+      <c r="C450" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D450" s="1" t="s">
+        <v>2325</v>
+      </c>
+      <c r="E450" s="1" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F450" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G450" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H450" s="1" t="s">
+        <v>2326</v>
+      </c>
+      <c r="I450" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J450" s="1" t="s">
+        <v>2327</v>
+      </c>
+      <c r="K450" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L450" s="1" t="s">
+        <v>2328</v>
+      </c>
+      <c r="M450" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N450" s="1" t="s">
+        <v>2329</v>
+      </c>
+      <c r="O450" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P450" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q450" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R450" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S450" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T450" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U450" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V450" s="1" t="s">
+        <v>2330</v>
+      </c>
+      <c r="W450" s="1" t="s">
+        <v>2324</v>
+      </c>
+      <c r="X450" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y450" s="1" t="s">
+        <v>2331</v>
+      </c>
+      <c r="Z450" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA450" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="AB450" s="1" t="s">
+        <v>2332</v>
+      </c>
+      <c r="AC450" s="1" t="s">
+        <v>2333</v>
+      </c>
+      <c r="AD450" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE450" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF450" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG450" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH450" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI450" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="451" spans="1:35">
+      <c r="A451" s="1" t="s">
+        <v>2334</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>2335</v>
+      </c>
+      <c r="C451" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D451" s="1" t="s">
+        <v>2336</v>
+      </c>
+      <c r="E451" s="1" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F451" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G451" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H451" s="1" t="s">
+        <v>2337</v>
+      </c>
+      <c r="I451" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J451" s="1" t="s">
+        <v>2338</v>
+      </c>
+      <c r="K451" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L451" s="1" t="s">
+        <v>2339</v>
+      </c>
+      <c r="M451" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N451" s="1" t="s">
+        <v>2340</v>
+      </c>
+      <c r="O451" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P451" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q451" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R451" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S451" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T451" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U451" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V451" s="1" t="s">
+        <v>2341</v>
+      </c>
+      <c r="W451" s="1" t="s">
+        <v>2335</v>
+      </c>
+      <c r="X451" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y451" s="1" t="s">
+        <v>2342</v>
+      </c>
+      <c r="Z451" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA451" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="AB451" s="1" t="s">
+        <v>2343</v>
+      </c>
+      <c r="AC451" s="1" t="s">
+        <v>2344</v>
+      </c>
+      <c r="AD451" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE451" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF451" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG451" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH451" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI451" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="452" spans="1:35">
+      <c r="A452" s="1" t="s">
+        <v>2345</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>2346</v>
+      </c>
+      <c r="C452" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D452" s="1" t="s">
+        <v>2347</v>
+      </c>
+      <c r="E452" s="1" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F452" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G452" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H452" s="1" t="s">
+        <v>2348</v>
+      </c>
+      <c r="I452" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J452" s="1" t="s">
+        <v>2349</v>
+      </c>
+      <c r="K452" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L452" s="1" t="s">
+        <v>2338</v>
+      </c>
+      <c r="M452" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N452" s="1" t="s">
+        <v>2350</v>
+      </c>
+      <c r="O452" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P452" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q452" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R452" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S452" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T452" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U452" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V452" s="1" t="s">
+        <v>2351</v>
+      </c>
+      <c r="W452" s="1" t="s">
+        <v>2346</v>
+      </c>
+      <c r="X452" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y452" s="1" t="s">
+        <v>2352</v>
+      </c>
+      <c r="Z452" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA452" s="1" t="s">
+        <v>2353</v>
+      </c>
+      <c r="AB452" s="1" t="s">
+        <v>2354</v>
+      </c>
+      <c r="AC452" s="1" t="s">
+        <v>2355</v>
+      </c>
+      <c r="AD452" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE452" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF452" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG452" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH452" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI452" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="453" spans="1:35">
+      <c r="A453" s="1" t="s">
+        <v>2356</v>
+      </c>
+      <c r="B453" s="1" t="s">
+        <v>2357</v>
+      </c>
+      <c r="C453" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D453" s="1" t="s">
+        <v>2358</v>
+      </c>
+      <c r="E453" s="1" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F453" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G453" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H453" s="1" t="s">
+        <v>2359</v>
+      </c>
+      <c r="I453" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J453" s="1" t="s">
+        <v>2314</v>
+      </c>
+      <c r="K453" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L453" s="1" t="s">
+        <v>2315</v>
+      </c>
+      <c r="M453" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N453" s="1" t="s">
+        <v>2360</v>
+      </c>
+      <c r="O453" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P453" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q453" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R453" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S453" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="T453" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U453" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V453" s="1" t="s">
+        <v>2361</v>
+      </c>
+      <c r="W453" s="1" t="s">
+        <v>2357</v>
+      </c>
+      <c r="X453" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y453" s="1" t="s">
+        <v>2362</v>
+      </c>
+      <c r="Z453" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA453" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB453" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="AC453" s="1" t="s">
+        <v>2363</v>
+      </c>
+      <c r="AD453" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AE453" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="AF453" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG453" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH453" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI453" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="454" spans="1:35">
+      <c r="A454" s="1" t="s">
+        <v>2364</v>
+      </c>
+      <c r="B454" s="1" t="s">
+        <v>2365</v>
+      </c>
+      <c r="C454" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D454" s="1" t="s">
+        <v>2366</v>
+      </c>
+      <c r="E454" s="1" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F454" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G454" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H454" s="1" t="s">
+        <v>2367</v>
+      </c>
+      <c r="I454" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J454" s="1" t="s">
+        <v>2349</v>
+      </c>
+      <c r="K454" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L454" s="1" t="s">
+        <v>2338</v>
+      </c>
+      <c r="M454" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N454" s="1" t="s">
+        <v>2368</v>
+      </c>
+      <c r="O454" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P454" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q454" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R454" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S454" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T454" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U454" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V454" s="1" t="s">
+        <v>2369</v>
+      </c>
+      <c r="W454" s="1" t="s">
+        <v>2365</v>
+      </c>
+      <c r="X454" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y454" s="1" t="s">
+        <v>2370</v>
+      </c>
+      <c r="Z454" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA454" s="1" t="s">
+        <v>2371</v>
+      </c>
+      <c r="AB454" s="1" t="s">
+        <v>2372</v>
+      </c>
+      <c r="AC454" s="1" t="s">
+        <v>2373</v>
+      </c>
+      <c r="AD454" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE454" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF454" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG454" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH454" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI454" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="455" spans="1:35">
+      <c r="A455" s="1" t="s">
+        <v>2374</v>
+      </c>
+      <c r="B455" s="1" t="s">
+        <v>1881</v>
+      </c>
+      <c r="C455" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D455" s="1" t="s">
+        <v>2375</v>
+      </c>
+      <c r="E455" s="1" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F455" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G455" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H455" s="1" t="s">
+        <v>1883</v>
+      </c>
+      <c r="I455" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J455" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="K455" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L455" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="M455" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N455" s="1" t="s">
+        <v>2376</v>
+      </c>
+      <c r="O455" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P455" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q455" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R455" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S455" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T455" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U455" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="V455" s="1" t="s">
+        <v>1885</v>
+      </c>
+      <c r="W455" s="1" t="s">
+        <v>1881</v>
+      </c>
+      <c r="X455" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y455" s="1" t="s">
+        <v>1886</v>
+      </c>
+      <c r="Z455" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA455" s="1" t="s">
+        <v>1887</v>
+      </c>
+      <c r="AB455" s="1" t="s">
+        <v>1888</v>
+      </c>
+      <c r="AC455" s="1" t="s">
+        <v>1889</v>
+      </c>
+      <c r="AD455" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE455" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF455" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG455" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH455" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI455" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="456" spans="1:35">
+      <c r="A456" s="1" t="s">
+        <v>2377</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>2378</v>
+      </c>
+      <c r="C456" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D456" s="1" t="s">
+        <v>2379</v>
+      </c>
+      <c r="E456" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F456" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G456" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H456" s="1" t="s">
+        <v>2380</v>
+      </c>
+      <c r="I456" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J456" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="K456" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L456" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="M456" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N456" s="1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="O456" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P456" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q456" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R456" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S456" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T456" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U456" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V456" s="1" t="s">
+        <v>2381</v>
+      </c>
+      <c r="W456" s="1" t="s">
+        <v>2378</v>
+      </c>
+      <c r="X456" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y456" s="1" t="s">
+        <v>2382</v>
+      </c>
+      <c r="Z456" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA456" s="1" t="s">
+        <v>2383</v>
+      </c>
+      <c r="AB456" s="1" t="s">
+        <v>2384</v>
+      </c>
+      <c r="AC456" s="1" t="s">
+        <v>2385</v>
+      </c>
+      <c r="AD456" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE456" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AF456" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG456" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH456" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI456" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="457" spans="1:35">
+      <c r="A457" s="1" t="s">
+        <v>2386</v>
+      </c>
+      <c r="B457" s="1" t="s">
+        <v>2387</v>
+      </c>
+      <c r="C457" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D457" s="1" t="s">
+        <v>2388</v>
+      </c>
+      <c r="E457" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F457" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G457" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H457" s="1" t="s">
+        <v>2389</v>
+      </c>
+      <c r="I457" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J457" s="1" t="s">
+        <v>2314</v>
+      </c>
+      <c r="K457" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L457" s="1" t="s">
+        <v>2315</v>
+      </c>
+      <c r="M457" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N457" s="1" t="s">
+        <v>2390</v>
+      </c>
+      <c r="O457" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="P457" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q457" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R457" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S457" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T457" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U457" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V457" s="1" t="s">
+        <v>2391</v>
+      </c>
+      <c r="W457" s="1" t="s">
+        <v>2387</v>
+      </c>
+      <c r="X457" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y457" s="1" t="s">
+        <v>2392</v>
+      </c>
+      <c r="Z457" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA457" s="1" t="s">
+        <v>2393</v>
+      </c>
+      <c r="AB457" s="1" t="s">
+        <v>2394</v>
+      </c>
+      <c r="AC457" s="1" t="s">
+        <v>2395</v>
+      </c>
+      <c r="AD457" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AE457" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF457" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG457" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH457" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI457" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="458" spans="1:35">
+      <c r="A458" s="1" t="s">
+        <v>2396</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>2397</v>
+      </c>
+      <c r="C458" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D458" s="1" t="s">
+        <v>2398</v>
+      </c>
+      <c r="E458" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F458" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G458" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H458" s="1" t="s">
+        <v>2399</v>
+      </c>
+      <c r="I458" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J458" s="1" t="s">
+        <v>2314</v>
+      </c>
+      <c r="K458" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L458" s="1" t="s">
+        <v>2315</v>
+      </c>
+      <c r="M458" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N458" s="1" t="s">
+        <v>2400</v>
+      </c>
+      <c r="O458" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P458" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q458" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R458" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S458" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T458" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U458" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V458" s="1" t="s">
+        <v>2401</v>
+      </c>
+      <c r="W458" s="1" t="s">
+        <v>2397</v>
+      </c>
+      <c r="X458" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y458" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="Z458" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA458" s="1" t="s">
+        <v>2402</v>
+      </c>
+      <c r="AB458" s="1" t="s">
+        <v>2403</v>
+      </c>
+      <c r="AC458" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="AD458" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AE458" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF458" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG458" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH458" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI458" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="459" spans="1:35">
+      <c r="A459" s="1" t="s">
+        <v>2404</v>
+      </c>
+      <c r="B459" s="1" t="s">
+        <v>2405</v>
+      </c>
+      <c r="C459" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D459" s="1" t="s">
+        <v>2406</v>
+      </c>
+      <c r="E459" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F459" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G459" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H459" s="1" t="s">
+        <v>2407</v>
+      </c>
+      <c r="I459" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J459" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="K459" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L459" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="M459" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N459" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="O459" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P459" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q459" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R459" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S459" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="T459" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U459" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V459" s="1" t="s">
+        <v>2408</v>
+      </c>
+      <c r="W459" s="1" t="s">
+        <v>2405</v>
+      </c>
+      <c r="X459" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y459" s="1" t="s">
+        <v>2409</v>
+      </c>
+      <c r="Z459" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA459" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="AB459" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="AC459" s="1" t="s">
+        <v>2410</v>
+      </c>
+      <c r="AD459" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE459" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF459" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG459" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH459" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI459" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="460" spans="1:35">
+      <c r="A460" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>2412</v>
+      </c>
+      <c r="C460" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D460" s="1" t="s">
+        <v>2413</v>
+      </c>
+      <c r="E460" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F460" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G460" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H460" s="1" t="s">
+        <v>2414</v>
+      </c>
+      <c r="I460" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J460" s="1" t="s">
+        <v>2314</v>
+      </c>
+      <c r="K460" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L460" s="1" t="s">
+        <v>2315</v>
+      </c>
+      <c r="M460" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N460" s="1" t="s">
+        <v>2415</v>
+      </c>
+      <c r="O460" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P460" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q460" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R460" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S460" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T460" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U460" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V460" s="1" t="s">
+        <v>2416</v>
+      </c>
+      <c r="W460" s="1" t="s">
+        <v>2412</v>
+      </c>
+      <c r="X460" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y460" s="1" t="s">
+        <v>2417</v>
+      </c>
+      <c r="Z460" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA460" s="1" t="s">
+        <v>2418</v>
+      </c>
+      <c r="AB460" s="1" t="s">
+        <v>2419</v>
+      </c>
+      <c r="AC460" s="1" t="s">
+        <v>2420</v>
+      </c>
+      <c r="AD460" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AE460" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="AF460" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG460" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH460" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI460" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="461" spans="1:35">
+      <c r="A461" s="1" t="s">
+        <v>2421</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>2422</v>
+      </c>
+      <c r="C461" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D461" s="1" t="s">
+        <v>2423</v>
+      </c>
+      <c r="E461" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F461" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G461" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H461" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="I461" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J461" s="1" t="s">
+        <v>2314</v>
+      </c>
+      <c r="K461" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L461" s="1" t="s">
+        <v>2315</v>
+      </c>
+      <c r="M461" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N461" s="1" t="s">
+        <v>2424</v>
+      </c>
+      <c r="O461" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P461" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q461" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R461" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S461" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T461" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U461" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V461" s="1" t="s">
+        <v>2425</v>
+      </c>
+      <c r="W461" s="1" t="s">
+        <v>2422</v>
+      </c>
+      <c r="X461" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y461" s="1" t="s">
+        <v>2426</v>
+      </c>
+      <c r="Z461" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA461" s="1" t="s">
+        <v>2427</v>
+      </c>
+      <c r="AB461" s="1" t="s">
+        <v>2428</v>
+      </c>
+      <c r="AC461" s="1" t="s">
+        <v>2429</v>
+      </c>
+      <c r="AD461" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE461" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF461" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG461" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH461" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI461" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="462" spans="1:35">
+      <c r="A462" s="1" t="s">
+        <v>2430</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>2431</v>
+      </c>
+      <c r="C462" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D462" s="1" t="s">
+        <v>2432</v>
+      </c>
+      <c r="E462" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F462" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G462" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H462" s="1" t="s">
+        <v>2433</v>
+      </c>
+      <c r="I462" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J462" s="1" t="s">
+        <v>2314</v>
+      </c>
+      <c r="K462" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L462" s="1" t="s">
+        <v>2315</v>
+      </c>
+      <c r="M462" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N462" s="1" t="s">
+        <v>2434</v>
+      </c>
+      <c r="O462" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P462" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q462" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R462" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S462" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T462" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U462" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V462" s="1" t="s">
+        <v>2435</v>
+      </c>
+      <c r="W462" s="1" t="s">
+        <v>2431</v>
+      </c>
+      <c r="X462" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y462" s="1" t="s">
+        <v>2436</v>
+      </c>
+      <c r="Z462" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA462" s="1" t="s">
+        <v>1887</v>
+      </c>
+      <c r="AB462" s="1" t="s">
+        <v>1888</v>
+      </c>
+      <c r="AC462" s="1" t="s">
+        <v>2437</v>
+      </c>
+      <c r="AD462" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE462" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF462" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG462" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH462" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI462" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="463" spans="1:35">
+      <c r="A463" s="1" t="s">
+        <v>2438</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>2439</v>
+      </c>
+      <c r="C463" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D463" s="1" t="s">
+        <v>2398</v>
+      </c>
+      <c r="E463" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F463" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G463" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H463" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="I463" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J463" s="1" t="s">
+        <v>2314</v>
+      </c>
+      <c r="K463" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L463" s="1" t="s">
+        <v>2315</v>
+      </c>
+      <c r="M463" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N463" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="O463" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P463" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q463" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R463" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S463" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="T463" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U463" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V463" s="1" t="s">
+        <v>2442</v>
+      </c>
+      <c r="W463" s="1" t="s">
+        <v>2439</v>
+      </c>
+      <c r="X463" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y463" s="1" t="s">
+        <v>2443</v>
+      </c>
+      <c r="Z463" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA463" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="AB463" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="AC463" s="1" t="s">
+        <v>2444</v>
+      </c>
+      <c r="AD463" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE463" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF463" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG463" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH463" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI463" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="464" spans="1:35">
+      <c r="A464" s="1" t="s">
+        <v>2445</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>2446</v>
+      </c>
+      <c r="C464" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D464" s="1" t="s">
+        <v>2447</v>
+      </c>
+      <c r="E464" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F464" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G464" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H464" s="1" t="s">
+        <v>2448</v>
+      </c>
+      <c r="I464" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J464" s="1" t="s">
+        <v>2449</v>
+      </c>
+      <c r="K464" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L464" s="1" t="s">
+        <v>2450</v>
+      </c>
+      <c r="M464" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N464" s="1" t="s">
+        <v>2368</v>
+      </c>
+      <c r="O464" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P464" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q464" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R464" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S464" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T464" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U464" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V464" s="1" t="s">
+        <v>2451</v>
+      </c>
+      <c r="W464" s="1" t="s">
+        <v>2446</v>
+      </c>
+      <c r="X464" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y464" s="1" t="s">
+        <v>2452</v>
+      </c>
+      <c r="Z464" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA464" s="1" t="s">
+        <v>1656</v>
+      </c>
+      <c r="AB464" s="1" t="s">
+        <v>1657</v>
+      </c>
+      <c r="AC464" s="1" t="s">
+        <v>2453</v>
+      </c>
+      <c r="AD464" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE464" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF464" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG464" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH464" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI464" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="465" spans="1:35">
+      <c r="A465" s="1" t="s">
+        <v>2454</v>
+      </c>
+      <c r="B465" s="1" t="s">
+        <v>2455</v>
+      </c>
+      <c r="C465" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D465" s="1" t="s">
+        <v>2456</v>
+      </c>
+      <c r="E465" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F465" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G465" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H465" s="1" t="s">
+        <v>2457</v>
+      </c>
+      <c r="I465" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J465" s="1" t="s">
+        <v>2349</v>
+      </c>
+      <c r="K465" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L465" s="1" t="s">
+        <v>2338</v>
+      </c>
+      <c r="M465" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N465" s="1" t="s">
+        <v>2458</v>
+      </c>
+      <c r="O465" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P465" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q465" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R465" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S465" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T465" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U465" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V465" s="1" t="s">
+        <v>2459</v>
+      </c>
+      <c r="W465" s="1" t="s">
+        <v>2455</v>
+      </c>
+      <c r="X465" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y465" s="1" t="s">
+        <v>2460</v>
+      </c>
+      <c r="Z465" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA465" s="1" t="s">
+        <v>2461</v>
+      </c>
+      <c r="AB465" s="1" t="s">
+        <v>2462</v>
+      </c>
+      <c r="AC465" s="1" t="s">
+        <v>2463</v>
+      </c>
+      <c r="AD465" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE465" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF465" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG465" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH465" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI465" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="466" spans="1:35">
+      <c r="A466" s="1" t="s">
+        <v>2464</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>2465</v>
+      </c>
+      <c r="C466" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D466" s="1" t="s">
+        <v>2466</v>
+      </c>
+      <c r="E466" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F466" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G466" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H466" s="1" t="s">
+        <v>2467</v>
+      </c>
+      <c r="I466" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J466" s="1" t="s">
+        <v>2327</v>
+      </c>
+      <c r="K466" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L466" s="1" t="s">
+        <v>2328</v>
+      </c>
+      <c r="M466" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N466" s="1" t="s">
+        <v>2191</v>
+      </c>
+      <c r="O466" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P466" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q466" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R466" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S466" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T466" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U466" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V466" s="1" t="s">
+        <v>2468</v>
+      </c>
+      <c r="W466" s="1" t="s">
+        <v>2465</v>
+      </c>
+      <c r="X466" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y466" s="1" t="s">
+        <v>2469</v>
+      </c>
+      <c r="Z466" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA466" s="1" t="s">
+        <v>1887</v>
+      </c>
+      <c r="AB466" s="1" t="s">
+        <v>2470</v>
+      </c>
+      <c r="AC466" s="1" t="s">
+        <v>2471</v>
+      </c>
+      <c r="AD466" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE466" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="AF466" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG466" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH466" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI466" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="467" spans="1:35">
+      <c r="A467" s="1" t="s">
+        <v>2472</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>2473</v>
+      </c>
+      <c r="C467" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D467" s="1" t="s">
+        <v>2474</v>
+      </c>
+      <c r="E467" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F467" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G467" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H467" s="1" t="s">
+        <v>2475</v>
+      </c>
+      <c r="I467" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J467" s="1" t="s">
+        <v>2327</v>
+      </c>
+      <c r="K467" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L467" s="1" t="s">
+        <v>2328</v>
+      </c>
+      <c r="M467" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N467" s="1" t="s">
+        <v>2476</v>
+      </c>
+      <c r="O467" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P467" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q467" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R467" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="S467" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T467" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U467" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V467" s="1" t="s">
+        <v>2477</v>
+      </c>
+      <c r="W467" s="1" t="s">
+        <v>2473</v>
+      </c>
+      <c r="X467" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y467" s="1" t="s">
+        <v>2478</v>
+      </c>
+      <c r="Z467" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA467" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="AB467" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="AC467" s="1" t="s">
+        <v>2479</v>
+      </c>
+      <c r="AD467" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE467" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF467" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG467" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH467" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI467" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="468" spans="1:35">
+      <c r="A468" s="1" t="s">
+        <v>2480</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>2481</v>
+      </c>
+      <c r="C468" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D468" s="1" t="s">
+        <v>2482</v>
+      </c>
+      <c r="E468" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F468" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G468" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H468" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="I468" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J468" s="1" t="s">
+        <v>2327</v>
+      </c>
+      <c r="K468" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L468" s="1" t="s">
+        <v>2328</v>
+      </c>
+      <c r="M468" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N468" s="1" t="s">
+        <v>2484</v>
+      </c>
+      <c r="O468" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P468" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q468" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R468" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S468" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T468" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U468" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V468" s="1" t="s">
+        <v>2485</v>
+      </c>
+      <c r="W468" s="1" t="s">
+        <v>2481</v>
+      </c>
+      <c r="X468" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y468" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="Z468" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA468" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="AB468" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="AC468" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="AD468" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE468" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF468" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG468" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH468" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI468" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="469" spans="1:35">
+      <c r="A469" s="1" t="s">
+        <v>2486</v>
+      </c>
+      <c r="B469" s="1" t="s">
+        <v>2487</v>
+      </c>
+      <c r="C469" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D469" s="1" t="s">
+        <v>2488</v>
+      </c>
+      <c r="E469" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F469" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G469" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H469" s="1" t="s">
+        <v>2489</v>
+      </c>
+      <c r="I469" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J469" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="K469" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L469" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="M469" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N469" s="1" t="s">
+        <v>2490</v>
+      </c>
+      <c r="O469" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P469" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q469" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R469" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S469" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T469" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U469" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V469" s="1" t="s">
+        <v>2491</v>
+      </c>
+      <c r="W469" s="1" t="s">
+        <v>2487</v>
+      </c>
+      <c r="X469" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y469" s="1" t="s">
+        <v>2492</v>
+      </c>
+      <c r="Z469" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA469" s="1" t="s">
+        <v>1571</v>
+      </c>
+      <c r="AB469" s="1" t="s">
+        <v>2493</v>
+      </c>
+      <c r="AC469" s="1" t="s">
+        <v>2494</v>
+      </c>
+      <c r="AD469" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE469" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF469" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG469" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH469" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI469" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="470" spans="1:35">
+      <c r="A470" s="1" t="s">
+        <v>2495</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>2496</v>
+      </c>
+      <c r="C470" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D470" s="1" t="s">
+        <v>2497</v>
+      </c>
+      <c r="E470" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F470" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G470" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H470" s="1" t="s">
+        <v>2498</v>
+      </c>
+      <c r="I470" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J470" s="1" t="s">
+        <v>2349</v>
+      </c>
+      <c r="K470" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L470" s="1" t="s">
+        <v>2338</v>
+      </c>
+      <c r="M470" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N470" s="1" t="s">
+        <v>2499</v>
+      </c>
+      <c r="O470" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P470" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q470" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R470" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S470" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T470" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U470" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V470" s="1" t="s">
+        <v>2500</v>
+      </c>
+      <c r="W470" s="1" t="s">
+        <v>2496</v>
+      </c>
+      <c r="X470" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y470" s="1" t="s">
+        <v>2501</v>
+      </c>
+      <c r="Z470" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA470" s="1" t="s">
+        <v>2502</v>
+      </c>
+      <c r="AB470" s="1" t="s">
+        <v>2503</v>
+      </c>
+      <c r="AC470" s="1" t="s">
+        <v>2504</v>
+      </c>
+      <c r="AD470" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE470" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF470" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG470" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH470" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI470" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="471" spans="1:35">
+      <c r="A471" s="1" t="s">
+        <v>2505</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>2506</v>
+      </c>
+      <c r="C471" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D471" s="1" t="s">
+        <v>2507</v>
+      </c>
+      <c r="E471" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F471" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G471" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H471" s="1" t="s">
+        <v>2508</v>
+      </c>
+      <c r="I471" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J471" s="1" t="s">
+        <v>2349</v>
+      </c>
+      <c r="K471" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L471" s="1" t="s">
+        <v>2338</v>
+      </c>
+      <c r="M471" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N471" s="1" t="s">
+        <v>2499</v>
+      </c>
+      <c r="O471" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P471" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q471" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R471" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S471" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T471" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U471" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V471" s="1" t="s">
+        <v>2509</v>
+      </c>
+      <c r="W471" s="1" t="s">
+        <v>2506</v>
+      </c>
+      <c r="X471" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y471" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="Z471" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA471" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="AB471" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="AC471" s="1" t="s">
+        <v>2510</v>
+      </c>
+      <c r="AD471" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE471" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF471" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG471" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH471" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI471" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="472" spans="1:35">
+      <c r="A472" s="1" t="s">
+        <v>2511</v>
+      </c>
+      <c r="B472" s="1" t="s">
+        <v>2512</v>
+      </c>
+      <c r="C472" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D472" s="1" t="s">
+        <v>2406</v>
+      </c>
+      <c r="E472" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F472" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G472" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H472" s="1" t="s">
+        <v>2367</v>
+      </c>
+      <c r="I472" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J472" s="1" t="s">
+        <v>2449</v>
+      </c>
+      <c r="K472" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L472" s="1" t="s">
+        <v>2450</v>
+      </c>
+      <c r="M472" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N472" s="1" t="s">
+        <v>2513</v>
+      </c>
+      <c r="O472" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P472" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q472" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R472" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S472" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T472" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U472" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V472" s="1" t="s">
+        <v>2514</v>
+      </c>
+      <c r="W472" s="1" t="s">
+        <v>2512</v>
+      </c>
+      <c r="X472" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y472" s="1" t="s">
+        <v>2515</v>
+      </c>
+      <c r="Z472" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA472" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="AB472" s="1" t="s">
+        <v>2516</v>
+      </c>
+      <c r="AC472" s="1" t="s">
+        <v>2517</v>
+      </c>
+      <c r="AD472" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE472" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF472" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG472" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH472" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI472" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="473" spans="1:35">
+      <c r="A473" s="1" t="s">
+        <v>2518</v>
+      </c>
+      <c r="B473" s="1" t="s">
+        <v>2519</v>
+      </c>
+      <c r="C473" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D473" s="1" t="s">
+        <v>2520</v>
+      </c>
+      <c r="E473" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F473" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G473" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H473" s="1" t="s">
+        <v>2521</v>
+      </c>
+      <c r="I473" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J473" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="K473" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L473" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="M473" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N473" s="1" t="s">
+        <v>2522</v>
+      </c>
+      <c r="O473" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P473" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q473" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R473" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S473" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T473" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U473" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V473" s="1" t="s">
+        <v>2523</v>
+      </c>
+      <c r="W473" s="1" t="s">
+        <v>2519</v>
+      </c>
+      <c r="X473" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y473" s="1" t="s">
+        <v>2524</v>
+      </c>
+      <c r="Z473" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA473" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="AB473" s="1" t="s">
+        <v>2525</v>
+      </c>
+      <c r="AC473" s="1" t="s">
+        <v>2526</v>
+      </c>
+      <c r="AD473" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AE473" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF473" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG473" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH473" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI473" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="474" spans="1:35">
+      <c r="A474" s="1" t="s">
+        <v>2527</v>
+      </c>
+      <c r="C474" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D474" s="1" t="s">
+        <v>2528</v>
+      </c>
+      <c r="F474" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G474" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="H474" s="1" t="s">
+        <v>2529</v>
+      </c>
+      <c r="I474" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J474" s="1" t="s">
+        <v>2530</v>
+      </c>
+      <c r="L474" s="1" t="s">
+        <v>2531</v>
+      </c>
+      <c r="M474" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N474" s="1" t="s">
+        <v>2532</v>
+      </c>
+      <c r="O474" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P474" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q474" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R474" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S474" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="T474" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U474" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V474" s="1" t="s">
+        <v>2533</v>
+      </c>
+      <c r="W474" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X474" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y474" s="1" t="s">
+        <v>2534</v>
+      </c>
+      <c r="Z474" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA474" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB474" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC474" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD474" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE474" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF474" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG474" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH474" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="AI474" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="475" spans="1:35">
+      <c r="A475" s="1" t="s">
+        <v>2312</v>
+      </c>
+      <c r="B475" s="1" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C475" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D475" s="1" t="s">
+        <v>2313</v>
+      </c>
+      <c r="E475" s="1" t="s">
+        <v>1900</v>
+      </c>
+      <c r="F475" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G475" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H475" s="1" t="s">
+        <v>1443</v>
+      </c>
+      <c r="I475" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J475" s="1" t="s">
+        <v>2314</v>
+      </c>
+      <c r="K475" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L475" s="1" t="s">
+        <v>2315</v>
+      </c>
+      <c r="M475" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N475" s="1" t="s">
+        <v>2316</v>
+      </c>
+      <c r="O475" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P475" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q475" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R475" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S475" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T475" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U475" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="V475" s="1" t="s">
+        <v>1445</v>
+      </c>
+      <c r="W475" s="1" t="s">
+        <v>1441</v>
+      </c>
+      <c r="X475" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y475" s="1" t="s">
+        <v>1446</v>
+      </c>
+      <c r="Z475" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA475" s="1" t="s">
+        <v>1447</v>
+      </c>
+      <c r="AB475" s="1" t="s">
+        <v>1448</v>
+      </c>
+      <c r="AC475" s="1" t="s">
+        <v>1449</v>
+      </c>
+      <c r="AD475" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE475" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="AF475" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG475" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH475" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI475" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="476" spans="1:35">
+      <c r="A476" s="1" t="s">
+        <v>2317</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>2318</v>
+      </c>
+      <c r="C476" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D476" s="1" t="s">
+        <v>2319</v>
+      </c>
+      <c r="E476" s="1" t="s">
+        <v>1900</v>
+      </c>
+      <c r="F476" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G476" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H476" s="1" t="s">
+        <v>2320</v>
+      </c>
+      <c r="I476" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J476" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="K476" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L476" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="M476" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N476" s="1" t="s">
+        <v>2321</v>
+      </c>
+      <c r="O476" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P476" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q476" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R476" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S476" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="T476" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U476" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V476" s="1" t="s">
+        <v>2322</v>
+      </c>
+      <c r="W476" s="1" t="s">
+        <v>2318</v>
+      </c>
+      <c r="X476" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y476" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="Z476" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA476" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB476" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AC476" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AD476" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AE476" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="AF476" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG476" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH476" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI476" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="477" spans="1:35">
+      <c r="A477" s="1" t="s">
+        <v>2323</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>2324</v>
+      </c>
+      <c r="C477" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D477" s="1" t="s">
+        <v>2325</v>
+      </c>
+      <c r="E477" s="1" t="s">
+        <v>1900</v>
+      </c>
+      <c r="F477" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G477" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H477" s="1" t="s">
+        <v>2326</v>
+      </c>
+      <c r="I477" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J477" s="1" t="s">
+        <v>2327</v>
+      </c>
+      <c r="K477" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L477" s="1" t="s">
+        <v>2328</v>
+      </c>
+      <c r="M477" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N477" s="1" t="s">
+        <v>2329</v>
+      </c>
+      <c r="O477" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P477" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q477" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R477" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S477" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T477" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U477" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V477" s="1" t="s">
+        <v>2330</v>
+      </c>
+      <c r="W477" s="1" t="s">
+        <v>2324</v>
+      </c>
+      <c r="X477" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y477" s="1" t="s">
+        <v>2331</v>
+      </c>
+      <c r="Z477" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA477" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="AB477" s="1" t="s">
+        <v>2332</v>
+      </c>
+      <c r="AC477" s="1" t="s">
+        <v>2333</v>
+      </c>
+      <c r="AD477" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE477" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF477" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG477" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH477" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI477" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="478" spans="1:35">
+      <c r="A478" s="1" t="s">
+        <v>2334</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>2335</v>
+      </c>
+      <c r="C478" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D478" s="1" t="s">
+        <v>2336</v>
+      </c>
+      <c r="E478" s="1" t="s">
+        <v>1900</v>
+      </c>
+      <c r="F478" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G478" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H478" s="1" t="s">
+        <v>2337</v>
+      </c>
+      <c r="I478" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J478" s="1" t="s">
+        <v>2338</v>
+      </c>
+      <c r="K478" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L478" s="1" t="s">
+        <v>2339</v>
+      </c>
+      <c r="M478" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N478" s="1" t="s">
+        <v>2340</v>
+      </c>
+      <c r="O478" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P478" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q478" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R478" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S478" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T478" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U478" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V478" s="1" t="s">
+        <v>2341</v>
+      </c>
+      <c r="W478" s="1" t="s">
+        <v>2335</v>
+      </c>
+      <c r="X478" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y478" s="1" t="s">
+        <v>2342</v>
+      </c>
+      <c r="Z478" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA478" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="AB478" s="1" t="s">
+        <v>2343</v>
+      </c>
+      <c r="AC478" s="1" t="s">
+        <v>2344</v>
+      </c>
+      <c r="AD478" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE478" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF478" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG478" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH478" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI478" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="479" spans="1:35">
+      <c r="A479" s="1" t="s">
+        <v>2345</v>
+      </c>
+      <c r="B479" s="1" t="s">
+        <v>2346</v>
+      </c>
+      <c r="C479" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D479" s="1" t="s">
+        <v>2347</v>
+      </c>
+      <c r="E479" s="1" t="s">
+        <v>1900</v>
+      </c>
+      <c r="F479" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G479" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H479" s="1" t="s">
+        <v>2348</v>
+      </c>
+      <c r="I479" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J479" s="1" t="s">
+        <v>2349</v>
+      </c>
+      <c r="K479" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L479" s="1" t="s">
+        <v>2338</v>
+      </c>
+      <c r="M479" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N479" s="1" t="s">
+        <v>2350</v>
+      </c>
+      <c r="O479" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P479" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q479" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R479" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S479" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T479" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U479" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V479" s="1" t="s">
+        <v>2351</v>
+      </c>
+      <c r="W479" s="1" t="s">
+        <v>2346</v>
+      </c>
+      <c r="X479" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y479" s="1" t="s">
+        <v>2352</v>
+      </c>
+      <c r="Z479" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA479" s="1" t="s">
+        <v>2353</v>
+      </c>
+      <c r="AB479" s="1" t="s">
+        <v>2354</v>
+      </c>
+      <c r="AC479" s="1" t="s">
+        <v>2355</v>
+      </c>
+      <c r="AD479" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE479" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF479" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG479" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH479" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI479" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="480" spans="1:35">
+      <c r="A480" s="1" t="s">
+        <v>2356</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>2357</v>
+      </c>
+      <c r="C480" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D480" s="1" t="s">
+        <v>2358</v>
+      </c>
+      <c r="E480" s="1" t="s">
+        <v>1900</v>
+      </c>
+      <c r="F480" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G480" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H480" s="1" t="s">
+        <v>2359</v>
+      </c>
+      <c r="I480" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J480" s="1" t="s">
+        <v>2314</v>
+      </c>
+      <c r="K480" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L480" s="1" t="s">
+        <v>2315</v>
+      </c>
+      <c r="M480" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N480" s="1" t="s">
+        <v>2360</v>
+      </c>
+      <c r="O480" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P480" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q480" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R480" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S480" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="T480" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U480" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V480" s="1" t="s">
+        <v>2361</v>
+      </c>
+      <c r="W480" s="1" t="s">
+        <v>2357</v>
+      </c>
+      <c r="X480" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y480" s="1" t="s">
+        <v>2362</v>
+      </c>
+      <c r="Z480" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA480" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB480" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="AC480" s="1" t="s">
+        <v>2363</v>
+      </c>
+      <c r="AD480" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AE480" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="AF480" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG480" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH480" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI480" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="481" spans="1:35">
+      <c r="A481" s="1" t="s">
+        <v>2364</v>
+      </c>
+      <c r="B481" s="1" t="s">
+        <v>2365</v>
+      </c>
+      <c r="C481" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D481" s="1" t="s">
+        <v>2366</v>
+      </c>
+      <c r="E481" s="1" t="s">
+        <v>1900</v>
+      </c>
+      <c r="F481" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G481" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H481" s="1" t="s">
+        <v>2367</v>
+      </c>
+      <c r="I481" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J481" s="1" t="s">
+        <v>2349</v>
+      </c>
+      <c r="K481" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L481" s="1" t="s">
+        <v>2338</v>
+      </c>
+      <c r="M481" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N481" s="1" t="s">
+        <v>2368</v>
+      </c>
+      <c r="O481" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P481" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q481" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R481" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S481" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T481" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U481" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V481" s="1" t="s">
+        <v>2369</v>
+      </c>
+      <c r="W481" s="1" t="s">
+        <v>2365</v>
+      </c>
+      <c r="X481" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y481" s="1" t="s">
+        <v>2370</v>
+      </c>
+      <c r="Z481" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA481" s="1" t="s">
+        <v>2371</v>
+      </c>
+      <c r="AB481" s="1" t="s">
+        <v>2372</v>
+      </c>
+      <c r="AC481" s="1" t="s">
+        <v>2373</v>
+      </c>
+      <c r="AD481" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE481" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF481" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG481" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH481" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI481" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="482" spans="1:35">
+      <c r="A482" s="1" t="s">
+        <v>2374</v>
+      </c>
+      <c r="B482" s="1" t="s">
+        <v>1881</v>
+      </c>
+      <c r="C482" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D482" s="1" t="s">
+        <v>2375</v>
+      </c>
+      <c r="E482" s="1" t="s">
+        <v>1900</v>
+      </c>
+      <c r="F482" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G482" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H482" s="1" t="s">
+        <v>1883</v>
+      </c>
+      <c r="I482" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J482" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="K482" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L482" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="M482" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N482" s="1" t="s">
+        <v>2376</v>
+      </c>
+      <c r="O482" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P482" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q482" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R482" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S482" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T482" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U482" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="V482" s="1" t="s">
+        <v>1885</v>
+      </c>
+      <c r="W482" s="1" t="s">
+        <v>1881</v>
+      </c>
+      <c r="X482" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y482" s="1" t="s">
+        <v>1886</v>
+      </c>
+      <c r="Z482" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA482" s="1" t="s">
+        <v>1887</v>
+      </c>
+      <c r="AB482" s="1" t="s">
+        <v>1888</v>
+      </c>
+      <c r="AC482" s="1" t="s">
+        <v>1889</v>
+      </c>
+      <c r="AD482" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE482" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF482" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG482" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH482" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI482" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="483" spans="1:35">
+      <c r="A483" s="1" t="s">
+        <v>2377</v>
+      </c>
+      <c r="B483" s="1" t="s">
+        <v>2378</v>
+      </c>
+      <c r="C483" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D483" s="1" t="s">
+        <v>2379</v>
+      </c>
+      <c r="E483" s="1" t="s">
+        <v>2535</v>
+      </c>
+      <c r="F483" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G483" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H483" s="1" t="s">
+        <v>2380</v>
+      </c>
+      <c r="I483" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J483" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="K483" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L483" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="M483" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N483" s="1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="O483" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P483" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q483" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R483" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S483" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T483" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U483" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V483" s="1" t="s">
+        <v>2381</v>
+      </c>
+      <c r="W483" s="1" t="s">
+        <v>2378</v>
+      </c>
+      <c r="X483" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y483" s="1" t="s">
+        <v>2382</v>
+      </c>
+      <c r="Z483" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA483" s="1" t="s">
+        <v>2383</v>
+      </c>
+      <c r="AB483" s="1" t="s">
+        <v>2384</v>
+      </c>
+      <c r="AC483" s="1" t="s">
+        <v>2385</v>
+      </c>
+      <c r="AD483" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE483" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AF483" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG483" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH483" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI483" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="484" spans="1:35">
+      <c r="A484" s="1" t="s">
+        <v>2386</v>
+      </c>
+      <c r="B484" s="1" t="s">
+        <v>2387</v>
+      </c>
+      <c r="C484" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D484" s="1" t="s">
+        <v>2388</v>
+      </c>
+      <c r="E484" s="1" t="s">
+        <v>2535</v>
+      </c>
+      <c r="F484" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G484" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H484" s="1" t="s">
+        <v>2389</v>
+      </c>
+      <c r="I484" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J484" s="1" t="s">
+        <v>2314</v>
+      </c>
+      <c r="K484" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L484" s="1" t="s">
+        <v>2315</v>
+      </c>
+      <c r="M484" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N484" s="1" t="s">
+        <v>2390</v>
+      </c>
+      <c r="O484" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="P484" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q484" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R484" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S484" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T484" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U484" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V484" s="1" t="s">
+        <v>2391</v>
+      </c>
+      <c r="W484" s="1" t="s">
+        <v>2387</v>
+      </c>
+      <c r="X484" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y484" s="1" t="s">
+        <v>2392</v>
+      </c>
+      <c r="Z484" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA484" s="1" t="s">
+        <v>2393</v>
+      </c>
+      <c r="AB484" s="1" t="s">
+        <v>2394</v>
+      </c>
+      <c r="AC484" s="1" t="s">
+        <v>2395</v>
+      </c>
+      <c r="AD484" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AE484" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF484" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG484" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH484" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI484" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="485" spans="1:35">
+      <c r="A485" s="1" t="s">
+        <v>2396</v>
+      </c>
+      <c r="B485" s="1" t="s">
+        <v>2397</v>
+      </c>
+      <c r="C485" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D485" s="1" t="s">
+        <v>2398</v>
+      </c>
+      <c r="E485" s="1" t="s">
+        <v>2535</v>
+      </c>
+      <c r="F485" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G485" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H485" s="1" t="s">
+        <v>2399</v>
+      </c>
+      <c r="I485" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J485" s="1" t="s">
+        <v>2314</v>
+      </c>
+      <c r="K485" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L485" s="1" t="s">
+        <v>2315</v>
+      </c>
+      <c r="M485" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N485" s="1" t="s">
+        <v>2400</v>
+      </c>
+      <c r="O485" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P485" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q485" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R485" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S485" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T485" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U485" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V485" s="1" t="s">
+        <v>2401</v>
+      </c>
+      <c r="W485" s="1" t="s">
+        <v>2397</v>
+      </c>
+      <c r="X485" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y485" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="Z485" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA485" s="1" t="s">
+        <v>2402</v>
+      </c>
+      <c r="AB485" s="1" t="s">
+        <v>2403</v>
+      </c>
+      <c r="AC485" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="AD485" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AE485" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF485" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG485" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH485" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI485" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="486" spans="1:35">
+      <c r="A486" s="1" t="s">
+        <v>2404</v>
+      </c>
+      <c r="B486" s="1" t="s">
+        <v>2405</v>
+      </c>
+      <c r="C486" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D486" s="1" t="s">
+        <v>2406</v>
+      </c>
+      <c r="E486" s="1" t="s">
+        <v>2535</v>
+      </c>
+      <c r="F486" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G486" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H486" s="1" t="s">
+        <v>2407</v>
+      </c>
+      <c r="I486" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J486" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="K486" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L486" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="M486" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N486" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="O486" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P486" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q486" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R486" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S486" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="T486" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U486" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V486" s="1" t="s">
+        <v>2408</v>
+      </c>
+      <c r="W486" s="1" t="s">
+        <v>2405</v>
+      </c>
+      <c r="X486" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y486" s="1" t="s">
+        <v>2409</v>
+      </c>
+      <c r="Z486" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA486" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="AB486" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="AC486" s="1" t="s">
+        <v>2410</v>
+      </c>
+      <c r="AD486" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE486" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF486" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG486" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH486" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI486" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="487" spans="1:35">
+      <c r="A487" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="B487" s="1" t="s">
+        <v>2412</v>
+      </c>
+      <c r="C487" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D487" s="1" t="s">
+        <v>2413</v>
+      </c>
+      <c r="E487" s="1" t="s">
+        <v>2535</v>
+      </c>
+      <c r="F487" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G487" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H487" s="1" t="s">
+        <v>2414</v>
+      </c>
+      <c r="I487" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J487" s="1" t="s">
+        <v>2314</v>
+      </c>
+      <c r="K487" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L487" s="1" t="s">
+        <v>2315</v>
+      </c>
+      <c r="M487" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N487" s="1" t="s">
+        <v>2415</v>
+      </c>
+      <c r="O487" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P487" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q487" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R487" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S487" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T487" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U487" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V487" s="1" t="s">
+        <v>2416</v>
+      </c>
+      <c r="W487" s="1" t="s">
+        <v>2412</v>
+      </c>
+      <c r="X487" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y487" s="1" t="s">
+        <v>2417</v>
+      </c>
+      <c r="Z487" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA487" s="1" t="s">
+        <v>2418</v>
+      </c>
+      <c r="AB487" s="1" t="s">
+        <v>2419</v>
+      </c>
+      <c r="AC487" s="1" t="s">
+        <v>2420</v>
+      </c>
+      <c r="AD487" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AE487" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="AF487" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG487" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH487" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI487" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="488" spans="1:35">
+      <c r="A488" s="1" t="s">
+        <v>2421</v>
+      </c>
+      <c r="B488" s="1" t="s">
+        <v>2422</v>
+      </c>
+      <c r="C488" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D488" s="1" t="s">
+        <v>2423</v>
+      </c>
+      <c r="E488" s="1" t="s">
+        <v>2535</v>
+      </c>
+      <c r="F488" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G488" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H488" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="I488" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J488" s="1" t="s">
+        <v>2314</v>
+      </c>
+      <c r="K488" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L488" s="1" t="s">
+        <v>2315</v>
+      </c>
+      <c r="M488" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N488" s="1" t="s">
+        <v>2424</v>
+      </c>
+      <c r="O488" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P488" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q488" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R488" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S488" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T488" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U488" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V488" s="1" t="s">
+        <v>2425</v>
+      </c>
+      <c r="W488" s="1" t="s">
+        <v>2422</v>
+      </c>
+      <c r="X488" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y488" s="1" t="s">
+        <v>2426</v>
+      </c>
+      <c r="Z488" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA488" s="1" t="s">
+        <v>2427</v>
+      </c>
+      <c r="AB488" s="1" t="s">
+        <v>2428</v>
+      </c>
+      <c r="AC488" s="1" t="s">
+        <v>2429</v>
+      </c>
+      <c r="AD488" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE488" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF488" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG488" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH488" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI488" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="489" spans="1:35">
+      <c r="A489" s="1" t="s">
+        <v>2430</v>
+      </c>
+      <c r="B489" s="1" t="s">
+        <v>2431</v>
+      </c>
+      <c r="C489" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D489" s="1" t="s">
+        <v>2432</v>
+      </c>
+      <c r="E489" s="1" t="s">
+        <v>2535</v>
+      </c>
+      <c r="F489" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G489" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H489" s="1" t="s">
+        <v>2433</v>
+      </c>
+      <c r="I489" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J489" s="1" t="s">
+        <v>2314</v>
+      </c>
+      <c r="K489" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L489" s="1" t="s">
+        <v>2315</v>
+      </c>
+      <c r="M489" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N489" s="1" t="s">
+        <v>2434</v>
+      </c>
+      <c r="O489" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P489" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q489" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R489" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S489" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T489" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U489" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V489" s="1" t="s">
+        <v>2435</v>
+      </c>
+      <c r="W489" s="1" t="s">
+        <v>2431</v>
+      </c>
+      <c r="X489" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y489" s="1" t="s">
+        <v>2436</v>
+      </c>
+      <c r="Z489" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA489" s="1" t="s">
+        <v>1887</v>
+      </c>
+      <c r="AB489" s="1" t="s">
+        <v>1888</v>
+      </c>
+      <c r="AC489" s="1" t="s">
+        <v>2437</v>
+      </c>
+      <c r="AD489" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE489" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF489" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG489" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH489" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI489" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="490" spans="1:35">
+      <c r="A490" s="1" t="s">
+        <v>2438</v>
+      </c>
+      <c r="B490" s="1" t="s">
+        <v>2439</v>
+      </c>
+      <c r="C490" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D490" s="1" t="s">
+        <v>2398</v>
+      </c>
+      <c r="E490" s="1" t="s">
+        <v>2535</v>
+      </c>
+      <c r="F490" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G490" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H490" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="I490" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J490" s="1" t="s">
+        <v>2314</v>
+      </c>
+      <c r="K490" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L490" s="1" t="s">
+        <v>2315</v>
+      </c>
+      <c r="M490" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N490" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="O490" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P490" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q490" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R490" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S490" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="T490" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U490" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V490" s="1" t="s">
+        <v>2442</v>
+      </c>
+      <c r="W490" s="1" t="s">
+        <v>2439</v>
+      </c>
+      <c r="X490" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y490" s="1" t="s">
+        <v>2443</v>
+      </c>
+      <c r="Z490" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA490" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="AB490" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="AC490" s="1" t="s">
+        <v>2444</v>
+      </c>
+      <c r="AD490" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE490" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF490" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG490" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH490" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI490" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="491" spans="1:35">
+      <c r="A491" s="1" t="s">
+        <v>2445</v>
+      </c>
+      <c r="B491" s="1" t="s">
+        <v>2446</v>
+      </c>
+      <c r="C491" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D491" s="1" t="s">
+        <v>2447</v>
+      </c>
+      <c r="E491" s="1" t="s">
+        <v>2535</v>
+      </c>
+      <c r="F491" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G491" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H491" s="1" t="s">
+        <v>2448</v>
+      </c>
+      <c r="I491" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J491" s="1" t="s">
+        <v>2449</v>
+      </c>
+      <c r="K491" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L491" s="1" t="s">
+        <v>2450</v>
+      </c>
+      <c r="M491" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N491" s="1" t="s">
+        <v>2368</v>
+      </c>
+      <c r="O491" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P491" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q491" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R491" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S491" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T491" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U491" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V491" s="1" t="s">
+        <v>2451</v>
+      </c>
+      <c r="W491" s="1" t="s">
+        <v>2446</v>
+      </c>
+      <c r="X491" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y491" s="1" t="s">
+        <v>2452</v>
+      </c>
+      <c r="Z491" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA491" s="1" t="s">
+        <v>1656</v>
+      </c>
+      <c r="AB491" s="1" t="s">
+        <v>1657</v>
+      </c>
+      <c r="AC491" s="1" t="s">
+        <v>2453</v>
+      </c>
+      <c r="AD491" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE491" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF491" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG491" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH491" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI491" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="492" spans="1:35">
+      <c r="A492" s="1" t="s">
+        <v>2454</v>
+      </c>
+      <c r="B492" s="1" t="s">
+        <v>2455</v>
+      </c>
+      <c r="C492" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D492" s="1" t="s">
+        <v>2456</v>
+      </c>
+      <c r="E492" s="1" t="s">
+        <v>2535</v>
+      </c>
+      <c r="F492" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G492" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H492" s="1" t="s">
+        <v>2457</v>
+      </c>
+      <c r="I492" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J492" s="1" t="s">
+        <v>2349</v>
+      </c>
+      <c r="K492" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L492" s="1" t="s">
+        <v>2338</v>
+      </c>
+      <c r="M492" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N492" s="1" t="s">
+        <v>2458</v>
+      </c>
+      <c r="O492" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P492" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q492" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R492" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S492" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T492" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U492" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V492" s="1" t="s">
+        <v>2459</v>
+      </c>
+      <c r="W492" s="1" t="s">
+        <v>2455</v>
+      </c>
+      <c r="X492" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y492" s="1" t="s">
+        <v>2460</v>
+      </c>
+      <c r="Z492" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA492" s="1" t="s">
+        <v>2461</v>
+      </c>
+      <c r="AB492" s="1" t="s">
+        <v>2462</v>
+      </c>
+      <c r="AC492" s="1" t="s">
+        <v>2463</v>
+      </c>
+      <c r="AD492" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE492" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF492" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG492" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH492" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI492" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="493" spans="1:35">
+      <c r="A493" s="1" t="s">
+        <v>2464</v>
+      </c>
+      <c r="B493" s="1" t="s">
+        <v>2465</v>
+      </c>
+      <c r="C493" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D493" s="1" t="s">
+        <v>2466</v>
+      </c>
+      <c r="E493" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F493" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G493" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H493" s="1" t="s">
+        <v>2467</v>
+      </c>
+      <c r="I493" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J493" s="1" t="s">
+        <v>2327</v>
+      </c>
+      <c r="K493" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L493" s="1" t="s">
+        <v>2328</v>
+      </c>
+      <c r="M493" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N493" s="1" t="s">
+        <v>2191</v>
+      </c>
+      <c r="O493" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P493" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q493" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R493" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S493" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T493" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U493" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V493" s="1" t="s">
+        <v>2468</v>
+      </c>
+      <c r="W493" s="1" t="s">
+        <v>2465</v>
+      </c>
+      <c r="X493" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y493" s="1" t="s">
+        <v>2469</v>
+      </c>
+      <c r="Z493" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA493" s="1" t="s">
+        <v>1887</v>
+      </c>
+      <c r="AB493" s="1" t="s">
+        <v>2470</v>
+      </c>
+      <c r="AC493" s="1" t="s">
+        <v>2471</v>
+      </c>
+      <c r="AD493" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE493" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="AF493" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG493" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH493" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI493" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="494" spans="1:35">
+      <c r="A494" s="1" t="s">
+        <v>2472</v>
+      </c>
+      <c r="B494" s="1" t="s">
+        <v>2473</v>
+      </c>
+      <c r="C494" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D494" s="1" t="s">
+        <v>2474</v>
+      </c>
+      <c r="E494" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F494" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G494" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H494" s="1" t="s">
+        <v>2475</v>
+      </c>
+      <c r="I494" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J494" s="1" t="s">
+        <v>2327</v>
+      </c>
+      <c r="K494" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L494" s="1" t="s">
+        <v>2328</v>
+      </c>
+      <c r="M494" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N494" s="1" t="s">
+        <v>2476</v>
+      </c>
+      <c r="O494" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P494" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q494" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R494" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="S494" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T494" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U494" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V494" s="1" t="s">
+        <v>2477</v>
+      </c>
+      <c r="W494" s="1" t="s">
+        <v>2473</v>
+      </c>
+      <c r="X494" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y494" s="1" t="s">
+        <v>2478</v>
+      </c>
+      <c r="Z494" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA494" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="AB494" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="AC494" s="1" t="s">
+        <v>2479</v>
+      </c>
+      <c r="AD494" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE494" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF494" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG494" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH494" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI494" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="495" spans="1:35">
+      <c r="A495" s="1" t="s">
+        <v>2480</v>
+      </c>
+      <c r="B495" s="1" t="s">
+        <v>2481</v>
+      </c>
+      <c r="C495" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D495" s="1" t="s">
+        <v>2482</v>
+      </c>
+      <c r="E495" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F495" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G495" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H495" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="I495" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J495" s="1" t="s">
+        <v>2327</v>
+      </c>
+      <c r="K495" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L495" s="1" t="s">
+        <v>2328</v>
+      </c>
+      <c r="M495" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N495" s="1" t="s">
+        <v>2484</v>
+      </c>
+      <c r="O495" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P495" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q495" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R495" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S495" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T495" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U495" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V495" s="1" t="s">
+        <v>2485</v>
+      </c>
+      <c r="W495" s="1" t="s">
+        <v>2481</v>
+      </c>
+      <c r="X495" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y495" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="Z495" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA495" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="AB495" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="AC495" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="AD495" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE495" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF495" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG495" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH495" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI495" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="496" spans="1:35">
+      <c r="A496" s="1" t="s">
+        <v>2486</v>
+      </c>
+      <c r="B496" s="1" t="s">
+        <v>2487</v>
+      </c>
+      <c r="C496" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D496" s="1" t="s">
+        <v>2488</v>
+      </c>
+      <c r="E496" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F496" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G496" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H496" s="1" t="s">
+        <v>2489</v>
+      </c>
+      <c r="I496" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J496" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="K496" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L496" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="M496" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N496" s="1" t="s">
+        <v>2490</v>
+      </c>
+      <c r="O496" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P496" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q496" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R496" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S496" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T496" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U496" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V496" s="1" t="s">
+        <v>2491</v>
+      </c>
+      <c r="W496" s="1" t="s">
+        <v>2487</v>
+      </c>
+      <c r="X496" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y496" s="1" t="s">
+        <v>2492</v>
+      </c>
+      <c r="Z496" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA496" s="1" t="s">
+        <v>1571</v>
+      </c>
+      <c r="AB496" s="1" t="s">
+        <v>2493</v>
+      </c>
+      <c r="AC496" s="1" t="s">
+        <v>2494</v>
+      </c>
+      <c r="AD496" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE496" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF496" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG496" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH496" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI496" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="497" spans="1:35">
+      <c r="A497" s="1" t="s">
+        <v>2495</v>
+      </c>
+      <c r="B497" s="1" t="s">
+        <v>2496</v>
+      </c>
+      <c r="C497" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D497" s="1" t="s">
+        <v>2497</v>
+      </c>
+      <c r="E497" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F497" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G497" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H497" s="1" t="s">
+        <v>2498</v>
+      </c>
+      <c r="I497" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J497" s="1" t="s">
+        <v>2349</v>
+      </c>
+      <c r="K497" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L497" s="1" t="s">
+        <v>2338</v>
+      </c>
+      <c r="M497" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N497" s="1" t="s">
+        <v>2499</v>
+      </c>
+      <c r="O497" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P497" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q497" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R497" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S497" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T497" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U497" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V497" s="1" t="s">
+        <v>2500</v>
+      </c>
+      <c r="W497" s="1" t="s">
+        <v>2496</v>
+      </c>
+      <c r="X497" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y497" s="1" t="s">
+        <v>2501</v>
+      </c>
+      <c r="Z497" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA497" s="1" t="s">
+        <v>2502</v>
+      </c>
+      <c r="AB497" s="1" t="s">
+        <v>2503</v>
+      </c>
+      <c r="AC497" s="1" t="s">
+        <v>2504</v>
+      </c>
+      <c r="AD497" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE497" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF497" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG497" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH497" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI497" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="498" spans="1:35">
+      <c r="A498" s="1" t="s">
+        <v>2505</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>2506</v>
+      </c>
+      <c r="C498" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D498" s="1" t="s">
+        <v>2507</v>
+      </c>
+      <c r="E498" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F498" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G498" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H498" s="1" t="s">
+        <v>2508</v>
+      </c>
+      <c r="I498" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J498" s="1" t="s">
+        <v>2349</v>
+      </c>
+      <c r="K498" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L498" s="1" t="s">
+        <v>2338</v>
+      </c>
+      <c r="M498" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N498" s="1" t="s">
+        <v>2499</v>
+      </c>
+      <c r="O498" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P498" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q498" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R498" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S498" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T498" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U498" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V498" s="1" t="s">
+        <v>2509</v>
+      </c>
+      <c r="W498" s="1" t="s">
+        <v>2506</v>
+      </c>
+      <c r="X498" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y498" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="Z498" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA498" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="AB498" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="AC498" s="1" t="s">
+        <v>2510</v>
+      </c>
+      <c r="AD498" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE498" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF498" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG498" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH498" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI498" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="499" spans="1:35">
+      <c r="A499" s="1" t="s">
+        <v>2511</v>
+      </c>
+      <c r="B499" s="1" t="s">
+        <v>2512</v>
+      </c>
+      <c r="C499" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D499" s="1" t="s">
+        <v>2406</v>
+      </c>
+      <c r="E499" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F499" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G499" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H499" s="1" t="s">
+        <v>2367</v>
+      </c>
+      <c r="I499" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J499" s="1" t="s">
+        <v>2449</v>
+      </c>
+      <c r="K499" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L499" s="1" t="s">
+        <v>2450</v>
+      </c>
+      <c r="M499" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N499" s="1" t="s">
+        <v>2513</v>
+      </c>
+      <c r="O499" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P499" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q499" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R499" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S499" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T499" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U499" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V499" s="1" t="s">
+        <v>2514</v>
+      </c>
+      <c r="W499" s="1" t="s">
+        <v>2512</v>
+      </c>
+      <c r="X499" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y499" s="1" t="s">
+        <v>2515</v>
+      </c>
+      <c r="Z499" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA499" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="AB499" s="1" t="s">
+        <v>2516</v>
+      </c>
+      <c r="AC499" s="1" t="s">
+        <v>2517</v>
+      </c>
+      <c r="AD499" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE499" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF499" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG499" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH499" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI499" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="500" spans="1:35">
+      <c r="A500" s="1" t="s">
+        <v>2518</v>
+      </c>
+      <c r="B500" s="1" t="s">
+        <v>2519</v>
+      </c>
+      <c r="C500" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D500" s="1" t="s">
+        <v>2520</v>
+      </c>
+      <c r="E500" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F500" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G500" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H500" s="1" t="s">
+        <v>2521</v>
+      </c>
+      <c r="I500" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J500" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="K500" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L500" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="M500" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N500" s="1" t="s">
+        <v>2522</v>
+      </c>
+      <c r="O500" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P500" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q500" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R500" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S500" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T500" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U500" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V500" s="1" t="s">
+        <v>2523</v>
+      </c>
+      <c r="W500" s="1" t="s">
+        <v>2519</v>
+      </c>
+      <c r="X500" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y500" s="1" t="s">
+        <v>2524</v>
+      </c>
+      <c r="Z500" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA500" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="AB500" s="1" t="s">
+        <v>2525</v>
+      </c>
+      <c r="AC500" s="1" t="s">
+        <v>2526</v>
+      </c>
+      <c r="AD500" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AE500" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF500" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG500" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH500" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI500" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AI369">
     <sortState ref="A2:AI369">

--- a/deliveryopenfiber.xlsx
+++ b/deliveryopenfiber.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Foglio1!$A$1:$AI$369</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Foglio1!$A$1:$AI$500</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17465" uniqueCount="2536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18305" uniqueCount="2650">
   <si>
     <t>Codice</t>
   </si>
@@ -7625,6 +7625,348 @@
   </si>
   <si>
     <t>RUSSO GIOVANNI</t>
+  </si>
+  <si>
+    <t>DEL1003550358</t>
+  </si>
+  <si>
+    <t>4224696945530035971</t>
+  </si>
+  <si>
+    <t>18/08/2025 11:56</t>
+  </si>
+  <si>
+    <t>ALESSIA VENERINI</t>
+  </si>
+  <si>
+    <t>18/08/2025 11:30</t>
+  </si>
+  <si>
+    <t>18/08/2025 13:30</t>
+  </si>
+  <si>
+    <t>OPI_3721046</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000970111_59/D</t>
+  </si>
+  <si>
+    <t>SR_01/VOD_0018</t>
+  </si>
+  <si>
+    <t>SR_01/02e22-SP_02</t>
+  </si>
+  <si>
+    <t>SR_01/02e22/I754_VIA ALESSANDRO SPECCHI_59/D_1</t>
+  </si>
+  <si>
+    <t>DEL1003553747</t>
+  </si>
+  <si>
+    <t>4224696945508718080</t>
+  </si>
+  <si>
+    <t>18/08/2025 15:28</t>
+  </si>
+  <si>
+    <t>CARMELA RIZZA</t>
+  </si>
+  <si>
+    <t>07/08/2025 13:16</t>
+  </si>
+  <si>
+    <t>WN_9002064152</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000970113_65</t>
+  </si>
+  <si>
+    <t>SR_01/WIN_0148</t>
+  </si>
+  <si>
+    <t>SR_01/06e24-SP_09</t>
+  </si>
+  <si>
+    <t>SR_01/06e24/I754_VIA ALCIBIADE_65_1_C</t>
+  </si>
+  <si>
+    <t>DEL1003566105</t>
+  </si>
+  <si>
+    <t>4224696945535864601</t>
+  </si>
+  <si>
+    <t>18/08/2025 10:18</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tisera warnakulasuriya krishan</t>
+  </si>
+  <si>
+    <t>18/08/2025 14:30</t>
+  </si>
+  <si>
+    <t>18/08/2025 16:30</t>
+  </si>
+  <si>
+    <t>12/08/2025 11:56</t>
+  </si>
+  <si>
+    <t>OPI_AP_186471</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000971062_46</t>
+  </si>
+  <si>
+    <t>SR_01/VOD_0011</t>
+  </si>
+  <si>
+    <t>SR_01/03w31-SP_02</t>
+  </si>
+  <si>
+    <t>SR_01/03w31/I754_VIA MONTEGRAPPA_62</t>
+  </si>
+  <si>
+    <t>DEL1003557353</t>
+  </si>
+  <si>
+    <t>4224696945526859474</t>
+  </si>
+  <si>
+    <t>18/08/2025 12:48</t>
+  </si>
+  <si>
+    <t>PATRIZIA CANNARELLA</t>
+  </si>
+  <si>
+    <t>18/08/2025 18:00</t>
+  </si>
+  <si>
+    <t>08/08/2025 16:26</t>
+  </si>
+  <si>
+    <t>PORTOPALO DI CAPO PASSERO</t>
+  </si>
+  <si>
+    <t>ENE_00000717487</t>
+  </si>
+  <si>
+    <t>SRBXA</t>
+  </si>
+  <si>
+    <t>19_089_089020_8000967678_61</t>
+  </si>
+  <si>
+    <t>SRBXA/EOF_0003</t>
+  </si>
+  <si>
+    <t>M257_CNO5-SP_01</t>
+  </si>
+  <si>
+    <t>M257_CNO5/M257_141</t>
+  </si>
+  <si>
+    <t>DEL1003579554</t>
+  </si>
+  <si>
+    <t>4224696945505308507</t>
+  </si>
+  <si>
+    <t>18/08/2025 14:28</t>
+  </si>
+  <si>
+    <t>NATALIYA PETRENKO</t>
+  </si>
+  <si>
+    <t>22/08/2025 11:30</t>
+  </si>
+  <si>
+    <t>22/08/2025 13:30</t>
+  </si>
+  <si>
+    <t>18/08/2025 11:36</t>
+  </si>
+  <si>
+    <t>PACHINO</t>
+  </si>
+  <si>
+    <t>TLC_00000000173713</t>
+  </si>
+  <si>
+    <t>SRBWA</t>
+  </si>
+  <si>
+    <t>19_089_089014_8000915960_47</t>
+  </si>
+  <si>
+    <t>SRBWA/EOF_0002</t>
+  </si>
+  <si>
+    <t>G211_CNO2-SP_01</t>
+  </si>
+  <si>
+    <t>G211_CNO2/G211_105</t>
+  </si>
+  <si>
+    <t>DEL1003551917</t>
+  </si>
+  <si>
+    <t>4224696945530038467</t>
+  </si>
+  <si>
+    <t>18/08/2025 11:48</t>
+  </si>
+  <si>
+    <t>ALESSIA FRIDA PERILLO</t>
+  </si>
+  <si>
+    <t>06/08/2025 21:06</t>
+  </si>
+  <si>
+    <t>WN_9002076917</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000956037_6</t>
+  </si>
+  <si>
+    <t>SR_01/WIN_0135</t>
+  </si>
+  <si>
+    <t>SR_01/05e22-SP_06</t>
+  </si>
+  <si>
+    <t>SR_01/05e22/I754_RONCO I BOTTAI_9</t>
+  </si>
+  <si>
+    <t>DEL1003559711</t>
+  </si>
+  <si>
+    <t>4224696945532985061</t>
+  </si>
+  <si>
+    <t>18/08/2025 09:28</t>
+  </si>
+  <si>
+    <t>LUCIANO SACCO</t>
+  </si>
+  <si>
+    <t>18/08/2025 08:30</t>
+  </si>
+  <si>
+    <t>18/08/2025 10:30</t>
+  </si>
+  <si>
+    <t>09/08/2025 16:16</t>
+  </si>
+  <si>
+    <t>ENE_00000723415</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000916291_8</t>
+  </si>
+  <si>
+    <t>SR_01/EOF_0083</t>
+  </si>
+  <si>
+    <t>SR_01/05w13-SP_08</t>
+  </si>
+  <si>
+    <t>SR_01/05w13/I754_VIA DELLA DOGANA_8_A_1</t>
+  </si>
+  <si>
+    <t>DEL1003562906</t>
+  </si>
+  <si>
+    <t>4224696945534949757</t>
+  </si>
+  <si>
+    <t>OSANI PONNAMPERUMAGE FERNANDO</t>
+  </si>
+  <si>
+    <t>9039295140825112</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000916125_11</t>
+  </si>
+  <si>
+    <t>SR_01/SKY_0042</t>
+  </si>
+  <si>
+    <t>SR_01/05e24-SP_04</t>
+  </si>
+  <si>
+    <t>SR_01/05e24/I754_VIA MARIO GEMELLARO_5</t>
+  </si>
+  <si>
+    <t>DEL1003563013</t>
+  </si>
+  <si>
+    <t>4224696945534949793</t>
+  </si>
+  <si>
+    <t>18/08/2025 13:48</t>
+  </si>
+  <si>
+    <t>CONCETTA SALERNO</t>
+  </si>
+  <si>
+    <t>WN_9002080188</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000970274_4</t>
+  </si>
+  <si>
+    <t>SR_01/WIN_0182</t>
+  </si>
+  <si>
+    <t>SR_01/03e34-SP_08</t>
+  </si>
+  <si>
+    <t>SR_01/03e34/I754_VIA ESCHILO_4_1</t>
+  </si>
+  <si>
+    <t>DEL1003554163</t>
+  </si>
+  <si>
+    <t>18/08/2025 16:18</t>
+  </si>
+  <si>
+    <t>DEL1003563391</t>
+  </si>
+  <si>
+    <t>4224696945534949945</t>
+  </si>
+  <si>
+    <t>18/08/2025 12:16</t>
+  </si>
+  <si>
+    <t>WN_9002080215</t>
+  </si>
+  <si>
+    <t>DEL1003568807</t>
+  </si>
+  <si>
+    <t>4224696945536624041</t>
+  </si>
+  <si>
+    <t>18/08/2025 09:48</t>
+  </si>
+  <si>
+    <t>GIUSEPPE RIO</t>
+  </si>
+  <si>
+    <t>13/08/2025 11:46</t>
+  </si>
+  <si>
+    <t>ENE_00000725570</t>
+  </si>
+  <si>
+    <t>19_089_089018_8000967613_8</t>
+  </si>
+  <si>
+    <t>SR_09/02e12-SP_01</t>
+  </si>
+  <si>
+    <t>SR_09/02e12/SR_09/01w12/I785_055</t>
   </si>
 </sst>
 </file>
@@ -7955,10 +8297,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI500"/>
+  <dimension ref="A1:AI524"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A448" sqref="A448:AI500"/>
+    <sheetView tabSelected="1" topLeftCell="A492" workbookViewId="0">
+      <selection activeCell="D507" sqref="D507"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -61365,12 +61707,2576 @@
         <v>57</v>
       </c>
     </row>
+    <row r="501" spans="1:35">
+      <c r="A501" s="1" t="s">
+        <v>2536</v>
+      </c>
+      <c r="B501" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="C501" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D501" s="1" t="s">
+        <v>2538</v>
+      </c>
+      <c r="E501" s="1" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F501" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G501" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H501" s="1" t="s">
+        <v>2539</v>
+      </c>
+      <c r="I501" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J501" s="1" t="s">
+        <v>2540</v>
+      </c>
+      <c r="K501" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L501" s="1" t="s">
+        <v>2541</v>
+      </c>
+      <c r="M501" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N501" s="1" t="s">
+        <v>1600</v>
+      </c>
+      <c r="O501" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P501" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q501" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R501" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S501" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T501" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U501" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V501" s="1" t="s">
+        <v>2542</v>
+      </c>
+      <c r="W501" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="X501" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y501" s="1" t="s">
+        <v>2543</v>
+      </c>
+      <c r="Z501" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA501" s="1" t="s">
+        <v>2544</v>
+      </c>
+      <c r="AB501" s="1" t="s">
+        <v>2545</v>
+      </c>
+      <c r="AC501" s="1" t="s">
+        <v>2546</v>
+      </c>
+      <c r="AD501" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE501" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF501" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG501" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH501" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI501" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="502" spans="1:35">
+      <c r="A502" s="1" t="s">
+        <v>2547</v>
+      </c>
+      <c r="B502" s="1" t="s">
+        <v>2548</v>
+      </c>
+      <c r="C502" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D502" s="1" t="s">
+        <v>2549</v>
+      </c>
+      <c r="E502" s="1" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F502" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G502" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H502" s="1" t="s">
+        <v>2550</v>
+      </c>
+      <c r="I502" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J502" s="1" t="s">
+        <v>2540</v>
+      </c>
+      <c r="K502" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L502" s="1" t="s">
+        <v>2541</v>
+      </c>
+      <c r="M502" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N502" s="1" t="s">
+        <v>2551</v>
+      </c>
+      <c r="O502" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P502" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q502" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R502" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S502" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T502" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U502" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="V502" s="1" t="s">
+        <v>2552</v>
+      </c>
+      <c r="W502" s="1" t="s">
+        <v>2548</v>
+      </c>
+      <c r="X502" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y502" s="1" t="s">
+        <v>2553</v>
+      </c>
+      <c r="Z502" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA502" s="1" t="s">
+        <v>2554</v>
+      </c>
+      <c r="AB502" s="1" t="s">
+        <v>2555</v>
+      </c>
+      <c r="AC502" s="1" t="s">
+        <v>2556</v>
+      </c>
+      <c r="AD502" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE502" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF502" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG502" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH502" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI502" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="503" spans="1:35">
+      <c r="A503" s="1" t="s">
+        <v>2557</v>
+      </c>
+      <c r="B503" s="1" t="s">
+        <v>2558</v>
+      </c>
+      <c r="C503" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D503" s="1" t="s">
+        <v>2559</v>
+      </c>
+      <c r="E503" s="1" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F503" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G503" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H503" s="1" t="s">
+        <v>2560</v>
+      </c>
+      <c r="I503" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J503" s="1" t="s">
+        <v>2561</v>
+      </c>
+      <c r="K503" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L503" s="1" t="s">
+        <v>2562</v>
+      </c>
+      <c r="M503" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N503" s="1" t="s">
+        <v>2563</v>
+      </c>
+      <c r="O503" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P503" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q503" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R503" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S503" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T503" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U503" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V503" s="1" t="s">
+        <v>2564</v>
+      </c>
+      <c r="W503" s="1" t="s">
+        <v>2558</v>
+      </c>
+      <c r="X503" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y503" s="1" t="s">
+        <v>2565</v>
+      </c>
+      <c r="Z503" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA503" s="1" t="s">
+        <v>2566</v>
+      </c>
+      <c r="AB503" s="1" t="s">
+        <v>2567</v>
+      </c>
+      <c r="AC503" s="1" t="s">
+        <v>2568</v>
+      </c>
+      <c r="AD503" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE503" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF503" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG503" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH503" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI503" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="504" spans="1:35">
+      <c r="A504" s="1" t="s">
+        <v>2569</v>
+      </c>
+      <c r="B504" s="1" t="s">
+        <v>2570</v>
+      </c>
+      <c r="C504" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D504" s="1" t="s">
+        <v>2571</v>
+      </c>
+      <c r="E504" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F504" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G504" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H504" s="1" t="s">
+        <v>2572</v>
+      </c>
+      <c r="I504" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J504" s="1" t="s">
+        <v>2562</v>
+      </c>
+      <c r="K504" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L504" s="1" t="s">
+        <v>2573</v>
+      </c>
+      <c r="M504" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N504" s="1" t="s">
+        <v>2574</v>
+      </c>
+      <c r="O504" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P504" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q504" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R504" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S504" s="1" t="s">
+        <v>2575</v>
+      </c>
+      <c r="T504" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U504" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V504" s="1" t="s">
+        <v>2576</v>
+      </c>
+      <c r="W504" s="1" t="s">
+        <v>2570</v>
+      </c>
+      <c r="X504" s="1" t="s">
+        <v>2577</v>
+      </c>
+      <c r="Y504" s="1" t="s">
+        <v>2578</v>
+      </c>
+      <c r="Z504" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA504" s="1" t="s">
+        <v>2579</v>
+      </c>
+      <c r="AB504" s="1" t="s">
+        <v>2580</v>
+      </c>
+      <c r="AC504" s="1" t="s">
+        <v>2581</v>
+      </c>
+      <c r="AD504" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AE504" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF504" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AG504" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH504" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AI504" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="505" spans="1:35">
+      <c r="A505" s="1" t="s">
+        <v>2582</v>
+      </c>
+      <c r="B505" s="1" t="s">
+        <v>2583</v>
+      </c>
+      <c r="C505" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D505" s="1" t="s">
+        <v>2584</v>
+      </c>
+      <c r="E505" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F505" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G505" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H505" s="1" t="s">
+        <v>2585</v>
+      </c>
+      <c r="I505" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J505" s="1" t="s">
+        <v>2586</v>
+      </c>
+      <c r="K505" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L505" s="1" t="s">
+        <v>2587</v>
+      </c>
+      <c r="M505" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N505" s="1" t="s">
+        <v>2588</v>
+      </c>
+      <c r="O505" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P505" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q505" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R505" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S505" s="1" t="s">
+        <v>2589</v>
+      </c>
+      <c r="T505" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U505" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="V505" s="1" t="s">
+        <v>2590</v>
+      </c>
+      <c r="W505" s="1" t="s">
+        <v>2583</v>
+      </c>
+      <c r="X505" s="1" t="s">
+        <v>2591</v>
+      </c>
+      <c r="Y505" s="1" t="s">
+        <v>2592</v>
+      </c>
+      <c r="Z505" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA505" s="1" t="s">
+        <v>2593</v>
+      </c>
+      <c r="AB505" s="1" t="s">
+        <v>2594</v>
+      </c>
+      <c r="AC505" s="1" t="s">
+        <v>2595</v>
+      </c>
+      <c r="AD505" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE505" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF505" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AG505" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH505" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AI505" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="506" spans="1:35">
+      <c r="A506" s="1" t="s">
+        <v>2596</v>
+      </c>
+      <c r="B506" s="1" t="s">
+        <v>2597</v>
+      </c>
+      <c r="C506" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D506" s="1" t="s">
+        <v>2598</v>
+      </c>
+      <c r="E506" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F506" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G506" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H506" s="1" t="s">
+        <v>2599</v>
+      </c>
+      <c r="I506" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J506" s="1" t="s">
+        <v>2540</v>
+      </c>
+      <c r="K506" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L506" s="1" t="s">
+        <v>2541</v>
+      </c>
+      <c r="M506" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N506" s="1" t="s">
+        <v>2600</v>
+      </c>
+      <c r="O506" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P506" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q506" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R506" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S506" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T506" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U506" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V506" s="1" t="s">
+        <v>2601</v>
+      </c>
+      <c r="W506" s="1" t="s">
+        <v>2597</v>
+      </c>
+      <c r="X506" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y506" s="1" t="s">
+        <v>2602</v>
+      </c>
+      <c r="Z506" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA506" s="1" t="s">
+        <v>2603</v>
+      </c>
+      <c r="AB506" s="1" t="s">
+        <v>2604</v>
+      </c>
+      <c r="AC506" s="1" t="s">
+        <v>2605</v>
+      </c>
+      <c r="AD506" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE506" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF506" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG506" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH506" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI506" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="507" spans="1:35">
+      <c r="A507" s="1" t="s">
+        <v>2606</v>
+      </c>
+      <c r="B507" s="1" t="s">
+        <v>2607</v>
+      </c>
+      <c r="C507" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D507" s="1" t="s">
+        <v>2608</v>
+      </c>
+      <c r="E507" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F507" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G507" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H507" s="1" t="s">
+        <v>2609</v>
+      </c>
+      <c r="I507" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J507" s="1" t="s">
+        <v>2610</v>
+      </c>
+      <c r="K507" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L507" s="1" t="s">
+        <v>2611</v>
+      </c>
+      <c r="M507" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N507" s="1" t="s">
+        <v>2612</v>
+      </c>
+      <c r="O507" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P507" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q507" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R507" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S507" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T507" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U507" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V507" s="1" t="s">
+        <v>2613</v>
+      </c>
+      <c r="W507" s="1" t="s">
+        <v>2607</v>
+      </c>
+      <c r="X507" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y507" s="1" t="s">
+        <v>2614</v>
+      </c>
+      <c r="Z507" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA507" s="1" t="s">
+        <v>2615</v>
+      </c>
+      <c r="AB507" s="1" t="s">
+        <v>2616</v>
+      </c>
+      <c r="AC507" s="1" t="s">
+        <v>2617</v>
+      </c>
+      <c r="AD507" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AE507" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF507" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG507" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH507" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI507" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="508" spans="1:35">
+      <c r="A508" s="1" t="s">
+        <v>2618</v>
+      </c>
+      <c r="B508" s="1" t="s">
+        <v>2619</v>
+      </c>
+      <c r="C508" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D508" s="1" t="s">
+        <v>2559</v>
+      </c>
+      <c r="E508" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F508" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G508" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H508" s="1" t="s">
+        <v>2620</v>
+      </c>
+      <c r="I508" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J508" s="1" t="s">
+        <v>2610</v>
+      </c>
+      <c r="K508" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L508" s="1" t="s">
+        <v>2611</v>
+      </c>
+      <c r="M508" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N508" s="1" t="s">
+        <v>2279</v>
+      </c>
+      <c r="O508" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P508" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q508" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R508" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S508" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T508" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U508" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V508" s="1" t="s">
+        <v>2621</v>
+      </c>
+      <c r="W508" s="1" t="s">
+        <v>2619</v>
+      </c>
+      <c r="X508" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y508" s="1" t="s">
+        <v>2622</v>
+      </c>
+      <c r="Z508" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA508" s="1" t="s">
+        <v>2623</v>
+      </c>
+      <c r="AB508" s="1" t="s">
+        <v>2624</v>
+      </c>
+      <c r="AC508" s="1" t="s">
+        <v>2625</v>
+      </c>
+      <c r="AD508" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AE508" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF508" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG508" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH508" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI508" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="509" spans="1:35">
+      <c r="A509" s="1" t="s">
+        <v>2626</v>
+      </c>
+      <c r="B509" s="1" t="s">
+        <v>2627</v>
+      </c>
+      <c r="C509" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D509" s="1" t="s">
+        <v>2628</v>
+      </c>
+      <c r="E509" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F509" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G509" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H509" s="1" t="s">
+        <v>2629</v>
+      </c>
+      <c r="I509" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J509" s="1" t="s">
+        <v>2540</v>
+      </c>
+      <c r="K509" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L509" s="1" t="s">
+        <v>2541</v>
+      </c>
+      <c r="M509" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N509" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="O509" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P509" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q509" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R509" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S509" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T509" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U509" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V509" s="1" t="s">
+        <v>2630</v>
+      </c>
+      <c r="W509" s="1" t="s">
+        <v>2627</v>
+      </c>
+      <c r="X509" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y509" s="1" t="s">
+        <v>2631</v>
+      </c>
+      <c r="Z509" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA509" s="1" t="s">
+        <v>2632</v>
+      </c>
+      <c r="AB509" s="1" t="s">
+        <v>2633</v>
+      </c>
+      <c r="AC509" s="1" t="s">
+        <v>2634</v>
+      </c>
+      <c r="AD509" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE509" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF509" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG509" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH509" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI509" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="510" spans="1:35">
+      <c r="A510" s="1" t="s">
+        <v>2635</v>
+      </c>
+      <c r="B510" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C510" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D510" s="1" t="s">
+        <v>2636</v>
+      </c>
+      <c r="E510" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F510" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G510" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H510" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="I510" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J510" s="1" t="s">
+        <v>2561</v>
+      </c>
+      <c r="K510" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L510" s="1" t="s">
+        <v>2562</v>
+      </c>
+      <c r="M510" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N510" s="1" t="s">
+        <v>1796</v>
+      </c>
+      <c r="O510" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P510" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q510" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R510" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S510" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="T510" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U510" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V510" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="W510" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="X510" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y510" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="Z510" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA510" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="AB510" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AC510" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AD510" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE510" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF510" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG510" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH510" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI510" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="511" spans="1:35">
+      <c r="A511" s="1" t="s">
+        <v>2637</v>
+      </c>
+      <c r="B511" s="1" t="s">
+        <v>2638</v>
+      </c>
+      <c r="C511" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D511" s="1" t="s">
+        <v>2639</v>
+      </c>
+      <c r="E511" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F511" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G511" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H511" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I511" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J511" s="1" t="s">
+        <v>2540</v>
+      </c>
+      <c r="K511" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L511" s="1" t="s">
+        <v>2541</v>
+      </c>
+      <c r="M511" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N511" s="1" t="s">
+        <v>2329</v>
+      </c>
+      <c r="O511" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P511" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q511" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R511" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S511" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="T511" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U511" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V511" s="1" t="s">
+        <v>2640</v>
+      </c>
+      <c r="W511" s="1" t="s">
+        <v>2638</v>
+      </c>
+      <c r="X511" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y511" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z511" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA511" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB511" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC511" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD511" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE511" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF511" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG511" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH511" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI511" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="512" spans="1:35">
+      <c r="A512" s="1" t="s">
+        <v>2641</v>
+      </c>
+      <c r="B512" s="1" t="s">
+        <v>2642</v>
+      </c>
+      <c r="C512" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D512" s="1" t="s">
+        <v>2643</v>
+      </c>
+      <c r="E512" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F512" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G512" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H512" s="1" t="s">
+        <v>2644</v>
+      </c>
+      <c r="I512" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J512" s="1" t="s">
+        <v>2610</v>
+      </c>
+      <c r="K512" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L512" s="1" t="s">
+        <v>2611</v>
+      </c>
+      <c r="M512" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N512" s="1" t="s">
+        <v>2645</v>
+      </c>
+      <c r="O512" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P512" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q512" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R512" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S512" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="T512" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U512" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V512" s="1" t="s">
+        <v>2646</v>
+      </c>
+      <c r="W512" s="1" t="s">
+        <v>2642</v>
+      </c>
+      <c r="X512" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y512" s="1" t="s">
+        <v>2647</v>
+      </c>
+      <c r="Z512" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA512" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="AB512" s="1" t="s">
+        <v>2648</v>
+      </c>
+      <c r="AC512" s="1" t="s">
+        <v>2649</v>
+      </c>
+      <c r="AD512" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AE512" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF512" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG512" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH512" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI512" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="513" spans="1:35">
+      <c r="A513" s="1" t="s">
+        <v>2536</v>
+      </c>
+      <c r="B513" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="C513" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D513" s="1" t="s">
+        <v>2538</v>
+      </c>
+      <c r="E513" s="1" t="s">
+        <v>1900</v>
+      </c>
+      <c r="F513" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G513" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H513" s="1" t="s">
+        <v>2539</v>
+      </c>
+      <c r="I513" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J513" s="1" t="s">
+        <v>2540</v>
+      </c>
+      <c r="K513" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L513" s="1" t="s">
+        <v>2541</v>
+      </c>
+      <c r="M513" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N513" s="1" t="s">
+        <v>1600</v>
+      </c>
+      <c r="O513" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P513" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q513" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R513" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S513" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T513" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U513" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V513" s="1" t="s">
+        <v>2542</v>
+      </c>
+      <c r="W513" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="X513" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y513" s="1" t="s">
+        <v>2543</v>
+      </c>
+      <c r="Z513" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA513" s="1" t="s">
+        <v>2544</v>
+      </c>
+      <c r="AB513" s="1" t="s">
+        <v>2545</v>
+      </c>
+      <c r="AC513" s="1" t="s">
+        <v>2546</v>
+      </c>
+      <c r="AD513" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE513" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF513" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG513" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH513" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI513" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="514" spans="1:35">
+      <c r="A514" s="1" t="s">
+        <v>2547</v>
+      </c>
+      <c r="B514" s="1" t="s">
+        <v>2548</v>
+      </c>
+      <c r="C514" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D514" s="1" t="s">
+        <v>2549</v>
+      </c>
+      <c r="E514" s="1" t="s">
+        <v>1900</v>
+      </c>
+      <c r="F514" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G514" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H514" s="1" t="s">
+        <v>2550</v>
+      </c>
+      <c r="I514" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J514" s="1" t="s">
+        <v>2540</v>
+      </c>
+      <c r="K514" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L514" s="1" t="s">
+        <v>2541</v>
+      </c>
+      <c r="M514" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N514" s="1" t="s">
+        <v>2551</v>
+      </c>
+      <c r="O514" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P514" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q514" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R514" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S514" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T514" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U514" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="V514" s="1" t="s">
+        <v>2552</v>
+      </c>
+      <c r="W514" s="1" t="s">
+        <v>2548</v>
+      </c>
+      <c r="X514" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y514" s="1" t="s">
+        <v>2553</v>
+      </c>
+      <c r="Z514" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA514" s="1" t="s">
+        <v>2554</v>
+      </c>
+      <c r="AB514" s="1" t="s">
+        <v>2555</v>
+      </c>
+      <c r="AC514" s="1" t="s">
+        <v>2556</v>
+      </c>
+      <c r="AD514" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE514" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF514" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG514" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH514" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI514" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="515" spans="1:35">
+      <c r="A515" s="1" t="s">
+        <v>2557</v>
+      </c>
+      <c r="B515" s="1" t="s">
+        <v>2558</v>
+      </c>
+      <c r="C515" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D515" s="1" t="s">
+        <v>2559</v>
+      </c>
+      <c r="E515" s="1" t="s">
+        <v>1900</v>
+      </c>
+      <c r="F515" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G515" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H515" s="1" t="s">
+        <v>2560</v>
+      </c>
+      <c r="I515" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J515" s="1" t="s">
+        <v>2561</v>
+      </c>
+      <c r="K515" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L515" s="1" t="s">
+        <v>2562</v>
+      </c>
+      <c r="M515" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N515" s="1" t="s">
+        <v>2563</v>
+      </c>
+      <c r="O515" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P515" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q515" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R515" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S515" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T515" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U515" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V515" s="1" t="s">
+        <v>2564</v>
+      </c>
+      <c r="W515" s="1" t="s">
+        <v>2558</v>
+      </c>
+      <c r="X515" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y515" s="1" t="s">
+        <v>2565</v>
+      </c>
+      <c r="Z515" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA515" s="1" t="s">
+        <v>2566</v>
+      </c>
+      <c r="AB515" s="1" t="s">
+        <v>2567</v>
+      </c>
+      <c r="AC515" s="1" t="s">
+        <v>2568</v>
+      </c>
+      <c r="AD515" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE515" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF515" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG515" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH515" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI515" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="516" spans="1:35">
+      <c r="A516" s="1" t="s">
+        <v>2569</v>
+      </c>
+      <c r="B516" s="1" t="s">
+        <v>2570</v>
+      </c>
+      <c r="C516" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D516" s="1" t="s">
+        <v>2571</v>
+      </c>
+      <c r="E516" s="1" t="s">
+        <v>1907</v>
+      </c>
+      <c r="F516" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G516" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H516" s="1" t="s">
+        <v>2572</v>
+      </c>
+      <c r="I516" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J516" s="1" t="s">
+        <v>2562</v>
+      </c>
+      <c r="K516" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L516" s="1" t="s">
+        <v>2573</v>
+      </c>
+      <c r="M516" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N516" s="1" t="s">
+        <v>2574</v>
+      </c>
+      <c r="O516" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P516" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q516" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R516" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S516" s="1" t="s">
+        <v>2575</v>
+      </c>
+      <c r="T516" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U516" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V516" s="1" t="s">
+        <v>2576</v>
+      </c>
+      <c r="W516" s="1" t="s">
+        <v>2570</v>
+      </c>
+      <c r="X516" s="1" t="s">
+        <v>2577</v>
+      </c>
+      <c r="Y516" s="1" t="s">
+        <v>2578</v>
+      </c>
+      <c r="Z516" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA516" s="1" t="s">
+        <v>2579</v>
+      </c>
+      <c r="AB516" s="1" t="s">
+        <v>2580</v>
+      </c>
+      <c r="AC516" s="1" t="s">
+        <v>2581</v>
+      </c>
+      <c r="AD516" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AE516" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF516" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AG516" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH516" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AI516" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="517" spans="1:35">
+      <c r="A517" s="1" t="s">
+        <v>2582</v>
+      </c>
+      <c r="B517" s="1" t="s">
+        <v>2583</v>
+      </c>
+      <c r="C517" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D517" s="1" t="s">
+        <v>2584</v>
+      </c>
+      <c r="E517" s="1" t="s">
+        <v>1907</v>
+      </c>
+      <c r="F517" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G517" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H517" s="1" t="s">
+        <v>2585</v>
+      </c>
+      <c r="I517" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J517" s="1" t="s">
+        <v>2586</v>
+      </c>
+      <c r="K517" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L517" s="1" t="s">
+        <v>2587</v>
+      </c>
+      <c r="M517" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N517" s="1" t="s">
+        <v>2588</v>
+      </c>
+      <c r="O517" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P517" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q517" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R517" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S517" s="1" t="s">
+        <v>2589</v>
+      </c>
+      <c r="T517" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U517" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="V517" s="1" t="s">
+        <v>2590</v>
+      </c>
+      <c r="W517" s="1" t="s">
+        <v>2583</v>
+      </c>
+      <c r="X517" s="1" t="s">
+        <v>2591</v>
+      </c>
+      <c r="Y517" s="1" t="s">
+        <v>2592</v>
+      </c>
+      <c r="Z517" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA517" s="1" t="s">
+        <v>2593</v>
+      </c>
+      <c r="AB517" s="1" t="s">
+        <v>2594</v>
+      </c>
+      <c r="AC517" s="1" t="s">
+        <v>2595</v>
+      </c>
+      <c r="AD517" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE517" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF517" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AG517" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH517" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AI517" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="518" spans="1:35">
+      <c r="A518" s="1" t="s">
+        <v>2596</v>
+      </c>
+      <c r="B518" s="1" t="s">
+        <v>2597</v>
+      </c>
+      <c r="C518" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D518" s="1" t="s">
+        <v>2598</v>
+      </c>
+      <c r="E518" s="1" t="s">
+        <v>1903</v>
+      </c>
+      <c r="F518" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G518" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H518" s="1" t="s">
+        <v>2599</v>
+      </c>
+      <c r="I518" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J518" s="1" t="s">
+        <v>2540</v>
+      </c>
+      <c r="K518" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L518" s="1" t="s">
+        <v>2541</v>
+      </c>
+      <c r="M518" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N518" s="1" t="s">
+        <v>2600</v>
+      </c>
+      <c r="O518" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P518" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q518" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R518" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S518" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T518" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U518" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V518" s="1" t="s">
+        <v>2601</v>
+      </c>
+      <c r="W518" s="1" t="s">
+        <v>2597</v>
+      </c>
+      <c r="X518" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y518" s="1" t="s">
+        <v>2602</v>
+      </c>
+      <c r="Z518" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA518" s="1" t="s">
+        <v>2603</v>
+      </c>
+      <c r="AB518" s="1" t="s">
+        <v>2604</v>
+      </c>
+      <c r="AC518" s="1" t="s">
+        <v>2605</v>
+      </c>
+      <c r="AD518" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE518" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF518" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG518" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH518" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI518" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="519" spans="1:35">
+      <c r="A519" s="1" t="s">
+        <v>2606</v>
+      </c>
+      <c r="B519" s="1" t="s">
+        <v>2607</v>
+      </c>
+      <c r="C519" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D519" s="1" t="s">
+        <v>2608</v>
+      </c>
+      <c r="E519" s="1" t="s">
+        <v>1903</v>
+      </c>
+      <c r="F519" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G519" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H519" s="1" t="s">
+        <v>2609</v>
+      </c>
+      <c r="I519" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J519" s="1" t="s">
+        <v>2610</v>
+      </c>
+      <c r="K519" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L519" s="1" t="s">
+        <v>2611</v>
+      </c>
+      <c r="M519" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N519" s="1" t="s">
+        <v>2612</v>
+      </c>
+      <c r="O519" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P519" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q519" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R519" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S519" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T519" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U519" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V519" s="1" t="s">
+        <v>2613</v>
+      </c>
+      <c r="W519" s="1" t="s">
+        <v>2607</v>
+      </c>
+      <c r="X519" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y519" s="1" t="s">
+        <v>2614</v>
+      </c>
+      <c r="Z519" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA519" s="1" t="s">
+        <v>2615</v>
+      </c>
+      <c r="AB519" s="1" t="s">
+        <v>2616</v>
+      </c>
+      <c r="AC519" s="1" t="s">
+        <v>2617</v>
+      </c>
+      <c r="AD519" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AE519" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF519" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG519" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH519" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI519" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="520" spans="1:35">
+      <c r="A520" s="1" t="s">
+        <v>2618</v>
+      </c>
+      <c r="B520" s="1" t="s">
+        <v>2619</v>
+      </c>
+      <c r="C520" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D520" s="1" t="s">
+        <v>2559</v>
+      </c>
+      <c r="E520" s="1" t="s">
+        <v>1903</v>
+      </c>
+      <c r="F520" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G520" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H520" s="1" t="s">
+        <v>2620</v>
+      </c>
+      <c r="I520" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J520" s="1" t="s">
+        <v>2610</v>
+      </c>
+      <c r="K520" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L520" s="1" t="s">
+        <v>2611</v>
+      </c>
+      <c r="M520" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N520" s="1" t="s">
+        <v>2279</v>
+      </c>
+      <c r="O520" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P520" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q520" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R520" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S520" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T520" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U520" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V520" s="1" t="s">
+        <v>2621</v>
+      </c>
+      <c r="W520" s="1" t="s">
+        <v>2619</v>
+      </c>
+      <c r="X520" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y520" s="1" t="s">
+        <v>2622</v>
+      </c>
+      <c r="Z520" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA520" s="1" t="s">
+        <v>2623</v>
+      </c>
+      <c r="AB520" s="1" t="s">
+        <v>2624</v>
+      </c>
+      <c r="AC520" s="1" t="s">
+        <v>2625</v>
+      </c>
+      <c r="AD520" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AE520" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF520" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG520" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH520" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI520" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="521" spans="1:35">
+      <c r="A521" s="1" t="s">
+        <v>2626</v>
+      </c>
+      <c r="B521" s="1" t="s">
+        <v>2627</v>
+      </c>
+      <c r="C521" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D521" s="1" t="s">
+        <v>2628</v>
+      </c>
+      <c r="E521" s="1" t="s">
+        <v>1903</v>
+      </c>
+      <c r="F521" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G521" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H521" s="1" t="s">
+        <v>2629</v>
+      </c>
+      <c r="I521" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J521" s="1" t="s">
+        <v>2540</v>
+      </c>
+      <c r="K521" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L521" s="1" t="s">
+        <v>2541</v>
+      </c>
+      <c r="M521" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N521" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="O521" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P521" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q521" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R521" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S521" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T521" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U521" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V521" s="1" t="s">
+        <v>2630</v>
+      </c>
+      <c r="W521" s="1" t="s">
+        <v>2627</v>
+      </c>
+      <c r="X521" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y521" s="1" t="s">
+        <v>2631</v>
+      </c>
+      <c r="Z521" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA521" s="1" t="s">
+        <v>2632</v>
+      </c>
+      <c r="AB521" s="1" t="s">
+        <v>2633</v>
+      </c>
+      <c r="AC521" s="1" t="s">
+        <v>2634</v>
+      </c>
+      <c r="AD521" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE521" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF521" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG521" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH521" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI521" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="522" spans="1:35">
+      <c r="A522" s="1" t="s">
+        <v>2635</v>
+      </c>
+      <c r="B522" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C522" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D522" s="1" t="s">
+        <v>2636</v>
+      </c>
+      <c r="E522" s="1" t="s">
+        <v>1902</v>
+      </c>
+      <c r="F522" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G522" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H522" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="I522" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J522" s="1" t="s">
+        <v>2561</v>
+      </c>
+      <c r="K522" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L522" s="1" t="s">
+        <v>2562</v>
+      </c>
+      <c r="M522" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N522" s="1" t="s">
+        <v>1796</v>
+      </c>
+      <c r="O522" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P522" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q522" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R522" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S522" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="T522" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U522" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V522" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="W522" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="X522" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y522" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="Z522" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA522" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="AB522" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AC522" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AD522" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE522" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF522" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG522" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH522" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI522" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="523" spans="1:35">
+      <c r="A523" s="1" t="s">
+        <v>2637</v>
+      </c>
+      <c r="B523" s="1" t="s">
+        <v>2638</v>
+      </c>
+      <c r="C523" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D523" s="1" t="s">
+        <v>2639</v>
+      </c>
+      <c r="E523" s="1" t="s">
+        <v>1902</v>
+      </c>
+      <c r="F523" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G523" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H523" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I523" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J523" s="1" t="s">
+        <v>2540</v>
+      </c>
+      <c r="K523" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L523" s="1" t="s">
+        <v>2541</v>
+      </c>
+      <c r="M523" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N523" s="1" t="s">
+        <v>2329</v>
+      </c>
+      <c r="O523" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P523" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q523" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R523" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S523" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="T523" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U523" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V523" s="1" t="s">
+        <v>2640</v>
+      </c>
+      <c r="W523" s="1" t="s">
+        <v>2638</v>
+      </c>
+      <c r="X523" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y523" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z523" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA523" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB523" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC523" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD523" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE523" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF523" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG523" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH523" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI523" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="524" spans="1:35">
+      <c r="A524" s="1" t="s">
+        <v>2641</v>
+      </c>
+      <c r="B524" s="1" t="s">
+        <v>2642</v>
+      </c>
+      <c r="C524" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D524" s="1" t="s">
+        <v>2643</v>
+      </c>
+      <c r="E524" s="1" t="s">
+        <v>1902</v>
+      </c>
+      <c r="F524" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G524" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H524" s="1" t="s">
+        <v>2644</v>
+      </c>
+      <c r="I524" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J524" s="1" t="s">
+        <v>2610</v>
+      </c>
+      <c r="K524" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L524" s="1" t="s">
+        <v>2611</v>
+      </c>
+      <c r="M524" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N524" s="1" t="s">
+        <v>2645</v>
+      </c>
+      <c r="O524" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P524" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q524" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R524" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S524" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="T524" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U524" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V524" s="1" t="s">
+        <v>2646</v>
+      </c>
+      <c r="W524" s="1" t="s">
+        <v>2642</v>
+      </c>
+      <c r="X524" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y524" s="1" t="s">
+        <v>2647</v>
+      </c>
+      <c r="Z524" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA524" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="AB524" s="1" t="s">
+        <v>2648</v>
+      </c>
+      <c r="AC524" s="1" t="s">
+        <v>2649</v>
+      </c>
+      <c r="AD524" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AE524" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF524" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG524" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH524" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI524" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AI369">
-    <sortState ref="A2:AI369">
-      <sortCondition ref="D1:D369"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:AI500"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/deliveryopenfiber.xlsx
+++ b/deliveryopenfiber.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18305" uniqueCount="2650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19845" uniqueCount="2853">
   <si>
     <t>Codice</t>
   </si>
@@ -7967,16 +7967,630 @@
   </si>
   <si>
     <t>SR_09/02e12/SR_09/01w12/I785_055</t>
+  </si>
+  <si>
+    <t>DEL1003571378</t>
+  </si>
+  <si>
+    <t>4224696945537219729</t>
+  </si>
+  <si>
+    <t>19/08/2025 14:48</t>
+  </si>
+  <si>
+    <t>ANGIOLETTA BARONE</t>
+  </si>
+  <si>
+    <t>19/08/2025 16:30</t>
+  </si>
+  <si>
+    <t>19/08/2025 18:00</t>
+  </si>
+  <si>
+    <t>14/08/2025 10:56</t>
+  </si>
+  <si>
+    <t>ENE_00000726218</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000970053_30</t>
+  </si>
+  <si>
+    <t>SR_01/02e23-SP_08</t>
+  </si>
+  <si>
+    <t>SR_01/02e23/I754_VIA ANTONELLO DA MESSINA_30_1</t>
+  </si>
+  <si>
+    <t>DEL1003571619</t>
+  </si>
+  <si>
+    <t>4224696945537220002</t>
+  </si>
+  <si>
+    <t>19/08/2025 10:38</t>
+  </si>
+  <si>
+    <t>VINCENZO SCIACCA</t>
+  </si>
+  <si>
+    <t>14/08/2025 12:46</t>
+  </si>
+  <si>
+    <t>ILA_1755165016357</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000970372_17</t>
+  </si>
+  <si>
+    <t>SR_01/ILD_0003</t>
+  </si>
+  <si>
+    <t>SR_01/01w31-SP_07</t>
+  </si>
+  <si>
+    <t>SR_01/01w31/I754_VIA GIOVANNI MALFITANO_17_1</t>
+  </si>
+  <si>
+    <t>DEL1003571970</t>
+  </si>
+  <si>
+    <t>4224696945537219854</t>
+  </si>
+  <si>
+    <t>19/08/2025 10:18</t>
+  </si>
+  <si>
+    <t>TAMARA VINCI</t>
+  </si>
+  <si>
+    <t>14/08/2025 15:06</t>
+  </si>
+  <si>
+    <t>WN_9002079185</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000969270_28</t>
+  </si>
+  <si>
+    <t>SR_01/WIN_0128</t>
+  </si>
+  <si>
+    <t>SR_01/06w23-SP_07</t>
+  </si>
+  <si>
+    <t>SR_01/06w23/I754_VIA SALVATORE MONTEFORTE_28_1</t>
+  </si>
+  <si>
+    <t>DEL1003574156</t>
+  </si>
+  <si>
+    <t>4224696945537221889</t>
+  </si>
+  <si>
+    <t>19/08/2025 11:09</t>
+  </si>
+  <si>
+    <t>ISABELLA MEOMARTINI</t>
+  </si>
+  <si>
+    <t>19/08/2025 11:30</t>
+  </si>
+  <si>
+    <t>19/08/2025 13:30</t>
+  </si>
+  <si>
+    <t>15/08/2025 18:36</t>
+  </si>
+  <si>
+    <t>ILA_1755274804821</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000970325_86</t>
+  </si>
+  <si>
+    <t>SR_01/ILD_0042</t>
+  </si>
+  <si>
+    <t>SR_01/05e22-SP_05</t>
+  </si>
+  <si>
+    <t>SR_01/05e22/I754_VIA DIONE_86_1</t>
+  </si>
+  <si>
+    <t>DEL1003579092</t>
+  </si>
+  <si>
+    <t>4224696945537222246</t>
+  </si>
+  <si>
+    <t>19/08/2025 17:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> THINK TANK REALTOR S.R.L.S.</t>
+  </si>
+  <si>
+    <t>18/08/2025 09:16</t>
+  </si>
+  <si>
+    <t>OPI_3728070</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000970095_9</t>
+  </si>
+  <si>
+    <t>SR_01/VOD_0148</t>
+  </si>
+  <si>
+    <t>SR_01/03e14-SP_11</t>
+  </si>
+  <si>
+    <t>SR_01/03e14/I754_VIA TEVERE_50_1</t>
+  </si>
+  <si>
+    <t>DEL1003579745</t>
+  </si>
+  <si>
+    <t>4224696945537812770</t>
+  </si>
+  <si>
+    <t>19/08/2025 16:48</t>
+  </si>
+  <si>
+    <t>ANDREA BIANCA</t>
+  </si>
+  <si>
+    <t>18/08/2025 12:46</t>
+  </si>
+  <si>
+    <t>WN_9002084218</t>
+  </si>
+  <si>
+    <t>19_089_089017_8001005533_199</t>
+  </si>
+  <si>
+    <t>SR_01/WIN_0127</t>
+  </si>
+  <si>
+    <t>SR_01/01w12-SP_09</t>
+  </si>
+  <si>
+    <t>SR_01/01w12/I754_VIALE SCALA GRECA_199_1_A</t>
+  </si>
+  <si>
+    <t>DEL1003563463</t>
+  </si>
+  <si>
+    <t>4224696945534949519</t>
+  </si>
+  <si>
+    <t>19/08/2025 16:18</t>
+  </si>
+  <si>
+    <t>EMILIANO SALADINO</t>
+  </si>
+  <si>
+    <t>11/08/2025 14:06</t>
+  </si>
+  <si>
+    <t>FW_SP0000001632687</t>
+  </si>
+  <si>
+    <t>19_089_089017_8001295239_SNC37</t>
+  </si>
+  <si>
+    <t>SR_01/03w12-SP_09</t>
+  </si>
+  <si>
+    <t>SR_01/03w12/I754_VIALE TICA_33</t>
+  </si>
+  <si>
+    <t>DEL1003569642</t>
+  </si>
+  <si>
+    <t>4224696945536625022</t>
+  </si>
+  <si>
+    <t>19/08/2025 09:48</t>
+  </si>
+  <si>
+    <t>Nicola Buccheri</t>
+  </si>
+  <si>
+    <t>13/08/2025 16:56</t>
+  </si>
+  <si>
+    <t>ARU_174854156</t>
+  </si>
+  <si>
+    <t>19_089_089017_8001078061_15</t>
+  </si>
+  <si>
+    <t>SR_01/EOF_0077</t>
+  </si>
+  <si>
+    <t>SR_01/03e44-SP_08</t>
+  </si>
+  <si>
+    <t>SR_01/03e44/I754_VIA SANT'AGNESE_15_1</t>
+  </si>
+  <si>
+    <t>DEL1003571176</t>
+  </si>
+  <si>
+    <t>4224696945536626738</t>
+  </si>
+  <si>
+    <t>19/08/2025 15:28</t>
+  </si>
+  <si>
+    <t>GIULIA REALE</t>
+  </si>
+  <si>
+    <t>19/08/2025 14:30</t>
+  </si>
+  <si>
+    <t>FW_SP0000001634537</t>
+  </si>
+  <si>
+    <t>19_089_089017_8001005525_51</t>
+  </si>
+  <si>
+    <t>SR_01/01w33-SP_10</t>
+  </si>
+  <si>
+    <t>SR_01/01w33/I754_VIALE TERACATI_51_D</t>
+  </si>
+  <si>
+    <t>DEL1003572456</t>
+  </si>
+  <si>
+    <t>4224696945537220798</t>
+  </si>
+  <si>
+    <t>19/08/2025 16:38</t>
+  </si>
+  <si>
+    <t>IDA CANDELA</t>
+  </si>
+  <si>
+    <t>14/08/2025 18:26</t>
+  </si>
+  <si>
+    <t>COC_90000000185117</t>
+  </si>
+  <si>
+    <t>19_089_089017_8001413549_1</t>
+  </si>
+  <si>
+    <t>SR_01/02w12/I754_VIA ETTORE TROIANO_1_1</t>
+  </si>
+  <si>
+    <t>DEL1003579096</t>
+  </si>
+  <si>
+    <t>4224696945537223025</t>
+  </si>
+  <si>
+    <t>SEBASTIANO PATANE'</t>
+  </si>
+  <si>
+    <t>OPI_3728643</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000970412_7</t>
+  </si>
+  <si>
+    <t>SR_01/VOD_0008</t>
+  </si>
+  <si>
+    <t>SR_01/02w41-SP_02</t>
+  </si>
+  <si>
+    <t>SR_01/02w41/I754_VIA DANIMARCA_7_1</t>
+  </si>
+  <si>
+    <t>DEL1003563032</t>
+  </si>
+  <si>
+    <t>4224696945534949661</t>
+  </si>
+  <si>
+    <t>19/08/2025 12:36</t>
+  </si>
+  <si>
+    <t>GIUSEPPE ORLANDO</t>
+  </si>
+  <si>
+    <t>11/08/2025 11:46</t>
+  </si>
+  <si>
+    <t>WN_9002080131</t>
+  </si>
+  <si>
+    <t>19_089_089021_8000915439_96</t>
+  </si>
+  <si>
+    <t>SR_12/01w23/SR_12/01w23/M279_068</t>
+  </si>
+  <si>
+    <t>DEL1003563288</t>
+  </si>
+  <si>
+    <t>4224696945534950029</t>
+  </si>
+  <si>
+    <t>GIOVANNI SCARFALLOTO</t>
+  </si>
+  <si>
+    <t>11/08/2025 13:06</t>
+  </si>
+  <si>
+    <t>ILA_1754905506383</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000970289_10C</t>
+  </si>
+  <si>
+    <t>SR_01/06w33-SP_11</t>
+  </si>
+  <si>
+    <t>SR_01/06w33/I754_VIA GAETANO BARRESI_10C_1_C</t>
+  </si>
+  <si>
+    <t>DEL1003567132</t>
+  </si>
+  <si>
+    <t>4224696945535865765</t>
+  </si>
+  <si>
+    <t>paolo gozzo</t>
+  </si>
+  <si>
+    <t>12/08/2025 17:46</t>
+  </si>
+  <si>
+    <t>1187264529568689</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000970107_23B</t>
+  </si>
+  <si>
+    <t>DEL1003572017</t>
+  </si>
+  <si>
+    <t>4224696945537219810</t>
+  </si>
+  <si>
+    <t>19/08/2025 10:26</t>
+  </si>
+  <si>
+    <t>S.R.L S.G.PNEUMATICI S.R.L</t>
+  </si>
+  <si>
+    <t>14/08/2025 15:26</t>
+  </si>
+  <si>
+    <t>FW_SP0000001633495</t>
+  </si>
+  <si>
+    <t>19_089_089017_8001005534_85</t>
+  </si>
+  <si>
+    <t>SR_01/EOF_0108</t>
+  </si>
+  <si>
+    <t>SR_01/04w11-SP_09</t>
+  </si>
+  <si>
+    <t>SR_01/04w11/I754_VIALE POLIBIO_85_1</t>
+  </si>
+  <si>
+    <t>DEL1003572547</t>
+  </si>
+  <si>
+    <t>4224696945537221210</t>
+  </si>
+  <si>
+    <t>SALVATORE MONTEDURO</t>
+  </si>
+  <si>
+    <t>14/08/2025 19:26</t>
+  </si>
+  <si>
+    <t>TLC_00000000185191</t>
+  </si>
+  <si>
+    <t>19_089_089021_8000967733_4</t>
+  </si>
+  <si>
+    <t>SR_12/01w11/SR_12/01w11/M279_035</t>
+  </si>
+  <si>
+    <t>DEL1003570116</t>
+  </si>
+  <si>
+    <t>4224696945536625216</t>
+  </si>
+  <si>
+    <t>19/08/2025 15:38</t>
+  </si>
+  <si>
+    <t>VERONICA ARDUINI</t>
+  </si>
+  <si>
+    <t>13/08/2025 20:36</t>
+  </si>
+  <si>
+    <t>WN_9002082952</t>
+  </si>
+  <si>
+    <t>19_089_089017_8001005528_141</t>
+  </si>
+  <si>
+    <t>SR_01/WIN_0006</t>
+  </si>
+  <si>
+    <t>SR_01/02w21-SP_01</t>
+  </si>
+  <si>
+    <t>SR_01/02w21/I754_VIALE SANTA PANAGIA_141_1_B</t>
+  </si>
+  <si>
+    <t>DEL1003570856</t>
+  </si>
+  <si>
+    <t>4224696945536626042</t>
+  </si>
+  <si>
+    <t>19/08/2025 11:08</t>
+  </si>
+  <si>
+    <t>EMANUELE PICCIONE</t>
+  </si>
+  <si>
+    <t>14/08/2025 07:36</t>
+  </si>
+  <si>
+    <t>FW_SP0000001635256</t>
+  </si>
+  <si>
+    <t>19_089_089009_8000975536_40</t>
+  </si>
+  <si>
+    <t>SR_09/01e34/SR_09/01e34/D636_016</t>
+  </si>
+  <si>
+    <t>DEL1003571557</t>
+  </si>
+  <si>
+    <t>4224696945537219476</t>
+  </si>
+  <si>
+    <t>19/08/2025 07:16</t>
+  </si>
+  <si>
+    <t>ELGA PROCOPIO</t>
+  </si>
+  <si>
+    <t>14/08/2025 12:16</t>
+  </si>
+  <si>
+    <t>COC_90000000184829</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000969275_62</t>
+  </si>
+  <si>
+    <t>SR_01/EOF_0002</t>
+  </si>
+  <si>
+    <t>SR_01/01w22-SP_03</t>
+  </si>
+  <si>
+    <t>SR_01/01w22/I754_VIA SIGMUND FREUD_62_A</t>
+  </si>
+  <si>
+    <t>DEL1003571863</t>
+  </si>
+  <si>
+    <t>4224696945536626689</t>
+  </si>
+  <si>
+    <t>19/08/2025 12:48</t>
+  </si>
+  <si>
+    <t>BRUNO CANTO</t>
+  </si>
+  <si>
+    <t>14/08/2025 14:36</t>
+  </si>
+  <si>
+    <t>OPI_3707964</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000969036_2</t>
+  </si>
+  <si>
+    <t>SR_01/VOD_0040</t>
+  </si>
+  <si>
+    <t>SR_01/04e42-SP_02</t>
+  </si>
+  <si>
+    <t>SR_01/04e42/I754_VIA ROMAGNA_2_1_A</t>
+  </si>
+  <si>
+    <t>DEL1003573470</t>
+  </si>
+  <si>
+    <t>4224696945537221616</t>
+  </si>
+  <si>
+    <t>19/08/2025 09:38</t>
+  </si>
+  <si>
+    <t>LUCA ROMANO</t>
+  </si>
+  <si>
+    <t>15/08/2025 08:26</t>
+  </si>
+  <si>
+    <t>ILA_1754829607628</t>
+  </si>
+  <si>
+    <t>SR_01/ILD_0040</t>
+  </si>
+  <si>
+    <t>SR_01/04e42-SP_06</t>
+  </si>
+  <si>
+    <t>SR_01/04e42/I754_VIA ROMAGNA_2_1_B</t>
+  </si>
+  <si>
+    <t>DEL1003575796</t>
+  </si>
+  <si>
+    <t>4224696945537222457</t>
+  </si>
+  <si>
+    <t>19/08/2025 16:28</t>
+  </si>
+  <si>
+    <t>DAVIDE VELLA</t>
+  </si>
+  <si>
+    <t>16/08/2025 14:56</t>
+  </si>
+  <si>
+    <t>ILA_1755347710085</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000970383_12</t>
+  </si>
+  <si>
+    <t>SR_01/02e31-SP_07</t>
+  </si>
+  <si>
+    <t>SR_01/02e31/I754_VIA GIACOMO SERPOTTA_12_1</t>
+  </si>
+  <si>
+    <t>GIONFRIDDO ANDREA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -7999,10 +8613,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -8297,10 +8912,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI524"/>
+  <dimension ref="A1:AI568"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A492" workbookViewId="0">
-      <selection activeCell="D507" sqref="D507"/>
+    <sheetView tabSelected="1" topLeftCell="A534" workbookViewId="0">
+      <selection activeCell="D543" sqref="D543"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -64275,6 +64890,4714 @@
         <v>57</v>
       </c>
     </row>
+    <row r="525" spans="1:35">
+      <c r="A525" s="1" t="s">
+        <v>2650</v>
+      </c>
+      <c r="B525" s="1" t="s">
+        <v>2651</v>
+      </c>
+      <c r="C525" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D525" s="1" t="s">
+        <v>2652</v>
+      </c>
+      <c r="E525" s="1" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F525" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G525" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H525" s="1" t="s">
+        <v>2653</v>
+      </c>
+      <c r="I525" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J525" s="1" t="s">
+        <v>2654</v>
+      </c>
+      <c r="K525" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L525" s="1" t="s">
+        <v>2655</v>
+      </c>
+      <c r="M525" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N525" s="1" t="s">
+        <v>2656</v>
+      </c>
+      <c r="O525" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P525" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q525" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R525" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S525" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T525" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U525" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V525" s="1" t="s">
+        <v>2657</v>
+      </c>
+      <c r="W525" s="1" t="s">
+        <v>2651</v>
+      </c>
+      <c r="X525" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y525" s="1" t="s">
+        <v>2658</v>
+      </c>
+      <c r="Z525" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA525" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="AB525" s="1" t="s">
+        <v>2659</v>
+      </c>
+      <c r="AC525" s="1" t="s">
+        <v>2660</v>
+      </c>
+      <c r="AD525" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AE525" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF525" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG525" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH525" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI525" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="526" spans="1:35">
+      <c r="A526" s="1" t="s">
+        <v>2661</v>
+      </c>
+      <c r="B526" s="1" t="s">
+        <v>2662</v>
+      </c>
+      <c r="C526" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D526" s="1" t="s">
+        <v>2663</v>
+      </c>
+      <c r="E526" s="1" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F526" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G526" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H526" s="1" t="s">
+        <v>2664</v>
+      </c>
+      <c r="I526" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J526" s="1" t="s">
+        <v>2530</v>
+      </c>
+      <c r="K526" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L526" s="1" t="s">
+        <v>2531</v>
+      </c>
+      <c r="M526" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N526" s="1" t="s">
+        <v>2665</v>
+      </c>
+      <c r="O526" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P526" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q526" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R526" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S526" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T526" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U526" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V526" s="1" t="s">
+        <v>2666</v>
+      </c>
+      <c r="W526" s="1" t="s">
+        <v>2662</v>
+      </c>
+      <c r="X526" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y526" s="1" t="s">
+        <v>2667</v>
+      </c>
+      <c r="Z526" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA526" s="1" t="s">
+        <v>2668</v>
+      </c>
+      <c r="AB526" s="1" t="s">
+        <v>2669</v>
+      </c>
+      <c r="AC526" s="1" t="s">
+        <v>2670</v>
+      </c>
+      <c r="AD526" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE526" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF526" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG526" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH526" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI526" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="527" spans="1:35">
+      <c r="A527" s="1" t="s">
+        <v>2671</v>
+      </c>
+      <c r="B527" s="1" t="s">
+        <v>2672</v>
+      </c>
+      <c r="C527" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D527" s="1" t="s">
+        <v>2673</v>
+      </c>
+      <c r="E527" s="1" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F527" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G527" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H527" s="1" t="s">
+        <v>2674</v>
+      </c>
+      <c r="I527" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J527" s="1" t="s">
+        <v>2654</v>
+      </c>
+      <c r="K527" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L527" s="1" t="s">
+        <v>2655</v>
+      </c>
+      <c r="M527" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N527" s="1" t="s">
+        <v>2675</v>
+      </c>
+      <c r="O527" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P527" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q527" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R527" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S527" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T527" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U527" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V527" s="1" t="s">
+        <v>2676</v>
+      </c>
+      <c r="W527" s="1" t="s">
+        <v>2672</v>
+      </c>
+      <c r="X527" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y527" s="1" t="s">
+        <v>2677</v>
+      </c>
+      <c r="Z527" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA527" s="1" t="s">
+        <v>2678</v>
+      </c>
+      <c r="AB527" s="1" t="s">
+        <v>2679</v>
+      </c>
+      <c r="AC527" s="1" t="s">
+        <v>2680</v>
+      </c>
+      <c r="AD527" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE527" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF527" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG527" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH527" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI527" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="528" spans="1:35">
+      <c r="A528" s="1" t="s">
+        <v>2681</v>
+      </c>
+      <c r="B528" s="1" t="s">
+        <v>2682</v>
+      </c>
+      <c r="C528" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D528" s="1" t="s">
+        <v>2683</v>
+      </c>
+      <c r="E528" s="1" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F528" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G528" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H528" s="1" t="s">
+        <v>2684</v>
+      </c>
+      <c r="I528" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J528" s="1" t="s">
+        <v>2685</v>
+      </c>
+      <c r="K528" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L528" s="1" t="s">
+        <v>2686</v>
+      </c>
+      <c r="M528" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N528" s="1" t="s">
+        <v>2687</v>
+      </c>
+      <c r="O528" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="P528" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q528" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R528" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S528" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T528" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U528" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V528" s="1" t="s">
+        <v>2688</v>
+      </c>
+      <c r="W528" s="1" t="s">
+        <v>2682</v>
+      </c>
+      <c r="X528" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y528" s="1" t="s">
+        <v>2689</v>
+      </c>
+      <c r="Z528" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA528" s="1" t="s">
+        <v>2690</v>
+      </c>
+      <c r="AB528" s="1" t="s">
+        <v>2691</v>
+      </c>
+      <c r="AC528" s="1" t="s">
+        <v>2692</v>
+      </c>
+      <c r="AD528" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE528" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF528" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG528" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH528" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI528" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="529" spans="1:35">
+      <c r="A529" s="1" t="s">
+        <v>2693</v>
+      </c>
+      <c r="B529" s="1" t="s">
+        <v>2694</v>
+      </c>
+      <c r="C529" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D529" s="1" t="s">
+        <v>2695</v>
+      </c>
+      <c r="E529" s="1" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F529" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G529" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H529" s="1" t="s">
+        <v>2696</v>
+      </c>
+      <c r="I529" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J529" s="1" t="s">
+        <v>2654</v>
+      </c>
+      <c r="K529" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L529" s="1" t="s">
+        <v>2655</v>
+      </c>
+      <c r="M529" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N529" s="1" t="s">
+        <v>2697</v>
+      </c>
+      <c r="O529" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="P529" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q529" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R529" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S529" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T529" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U529" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V529" s="1" t="s">
+        <v>2698</v>
+      </c>
+      <c r="W529" s="1" t="s">
+        <v>2694</v>
+      </c>
+      <c r="X529" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y529" s="1" t="s">
+        <v>2699</v>
+      </c>
+      <c r="Z529" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA529" s="1" t="s">
+        <v>2700</v>
+      </c>
+      <c r="AB529" s="1" t="s">
+        <v>2701</v>
+      </c>
+      <c r="AC529" s="1" t="s">
+        <v>2702</v>
+      </c>
+      <c r="AD529" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE529" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF529" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG529" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH529" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI529" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="530" spans="1:35">
+      <c r="A530" s="1" t="s">
+        <v>2703</v>
+      </c>
+      <c r="B530" s="1" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C530" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D530" s="1" t="s">
+        <v>2705</v>
+      </c>
+      <c r="E530" s="1" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F530" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G530" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H530" s="1" t="s">
+        <v>2706</v>
+      </c>
+      <c r="I530" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J530" s="1" t="s">
+        <v>2654</v>
+      </c>
+      <c r="K530" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L530" s="1" t="s">
+        <v>2655</v>
+      </c>
+      <c r="M530" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N530" s="1" t="s">
+        <v>2707</v>
+      </c>
+      <c r="O530" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P530" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q530" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R530" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S530" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T530" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U530" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V530" s="1" t="s">
+        <v>2708</v>
+      </c>
+      <c r="W530" s="1" t="s">
+        <v>2704</v>
+      </c>
+      <c r="X530" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y530" s="1" t="s">
+        <v>2709</v>
+      </c>
+      <c r="Z530" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA530" s="1" t="s">
+        <v>2710</v>
+      </c>
+      <c r="AB530" s="1" t="s">
+        <v>2711</v>
+      </c>
+      <c r="AC530" s="1" t="s">
+        <v>2712</v>
+      </c>
+      <c r="AD530" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE530" s="1" t="s">
+        <v>1696</v>
+      </c>
+      <c r="AF530" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG530" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH530" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI530" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="531" spans="1:35">
+      <c r="A531" s="1" t="s">
+        <v>2713</v>
+      </c>
+      <c r="B531" s="1" t="s">
+        <v>2714</v>
+      </c>
+      <c r="C531" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D531" s="1" t="s">
+        <v>2715</v>
+      </c>
+      <c r="E531" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F531" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G531" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H531" s="1" t="s">
+        <v>2716</v>
+      </c>
+      <c r="I531" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J531" s="1" t="s">
+        <v>2654</v>
+      </c>
+      <c r="K531" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L531" s="1" t="s">
+        <v>2655</v>
+      </c>
+      <c r="M531" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N531" s="1" t="s">
+        <v>2717</v>
+      </c>
+      <c r="O531" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P531" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q531" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R531" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S531" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T531" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U531" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V531" s="1" t="s">
+        <v>2718</v>
+      </c>
+      <c r="W531" s="1" t="s">
+        <v>2714</v>
+      </c>
+      <c r="X531" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y531" s="1" t="s">
+        <v>2719</v>
+      </c>
+      <c r="Z531" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA531" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="AB531" s="1" t="s">
+        <v>2720</v>
+      </c>
+      <c r="AC531" s="1" t="s">
+        <v>2721</v>
+      </c>
+      <c r="AD531" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AE531" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="AF531" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG531" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH531" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI531" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="532" spans="1:35">
+      <c r="A532" s="1" t="s">
+        <v>2722</v>
+      </c>
+      <c r="B532" s="1" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C532" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D532" s="1" t="s">
+        <v>2724</v>
+      </c>
+      <c r="E532" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F532" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G532" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H532" s="1" t="s">
+        <v>2725</v>
+      </c>
+      <c r="I532" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J532" s="1" t="s">
+        <v>2530</v>
+      </c>
+      <c r="K532" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L532" s="1" t="s">
+        <v>2531</v>
+      </c>
+      <c r="M532" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N532" s="1" t="s">
+        <v>2726</v>
+      </c>
+      <c r="O532" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P532" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q532" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R532" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S532" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T532" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U532" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V532" s="1" t="s">
+        <v>2727</v>
+      </c>
+      <c r="W532" s="1" t="s">
+        <v>2723</v>
+      </c>
+      <c r="X532" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y532" s="1" t="s">
+        <v>2728</v>
+      </c>
+      <c r="Z532" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA532" s="1" t="s">
+        <v>2729</v>
+      </c>
+      <c r="AB532" s="1" t="s">
+        <v>2730</v>
+      </c>
+      <c r="AC532" s="1" t="s">
+        <v>2731</v>
+      </c>
+      <c r="AD532" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="AE532" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF532" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG532" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH532" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI532" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="533" spans="1:35">
+      <c r="A533" s="1" t="s">
+        <v>2732</v>
+      </c>
+      <c r="B533" s="1" t="s">
+        <v>2733</v>
+      </c>
+      <c r="C533" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D533" s="1" t="s">
+        <v>2734</v>
+      </c>
+      <c r="E533" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F533" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G533" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H533" s="1" t="s">
+        <v>2735</v>
+      </c>
+      <c r="I533" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J533" s="1" t="s">
+        <v>2736</v>
+      </c>
+      <c r="K533" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L533" s="1" t="s">
+        <v>2654</v>
+      </c>
+      <c r="M533" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N533" s="1" t="s">
+        <v>2379</v>
+      </c>
+      <c r="O533" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P533" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q533" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R533" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S533" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T533" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U533" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V533" s="1" t="s">
+        <v>2737</v>
+      </c>
+      <c r="W533" s="1" t="s">
+        <v>2733</v>
+      </c>
+      <c r="X533" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y533" s="1" t="s">
+        <v>2738</v>
+      </c>
+      <c r="Z533" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA533" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="AB533" s="1" t="s">
+        <v>2739</v>
+      </c>
+      <c r="AC533" s="1" t="s">
+        <v>2740</v>
+      </c>
+      <c r="AD533" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AE533" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="AF533" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG533" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH533" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI533" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="534" spans="1:35">
+      <c r="A534" s="1" t="s">
+        <v>2741</v>
+      </c>
+      <c r="B534" s="1" t="s">
+        <v>2742</v>
+      </c>
+      <c r="C534" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D534" s="1" t="s">
+        <v>2743</v>
+      </c>
+      <c r="E534" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F534" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G534" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H534" s="1" t="s">
+        <v>2744</v>
+      </c>
+      <c r="I534" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J534" s="1" t="s">
+        <v>2654</v>
+      </c>
+      <c r="K534" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L534" s="1" t="s">
+        <v>2655</v>
+      </c>
+      <c r="M534" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N534" s="1" t="s">
+        <v>2745</v>
+      </c>
+      <c r="O534" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P534" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q534" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R534" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S534" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T534" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U534" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V534" s="1" t="s">
+        <v>2746</v>
+      </c>
+      <c r="W534" s="1" t="s">
+        <v>2742</v>
+      </c>
+      <c r="X534" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y534" s="1" t="s">
+        <v>2747</v>
+      </c>
+      <c r="Z534" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA534" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="AB534" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="AC534" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="AD534" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="AE534" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF534" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG534" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH534" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI534" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="535" spans="1:35">
+      <c r="A535" s="1" t="s">
+        <v>2749</v>
+      </c>
+      <c r="B535" s="1" t="s">
+        <v>2750</v>
+      </c>
+      <c r="C535" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D535" s="1" t="s">
+        <v>2652</v>
+      </c>
+      <c r="E535" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F535" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G535" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H535" s="1" t="s">
+        <v>2751</v>
+      </c>
+      <c r="I535" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J535" s="1" t="s">
+        <v>2685</v>
+      </c>
+      <c r="K535" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L535" s="1" t="s">
+        <v>2686</v>
+      </c>
+      <c r="M535" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N535" s="1" t="s">
+        <v>2697</v>
+      </c>
+      <c r="O535" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P535" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q535" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R535" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S535" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T535" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U535" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V535" s="1" t="s">
+        <v>2752</v>
+      </c>
+      <c r="W535" s="1" t="s">
+        <v>2750</v>
+      </c>
+      <c r="X535" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y535" s="1" t="s">
+        <v>2753</v>
+      </c>
+      <c r="Z535" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA535" s="1" t="s">
+        <v>2754</v>
+      </c>
+      <c r="AB535" s="1" t="s">
+        <v>2755</v>
+      </c>
+      <c r="AC535" s="1" t="s">
+        <v>2756</v>
+      </c>
+      <c r="AD535" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE535" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AF535" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG535" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH535" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI535" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="536" spans="1:35">
+      <c r="A536" s="1" t="s">
+        <v>2757</v>
+      </c>
+      <c r="B536" s="1" t="s">
+        <v>2758</v>
+      </c>
+      <c r="C536" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D536" s="1" t="s">
+        <v>2759</v>
+      </c>
+      <c r="E536" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F536" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G536" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H536" s="1" t="s">
+        <v>2760</v>
+      </c>
+      <c r="I536" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J536" s="1" t="s">
+        <v>2685</v>
+      </c>
+      <c r="K536" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L536" s="1" t="s">
+        <v>2686</v>
+      </c>
+      <c r="M536" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N536" s="1" t="s">
+        <v>2761</v>
+      </c>
+      <c r="O536" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P536" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q536" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R536" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S536" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="T536" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U536" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V536" s="1" t="s">
+        <v>2762</v>
+      </c>
+      <c r="W536" s="1" t="s">
+        <v>2758</v>
+      </c>
+      <c r="X536" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y536" s="1" t="s">
+        <v>2763</v>
+      </c>
+      <c r="Z536" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA536" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="AB536" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="AC536" s="1" t="s">
+        <v>2764</v>
+      </c>
+      <c r="AD536" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE536" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF536" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG536" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH536" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI536" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="537" spans="1:35">
+      <c r="A537" s="1" t="s">
+        <v>2765</v>
+      </c>
+      <c r="B537" s="1" t="s">
+        <v>2766</v>
+      </c>
+      <c r="C537" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D537" s="1" t="s">
+        <v>2683</v>
+      </c>
+      <c r="E537" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F537" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G537" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H537" s="1" t="s">
+        <v>2767</v>
+      </c>
+      <c r="I537" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J537" s="1" t="s">
+        <v>2530</v>
+      </c>
+      <c r="K537" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L537" s="1" t="s">
+        <v>2531</v>
+      </c>
+      <c r="M537" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N537" s="1" t="s">
+        <v>2768</v>
+      </c>
+      <c r="O537" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P537" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q537" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R537" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S537" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T537" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U537" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V537" s="1" t="s">
+        <v>2769</v>
+      </c>
+      <c r="W537" s="1" t="s">
+        <v>2766</v>
+      </c>
+      <c r="X537" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y537" s="1" t="s">
+        <v>2770</v>
+      </c>
+      <c r="Z537" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA537" s="1" t="s">
+        <v>1571</v>
+      </c>
+      <c r="AB537" s="1" t="s">
+        <v>2771</v>
+      </c>
+      <c r="AC537" s="1" t="s">
+        <v>2772</v>
+      </c>
+      <c r="AD537" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE537" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF537" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG537" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH537" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI537" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="538" spans="1:35">
+      <c r="A538" s="1" t="s">
+        <v>2773</v>
+      </c>
+      <c r="B538" s="1" t="s">
+        <v>2774</v>
+      </c>
+      <c r="C538" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D538" s="1" t="s">
+        <v>2724</v>
+      </c>
+      <c r="E538" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F538" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G538" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H538" s="1" t="s">
+        <v>2775</v>
+      </c>
+      <c r="I538" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J538" s="1" t="s">
+        <v>2530</v>
+      </c>
+      <c r="K538" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L538" s="1" t="s">
+        <v>2531</v>
+      </c>
+      <c r="M538" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N538" s="1" t="s">
+        <v>2776</v>
+      </c>
+      <c r="O538" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P538" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q538" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R538" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S538" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T538" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U538" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V538" s="1" t="s">
+        <v>2777</v>
+      </c>
+      <c r="W538" s="1" t="s">
+        <v>2774</v>
+      </c>
+      <c r="X538" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y538" s="1" t="s">
+        <v>2778</v>
+      </c>
+      <c r="Z538" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA538" s="1" t="s">
+        <v>1338</v>
+      </c>
+      <c r="AB538" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="AC538" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="AD538" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AE538" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF538" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG538" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH538" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI538" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="539" spans="1:35">
+      <c r="A539" s="1" t="s">
+        <v>2779</v>
+      </c>
+      <c r="B539" s="1" t="s">
+        <v>2780</v>
+      </c>
+      <c r="C539" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D539" s="1" t="s">
+        <v>2781</v>
+      </c>
+      <c r="E539" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F539" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G539" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H539" s="1" t="s">
+        <v>2782</v>
+      </c>
+      <c r="I539" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J539" s="1" t="s">
+        <v>2530</v>
+      </c>
+      <c r="K539" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L539" s="1" t="s">
+        <v>2531</v>
+      </c>
+      <c r="M539" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N539" s="1" t="s">
+        <v>2783</v>
+      </c>
+      <c r="O539" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P539" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q539" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R539" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S539" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T539" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U539" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V539" s="1" t="s">
+        <v>2784</v>
+      </c>
+      <c r="W539" s="1" t="s">
+        <v>2780</v>
+      </c>
+      <c r="X539" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y539" s="1" t="s">
+        <v>2785</v>
+      </c>
+      <c r="Z539" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA539" s="1" t="s">
+        <v>2786</v>
+      </c>
+      <c r="AB539" s="1" t="s">
+        <v>2787</v>
+      </c>
+      <c r="AC539" s="1" t="s">
+        <v>2788</v>
+      </c>
+      <c r="AD539" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AE539" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="AF539" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG539" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH539" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI539" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="540" spans="1:35">
+      <c r="A540" s="1" t="s">
+        <v>2789</v>
+      </c>
+      <c r="B540" s="1" t="s">
+        <v>2790</v>
+      </c>
+      <c r="C540" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D540" s="1" t="s">
+        <v>2715</v>
+      </c>
+      <c r="E540" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F540" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G540" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H540" s="1" t="s">
+        <v>2791</v>
+      </c>
+      <c r="I540" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J540" s="1" t="s">
+        <v>2736</v>
+      </c>
+      <c r="K540" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L540" s="1" t="s">
+        <v>2654</v>
+      </c>
+      <c r="M540" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N540" s="1" t="s">
+        <v>2792</v>
+      </c>
+      <c r="O540" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P540" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q540" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R540" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S540" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="T540" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U540" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V540" s="1" t="s">
+        <v>2793</v>
+      </c>
+      <c r="W540" s="1" t="s">
+        <v>2790</v>
+      </c>
+      <c r="X540" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y540" s="1" t="s">
+        <v>2794</v>
+      </c>
+      <c r="Z540" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA540" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB540" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="AC540" s="1" t="s">
+        <v>2795</v>
+      </c>
+      <c r="AD540" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE540" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF540" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG540" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH540" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI540" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="541" spans="1:35">
+      <c r="A541" s="1" t="s">
+        <v>2796</v>
+      </c>
+      <c r="B541" s="1" t="s">
+        <v>2797</v>
+      </c>
+      <c r="C541" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D541" s="1" t="s">
+        <v>2798</v>
+      </c>
+      <c r="E541" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F541" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G541" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H541" s="1" t="s">
+        <v>2799</v>
+      </c>
+      <c r="I541" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J541" s="1" t="s">
+        <v>2736</v>
+      </c>
+      <c r="K541" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L541" s="1" t="s">
+        <v>2654</v>
+      </c>
+      <c r="M541" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N541" s="1" t="s">
+        <v>2800</v>
+      </c>
+      <c r="O541" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P541" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q541" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R541" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S541" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T541" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U541" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V541" s="1" t="s">
+        <v>2801</v>
+      </c>
+      <c r="W541" s="1" t="s">
+        <v>2797</v>
+      </c>
+      <c r="X541" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y541" s="1" t="s">
+        <v>2802</v>
+      </c>
+      <c r="Z541" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA541" s="1" t="s">
+        <v>2803</v>
+      </c>
+      <c r="AB541" s="1" t="s">
+        <v>2804</v>
+      </c>
+      <c r="AC541" s="1" t="s">
+        <v>2805</v>
+      </c>
+      <c r="AD541" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE541" s="1" t="s">
+        <v>1696</v>
+      </c>
+      <c r="AF541" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG541" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH541" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI541" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="542" spans="1:35">
+      <c r="A542" s="1" t="s">
+        <v>2806</v>
+      </c>
+      <c r="B542" s="1" t="s">
+        <v>2807</v>
+      </c>
+      <c r="C542" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D542" s="1" t="s">
+        <v>2808</v>
+      </c>
+      <c r="E542" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F542" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G542" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H542" s="1" t="s">
+        <v>2809</v>
+      </c>
+      <c r="I542" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J542" s="1" t="s">
+        <v>2530</v>
+      </c>
+      <c r="K542" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L542" s="1" t="s">
+        <v>2531</v>
+      </c>
+      <c r="M542" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N542" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="O542" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P542" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q542" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R542" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S542" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="T542" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U542" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V542" s="1" t="s">
+        <v>2811</v>
+      </c>
+      <c r="W542" s="1" t="s">
+        <v>2807</v>
+      </c>
+      <c r="X542" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y542" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="Z542" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA542" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="AB542" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AC542" s="1" t="s">
+        <v>2813</v>
+      </c>
+      <c r="AD542" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AE542" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="AF542" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG542" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH542" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI542" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="543" spans="1:35">
+      <c r="A543" s="1" t="s">
+        <v>2814</v>
+      </c>
+      <c r="B543" s="1" t="s">
+        <v>2815</v>
+      </c>
+      <c r="C543" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D543" s="1" t="s">
+        <v>2816</v>
+      </c>
+      <c r="E543" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F543" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G543" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H543" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="I543" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J543" s="1" t="s">
+        <v>2530</v>
+      </c>
+      <c r="K543" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L543" s="1" t="s">
+        <v>2531</v>
+      </c>
+      <c r="M543" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N543" s="1" t="s">
+        <v>2818</v>
+      </c>
+      <c r="O543" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P543" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q543" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R543" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S543" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T543" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U543" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V543" s="1" t="s">
+        <v>2819</v>
+      </c>
+      <c r="W543" s="1" t="s">
+        <v>2815</v>
+      </c>
+      <c r="X543" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y543" s="1" t="s">
+        <v>2820</v>
+      </c>
+      <c r="Z543" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA543" s="1" t="s">
+        <v>2821</v>
+      </c>
+      <c r="AB543" s="1" t="s">
+        <v>2822</v>
+      </c>
+      <c r="AC543" s="1" t="s">
+        <v>2823</v>
+      </c>
+      <c r="AD543" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="AE543" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF543" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG543" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH543" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI543" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="544" spans="1:35">
+      <c r="A544" s="1" t="s">
+        <v>2824</v>
+      </c>
+      <c r="B544" s="1" t="s">
+        <v>2825</v>
+      </c>
+      <c r="C544" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D544" s="1" t="s">
+        <v>2826</v>
+      </c>
+      <c r="E544" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F544" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G544" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H544" s="1" t="s">
+        <v>2827</v>
+      </c>
+      <c r="I544" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J544" s="1" t="s">
+        <v>2685</v>
+      </c>
+      <c r="K544" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L544" s="1" t="s">
+        <v>2686</v>
+      </c>
+      <c r="M544" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N544" s="1" t="s">
+        <v>2828</v>
+      </c>
+      <c r="O544" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P544" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q544" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R544" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S544" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T544" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U544" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V544" s="1" t="s">
+        <v>2829</v>
+      </c>
+      <c r="W544" s="1" t="s">
+        <v>2825</v>
+      </c>
+      <c r="X544" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y544" s="1" t="s">
+        <v>2830</v>
+      </c>
+      <c r="Z544" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA544" s="1" t="s">
+        <v>2831</v>
+      </c>
+      <c r="AB544" s="1" t="s">
+        <v>2832</v>
+      </c>
+      <c r="AC544" s="1" t="s">
+        <v>2833</v>
+      </c>
+      <c r="AD544" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE544" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AF544" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG544" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH544" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI544" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="545" spans="1:35">
+      <c r="A545" s="1" t="s">
+        <v>2834</v>
+      </c>
+      <c r="B545" s="1" t="s">
+        <v>2835</v>
+      </c>
+      <c r="C545" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D545" s="1" t="s">
+        <v>2836</v>
+      </c>
+      <c r="E545" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F545" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G545" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H545" s="1" t="s">
+        <v>2837</v>
+      </c>
+      <c r="I545" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J545" s="1" t="s">
+        <v>2530</v>
+      </c>
+      <c r="K545" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L545" s="1" t="s">
+        <v>2531</v>
+      </c>
+      <c r="M545" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N545" s="1" t="s">
+        <v>2838</v>
+      </c>
+      <c r="O545" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P545" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q545" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R545" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S545" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T545" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U545" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V545" s="1" t="s">
+        <v>2839</v>
+      </c>
+      <c r="W545" s="1" t="s">
+        <v>2835</v>
+      </c>
+      <c r="X545" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y545" s="1" t="s">
+        <v>2830</v>
+      </c>
+      <c r="Z545" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA545" s="1" t="s">
+        <v>2840</v>
+      </c>
+      <c r="AB545" s="1" t="s">
+        <v>2841</v>
+      </c>
+      <c r="AC545" s="1" t="s">
+        <v>2842</v>
+      </c>
+      <c r="AD545" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE545" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF545" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG545" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH545" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI545" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="546" spans="1:35">
+      <c r="A546" s="1" t="s">
+        <v>2843</v>
+      </c>
+      <c r="B546" s="1" t="s">
+        <v>2844</v>
+      </c>
+      <c r="C546" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D546" s="1" t="s">
+        <v>2845</v>
+      </c>
+      <c r="E546" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F546" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G546" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H546" s="1" t="s">
+        <v>2846</v>
+      </c>
+      <c r="I546" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J546" s="1" t="s">
+        <v>2654</v>
+      </c>
+      <c r="K546" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L546" s="1" t="s">
+        <v>2655</v>
+      </c>
+      <c r="M546" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N546" s="1" t="s">
+        <v>2847</v>
+      </c>
+      <c r="O546" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P546" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q546" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R546" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S546" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T546" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U546" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V546" s="1" t="s">
+        <v>2848</v>
+      </c>
+      <c r="W546" s="1" t="s">
+        <v>2844</v>
+      </c>
+      <c r="X546" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y546" s="1" t="s">
+        <v>2849</v>
+      </c>
+      <c r="Z546" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA546" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="AB546" s="1" t="s">
+        <v>2850</v>
+      </c>
+      <c r="AC546" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="AD546" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE546" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF546" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG546" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH546" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI546" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="547" spans="1:35">
+      <c r="A547" s="1" t="s">
+        <v>2650</v>
+      </c>
+      <c r="B547" s="1" t="s">
+        <v>2651</v>
+      </c>
+      <c r="C547" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D547" s="1" t="s">
+        <v>2652</v>
+      </c>
+      <c r="E547" s="3" t="s">
+        <v>1900</v>
+      </c>
+      <c r="F547" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G547" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H547" s="1" t="s">
+        <v>2653</v>
+      </c>
+      <c r="I547" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J547" s="1" t="s">
+        <v>2654</v>
+      </c>
+      <c r="K547" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L547" s="1" t="s">
+        <v>2655</v>
+      </c>
+      <c r="M547" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N547" s="1" t="s">
+        <v>2656</v>
+      </c>
+      <c r="O547" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P547" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q547" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R547" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S547" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T547" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U547" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V547" s="1" t="s">
+        <v>2657</v>
+      </c>
+      <c r="W547" s="1" t="s">
+        <v>2651</v>
+      </c>
+      <c r="X547" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y547" s="1" t="s">
+        <v>2658</v>
+      </c>
+      <c r="Z547" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA547" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="AB547" s="1" t="s">
+        <v>2659</v>
+      </c>
+      <c r="AC547" s="1" t="s">
+        <v>2660</v>
+      </c>
+      <c r="AD547" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AE547" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF547" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG547" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH547" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI547" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="548" spans="1:35">
+      <c r="A548" s="1" t="s">
+        <v>2661</v>
+      </c>
+      <c r="B548" s="1" t="s">
+        <v>2662</v>
+      </c>
+      <c r="C548" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D548" s="1" t="s">
+        <v>2663</v>
+      </c>
+      <c r="E548" s="3" t="s">
+        <v>1900</v>
+      </c>
+      <c r="F548" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G548" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H548" s="1" t="s">
+        <v>2664</v>
+      </c>
+      <c r="I548" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J548" s="1" t="s">
+        <v>2530</v>
+      </c>
+      <c r="K548" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L548" s="1" t="s">
+        <v>2531</v>
+      </c>
+      <c r="M548" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N548" s="1" t="s">
+        <v>2665</v>
+      </c>
+      <c r="O548" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P548" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q548" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R548" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S548" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T548" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U548" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V548" s="1" t="s">
+        <v>2666</v>
+      </c>
+      <c r="W548" s="1" t="s">
+        <v>2662</v>
+      </c>
+      <c r="X548" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y548" s="1" t="s">
+        <v>2667</v>
+      </c>
+      <c r="Z548" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA548" s="1" t="s">
+        <v>2668</v>
+      </c>
+      <c r="AB548" s="1" t="s">
+        <v>2669</v>
+      </c>
+      <c r="AC548" s="1" t="s">
+        <v>2670</v>
+      </c>
+      <c r="AD548" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE548" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF548" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG548" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH548" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI548" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="549" spans="1:35">
+      <c r="A549" s="1" t="s">
+        <v>2671</v>
+      </c>
+      <c r="B549" s="1" t="s">
+        <v>2672</v>
+      </c>
+      <c r="C549" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D549" s="1" t="s">
+        <v>2673</v>
+      </c>
+      <c r="E549" s="3" t="s">
+        <v>1900</v>
+      </c>
+      <c r="F549" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G549" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H549" s="1" t="s">
+        <v>2674</v>
+      </c>
+      <c r="I549" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J549" s="1" t="s">
+        <v>2654</v>
+      </c>
+      <c r="K549" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L549" s="1" t="s">
+        <v>2655</v>
+      </c>
+      <c r="M549" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N549" s="1" t="s">
+        <v>2675</v>
+      </c>
+      <c r="O549" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P549" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q549" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R549" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S549" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T549" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U549" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V549" s="1" t="s">
+        <v>2676</v>
+      </c>
+      <c r="W549" s="1" t="s">
+        <v>2672</v>
+      </c>
+      <c r="X549" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y549" s="1" t="s">
+        <v>2677</v>
+      </c>
+      <c r="Z549" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA549" s="1" t="s">
+        <v>2678</v>
+      </c>
+      <c r="AB549" s="1" t="s">
+        <v>2679</v>
+      </c>
+      <c r="AC549" s="1" t="s">
+        <v>2680</v>
+      </c>
+      <c r="AD549" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE549" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF549" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG549" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH549" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI549" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="550" spans="1:35">
+      <c r="A550" s="1" t="s">
+        <v>2681</v>
+      </c>
+      <c r="B550" s="1" t="s">
+        <v>2682</v>
+      </c>
+      <c r="C550" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D550" s="1" t="s">
+        <v>2683</v>
+      </c>
+      <c r="E550" s="3" t="s">
+        <v>1900</v>
+      </c>
+      <c r="F550" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G550" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H550" s="1" t="s">
+        <v>2684</v>
+      </c>
+      <c r="I550" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J550" s="1" t="s">
+        <v>2685</v>
+      </c>
+      <c r="K550" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L550" s="1" t="s">
+        <v>2686</v>
+      </c>
+      <c r="M550" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N550" s="1" t="s">
+        <v>2687</v>
+      </c>
+      <c r="O550" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="P550" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q550" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R550" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S550" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T550" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U550" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V550" s="1" t="s">
+        <v>2688</v>
+      </c>
+      <c r="W550" s="1" t="s">
+        <v>2682</v>
+      </c>
+      <c r="X550" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y550" s="1" t="s">
+        <v>2689</v>
+      </c>
+      <c r="Z550" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA550" s="1" t="s">
+        <v>2690</v>
+      </c>
+      <c r="AB550" s="1" t="s">
+        <v>2691</v>
+      </c>
+      <c r="AC550" s="1" t="s">
+        <v>2692</v>
+      </c>
+      <c r="AD550" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE550" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF550" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG550" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH550" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI550" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="551" spans="1:35">
+      <c r="A551" s="1" t="s">
+        <v>2693</v>
+      </c>
+      <c r="B551" s="1" t="s">
+        <v>2694</v>
+      </c>
+      <c r="C551" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D551" s="1" t="s">
+        <v>2695</v>
+      </c>
+      <c r="E551" s="3" t="s">
+        <v>1900</v>
+      </c>
+      <c r="F551" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G551" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H551" s="1" t="s">
+        <v>2696</v>
+      </c>
+      <c r="I551" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J551" s="1" t="s">
+        <v>2654</v>
+      </c>
+      <c r="K551" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L551" s="1" t="s">
+        <v>2655</v>
+      </c>
+      <c r="M551" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N551" s="1" t="s">
+        <v>2697</v>
+      </c>
+      <c r="O551" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="P551" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q551" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R551" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S551" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T551" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U551" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V551" s="1" t="s">
+        <v>2698</v>
+      </c>
+      <c r="W551" s="1" t="s">
+        <v>2694</v>
+      </c>
+      <c r="X551" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y551" s="1" t="s">
+        <v>2699</v>
+      </c>
+      <c r="Z551" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA551" s="1" t="s">
+        <v>2700</v>
+      </c>
+      <c r="AB551" s="1" t="s">
+        <v>2701</v>
+      </c>
+      <c r="AC551" s="1" t="s">
+        <v>2702</v>
+      </c>
+      <c r="AD551" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE551" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF551" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG551" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH551" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI551" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="552" spans="1:35">
+      <c r="A552" s="1" t="s">
+        <v>2703</v>
+      </c>
+      <c r="B552" s="1" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C552" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D552" s="1" t="s">
+        <v>2705</v>
+      </c>
+      <c r="E552" s="3" t="s">
+        <v>1900</v>
+      </c>
+      <c r="F552" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G552" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H552" s="1" t="s">
+        <v>2706</v>
+      </c>
+      <c r="I552" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J552" s="1" t="s">
+        <v>2654</v>
+      </c>
+      <c r="K552" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L552" s="1" t="s">
+        <v>2655</v>
+      </c>
+      <c r="M552" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N552" s="1" t="s">
+        <v>2707</v>
+      </c>
+      <c r="O552" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P552" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q552" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R552" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S552" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T552" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U552" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V552" s="1" t="s">
+        <v>2708</v>
+      </c>
+      <c r="W552" s="1" t="s">
+        <v>2704</v>
+      </c>
+      <c r="X552" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y552" s="1" t="s">
+        <v>2709</v>
+      </c>
+      <c r="Z552" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA552" s="1" t="s">
+        <v>2710</v>
+      </c>
+      <c r="AB552" s="1" t="s">
+        <v>2711</v>
+      </c>
+      <c r="AC552" s="1" t="s">
+        <v>2712</v>
+      </c>
+      <c r="AD552" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE552" s="1" t="s">
+        <v>1696</v>
+      </c>
+      <c r="AF552" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG552" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH552" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI552" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="553" spans="1:35">
+      <c r="A553" s="1" t="s">
+        <v>2713</v>
+      </c>
+      <c r="B553" s="1" t="s">
+        <v>2714</v>
+      </c>
+      <c r="C553" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D553" s="1" t="s">
+        <v>2715</v>
+      </c>
+      <c r="E553" s="1" t="s">
+        <v>2852</v>
+      </c>
+      <c r="F553" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G553" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H553" s="1" t="s">
+        <v>2716</v>
+      </c>
+      <c r="I553" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J553" s="1" t="s">
+        <v>2654</v>
+      </c>
+      <c r="K553" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L553" s="1" t="s">
+        <v>2655</v>
+      </c>
+      <c r="M553" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N553" s="1" t="s">
+        <v>2717</v>
+      </c>
+      <c r="O553" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P553" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q553" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R553" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S553" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T553" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U553" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V553" s="1" t="s">
+        <v>2718</v>
+      </c>
+      <c r="W553" s="1" t="s">
+        <v>2714</v>
+      </c>
+      <c r="X553" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y553" s="1" t="s">
+        <v>2719</v>
+      </c>
+      <c r="Z553" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA553" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="AB553" s="1" t="s">
+        <v>2720</v>
+      </c>
+      <c r="AC553" s="1" t="s">
+        <v>2721</v>
+      </c>
+      <c r="AD553" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AE553" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="AF553" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG553" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH553" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI553" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="554" spans="1:35">
+      <c r="A554" s="1" t="s">
+        <v>2722</v>
+      </c>
+      <c r="B554" s="1" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C554" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D554" s="1" t="s">
+        <v>2724</v>
+      </c>
+      <c r="E554" s="1" t="s">
+        <v>2852</v>
+      </c>
+      <c r="F554" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G554" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H554" s="1" t="s">
+        <v>2725</v>
+      </c>
+      <c r="I554" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J554" s="1" t="s">
+        <v>2530</v>
+      </c>
+      <c r="K554" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L554" s="1" t="s">
+        <v>2531</v>
+      </c>
+      <c r="M554" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N554" s="1" t="s">
+        <v>2726</v>
+      </c>
+      <c r="O554" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P554" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q554" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R554" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S554" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T554" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U554" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V554" s="1" t="s">
+        <v>2727</v>
+      </c>
+      <c r="W554" s="1" t="s">
+        <v>2723</v>
+      </c>
+      <c r="X554" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y554" s="1" t="s">
+        <v>2728</v>
+      </c>
+      <c r="Z554" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA554" s="1" t="s">
+        <v>2729</v>
+      </c>
+      <c r="AB554" s="1" t="s">
+        <v>2730</v>
+      </c>
+      <c r="AC554" s="1" t="s">
+        <v>2731</v>
+      </c>
+      <c r="AD554" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="AE554" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF554" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG554" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH554" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI554" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="555" spans="1:35">
+      <c r="A555" s="1" t="s">
+        <v>2732</v>
+      </c>
+      <c r="B555" s="1" t="s">
+        <v>2733</v>
+      </c>
+      <c r="C555" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D555" s="1" t="s">
+        <v>2734</v>
+      </c>
+      <c r="E555" s="1" t="s">
+        <v>2852</v>
+      </c>
+      <c r="F555" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G555" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H555" s="1" t="s">
+        <v>2735</v>
+      </c>
+      <c r="I555" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J555" s="1" t="s">
+        <v>2736</v>
+      </c>
+      <c r="K555" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L555" s="1" t="s">
+        <v>2654</v>
+      </c>
+      <c r="M555" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N555" s="1" t="s">
+        <v>2379</v>
+      </c>
+      <c r="O555" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P555" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q555" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R555" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S555" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T555" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U555" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V555" s="1" t="s">
+        <v>2737</v>
+      </c>
+      <c r="W555" s="1" t="s">
+        <v>2733</v>
+      </c>
+      <c r="X555" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y555" s="1" t="s">
+        <v>2738</v>
+      </c>
+      <c r="Z555" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA555" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="AB555" s="1" t="s">
+        <v>2739</v>
+      </c>
+      <c r="AC555" s="1" t="s">
+        <v>2740</v>
+      </c>
+      <c r="AD555" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AE555" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="AF555" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG555" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH555" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI555" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="556" spans="1:35">
+      <c r="A556" s="1" t="s">
+        <v>2741</v>
+      </c>
+      <c r="B556" s="1" t="s">
+        <v>2742</v>
+      </c>
+      <c r="C556" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D556" s="1" t="s">
+        <v>2743</v>
+      </c>
+      <c r="E556" s="1" t="s">
+        <v>2852</v>
+      </c>
+      <c r="F556" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G556" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H556" s="1" t="s">
+        <v>2744</v>
+      </c>
+      <c r="I556" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J556" s="1" t="s">
+        <v>2654</v>
+      </c>
+      <c r="K556" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L556" s="1" t="s">
+        <v>2655</v>
+      </c>
+      <c r="M556" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N556" s="1" t="s">
+        <v>2745</v>
+      </c>
+      <c r="O556" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P556" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q556" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R556" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S556" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T556" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U556" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V556" s="1" t="s">
+        <v>2746</v>
+      </c>
+      <c r="W556" s="1" t="s">
+        <v>2742</v>
+      </c>
+      <c r="X556" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y556" s="1" t="s">
+        <v>2747</v>
+      </c>
+      <c r="Z556" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA556" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="AB556" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="AC556" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="AD556" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="AE556" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF556" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG556" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH556" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI556" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="557" spans="1:35">
+      <c r="A557" s="1" t="s">
+        <v>2749</v>
+      </c>
+      <c r="B557" s="1" t="s">
+        <v>2750</v>
+      </c>
+      <c r="C557" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D557" s="1" t="s">
+        <v>2652</v>
+      </c>
+      <c r="E557" s="3" t="s">
+        <v>1907</v>
+      </c>
+      <c r="F557" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G557" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H557" s="1" t="s">
+        <v>2751</v>
+      </c>
+      <c r="I557" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J557" s="1" t="s">
+        <v>2685</v>
+      </c>
+      <c r="K557" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L557" s="1" t="s">
+        <v>2686</v>
+      </c>
+      <c r="M557" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N557" s="1" t="s">
+        <v>2697</v>
+      </c>
+      <c r="O557" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P557" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q557" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R557" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S557" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T557" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U557" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V557" s="1" t="s">
+        <v>2752</v>
+      </c>
+      <c r="W557" s="1" t="s">
+        <v>2750</v>
+      </c>
+      <c r="X557" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y557" s="1" t="s">
+        <v>2753</v>
+      </c>
+      <c r="Z557" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA557" s="1" t="s">
+        <v>2754</v>
+      </c>
+      <c r="AB557" s="1" t="s">
+        <v>2755</v>
+      </c>
+      <c r="AC557" s="1" t="s">
+        <v>2756</v>
+      </c>
+      <c r="AD557" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE557" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AF557" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG557" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH557" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI557" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="558" spans="1:35">
+      <c r="A558" s="1" t="s">
+        <v>2757</v>
+      </c>
+      <c r="B558" s="1" t="s">
+        <v>2758</v>
+      </c>
+      <c r="C558" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D558" s="1" t="s">
+        <v>2759</v>
+      </c>
+      <c r="E558" s="1" t="s">
+        <v>1903</v>
+      </c>
+      <c r="F558" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G558" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H558" s="1" t="s">
+        <v>2760</v>
+      </c>
+      <c r="I558" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J558" s="1" t="s">
+        <v>2685</v>
+      </c>
+      <c r="K558" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L558" s="1" t="s">
+        <v>2686</v>
+      </c>
+      <c r="M558" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N558" s="1" t="s">
+        <v>2761</v>
+      </c>
+      <c r="O558" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P558" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q558" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R558" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S558" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="T558" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U558" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V558" s="1" t="s">
+        <v>2762</v>
+      </c>
+      <c r="W558" s="1" t="s">
+        <v>2758</v>
+      </c>
+      <c r="X558" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y558" s="1" t="s">
+        <v>2763</v>
+      </c>
+      <c r="Z558" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA558" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="AB558" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="AC558" s="1" t="s">
+        <v>2764</v>
+      </c>
+      <c r="AD558" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE558" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF558" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG558" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH558" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI558" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="559" spans="1:35">
+      <c r="A559" s="1" t="s">
+        <v>2765</v>
+      </c>
+      <c r="B559" s="1" t="s">
+        <v>2766</v>
+      </c>
+      <c r="C559" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D559" s="1" t="s">
+        <v>2683</v>
+      </c>
+      <c r="E559" s="1" t="s">
+        <v>1903</v>
+      </c>
+      <c r="F559" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G559" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H559" s="1" t="s">
+        <v>2767</v>
+      </c>
+      <c r="I559" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J559" s="1" t="s">
+        <v>2530</v>
+      </c>
+      <c r="K559" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L559" s="1" t="s">
+        <v>2531</v>
+      </c>
+      <c r="M559" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N559" s="1" t="s">
+        <v>2768</v>
+      </c>
+      <c r="O559" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P559" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q559" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R559" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S559" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T559" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U559" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V559" s="1" t="s">
+        <v>2769</v>
+      </c>
+      <c r="W559" s="1" t="s">
+        <v>2766</v>
+      </c>
+      <c r="X559" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y559" s="1" t="s">
+        <v>2770</v>
+      </c>
+      <c r="Z559" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA559" s="1" t="s">
+        <v>1571</v>
+      </c>
+      <c r="AB559" s="1" t="s">
+        <v>2771</v>
+      </c>
+      <c r="AC559" s="1" t="s">
+        <v>2772</v>
+      </c>
+      <c r="AD559" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE559" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF559" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG559" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH559" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI559" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="560" spans="1:35">
+      <c r="A560" s="1" t="s">
+        <v>2773</v>
+      </c>
+      <c r="B560" s="1" t="s">
+        <v>2774</v>
+      </c>
+      <c r="C560" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D560" s="1" t="s">
+        <v>2724</v>
+      </c>
+      <c r="E560" s="1" t="s">
+        <v>1903</v>
+      </c>
+      <c r="F560" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G560" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H560" s="1" t="s">
+        <v>2775</v>
+      </c>
+      <c r="I560" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J560" s="1" t="s">
+        <v>2530</v>
+      </c>
+      <c r="K560" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L560" s="1" t="s">
+        <v>2531</v>
+      </c>
+      <c r="M560" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N560" s="1" t="s">
+        <v>2776</v>
+      </c>
+      <c r="O560" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P560" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q560" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R560" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S560" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T560" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U560" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V560" s="1" t="s">
+        <v>2777</v>
+      </c>
+      <c r="W560" s="1" t="s">
+        <v>2774</v>
+      </c>
+      <c r="X560" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y560" s="1" t="s">
+        <v>2778</v>
+      </c>
+      <c r="Z560" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA560" s="1" t="s">
+        <v>1338</v>
+      </c>
+      <c r="AB560" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="AC560" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="AD560" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AE560" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF560" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG560" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH560" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI560" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="561" spans="1:35">
+      <c r="A561" s="1" t="s">
+        <v>2779</v>
+      </c>
+      <c r="B561" s="1" t="s">
+        <v>2780</v>
+      </c>
+      <c r="C561" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D561" s="1" t="s">
+        <v>2781</v>
+      </c>
+      <c r="E561" s="1" t="s">
+        <v>1903</v>
+      </c>
+      <c r="F561" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G561" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H561" s="1" t="s">
+        <v>2782</v>
+      </c>
+      <c r="I561" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J561" s="1" t="s">
+        <v>2530</v>
+      </c>
+      <c r="K561" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L561" s="1" t="s">
+        <v>2531</v>
+      </c>
+      <c r="M561" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N561" s="1" t="s">
+        <v>2783</v>
+      </c>
+      <c r="O561" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P561" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q561" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R561" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S561" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T561" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U561" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V561" s="1" t="s">
+        <v>2784</v>
+      </c>
+      <c r="W561" s="1" t="s">
+        <v>2780</v>
+      </c>
+      <c r="X561" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y561" s="1" t="s">
+        <v>2785</v>
+      </c>
+      <c r="Z561" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA561" s="1" t="s">
+        <v>2786</v>
+      </c>
+      <c r="AB561" s="1" t="s">
+        <v>2787</v>
+      </c>
+      <c r="AC561" s="1" t="s">
+        <v>2788</v>
+      </c>
+      <c r="AD561" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AE561" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="AF561" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG561" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH561" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI561" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="562" spans="1:35">
+      <c r="A562" s="1" t="s">
+        <v>2789</v>
+      </c>
+      <c r="B562" s="1" t="s">
+        <v>2790</v>
+      </c>
+      <c r="C562" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D562" s="1" t="s">
+        <v>2715</v>
+      </c>
+      <c r="E562" s="1" t="s">
+        <v>1903</v>
+      </c>
+      <c r="F562" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G562" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H562" s="1" t="s">
+        <v>2791</v>
+      </c>
+      <c r="I562" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J562" s="1" t="s">
+        <v>2736</v>
+      </c>
+      <c r="K562" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L562" s="1" t="s">
+        <v>2654</v>
+      </c>
+      <c r="M562" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N562" s="1" t="s">
+        <v>2792</v>
+      </c>
+      <c r="O562" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P562" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q562" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R562" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S562" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="T562" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U562" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V562" s="1" t="s">
+        <v>2793</v>
+      </c>
+      <c r="W562" s="1" t="s">
+        <v>2790</v>
+      </c>
+      <c r="X562" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y562" s="1" t="s">
+        <v>2794</v>
+      </c>
+      <c r="Z562" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA562" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB562" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="AC562" s="1" t="s">
+        <v>2795</v>
+      </c>
+      <c r="AD562" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE562" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF562" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG562" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH562" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI562" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="563" spans="1:35">
+      <c r="A563" s="1" t="s">
+        <v>2796</v>
+      </c>
+      <c r="B563" s="1" t="s">
+        <v>2797</v>
+      </c>
+      <c r="C563" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D563" s="1" t="s">
+        <v>2798</v>
+      </c>
+      <c r="E563" s="3" t="s">
+        <v>1902</v>
+      </c>
+      <c r="F563" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G563" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H563" s="1" t="s">
+        <v>2799</v>
+      </c>
+      <c r="I563" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J563" s="1" t="s">
+        <v>2736</v>
+      </c>
+      <c r="K563" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L563" s="1" t="s">
+        <v>2654</v>
+      </c>
+      <c r="M563" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N563" s="1" t="s">
+        <v>2800</v>
+      </c>
+      <c r="O563" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P563" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q563" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R563" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S563" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T563" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U563" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V563" s="1" t="s">
+        <v>2801</v>
+      </c>
+      <c r="W563" s="1" t="s">
+        <v>2797</v>
+      </c>
+      <c r="X563" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y563" s="1" t="s">
+        <v>2802</v>
+      </c>
+      <c r="Z563" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA563" s="1" t="s">
+        <v>2803</v>
+      </c>
+      <c r="AB563" s="1" t="s">
+        <v>2804</v>
+      </c>
+      <c r="AC563" s="1" t="s">
+        <v>2805</v>
+      </c>
+      <c r="AD563" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE563" s="1" t="s">
+        <v>1696</v>
+      </c>
+      <c r="AF563" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG563" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH563" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI563" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="564" spans="1:35">
+      <c r="A564" s="1" t="s">
+        <v>2806</v>
+      </c>
+      <c r="B564" s="1" t="s">
+        <v>2807</v>
+      </c>
+      <c r="C564" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D564" s="1" t="s">
+        <v>2808</v>
+      </c>
+      <c r="E564" s="3" t="s">
+        <v>1902</v>
+      </c>
+      <c r="F564" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G564" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H564" s="1" t="s">
+        <v>2809</v>
+      </c>
+      <c r="I564" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J564" s="1" t="s">
+        <v>2530</v>
+      </c>
+      <c r="K564" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L564" s="1" t="s">
+        <v>2531</v>
+      </c>
+      <c r="M564" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N564" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="O564" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P564" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q564" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R564" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S564" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="T564" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U564" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V564" s="1" t="s">
+        <v>2811</v>
+      </c>
+      <c r="W564" s="1" t="s">
+        <v>2807</v>
+      </c>
+      <c r="X564" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y564" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="Z564" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA564" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="AB564" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AC564" s="1" t="s">
+        <v>2813</v>
+      </c>
+      <c r="AD564" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AE564" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="AF564" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG564" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH564" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI564" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="565" spans="1:35">
+      <c r="A565" s="1" t="s">
+        <v>2814</v>
+      </c>
+      <c r="B565" s="1" t="s">
+        <v>2815</v>
+      </c>
+      <c r="C565" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D565" s="1" t="s">
+        <v>2816</v>
+      </c>
+      <c r="E565" s="3" t="s">
+        <v>1902</v>
+      </c>
+      <c r="F565" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G565" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H565" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="I565" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J565" s="1" t="s">
+        <v>2530</v>
+      </c>
+      <c r="K565" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L565" s="1" t="s">
+        <v>2531</v>
+      </c>
+      <c r="M565" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N565" s="1" t="s">
+        <v>2818</v>
+      </c>
+      <c r="O565" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P565" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q565" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R565" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S565" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T565" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U565" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V565" s="1" t="s">
+        <v>2819</v>
+      </c>
+      <c r="W565" s="1" t="s">
+        <v>2815</v>
+      </c>
+      <c r="X565" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y565" s="1" t="s">
+        <v>2820</v>
+      </c>
+      <c r="Z565" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA565" s="1" t="s">
+        <v>2821</v>
+      </c>
+      <c r="AB565" s="1" t="s">
+        <v>2822</v>
+      </c>
+      <c r="AC565" s="1" t="s">
+        <v>2823</v>
+      </c>
+      <c r="AD565" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="AE565" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF565" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG565" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH565" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI565" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="566" spans="1:35">
+      <c r="A566" s="1" t="s">
+        <v>2824</v>
+      </c>
+      <c r="B566" s="1" t="s">
+        <v>2825</v>
+      </c>
+      <c r="C566" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D566" s="1" t="s">
+        <v>2826</v>
+      </c>
+      <c r="E566" s="3" t="s">
+        <v>1902</v>
+      </c>
+      <c r="F566" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G566" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H566" s="1" t="s">
+        <v>2827</v>
+      </c>
+      <c r="I566" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J566" s="1" t="s">
+        <v>2685</v>
+      </c>
+      <c r="K566" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L566" s="1" t="s">
+        <v>2686</v>
+      </c>
+      <c r="M566" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N566" s="1" t="s">
+        <v>2828</v>
+      </c>
+      <c r="O566" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P566" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q566" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R566" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S566" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T566" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U566" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V566" s="1" t="s">
+        <v>2829</v>
+      </c>
+      <c r="W566" s="1" t="s">
+        <v>2825</v>
+      </c>
+      <c r="X566" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y566" s="1" t="s">
+        <v>2830</v>
+      </c>
+      <c r="Z566" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA566" s="1" t="s">
+        <v>2831</v>
+      </c>
+      <c r="AB566" s="1" t="s">
+        <v>2832</v>
+      </c>
+      <c r="AC566" s="1" t="s">
+        <v>2833</v>
+      </c>
+      <c r="AD566" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE566" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AF566" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG566" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH566" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI566" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="567" spans="1:35">
+      <c r="A567" s="1" t="s">
+        <v>2834</v>
+      </c>
+      <c r="B567" s="1" t="s">
+        <v>2835</v>
+      </c>
+      <c r="C567" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D567" s="1" t="s">
+        <v>2836</v>
+      </c>
+      <c r="E567" s="3" t="s">
+        <v>1902</v>
+      </c>
+      <c r="F567" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G567" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H567" s="1" t="s">
+        <v>2837</v>
+      </c>
+      <c r="I567" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J567" s="1" t="s">
+        <v>2530</v>
+      </c>
+      <c r="K567" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L567" s="1" t="s">
+        <v>2531</v>
+      </c>
+      <c r="M567" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N567" s="1" t="s">
+        <v>2838</v>
+      </c>
+      <c r="O567" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P567" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q567" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R567" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S567" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T567" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U567" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V567" s="1" t="s">
+        <v>2839</v>
+      </c>
+      <c r="W567" s="1" t="s">
+        <v>2835</v>
+      </c>
+      <c r="X567" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y567" s="1" t="s">
+        <v>2830</v>
+      </c>
+      <c r="Z567" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA567" s="1" t="s">
+        <v>2840</v>
+      </c>
+      <c r="AB567" s="1" t="s">
+        <v>2841</v>
+      </c>
+      <c r="AC567" s="1" t="s">
+        <v>2842</v>
+      </c>
+      <c r="AD567" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE567" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF567" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG567" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH567" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI567" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="568" spans="1:35">
+      <c r="A568" s="1" t="s">
+        <v>2843</v>
+      </c>
+      <c r="B568" s="1" t="s">
+        <v>2844</v>
+      </c>
+      <c r="C568" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D568" s="1" t="s">
+        <v>2845</v>
+      </c>
+      <c r="E568" s="3" t="s">
+        <v>1902</v>
+      </c>
+      <c r="F568" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G568" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H568" s="1" t="s">
+        <v>2846</v>
+      </c>
+      <c r="I568" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J568" s="1" t="s">
+        <v>2654</v>
+      </c>
+      <c r="K568" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L568" s="1" t="s">
+        <v>2655</v>
+      </c>
+      <c r="M568" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N568" s="1" t="s">
+        <v>2847</v>
+      </c>
+      <c r="O568" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P568" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q568" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R568" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S568" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T568" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U568" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V568" s="1" t="s">
+        <v>2848</v>
+      </c>
+      <c r="W568" s="1" t="s">
+        <v>2844</v>
+      </c>
+      <c r="X568" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y568" s="1" t="s">
+        <v>2849</v>
+      </c>
+      <c r="Z568" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA568" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="AB568" s="1" t="s">
+        <v>2850</v>
+      </c>
+      <c r="AC568" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="AD568" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE568" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF568" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG568" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH568" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI568" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AI500"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/deliveryopenfiber.xlsx
+++ b/deliveryopenfiber.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19845" uniqueCount="2853">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21105" uniqueCount="3018">
   <si>
     <t>Codice</t>
   </si>
@@ -8576,6 +8576,501 @@
   </si>
   <si>
     <t>GIONFRIDDO ANDREA</t>
+  </si>
+  <si>
+    <t>DEL1003523721</t>
+  </si>
+  <si>
+    <t>4224696945515145515</t>
+  </si>
+  <si>
+    <t>20/08/2025 16:58</t>
+  </si>
+  <si>
+    <t>ANTONIO BRAVATO</t>
+  </si>
+  <si>
+    <t>20/08/2025 16:30</t>
+  </si>
+  <si>
+    <t>20/08/2025 18:00</t>
+  </si>
+  <si>
+    <t>28/07/2025 13:46</t>
+  </si>
+  <si>
+    <t>WN_9002067209</t>
+  </si>
+  <si>
+    <t>19_089_089017_8001005533_399</t>
+  </si>
+  <si>
+    <t>SR_01/WIN_0117</t>
+  </si>
+  <si>
+    <t>SR_01/07w33-SP_09</t>
+  </si>
+  <si>
+    <t>SR_01/07w33/I754_VIALE SCALA GRECA_399_1</t>
+  </si>
+  <si>
+    <t>DEL1003539543</t>
+  </si>
+  <si>
+    <t>4224696945524246989</t>
+  </si>
+  <si>
+    <t>20/08/2025 12:36</t>
+  </si>
+  <si>
+    <t>SALVATORE CANNATA</t>
+  </si>
+  <si>
+    <t>20/08/2025 11:30</t>
+  </si>
+  <si>
+    <t>20/08/2025 13:30</t>
+  </si>
+  <si>
+    <t>02/08/2025 12:36</t>
+  </si>
+  <si>
+    <t>WN_9002069880</t>
+  </si>
+  <si>
+    <t>DEL1003545528</t>
+  </si>
+  <si>
+    <t>4224696945526860257</t>
+  </si>
+  <si>
+    <t>20/08/2025 12:46</t>
+  </si>
+  <si>
+    <t>ANTONIO LA RUNA</t>
+  </si>
+  <si>
+    <t>04/08/2025 21:26</t>
+  </si>
+  <si>
+    <t>0850477313373518</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000970083_24</t>
+  </si>
+  <si>
+    <t>SR_01/SKY_0020</t>
+  </si>
+  <si>
+    <t>SR_01/02e42-SP_04</t>
+  </si>
+  <si>
+    <t>SR_01/02e42/I754_VIA LUIGI DOUMONTIER_24_1</t>
+  </si>
+  <si>
+    <t>DEL1003578971</t>
+  </si>
+  <si>
+    <t>4224696945537223185</t>
+  </si>
+  <si>
+    <t>20/08/2025 13:18</t>
+  </si>
+  <si>
+    <t>MICHELE VIENA</t>
+  </si>
+  <si>
+    <t>18/08/2025 08:36</t>
+  </si>
+  <si>
+    <t>ILA_1755448804285</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000970108_8</t>
+  </si>
+  <si>
+    <t>SR_01/02w33-SP_06</t>
+  </si>
+  <si>
+    <t>SR_01/02w33/I754_VIA ALDO CARRATORE_8_1</t>
+  </si>
+  <si>
+    <t>DEL1003580295</t>
+  </si>
+  <si>
+    <t>4224696945537813704</t>
+  </si>
+  <si>
+    <t>20/08/2025 12:08</t>
+  </si>
+  <si>
+    <t>MARCELLO CAMIZZI</t>
+  </si>
+  <si>
+    <t>20/08/2025 08:30</t>
+  </si>
+  <si>
+    <t>20/08/2025 10:30</t>
+  </si>
+  <si>
+    <t>18/08/2025 15:36</t>
+  </si>
+  <si>
+    <t>ILA_1755523216456</t>
+  </si>
+  <si>
+    <t>19_089_089017_8001005533_371</t>
+  </si>
+  <si>
+    <t>SR_01/ILD_0052</t>
+  </si>
+  <si>
+    <t>SR_01/07w43-SP_05</t>
+  </si>
+  <si>
+    <t>SR_01/07w43/I754_VIALE SCALA GRECA_371_int d_1</t>
+  </si>
+  <si>
+    <t>DEL1003582153</t>
+  </si>
+  <si>
+    <t>4224696945537814586</t>
+  </si>
+  <si>
+    <t>20/08/2025 13:48</t>
+  </si>
+  <si>
+    <t>ESTER INTERLANDO</t>
+  </si>
+  <si>
+    <t>20/08/2025 14:30</t>
+  </si>
+  <si>
+    <t>19/08/2025 09:36</t>
+  </si>
+  <si>
+    <t>ILA_1754731221211</t>
+  </si>
+  <si>
+    <t>19_089_089017_8001291162_20</t>
+  </si>
+  <si>
+    <t>SR_01/ILD_0049</t>
+  </si>
+  <si>
+    <t>SR_01/07w13-SP_08</t>
+  </si>
+  <si>
+    <t>SR_01/07w13/I754_VIA PROFESSOR VITTORIO GUARDO_20_Pal A_1</t>
+  </si>
+  <si>
+    <t>DEL1003583089</t>
+  </si>
+  <si>
+    <t>4224696945538345221</t>
+  </si>
+  <si>
+    <t>20/08/2025 09:18</t>
+  </si>
+  <si>
+    <t>ANDREA REGOLI</t>
+  </si>
+  <si>
+    <t>19/08/2025 14:26</t>
+  </si>
+  <si>
+    <t>ILA_1755602753014</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000970062_5</t>
+  </si>
+  <si>
+    <t>SR_01/ILD_0061</t>
+  </si>
+  <si>
+    <t>SR_01/07e11-SP_06</t>
+  </si>
+  <si>
+    <t>SR_01/07e11/I754_VIA BELPASSO_5_1</t>
+  </si>
+  <si>
+    <t>DEL1003583913</t>
+  </si>
+  <si>
+    <t>4224696945538345943</t>
+  </si>
+  <si>
+    <t>20/08/2025 15:38</t>
+  </si>
+  <si>
+    <t>DANILO DI PAOLA</t>
+  </si>
+  <si>
+    <t>19/08/2025 19:06</t>
+  </si>
+  <si>
+    <t>WN_9002085279</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000970448_20</t>
+  </si>
+  <si>
+    <t>SR_01/WIN_0067</t>
+  </si>
+  <si>
+    <t>SR_01/04e34-SP_07</t>
+  </si>
+  <si>
+    <t>SR_01/04e34/I754_VIA CORSICA_20_1</t>
+  </si>
+  <si>
+    <t>DEL1003560046</t>
+  </si>
+  <si>
+    <t>4224696945534948403</t>
+  </si>
+  <si>
+    <t>20/08/2025 12:58</t>
+  </si>
+  <si>
+    <t>GRAZIA DI MAURO</t>
+  </si>
+  <si>
+    <t>09/08/2025 19:46</t>
+  </si>
+  <si>
+    <t>OPI_3725045</t>
+  </si>
+  <si>
+    <t>19_089_089018_8000967640_155</t>
+  </si>
+  <si>
+    <t>SR_09/02e21/I785_VIA ROMA_153</t>
+  </si>
+  <si>
+    <t>DEL1003571436</t>
+  </si>
+  <si>
+    <t>4224696945537219851</t>
+  </si>
+  <si>
+    <t>20/08/2025 10:48</t>
+  </si>
+  <si>
+    <t>GIUSEPPE MONTALTO</t>
+  </si>
+  <si>
+    <t>14/08/2025 11:26</t>
+  </si>
+  <si>
+    <t>7999783382328738</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000970299_5</t>
+  </si>
+  <si>
+    <t>SR_01/SKY_0024</t>
+  </si>
+  <si>
+    <t>SR_01/03e42-SP_04</t>
+  </si>
+  <si>
+    <t>SR_01/03e42/I754_VIA FRANCESCO MAUCERI_5_A_1</t>
+  </si>
+  <si>
+    <t>DEL1003575331</t>
+  </si>
+  <si>
+    <t>4224696945537221906</t>
+  </si>
+  <si>
+    <t>20/08/2025 17:18</t>
+  </si>
+  <si>
+    <t>JESSICA IERNA</t>
+  </si>
+  <si>
+    <t>16/08/2025 10:36</t>
+  </si>
+  <si>
+    <t>OPI_3727879</t>
+  </si>
+  <si>
+    <t>19_089_089009_8000975465_48</t>
+  </si>
+  <si>
+    <t>SR_09/01e32/SR_09/01e32/D636_067</t>
+  </si>
+  <si>
+    <t>DEL1003576148</t>
+  </si>
+  <si>
+    <t>4224696945537222502</t>
+  </si>
+  <si>
+    <t>20/08/2025 15:08</t>
+  </si>
+  <si>
+    <t>MARIA LAVAGGI</t>
+  </si>
+  <si>
+    <t>16/08/2025 18:26</t>
+  </si>
+  <si>
+    <t>ILA_1755350705814</t>
+  </si>
+  <si>
+    <t>19_089_089009_8000917214_293</t>
+  </si>
+  <si>
+    <t>SR_09/01w12/SR_09/01w12/D636_044</t>
+  </si>
+  <si>
+    <t>DEL1003582460</t>
+  </si>
+  <si>
+    <t>4224696945537816086</t>
+  </si>
+  <si>
+    <t>VANESSA BLANCO</t>
+  </si>
+  <si>
+    <t>19/08/2025 10:56</t>
+  </si>
+  <si>
+    <t>ILA_1755591922946</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000970042_53</t>
+  </si>
+  <si>
+    <t>SR_01/03e34/I754_VIA ARCHIA_53_1</t>
+  </si>
+  <si>
+    <t>DEL1003524721</t>
+  </si>
+  <si>
+    <t>4224696945515147047</t>
+  </si>
+  <si>
+    <t>20/08/2025 11:48</t>
+  </si>
+  <si>
+    <t>ROSA ARENA</t>
+  </si>
+  <si>
+    <t>WN_9002067508</t>
+  </si>
+  <si>
+    <t>SR_01/WIN_0136</t>
+  </si>
+  <si>
+    <t>SR_01/05e13-SP_06</t>
+  </si>
+  <si>
+    <t>DEL1003571713</t>
+  </si>
+  <si>
+    <t>4224696945535863083</t>
+  </si>
+  <si>
+    <t>20/08/2025 16:28</t>
+  </si>
+  <si>
+    <t>MD MASUM MADBOR</t>
+  </si>
+  <si>
+    <t>14/08/2025 13:26</t>
+  </si>
+  <si>
+    <t>WN_9002080643</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000970038_14</t>
+  </si>
+  <si>
+    <t>SR_01/05w22-SP_07</t>
+  </si>
+  <si>
+    <t>SR_01/05w22/I754_VIA ARIZZI_13</t>
+  </si>
+  <si>
+    <t>DEL1003571880</t>
+  </si>
+  <si>
+    <t>4224696945537219653</t>
+  </si>
+  <si>
+    <t>20/08/2025 13:08</t>
+  </si>
+  <si>
+    <t>PATRIZIA COGNETTI</t>
+  </si>
+  <si>
+    <t>WN_9002082887</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000916294_8</t>
+  </si>
+  <si>
+    <t>SR_01/05e43-SP_08</t>
+  </si>
+  <si>
+    <t>SR_01/05e43/I754_VIA DELLA CONCILIAZIONE_12</t>
+  </si>
+  <si>
+    <t>DEL1003572245</t>
+  </si>
+  <si>
+    <t>4224696945536624729</t>
+  </si>
+  <si>
+    <t>20/08/2025 12:38</t>
+  </si>
+  <si>
+    <t>CARMELO PUGLIARA</t>
+  </si>
+  <si>
+    <t>14/08/2025 16:46</t>
+  </si>
+  <si>
+    <t>WN_9002082849</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000916325_64</t>
+  </si>
+  <si>
+    <t>SR_01/05e24-SP_08</t>
+  </si>
+  <si>
+    <t>SR_01/05e24/I754_VIA AMALFITANIA_72</t>
+  </si>
+  <si>
+    <t>DEL1003580946</t>
+  </si>
+  <si>
+    <t>4224696945537814724</t>
+  </si>
+  <si>
+    <t>20/08/2025 10:08</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dario Antonio Bonaccorso</t>
+  </si>
+  <si>
+    <t>18/08/2025 19:36</t>
+  </si>
+  <si>
+    <t>EHI_AOF33284</t>
+  </si>
+  <si>
+    <t>19_089_089021_8001276996_2</t>
+  </si>
+  <si>
+    <t>SR_12/01w11/SR_12/01w11/M279_079</t>
+  </si>
+  <si>
+    <t>EHINET SRL</t>
   </si>
 </sst>
 </file>
@@ -8912,10 +9407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI568"/>
+  <dimension ref="A1:AI604"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A534" workbookViewId="0">
-      <selection activeCell="D543" sqref="D543"/>
+    <sheetView tabSelected="1" topLeftCell="A564" workbookViewId="0">
+      <selection activeCell="B589" sqref="B589"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -69598,6 +70093,3858 @@
         <v>57</v>
       </c>
     </row>
+    <row r="569" spans="1:35">
+      <c r="A569" s="1" t="s">
+        <v>2853</v>
+      </c>
+      <c r="B569" s="1" t="s">
+        <v>2854</v>
+      </c>
+      <c r="C569" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D569" s="1" t="s">
+        <v>2855</v>
+      </c>
+      <c r="E569" s="1" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F569" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G569" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H569" s="1" t="s">
+        <v>2856</v>
+      </c>
+      <c r="I569" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J569" s="1" t="s">
+        <v>2857</v>
+      </c>
+      <c r="K569" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L569" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="M569" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N569" s="1" t="s">
+        <v>2859</v>
+      </c>
+      <c r="O569" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P569" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q569" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R569" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S569" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T569" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U569" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V569" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="W569" s="1" t="s">
+        <v>2854</v>
+      </c>
+      <c r="X569" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y569" s="1" t="s">
+        <v>2861</v>
+      </c>
+      <c r="Z569" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA569" s="1" t="s">
+        <v>2862</v>
+      </c>
+      <c r="AB569" s="1" t="s">
+        <v>2863</v>
+      </c>
+      <c r="AC569" s="1" t="s">
+        <v>2864</v>
+      </c>
+      <c r="AD569" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE569" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF569" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG569" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH569" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI569" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="570" spans="1:35">
+      <c r="A570" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="B570" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="C570" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D570" s="1" t="s">
+        <v>2867</v>
+      </c>
+      <c r="E570" s="1" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F570" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G570" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H570" s="1" t="s">
+        <v>2868</v>
+      </c>
+      <c r="I570" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J570" s="1" t="s">
+        <v>2869</v>
+      </c>
+      <c r="K570" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L570" s="1" t="s">
+        <v>2870</v>
+      </c>
+      <c r="M570" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N570" s="1" t="s">
+        <v>2871</v>
+      </c>
+      <c r="O570" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="P570" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q570" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R570" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S570" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T570" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U570" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V570" s="1" t="s">
+        <v>2872</v>
+      </c>
+      <c r="W570" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="X570" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y570" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="Z570" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA570" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB570" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC570" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="AD570" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE570" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="AF570" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG570" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH570" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI570" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="571" spans="1:35">
+      <c r="A571" s="1" t="s">
+        <v>2873</v>
+      </c>
+      <c r="B571" s="1" t="s">
+        <v>2874</v>
+      </c>
+      <c r="C571" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D571" s="1" t="s">
+        <v>2875</v>
+      </c>
+      <c r="E571" s="1" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F571" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G571" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H571" s="1" t="s">
+        <v>2876</v>
+      </c>
+      <c r="I571" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J571" s="1" t="s">
+        <v>2869</v>
+      </c>
+      <c r="K571" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L571" s="1" t="s">
+        <v>2870</v>
+      </c>
+      <c r="M571" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N571" s="1" t="s">
+        <v>2877</v>
+      </c>
+      <c r="O571" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P571" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q571" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R571" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S571" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T571" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U571" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V571" s="1" t="s">
+        <v>2878</v>
+      </c>
+      <c r="W571" s="1" t="s">
+        <v>2874</v>
+      </c>
+      <c r="X571" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y571" s="1" t="s">
+        <v>2879</v>
+      </c>
+      <c r="Z571" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA571" s="1" t="s">
+        <v>2880</v>
+      </c>
+      <c r="AB571" s="1" t="s">
+        <v>2881</v>
+      </c>
+      <c r="AC571" s="1" t="s">
+        <v>2882</v>
+      </c>
+      <c r="AD571" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AE571" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF571" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG571" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH571" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI571" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="572" spans="1:35">
+      <c r="A572" s="1" t="s">
+        <v>2883</v>
+      </c>
+      <c r="B572" s="1" t="s">
+        <v>2884</v>
+      </c>
+      <c r="C572" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D572" s="1" t="s">
+        <v>2885</v>
+      </c>
+      <c r="E572" s="1" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F572" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G572" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H572" s="1" t="s">
+        <v>2886</v>
+      </c>
+      <c r="I572" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J572" s="1" t="s">
+        <v>2869</v>
+      </c>
+      <c r="K572" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L572" s="1" t="s">
+        <v>2870</v>
+      </c>
+      <c r="M572" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N572" s="1" t="s">
+        <v>2887</v>
+      </c>
+      <c r="O572" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P572" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q572" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R572" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S572" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T572" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U572" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V572" s="1" t="s">
+        <v>2888</v>
+      </c>
+      <c r="W572" s="1" t="s">
+        <v>2884</v>
+      </c>
+      <c r="X572" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y572" s="1" t="s">
+        <v>2889</v>
+      </c>
+      <c r="Z572" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA572" s="1" t="s">
+        <v>1770</v>
+      </c>
+      <c r="AB572" s="1" t="s">
+        <v>2890</v>
+      </c>
+      <c r="AC572" s="1" t="s">
+        <v>2891</v>
+      </c>
+      <c r="AD572" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE572" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF572" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG572" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH572" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI572" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="573" spans="1:35">
+      <c r="A573" s="1" t="s">
+        <v>2892</v>
+      </c>
+      <c r="B573" s="1" t="s">
+        <v>2893</v>
+      </c>
+      <c r="C573" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D573" s="1" t="s">
+        <v>2894</v>
+      </c>
+      <c r="E573" s="1" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F573" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G573" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H573" s="1" t="s">
+        <v>2895</v>
+      </c>
+      <c r="I573" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J573" s="1" t="s">
+        <v>2896</v>
+      </c>
+      <c r="K573" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L573" s="1" t="s">
+        <v>2897</v>
+      </c>
+      <c r="M573" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N573" s="1" t="s">
+        <v>2898</v>
+      </c>
+      <c r="O573" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P573" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q573" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R573" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S573" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T573" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U573" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V573" s="1" t="s">
+        <v>2899</v>
+      </c>
+      <c r="W573" s="1" t="s">
+        <v>2893</v>
+      </c>
+      <c r="X573" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y573" s="1" t="s">
+        <v>2900</v>
+      </c>
+      <c r="Z573" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA573" s="1" t="s">
+        <v>2901</v>
+      </c>
+      <c r="AB573" s="1" t="s">
+        <v>2902</v>
+      </c>
+      <c r="AC573" s="1" t="s">
+        <v>2903</v>
+      </c>
+      <c r="AD573" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE573" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF573" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG573" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH573" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI573" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="574" spans="1:35">
+      <c r="A574" s="1" t="s">
+        <v>2904</v>
+      </c>
+      <c r="B574" s="1" t="s">
+        <v>2905</v>
+      </c>
+      <c r="C574" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D574" s="1" t="s">
+        <v>2906</v>
+      </c>
+      <c r="E574" s="1" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F574" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G574" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H574" s="1" t="s">
+        <v>2907</v>
+      </c>
+      <c r="I574" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J574" s="1" t="s">
+        <v>2908</v>
+      </c>
+      <c r="K574" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L574" s="1" t="s">
+        <v>2857</v>
+      </c>
+      <c r="M574" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N574" s="1" t="s">
+        <v>2909</v>
+      </c>
+      <c r="O574" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P574" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q574" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R574" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S574" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T574" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U574" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V574" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="W574" s="1" t="s">
+        <v>2905</v>
+      </c>
+      <c r="X574" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y574" s="1" t="s">
+        <v>2911</v>
+      </c>
+      <c r="Z574" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA574" s="1" t="s">
+        <v>2912</v>
+      </c>
+      <c r="AB574" s="1" t="s">
+        <v>2913</v>
+      </c>
+      <c r="AC574" s="1" t="s">
+        <v>2914</v>
+      </c>
+      <c r="AD574" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE574" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF574" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG574" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH574" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI574" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="575" spans="1:35">
+      <c r="A575" s="1" t="s">
+        <v>2915</v>
+      </c>
+      <c r="B575" s="1" t="s">
+        <v>2916</v>
+      </c>
+      <c r="C575" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D575" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E575" s="1" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F575" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G575" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H575" s="1" t="s">
+        <v>2918</v>
+      </c>
+      <c r="I575" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J575" s="1" t="s">
+        <v>2896</v>
+      </c>
+      <c r="K575" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L575" s="1" t="s">
+        <v>2897</v>
+      </c>
+      <c r="M575" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N575" s="1" t="s">
+        <v>2919</v>
+      </c>
+      <c r="O575" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P575" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q575" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R575" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S575" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T575" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U575" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V575" s="1" t="s">
+        <v>2920</v>
+      </c>
+      <c r="W575" s="1" t="s">
+        <v>2916</v>
+      </c>
+      <c r="X575" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y575" s="1" t="s">
+        <v>2921</v>
+      </c>
+      <c r="Z575" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA575" s="1" t="s">
+        <v>2922</v>
+      </c>
+      <c r="AB575" s="1" t="s">
+        <v>2923</v>
+      </c>
+      <c r="AC575" s="1" t="s">
+        <v>2924</v>
+      </c>
+      <c r="AD575" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE575" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF575" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG575" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH575" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI575" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="576" spans="1:35">
+      <c r="A576" s="1" t="s">
+        <v>2925</v>
+      </c>
+      <c r="B576" s="1" t="s">
+        <v>2926</v>
+      </c>
+      <c r="C576" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D576" s="1" t="s">
+        <v>2927</v>
+      </c>
+      <c r="E576" s="1" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F576" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G576" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H576" s="1" t="s">
+        <v>2928</v>
+      </c>
+      <c r="I576" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J576" s="1" t="s">
+        <v>2857</v>
+      </c>
+      <c r="K576" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L576" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="M576" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N576" s="1" t="s">
+        <v>2929</v>
+      </c>
+      <c r="O576" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P576" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q576" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R576" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S576" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T576" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U576" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V576" s="1" t="s">
+        <v>2930</v>
+      </c>
+      <c r="W576" s="1" t="s">
+        <v>2926</v>
+      </c>
+      <c r="X576" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y576" s="1" t="s">
+        <v>2931</v>
+      </c>
+      <c r="Z576" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA576" s="1" t="s">
+        <v>2932</v>
+      </c>
+      <c r="AB576" s="1" t="s">
+        <v>2933</v>
+      </c>
+      <c r="AC576" s="1" t="s">
+        <v>2934</v>
+      </c>
+      <c r="AD576" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE576" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF576" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG576" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH576" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI576" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="577" spans="1:35">
+      <c r="A577" s="1" t="s">
+        <v>2935</v>
+      </c>
+      <c r="B577" s="1" t="s">
+        <v>2936</v>
+      </c>
+      <c r="C577" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D577" s="1" t="s">
+        <v>2937</v>
+      </c>
+      <c r="E577" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F577" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G577" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H577" s="1" t="s">
+        <v>2938</v>
+      </c>
+      <c r="I577" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J577" s="1" t="s">
+        <v>2896</v>
+      </c>
+      <c r="K577" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L577" s="1" t="s">
+        <v>2897</v>
+      </c>
+      <c r="M577" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N577" s="1" t="s">
+        <v>2939</v>
+      </c>
+      <c r="O577" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P577" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q577" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R577" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S577" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="T577" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U577" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V577" s="1" t="s">
+        <v>2940</v>
+      </c>
+      <c r="W577" s="1" t="s">
+        <v>2936</v>
+      </c>
+      <c r="X577" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y577" s="1" t="s">
+        <v>2941</v>
+      </c>
+      <c r="Z577" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA577" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AB577" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="AC577" s="1" t="s">
+        <v>2942</v>
+      </c>
+      <c r="AD577" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE577" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AF577" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG577" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH577" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI577" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="578" spans="1:35">
+      <c r="A578" s="1" t="s">
+        <v>2943</v>
+      </c>
+      <c r="B578" s="1" t="s">
+        <v>2944</v>
+      </c>
+      <c r="C578" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D578" s="1" t="s">
+        <v>2945</v>
+      </c>
+      <c r="E578" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F578" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G578" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H578" s="1" t="s">
+        <v>2946</v>
+      </c>
+      <c r="I578" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J578" s="1" t="s">
+        <v>2896</v>
+      </c>
+      <c r="K578" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L578" s="1" t="s">
+        <v>2897</v>
+      </c>
+      <c r="M578" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N578" s="1" t="s">
+        <v>2947</v>
+      </c>
+      <c r="O578" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P578" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q578" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R578" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S578" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T578" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U578" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V578" s="1" t="s">
+        <v>2948</v>
+      </c>
+      <c r="W578" s="1" t="s">
+        <v>2944</v>
+      </c>
+      <c r="X578" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y578" s="1" t="s">
+        <v>2949</v>
+      </c>
+      <c r="Z578" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA578" s="1" t="s">
+        <v>2950</v>
+      </c>
+      <c r="AB578" s="1" t="s">
+        <v>2951</v>
+      </c>
+      <c r="AC578" s="1" t="s">
+        <v>2952</v>
+      </c>
+      <c r="AD578" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AE578" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF578" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG578" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH578" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI578" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="579" spans="1:35">
+      <c r="A579" s="1" t="s">
+        <v>2953</v>
+      </c>
+      <c r="B579" s="1" t="s">
+        <v>2954</v>
+      </c>
+      <c r="C579" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D579" s="1" t="s">
+        <v>2955</v>
+      </c>
+      <c r="E579" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F579" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G579" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H579" s="1" t="s">
+        <v>2956</v>
+      </c>
+      <c r="I579" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J579" s="1" t="s">
+        <v>2908</v>
+      </c>
+      <c r="K579" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L579" s="1" t="s">
+        <v>2857</v>
+      </c>
+      <c r="M579" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N579" s="1" t="s">
+        <v>2957</v>
+      </c>
+      <c r="O579" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P579" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q579" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R579" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S579" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="T579" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U579" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V579" s="1" t="s">
+        <v>2958</v>
+      </c>
+      <c r="W579" s="1" t="s">
+        <v>2954</v>
+      </c>
+      <c r="X579" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y579" s="1" t="s">
+        <v>2959</v>
+      </c>
+      <c r="Z579" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA579" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="AB579" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="AC579" s="1" t="s">
+        <v>2960</v>
+      </c>
+      <c r="AD579" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE579" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AF579" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG579" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH579" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI579" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="580" spans="1:35">
+      <c r="A580" s="1" t="s">
+        <v>2961</v>
+      </c>
+      <c r="B580" s="1" t="s">
+        <v>2962</v>
+      </c>
+      <c r="C580" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D580" s="1" t="s">
+        <v>2963</v>
+      </c>
+      <c r="E580" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F580" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G580" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H580" s="1" t="s">
+        <v>2964</v>
+      </c>
+      <c r="I580" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J580" s="1" t="s">
+        <v>2857</v>
+      </c>
+      <c r="K580" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L580" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="M580" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N580" s="1" t="s">
+        <v>2965</v>
+      </c>
+      <c r="O580" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P580" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q580" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R580" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S580" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="T580" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U580" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V580" s="1" t="s">
+        <v>2966</v>
+      </c>
+      <c r="W580" s="1" t="s">
+        <v>2962</v>
+      </c>
+      <c r="X580" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y580" s="1" t="s">
+        <v>2967</v>
+      </c>
+      <c r="Z580" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA580" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="AB580" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="AC580" s="1" t="s">
+        <v>2968</v>
+      </c>
+      <c r="AD580" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE580" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF580" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG580" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH580" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI580" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="581" spans="1:35">
+      <c r="A581" s="1" t="s">
+        <v>2969</v>
+      </c>
+      <c r="B581" s="1" t="s">
+        <v>2970</v>
+      </c>
+      <c r="C581" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D581" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E581" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F581" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G581" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H581" s="1" t="s">
+        <v>2971</v>
+      </c>
+      <c r="I581" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J581" s="1" t="s">
+        <v>2896</v>
+      </c>
+      <c r="K581" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L581" s="1" t="s">
+        <v>2897</v>
+      </c>
+      <c r="M581" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N581" s="1" t="s">
+        <v>2972</v>
+      </c>
+      <c r="O581" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P581" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q581" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R581" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S581" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T581" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U581" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V581" s="1" t="s">
+        <v>2973</v>
+      </c>
+      <c r="W581" s="1" t="s">
+        <v>2970</v>
+      </c>
+      <c r="X581" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y581" s="1" t="s">
+        <v>2974</v>
+      </c>
+      <c r="Z581" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA581" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="AB581" s="1" t="s">
+        <v>2213</v>
+      </c>
+      <c r="AC581" s="1" t="s">
+        <v>2975</v>
+      </c>
+      <c r="AD581" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE581" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF581" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG581" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH581" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI581" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="582" spans="1:35">
+      <c r="A582" s="1" t="s">
+        <v>2976</v>
+      </c>
+      <c r="B582" s="1" t="s">
+        <v>2977</v>
+      </c>
+      <c r="C582" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D582" s="1" t="s">
+        <v>2978</v>
+      </c>
+      <c r="E582" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F582" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G582" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H582" s="1" t="s">
+        <v>2979</v>
+      </c>
+      <c r="I582" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J582" s="1" t="s">
+        <v>2869</v>
+      </c>
+      <c r="K582" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L582" s="1" t="s">
+        <v>2870</v>
+      </c>
+      <c r="M582" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N582" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="O582" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P582" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q582" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R582" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S582" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T582" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U582" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V582" s="1" t="s">
+        <v>2980</v>
+      </c>
+      <c r="W582" s="1" t="s">
+        <v>2977</v>
+      </c>
+      <c r="X582" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y582" s="1" t="s">
+        <v>2013</v>
+      </c>
+      <c r="Z582" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA582" s="1" t="s">
+        <v>2981</v>
+      </c>
+      <c r="AB582" s="1" t="s">
+        <v>2982</v>
+      </c>
+      <c r="AC582" s="1" t="s">
+        <v>2016</v>
+      </c>
+      <c r="AD582" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE582" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="AF582" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG582" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH582" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI582" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="583" spans="1:35">
+      <c r="A583" s="1" t="s">
+        <v>2983</v>
+      </c>
+      <c r="B583" s="1" t="s">
+        <v>2984</v>
+      </c>
+      <c r="C583" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D583" s="1" t="s">
+        <v>2985</v>
+      </c>
+      <c r="E583" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F583" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G583" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H583" s="1" t="s">
+        <v>2986</v>
+      </c>
+      <c r="I583" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J583" s="1" t="s">
+        <v>2857</v>
+      </c>
+      <c r="K583" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L583" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="M583" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N583" s="1" t="s">
+        <v>2987</v>
+      </c>
+      <c r="O583" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P583" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q583" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R583" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S583" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T583" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U583" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V583" s="1" t="s">
+        <v>2988</v>
+      </c>
+      <c r="W583" s="1" t="s">
+        <v>2984</v>
+      </c>
+      <c r="X583" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y583" s="1" t="s">
+        <v>2989</v>
+      </c>
+      <c r="Z583" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA583" s="1" t="s">
+        <v>1447</v>
+      </c>
+      <c r="AB583" s="1" t="s">
+        <v>2990</v>
+      </c>
+      <c r="AC583" s="1" t="s">
+        <v>2991</v>
+      </c>
+      <c r="AD583" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE583" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF583" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG583" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH583" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI583" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="584" spans="1:35">
+      <c r="A584" s="1" t="s">
+        <v>2992</v>
+      </c>
+      <c r="B584" s="1" t="s">
+        <v>2993</v>
+      </c>
+      <c r="C584" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D584" s="1" t="s">
+        <v>2994</v>
+      </c>
+      <c r="E584" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F584" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G584" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H584" s="1" t="s">
+        <v>2995</v>
+      </c>
+      <c r="I584" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J584" s="1" t="s">
+        <v>2869</v>
+      </c>
+      <c r="K584" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L584" s="1" t="s">
+        <v>2870</v>
+      </c>
+      <c r="M584" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N584" s="1" t="s">
+        <v>2828</v>
+      </c>
+      <c r="O584" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P584" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q584" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R584" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S584" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T584" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U584" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V584" s="1" t="s">
+        <v>2996</v>
+      </c>
+      <c r="W584" s="1" t="s">
+        <v>2993</v>
+      </c>
+      <c r="X584" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y584" s="1" t="s">
+        <v>2997</v>
+      </c>
+      <c r="Z584" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA584" s="1" t="s">
+        <v>1887</v>
+      </c>
+      <c r="AB584" s="1" t="s">
+        <v>2998</v>
+      </c>
+      <c r="AC584" s="1" t="s">
+        <v>2999</v>
+      </c>
+      <c r="AD584" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE584" s="1" t="s">
+        <v>1503</v>
+      </c>
+      <c r="AF584" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG584" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH584" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI584" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="585" spans="1:35">
+      <c r="A585" s="1" t="s">
+        <v>3000</v>
+      </c>
+      <c r="B585" s="1" t="s">
+        <v>3001</v>
+      </c>
+      <c r="C585" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D585" s="1" t="s">
+        <v>3002</v>
+      </c>
+      <c r="E585" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F585" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G585" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H585" s="1" t="s">
+        <v>3003</v>
+      </c>
+      <c r="I585" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J585" s="1" t="s">
+        <v>2869</v>
+      </c>
+      <c r="K585" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L585" s="1" t="s">
+        <v>2870</v>
+      </c>
+      <c r="M585" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N585" s="1" t="s">
+        <v>3004</v>
+      </c>
+      <c r="O585" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P585" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q585" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R585" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S585" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T585" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U585" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V585" s="1" t="s">
+        <v>3005</v>
+      </c>
+      <c r="W585" s="1" t="s">
+        <v>3001</v>
+      </c>
+      <c r="X585" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y585" s="1" t="s">
+        <v>3006</v>
+      </c>
+      <c r="Z585" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA585" s="1" t="s">
+        <v>2371</v>
+      </c>
+      <c r="AB585" s="1" t="s">
+        <v>3007</v>
+      </c>
+      <c r="AC585" s="1" t="s">
+        <v>3008</v>
+      </c>
+      <c r="AD585" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE585" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF585" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG585" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH585" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI585" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="586" spans="1:35">
+      <c r="A586" s="1" t="s">
+        <v>3009</v>
+      </c>
+      <c r="B586" s="1" t="s">
+        <v>3010</v>
+      </c>
+      <c r="C586" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D586" s="1" t="s">
+        <v>3011</v>
+      </c>
+      <c r="E586" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F586" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G586" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H586" s="1" t="s">
+        <v>3012</v>
+      </c>
+      <c r="I586" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J586" s="1" t="s">
+        <v>2896</v>
+      </c>
+      <c r="K586" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L586" s="1" t="s">
+        <v>2897</v>
+      </c>
+      <c r="M586" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N586" s="1" t="s">
+        <v>3013</v>
+      </c>
+      <c r="O586" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P586" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q586" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R586" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S586" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="T586" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U586" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V586" s="1" t="s">
+        <v>3014</v>
+      </c>
+      <c r="W586" s="1" t="s">
+        <v>3010</v>
+      </c>
+      <c r="X586" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y586" s="1" t="s">
+        <v>3015</v>
+      </c>
+      <c r="Z586" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA586" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB586" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="AC586" s="1" t="s">
+        <v>3016</v>
+      </c>
+      <c r="AD586" s="1" t="s">
+        <v>3017</v>
+      </c>
+      <c r="AE586" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF586" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG586" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH586" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI586" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="587" spans="1:35">
+      <c r="A587" s="1" t="s">
+        <v>2853</v>
+      </c>
+      <c r="B587" s="1" t="s">
+        <v>2854</v>
+      </c>
+      <c r="C587" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D587" s="1" t="s">
+        <v>2855</v>
+      </c>
+      <c r="E587" s="3" t="s">
+        <v>1900</v>
+      </c>
+      <c r="F587" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G587" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H587" s="1" t="s">
+        <v>2856</v>
+      </c>
+      <c r="I587" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J587" s="1" t="s">
+        <v>2857</v>
+      </c>
+      <c r="K587" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L587" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="M587" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N587" s="1" t="s">
+        <v>2859</v>
+      </c>
+      <c r="O587" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P587" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q587" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R587" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S587" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T587" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U587" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V587" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="W587" s="1" t="s">
+        <v>2854</v>
+      </c>
+      <c r="X587" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y587" s="1" t="s">
+        <v>2861</v>
+      </c>
+      <c r="Z587" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA587" s="1" t="s">
+        <v>2862</v>
+      </c>
+      <c r="AB587" s="1" t="s">
+        <v>2863</v>
+      </c>
+      <c r="AC587" s="1" t="s">
+        <v>2864</v>
+      </c>
+      <c r="AD587" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE587" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF587" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG587" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH587" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI587" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="588" spans="1:35">
+      <c r="A588" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="B588" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="C588" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D588" s="1" t="s">
+        <v>2867</v>
+      </c>
+      <c r="E588" s="3" t="s">
+        <v>1900</v>
+      </c>
+      <c r="F588" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G588" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H588" s="1" t="s">
+        <v>2868</v>
+      </c>
+      <c r="I588" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J588" s="1" t="s">
+        <v>2869</v>
+      </c>
+      <c r="K588" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L588" s="1" t="s">
+        <v>2870</v>
+      </c>
+      <c r="M588" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N588" s="1" t="s">
+        <v>2871</v>
+      </c>
+      <c r="O588" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="P588" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q588" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R588" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S588" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T588" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U588" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V588" s="1" t="s">
+        <v>2872</v>
+      </c>
+      <c r="W588" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="X588" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y588" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="Z588" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA588" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB588" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC588" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="AD588" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE588" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="AF588" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG588" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH588" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI588" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="589" spans="1:35">
+      <c r="A589" s="1" t="s">
+        <v>2873</v>
+      </c>
+      <c r="B589" s="1" t="s">
+        <v>2874</v>
+      </c>
+      <c r="C589" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D589" s="1" t="s">
+        <v>2875</v>
+      </c>
+      <c r="E589" s="3" t="s">
+        <v>1900</v>
+      </c>
+      <c r="F589" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G589" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H589" s="1" t="s">
+        <v>2876</v>
+      </c>
+      <c r="I589" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J589" s="1" t="s">
+        <v>2869</v>
+      </c>
+      <c r="K589" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L589" s="1" t="s">
+        <v>2870</v>
+      </c>
+      <c r="M589" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N589" s="1" t="s">
+        <v>2877</v>
+      </c>
+      <c r="O589" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P589" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q589" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R589" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S589" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T589" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U589" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V589" s="1" t="s">
+        <v>2878</v>
+      </c>
+      <c r="W589" s="1" t="s">
+        <v>2874</v>
+      </c>
+      <c r="X589" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y589" s="1" t="s">
+        <v>2879</v>
+      </c>
+      <c r="Z589" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA589" s="1" t="s">
+        <v>2880</v>
+      </c>
+      <c r="AB589" s="1" t="s">
+        <v>2881</v>
+      </c>
+      <c r="AC589" s="1" t="s">
+        <v>2882</v>
+      </c>
+      <c r="AD589" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AE589" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF589" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG589" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH589" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI589" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="590" spans="1:35">
+      <c r="A590" s="1" t="s">
+        <v>2883</v>
+      </c>
+      <c r="B590" s="1" t="s">
+        <v>2884</v>
+      </c>
+      <c r="C590" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D590" s="1" t="s">
+        <v>2885</v>
+      </c>
+      <c r="E590" s="3" t="s">
+        <v>1900</v>
+      </c>
+      <c r="F590" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G590" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H590" s="1" t="s">
+        <v>2886</v>
+      </c>
+      <c r="I590" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J590" s="1" t="s">
+        <v>2869</v>
+      </c>
+      <c r="K590" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L590" s="1" t="s">
+        <v>2870</v>
+      </c>
+      <c r="M590" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N590" s="1" t="s">
+        <v>2887</v>
+      </c>
+      <c r="O590" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P590" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q590" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R590" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S590" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T590" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U590" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V590" s="1" t="s">
+        <v>2888</v>
+      </c>
+      <c r="W590" s="1" t="s">
+        <v>2884</v>
+      </c>
+      <c r="X590" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y590" s="1" t="s">
+        <v>2889</v>
+      </c>
+      <c r="Z590" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA590" s="1" t="s">
+        <v>1770</v>
+      </c>
+      <c r="AB590" s="1" t="s">
+        <v>2890</v>
+      </c>
+      <c r="AC590" s="1" t="s">
+        <v>2891</v>
+      </c>
+      <c r="AD590" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE590" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF590" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG590" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH590" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI590" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="591" spans="1:35">
+      <c r="A591" s="1" t="s">
+        <v>2892</v>
+      </c>
+      <c r="B591" s="1" t="s">
+        <v>2893</v>
+      </c>
+      <c r="C591" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D591" s="1" t="s">
+        <v>2894</v>
+      </c>
+      <c r="E591" s="3" t="s">
+        <v>1900</v>
+      </c>
+      <c r="F591" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G591" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H591" s="1" t="s">
+        <v>2895</v>
+      </c>
+      <c r="I591" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J591" s="1" t="s">
+        <v>2896</v>
+      </c>
+      <c r="K591" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L591" s="1" t="s">
+        <v>2897</v>
+      </c>
+      <c r="M591" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N591" s="1" t="s">
+        <v>2898</v>
+      </c>
+      <c r="O591" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P591" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q591" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R591" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S591" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T591" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U591" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V591" s="1" t="s">
+        <v>2899</v>
+      </c>
+      <c r="W591" s="1" t="s">
+        <v>2893</v>
+      </c>
+      <c r="X591" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y591" s="1" t="s">
+        <v>2900</v>
+      </c>
+      <c r="Z591" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA591" s="1" t="s">
+        <v>2901</v>
+      </c>
+      <c r="AB591" s="1" t="s">
+        <v>2902</v>
+      </c>
+      <c r="AC591" s="1" t="s">
+        <v>2903</v>
+      </c>
+      <c r="AD591" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE591" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF591" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG591" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH591" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI591" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="592" spans="1:35">
+      <c r="A592" s="1" t="s">
+        <v>2904</v>
+      </c>
+      <c r="B592" s="1" t="s">
+        <v>2905</v>
+      </c>
+      <c r="C592" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D592" s="1" t="s">
+        <v>2906</v>
+      </c>
+      <c r="E592" s="3" t="s">
+        <v>1900</v>
+      </c>
+      <c r="F592" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G592" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H592" s="1" t="s">
+        <v>2907</v>
+      </c>
+      <c r="I592" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J592" s="1" t="s">
+        <v>2908</v>
+      </c>
+      <c r="K592" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L592" s="1" t="s">
+        <v>2857</v>
+      </c>
+      <c r="M592" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N592" s="1" t="s">
+        <v>2909</v>
+      </c>
+      <c r="O592" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P592" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q592" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R592" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S592" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T592" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U592" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V592" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="W592" s="1" t="s">
+        <v>2905</v>
+      </c>
+      <c r="X592" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y592" s="1" t="s">
+        <v>2911</v>
+      </c>
+      <c r="Z592" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA592" s="1" t="s">
+        <v>2912</v>
+      </c>
+      <c r="AB592" s="1" t="s">
+        <v>2913</v>
+      </c>
+      <c r="AC592" s="1" t="s">
+        <v>2914</v>
+      </c>
+      <c r="AD592" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE592" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF592" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG592" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH592" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI592" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="593" spans="1:35">
+      <c r="A593" s="1" t="s">
+        <v>2915</v>
+      </c>
+      <c r="B593" s="1" t="s">
+        <v>2916</v>
+      </c>
+      <c r="C593" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D593" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E593" s="3" t="s">
+        <v>1900</v>
+      </c>
+      <c r="F593" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G593" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H593" s="1" t="s">
+        <v>2918</v>
+      </c>
+      <c r="I593" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J593" s="1" t="s">
+        <v>2896</v>
+      </c>
+      <c r="K593" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L593" s="1" t="s">
+        <v>2897</v>
+      </c>
+      <c r="M593" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N593" s="1" t="s">
+        <v>2919</v>
+      </c>
+      <c r="O593" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P593" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q593" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R593" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S593" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T593" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U593" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V593" s="1" t="s">
+        <v>2920</v>
+      </c>
+      <c r="W593" s="1" t="s">
+        <v>2916</v>
+      </c>
+      <c r="X593" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y593" s="1" t="s">
+        <v>2921</v>
+      </c>
+      <c r="Z593" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA593" s="1" t="s">
+        <v>2922</v>
+      </c>
+      <c r="AB593" s="1" t="s">
+        <v>2923</v>
+      </c>
+      <c r="AC593" s="1" t="s">
+        <v>2924</v>
+      </c>
+      <c r="AD593" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE593" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF593" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG593" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH593" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI593" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="594" spans="1:35">
+      <c r="A594" s="1" t="s">
+        <v>2925</v>
+      </c>
+      <c r="B594" s="1" t="s">
+        <v>2926</v>
+      </c>
+      <c r="C594" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D594" s="1" t="s">
+        <v>2927</v>
+      </c>
+      <c r="E594" s="3" t="s">
+        <v>1900</v>
+      </c>
+      <c r="F594" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G594" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H594" s="1" t="s">
+        <v>2928</v>
+      </c>
+      <c r="I594" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J594" s="1" t="s">
+        <v>2857</v>
+      </c>
+      <c r="K594" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L594" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="M594" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N594" s="1" t="s">
+        <v>2929</v>
+      </c>
+      <c r="O594" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P594" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q594" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R594" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S594" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T594" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U594" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V594" s="1" t="s">
+        <v>2930</v>
+      </c>
+      <c r="W594" s="1" t="s">
+        <v>2926</v>
+      </c>
+      <c r="X594" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y594" s="1" t="s">
+        <v>2931</v>
+      </c>
+      <c r="Z594" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA594" s="1" t="s">
+        <v>2932</v>
+      </c>
+      <c r="AB594" s="1" t="s">
+        <v>2933</v>
+      </c>
+      <c r="AC594" s="1" t="s">
+        <v>2934</v>
+      </c>
+      <c r="AD594" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE594" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF594" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG594" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH594" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI594" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="595" spans="1:35">
+      <c r="A595" s="1" t="s">
+        <v>2935</v>
+      </c>
+      <c r="B595" s="1" t="s">
+        <v>2936</v>
+      </c>
+      <c r="C595" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D595" s="1" t="s">
+        <v>2937</v>
+      </c>
+      <c r="E595" s="3" t="s">
+        <v>1903</v>
+      </c>
+      <c r="F595" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G595" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H595" s="1" t="s">
+        <v>2938</v>
+      </c>
+      <c r="I595" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J595" s="1" t="s">
+        <v>2896</v>
+      </c>
+      <c r="K595" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L595" s="1" t="s">
+        <v>2897</v>
+      </c>
+      <c r="M595" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N595" s="1" t="s">
+        <v>2939</v>
+      </c>
+      <c r="O595" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P595" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q595" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R595" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S595" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="T595" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U595" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V595" s="1" t="s">
+        <v>2940</v>
+      </c>
+      <c r="W595" s="1" t="s">
+        <v>2936</v>
+      </c>
+      <c r="X595" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y595" s="1" t="s">
+        <v>2941</v>
+      </c>
+      <c r="Z595" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA595" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AB595" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="AC595" s="1" t="s">
+        <v>2942</v>
+      </c>
+      <c r="AD595" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE595" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AF595" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG595" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH595" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI595" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="596" spans="1:35">
+      <c r="A596" s="1" t="s">
+        <v>2943</v>
+      </c>
+      <c r="B596" s="1" t="s">
+        <v>2944</v>
+      </c>
+      <c r="C596" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D596" s="1" t="s">
+        <v>2945</v>
+      </c>
+      <c r="E596" s="3" t="s">
+        <v>1903</v>
+      </c>
+      <c r="F596" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G596" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H596" s="1" t="s">
+        <v>2946</v>
+      </c>
+      <c r="I596" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J596" s="1" t="s">
+        <v>2896</v>
+      </c>
+      <c r="K596" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L596" s="1" t="s">
+        <v>2897</v>
+      </c>
+      <c r="M596" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N596" s="1" t="s">
+        <v>2947</v>
+      </c>
+      <c r="O596" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P596" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q596" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R596" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S596" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T596" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U596" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V596" s="1" t="s">
+        <v>2948</v>
+      </c>
+      <c r="W596" s="1" t="s">
+        <v>2944</v>
+      </c>
+      <c r="X596" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y596" s="1" t="s">
+        <v>2949</v>
+      </c>
+      <c r="Z596" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA596" s="1" t="s">
+        <v>2950</v>
+      </c>
+      <c r="AB596" s="1" t="s">
+        <v>2951</v>
+      </c>
+      <c r="AC596" s="1" t="s">
+        <v>2952</v>
+      </c>
+      <c r="AD596" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AE596" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF596" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG596" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH596" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI596" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="597" spans="1:35">
+      <c r="A597" s="1" t="s">
+        <v>2953</v>
+      </c>
+      <c r="B597" s="1" t="s">
+        <v>2954</v>
+      </c>
+      <c r="C597" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D597" s="1" t="s">
+        <v>2955</v>
+      </c>
+      <c r="E597" s="3" t="s">
+        <v>1903</v>
+      </c>
+      <c r="F597" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G597" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H597" s="1" t="s">
+        <v>2956</v>
+      </c>
+      <c r="I597" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J597" s="1" t="s">
+        <v>2908</v>
+      </c>
+      <c r="K597" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L597" s="1" t="s">
+        <v>2857</v>
+      </c>
+      <c r="M597" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N597" s="1" t="s">
+        <v>2957</v>
+      </c>
+      <c r="O597" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P597" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q597" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R597" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S597" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="T597" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U597" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V597" s="1" t="s">
+        <v>2958</v>
+      </c>
+      <c r="W597" s="1" t="s">
+        <v>2954</v>
+      </c>
+      <c r="X597" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y597" s="1" t="s">
+        <v>2959</v>
+      </c>
+      <c r="Z597" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA597" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="AB597" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="AC597" s="1" t="s">
+        <v>2960</v>
+      </c>
+      <c r="AD597" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE597" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AF597" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG597" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH597" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI597" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="598" spans="1:35">
+      <c r="A598" s="1" t="s">
+        <v>2961</v>
+      </c>
+      <c r="B598" s="1" t="s">
+        <v>2962</v>
+      </c>
+      <c r="C598" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D598" s="1" t="s">
+        <v>2963</v>
+      </c>
+      <c r="E598" s="3" t="s">
+        <v>1903</v>
+      </c>
+      <c r="F598" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G598" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H598" s="1" t="s">
+        <v>2964</v>
+      </c>
+      <c r="I598" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J598" s="1" t="s">
+        <v>2857</v>
+      </c>
+      <c r="K598" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L598" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="M598" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N598" s="1" t="s">
+        <v>2965</v>
+      </c>
+      <c r="O598" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P598" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q598" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R598" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S598" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="T598" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U598" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V598" s="1" t="s">
+        <v>2966</v>
+      </c>
+      <c r="W598" s="1" t="s">
+        <v>2962</v>
+      </c>
+      <c r="X598" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y598" s="1" t="s">
+        <v>2967</v>
+      </c>
+      <c r="Z598" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA598" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="AB598" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="AC598" s="1" t="s">
+        <v>2968</v>
+      </c>
+      <c r="AD598" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE598" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF598" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG598" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH598" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI598" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="599" spans="1:35">
+      <c r="A599" s="1" t="s">
+        <v>2969</v>
+      </c>
+      <c r="B599" s="1" t="s">
+        <v>2970</v>
+      </c>
+      <c r="C599" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D599" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E599" s="3" t="s">
+        <v>1903</v>
+      </c>
+      <c r="F599" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G599" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H599" s="1" t="s">
+        <v>2971</v>
+      </c>
+      <c r="I599" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J599" s="1" t="s">
+        <v>2896</v>
+      </c>
+      <c r="K599" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L599" s="1" t="s">
+        <v>2897</v>
+      </c>
+      <c r="M599" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N599" s="1" t="s">
+        <v>2972</v>
+      </c>
+      <c r="O599" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P599" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q599" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R599" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S599" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T599" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U599" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V599" s="1" t="s">
+        <v>2973</v>
+      </c>
+      <c r="W599" s="1" t="s">
+        <v>2970</v>
+      </c>
+      <c r="X599" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y599" s="1" t="s">
+        <v>2974</v>
+      </c>
+      <c r="Z599" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA599" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="AB599" s="1" t="s">
+        <v>2213</v>
+      </c>
+      <c r="AC599" s="1" t="s">
+        <v>2975</v>
+      </c>
+      <c r="AD599" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE599" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF599" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG599" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH599" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI599" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="600" spans="1:35">
+      <c r="A600" s="1" t="s">
+        <v>2976</v>
+      </c>
+      <c r="B600" s="1" t="s">
+        <v>2977</v>
+      </c>
+      <c r="C600" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D600" s="1" t="s">
+        <v>2978</v>
+      </c>
+      <c r="E600" s="3" t="s">
+        <v>1902</v>
+      </c>
+      <c r="F600" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G600" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H600" s="1" t="s">
+        <v>2979</v>
+      </c>
+      <c r="I600" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J600" s="1" t="s">
+        <v>2869</v>
+      </c>
+      <c r="K600" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L600" s="1" t="s">
+        <v>2870</v>
+      </c>
+      <c r="M600" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N600" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="O600" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P600" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q600" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R600" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S600" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T600" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U600" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V600" s="1" t="s">
+        <v>2980</v>
+      </c>
+      <c r="W600" s="1" t="s">
+        <v>2977</v>
+      </c>
+      <c r="X600" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y600" s="1" t="s">
+        <v>2013</v>
+      </c>
+      <c r="Z600" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA600" s="1" t="s">
+        <v>2981</v>
+      </c>
+      <c r="AB600" s="1" t="s">
+        <v>2982</v>
+      </c>
+      <c r="AC600" s="1" t="s">
+        <v>2016</v>
+      </c>
+      <c r="AD600" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE600" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="AF600" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG600" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH600" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI600" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="601" spans="1:35">
+      <c r="A601" s="1" t="s">
+        <v>2983</v>
+      </c>
+      <c r="B601" s="1" t="s">
+        <v>2984</v>
+      </c>
+      <c r="C601" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D601" s="1" t="s">
+        <v>2985</v>
+      </c>
+      <c r="E601" s="3" t="s">
+        <v>1902</v>
+      </c>
+      <c r="F601" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G601" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H601" s="1" t="s">
+        <v>2986</v>
+      </c>
+      <c r="I601" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J601" s="1" t="s">
+        <v>2857</v>
+      </c>
+      <c r="K601" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L601" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="M601" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N601" s="1" t="s">
+        <v>2987</v>
+      </c>
+      <c r="O601" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P601" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q601" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R601" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S601" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T601" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U601" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V601" s="1" t="s">
+        <v>2988</v>
+      </c>
+      <c r="W601" s="1" t="s">
+        <v>2984</v>
+      </c>
+      <c r="X601" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y601" s="1" t="s">
+        <v>2989</v>
+      </c>
+      <c r="Z601" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA601" s="1" t="s">
+        <v>1447</v>
+      </c>
+      <c r="AB601" s="1" t="s">
+        <v>2990</v>
+      </c>
+      <c r="AC601" s="1" t="s">
+        <v>2991</v>
+      </c>
+      <c r="AD601" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE601" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF601" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG601" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH601" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI601" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="602" spans="1:35">
+      <c r="A602" s="1" t="s">
+        <v>2992</v>
+      </c>
+      <c r="B602" s="1" t="s">
+        <v>2993</v>
+      </c>
+      <c r="C602" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D602" s="1" t="s">
+        <v>2994</v>
+      </c>
+      <c r="E602" s="3" t="s">
+        <v>1902</v>
+      </c>
+      <c r="F602" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G602" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H602" s="1" t="s">
+        <v>2995</v>
+      </c>
+      <c r="I602" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J602" s="1" t="s">
+        <v>2869</v>
+      </c>
+      <c r="K602" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L602" s="1" t="s">
+        <v>2870</v>
+      </c>
+      <c r="M602" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N602" s="1" t="s">
+        <v>2828</v>
+      </c>
+      <c r="O602" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P602" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q602" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R602" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S602" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T602" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U602" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V602" s="1" t="s">
+        <v>2996</v>
+      </c>
+      <c r="W602" s="1" t="s">
+        <v>2993</v>
+      </c>
+      <c r="X602" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y602" s="1" t="s">
+        <v>2997</v>
+      </c>
+      <c r="Z602" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA602" s="1" t="s">
+        <v>1887</v>
+      </c>
+      <c r="AB602" s="1" t="s">
+        <v>2998</v>
+      </c>
+      <c r="AC602" s="1" t="s">
+        <v>2999</v>
+      </c>
+      <c r="AD602" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE602" s="1" t="s">
+        <v>1503</v>
+      </c>
+      <c r="AF602" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG602" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH602" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI602" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="603" spans="1:35">
+      <c r="A603" s="1" t="s">
+        <v>3000</v>
+      </c>
+      <c r="B603" s="1" t="s">
+        <v>3001</v>
+      </c>
+      <c r="C603" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D603" s="1" t="s">
+        <v>3002</v>
+      </c>
+      <c r="E603" s="3" t="s">
+        <v>1902</v>
+      </c>
+      <c r="F603" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G603" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H603" s="1" t="s">
+        <v>3003</v>
+      </c>
+      <c r="I603" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J603" s="1" t="s">
+        <v>2869</v>
+      </c>
+      <c r="K603" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L603" s="1" t="s">
+        <v>2870</v>
+      </c>
+      <c r="M603" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N603" s="1" t="s">
+        <v>3004</v>
+      </c>
+      <c r="O603" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P603" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q603" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R603" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S603" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T603" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U603" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V603" s="1" t="s">
+        <v>3005</v>
+      </c>
+      <c r="W603" s="1" t="s">
+        <v>3001</v>
+      </c>
+      <c r="X603" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y603" s="1" t="s">
+        <v>3006</v>
+      </c>
+      <c r="Z603" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA603" s="1" t="s">
+        <v>2371</v>
+      </c>
+      <c r="AB603" s="1" t="s">
+        <v>3007</v>
+      </c>
+      <c r="AC603" s="1" t="s">
+        <v>3008</v>
+      </c>
+      <c r="AD603" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE603" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF603" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG603" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH603" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI603" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="604" spans="1:35">
+      <c r="A604" s="1" t="s">
+        <v>3009</v>
+      </c>
+      <c r="B604" s="1" t="s">
+        <v>3010</v>
+      </c>
+      <c r="C604" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D604" s="1" t="s">
+        <v>3011</v>
+      </c>
+      <c r="E604" s="3" t="s">
+        <v>1902</v>
+      </c>
+      <c r="F604" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G604" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H604" s="1" t="s">
+        <v>3012</v>
+      </c>
+      <c r="I604" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J604" s="1" t="s">
+        <v>2896</v>
+      </c>
+      <c r="K604" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L604" s="1" t="s">
+        <v>2897</v>
+      </c>
+      <c r="M604" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N604" s="1" t="s">
+        <v>3013</v>
+      </c>
+      <c r="O604" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P604" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q604" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R604" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S604" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="T604" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U604" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V604" s="1" t="s">
+        <v>3014</v>
+      </c>
+      <c r="W604" s="1" t="s">
+        <v>3010</v>
+      </c>
+      <c r="X604" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y604" s="1" t="s">
+        <v>3015</v>
+      </c>
+      <c r="Z604" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA604" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB604" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="AC604" s="1" t="s">
+        <v>3016</v>
+      </c>
+      <c r="AD604" s="1" t="s">
+        <v>3017</v>
+      </c>
+      <c r="AE604" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF604" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG604" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH604" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI604" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AI500"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/deliveryopenfiber.xlsx
+++ b/deliveryopenfiber.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21105" uniqueCount="3018">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22225" uniqueCount="3166">
   <si>
     <t>Codice</t>
   </si>
@@ -9071,6 +9071,450 @@
   </si>
   <si>
     <t>EHINET SRL</t>
+  </si>
+  <si>
+    <t>DEL1003548264</t>
+  </si>
+  <si>
+    <t>4224696945527777767</t>
+  </si>
+  <si>
+    <t>21/08/2025 13:18</t>
+  </si>
+  <si>
+    <t>SILVANA PINNONE</t>
+  </si>
+  <si>
+    <t>21/08/2025 11:30</t>
+  </si>
+  <si>
+    <t>21/08/2025 13:30</t>
+  </si>
+  <si>
+    <t>05/08/2025 17:46</t>
+  </si>
+  <si>
+    <t>WN_9002075352</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000970710_15</t>
+  </si>
+  <si>
+    <t>SR_01/02w21/I754_VIA PRINCIPATO DI MONACO_15_1</t>
+  </si>
+  <si>
+    <t>DEL1003549547</t>
+  </si>
+  <si>
+    <t>4224696945527778785</t>
+  </si>
+  <si>
+    <t>21/08/2025 12:48</t>
+  </si>
+  <si>
+    <t>SAVERIA BARONE</t>
+  </si>
+  <si>
+    <t>21/08/2025 08:30</t>
+  </si>
+  <si>
+    <t>21/08/2025 10:30</t>
+  </si>
+  <si>
+    <t>06/08/2025 08:46</t>
+  </si>
+  <si>
+    <t>FW_SPA000000062191</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000916144_54</t>
+  </si>
+  <si>
+    <t>SR_01/EOF_0094</t>
+  </si>
+  <si>
+    <t>SR_01/03w44-SP_09</t>
+  </si>
+  <si>
+    <t>SR_01/03w44/I754_VIA DELL'ARSENALE_54_A</t>
+  </si>
+  <si>
+    <t>DEL1003559132</t>
+  </si>
+  <si>
+    <t>4224696945526859224</t>
+  </si>
+  <si>
+    <t>21/08/2025 15:28</t>
+  </si>
+  <si>
+    <t>CARMELA ZIRONE</t>
+  </si>
+  <si>
+    <t>21/08/2025 14:30</t>
+  </si>
+  <si>
+    <t>21/08/2025 16:30</t>
+  </si>
+  <si>
+    <t>09/08/2025 11:36</t>
+  </si>
+  <si>
+    <t>1669224512228295</t>
+  </si>
+  <si>
+    <t>19_089_089017_8001078352_205</t>
+  </si>
+  <si>
+    <t>SR_01/06e34/I754_VIA GROTTA SANTA_205_1</t>
+  </si>
+  <si>
+    <t>DEL1003569717</t>
+  </si>
+  <si>
+    <t>4224696945536623873</t>
+  </si>
+  <si>
+    <t>21/08/2025 10:18</t>
+  </si>
+  <si>
+    <t>MONICA LIVIA CIOCAN</t>
+  </si>
+  <si>
+    <t>13/08/2025 17:26</t>
+  </si>
+  <si>
+    <t>WN_9002082598</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000970041_6</t>
+  </si>
+  <si>
+    <t>SR_01/WIN_0037</t>
+  </si>
+  <si>
+    <t>SR_01/04e13-SP_01</t>
+  </si>
+  <si>
+    <t>SR_01/04e13/I754_VIA LUIGI BIGNAMI_6</t>
+  </si>
+  <si>
+    <t>DEL1003575094</t>
+  </si>
+  <si>
+    <t>4224696945537221481</t>
+  </si>
+  <si>
+    <t>21/08/2025 16:18</t>
+  </si>
+  <si>
+    <t>WN_9002078946</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000970274_8</t>
+  </si>
+  <si>
+    <t>SR_01/WIN_0159</t>
+  </si>
+  <si>
+    <t>SR_01/03e34-SP_11</t>
+  </si>
+  <si>
+    <t>SR_01/03e34/I754_VIA ESCHILO_6</t>
+  </si>
+  <si>
+    <t>DEL1003575834</t>
+  </si>
+  <si>
+    <t>4224696945537222340</t>
+  </si>
+  <si>
+    <t>21/08/2025 17:18</t>
+  </si>
+  <si>
+    <t>GIUSEPPINA GARRO</t>
+  </si>
+  <si>
+    <t>16/08/2025 15:16</t>
+  </si>
+  <si>
+    <t>ILA_1755340507695</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000970371_70</t>
+  </si>
+  <si>
+    <t>SR_01/06e12-SP_10</t>
+  </si>
+  <si>
+    <t>SR_01/06e12/I754_VIA GIOVANNI ANGELO MONTORSOLI_52</t>
+  </si>
+  <si>
+    <t>DEL1003576199</t>
+  </si>
+  <si>
+    <t>4224696945537222702</t>
+  </si>
+  <si>
+    <t>21/08/2025 12:18</t>
+  </si>
+  <si>
+    <t>VALENTINA CAMPAILLA</t>
+  </si>
+  <si>
+    <t>16/08/2025 19:06</t>
+  </si>
+  <si>
+    <t>OPI_AP_187350</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000970081_33</t>
+  </si>
+  <si>
+    <t>SR_01/03e23-SP_06</t>
+  </si>
+  <si>
+    <t>SR_01/03e23/I754_VIA ADDA_33_1_B</t>
+  </si>
+  <si>
+    <t>DEL1003578911</t>
+  </si>
+  <si>
+    <t>4224696945537223119</t>
+  </si>
+  <si>
+    <t>21/08/2025 09:58</t>
+  </si>
+  <si>
+    <t>GIUSEPPE PALMA</t>
+  </si>
+  <si>
+    <t>18/08/2025 08:16</t>
+  </si>
+  <si>
+    <t>WN_9002084416</t>
+  </si>
+  <si>
+    <t>19_089_089009_8000917217_49</t>
+  </si>
+  <si>
+    <t>SR_09/01e32/SR_09/01e32/D636_063</t>
+  </si>
+  <si>
+    <t>DEL1003579493</t>
+  </si>
+  <si>
+    <t>4224696945537812375</t>
+  </si>
+  <si>
+    <t>21/08/2025 11:28</t>
+  </si>
+  <si>
+    <t>MARCO MONTALTO</t>
+  </si>
+  <si>
+    <t>18/08/2025 11:16</t>
+  </si>
+  <si>
+    <t>ENE_00000727118</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000970327_39</t>
+  </si>
+  <si>
+    <t>SR_01/03e32-SP_09</t>
+  </si>
+  <si>
+    <t>SR_01/03e32/I754_VIA EPICARMO_47</t>
+  </si>
+  <si>
+    <t>DEL1003582113</t>
+  </si>
+  <si>
+    <t>4224696945537814487</t>
+  </si>
+  <si>
+    <t>MARIA BORDONARO</t>
+  </si>
+  <si>
+    <t>19/08/2025 09:26</t>
+  </si>
+  <si>
+    <t>WN_9002085263</t>
+  </si>
+  <si>
+    <t>19_089_089009_8000975470_7</t>
+  </si>
+  <si>
+    <t>SR_09/01e34/SR_09/01e34/D636_084</t>
+  </si>
+  <si>
+    <t>DEL1003585105</t>
+  </si>
+  <si>
+    <t>4224696945537814469</t>
+  </si>
+  <si>
+    <t>21/08/2025 17:06</t>
+  </si>
+  <si>
+    <t>PAOLO BORDIERI</t>
+  </si>
+  <si>
+    <t>21/08/2025 18:00</t>
+  </si>
+  <si>
+    <t>20/08/2025 09:16</t>
+  </si>
+  <si>
+    <t>ILA_1754822114525</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000970997_14</t>
+  </si>
+  <si>
+    <t>SR_01/08w14-SP_05</t>
+  </si>
+  <si>
+    <t>SR_01/08w14/I754_VIA MONTE BIANCO_14_1</t>
+  </si>
+  <si>
+    <t>DEL1003585581</t>
+  </si>
+  <si>
+    <t>4224696945538348098</t>
+  </si>
+  <si>
+    <t>21/08/2025 17:38</t>
+  </si>
+  <si>
+    <t>MARIA SERRA</t>
+  </si>
+  <si>
+    <t>20/08/2025 11:56</t>
+  </si>
+  <si>
+    <t>ILA_1755619528604</t>
+  </si>
+  <si>
+    <t>19_089_089017_8001089613_SNC18</t>
+  </si>
+  <si>
+    <t>SR_01/04e44-SP_06</t>
+  </si>
+  <si>
+    <t>SR_01/04e44/I754_VIA SICILIA_SNC18_1</t>
+  </si>
+  <si>
+    <t>DEL1003585946</t>
+  </si>
+  <si>
+    <t>4224696945538348337</t>
+  </si>
+  <si>
+    <t>21/08/2025 15:26</t>
+  </si>
+  <si>
+    <t>GIUSEPPE CARPINTERI</t>
+  </si>
+  <si>
+    <t>20/08/2025 13:56</t>
+  </si>
+  <si>
+    <t>WN_9002085756</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000969166_5/F</t>
+  </si>
+  <si>
+    <t>SR_01/06e24/I754_VIA TEMISTOCLE_5/F_1_F</t>
+  </si>
+  <si>
+    <t>DEL1003586148</t>
+  </si>
+  <si>
+    <t>4224696945538348642</t>
+  </si>
+  <si>
+    <t>LINA GRECO</t>
+  </si>
+  <si>
+    <t>20/08/2025 15:16</t>
+  </si>
+  <si>
+    <t>ENE_00000729120</t>
+  </si>
+  <si>
+    <t>19_089_089017_8001005528_276</t>
+  </si>
+  <si>
+    <t>SR_01/02w33-SP_08</t>
+  </si>
+  <si>
+    <t>SR_01/02w33/I754_VIALE SANTA PANAGIA_276_1_D</t>
+  </si>
+  <si>
+    <t>DEL1003586216</t>
+  </si>
+  <si>
+    <t>21/08/2025 17:36</t>
+  </si>
+  <si>
+    <t>20/08/2025 15:36</t>
+  </si>
+  <si>
+    <t>DEL1003586287</t>
+  </si>
+  <si>
+    <t>4224696945539525924</t>
+  </si>
+  <si>
+    <t>GIUSEPPINA CATANIA</t>
+  </si>
+  <si>
+    <t>20/08/2025 15:56</t>
+  </si>
+  <si>
+    <t>ENE_00000729283</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000969060_15</t>
+  </si>
+  <si>
+    <t>SR_01/EOF_0062</t>
+  </si>
+  <si>
+    <t>SR_01/07e23-SP_03</t>
+  </si>
+  <si>
+    <t>SR_01/07e23/I754_VIA RAMACCA_15_1</t>
+  </si>
+  <si>
+    <t>DEL1003586729</t>
+  </si>
+  <si>
+    <t>4224696945539526693</t>
+  </si>
+  <si>
+    <t>DAVIDE MACCA</t>
+  </si>
+  <si>
+    <t>20/08/2025 18:46</t>
+  </si>
+  <si>
+    <t>ENE_00000729511</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000955744_12</t>
+  </si>
+  <si>
+    <t>SR_01/EOF_0038</t>
+  </si>
+  <si>
+    <t>SR_01/04e24-SP_03</t>
+  </si>
+  <si>
+    <t>SR_01/04e24/I754_PIAZZALE MEDAGLIA D'ORO CARMELO GANCI_12_1</t>
   </si>
 </sst>
 </file>
@@ -9407,10 +9851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI604"/>
+  <dimension ref="A1:AI636"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A564" workbookViewId="0">
-      <selection activeCell="B589" sqref="B589"/>
+    <sheetView tabSelected="1" topLeftCell="A600" workbookViewId="0">
+      <selection activeCell="E632" sqref="E632:E636"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -73945,6 +74389,3430 @@
         <v>141</v>
       </c>
     </row>
+    <row r="605" spans="1:35">
+      <c r="A605" s="1" t="s">
+        <v>3050</v>
+      </c>
+      <c r="B605" s="1" t="s">
+        <v>3051</v>
+      </c>
+      <c r="C605" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D605" s="1" t="s">
+        <v>3052</v>
+      </c>
+      <c r="E605" s="3" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F605" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G605" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H605" s="1" t="s">
+        <v>3053</v>
+      </c>
+      <c r="I605" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J605" s="1" t="s">
+        <v>3032</v>
+      </c>
+      <c r="K605" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L605" s="1" t="s">
+        <v>3033</v>
+      </c>
+      <c r="M605" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N605" s="1" t="s">
+        <v>3054</v>
+      </c>
+      <c r="O605" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P605" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q605" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R605" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S605" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T605" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U605" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V605" s="1" t="s">
+        <v>3055</v>
+      </c>
+      <c r="W605" s="1" t="s">
+        <v>3051</v>
+      </c>
+      <c r="X605" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y605" s="1" t="s">
+        <v>3056</v>
+      </c>
+      <c r="Z605" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA605" s="1" t="s">
+        <v>3057</v>
+      </c>
+      <c r="AB605" s="1" t="s">
+        <v>3058</v>
+      </c>
+      <c r="AC605" s="1" t="s">
+        <v>3059</v>
+      </c>
+      <c r="AD605" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE605" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF605" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG605" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH605" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI605" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="606" spans="1:35">
+      <c r="A606" s="1" t="s">
+        <v>3068</v>
+      </c>
+      <c r="B606" s="1" t="s">
+        <v>3069</v>
+      </c>
+      <c r="C606" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D606" s="1" t="s">
+        <v>3070</v>
+      </c>
+      <c r="E606" s="3" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F606" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G606" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H606" s="1" t="s">
+        <v>3071</v>
+      </c>
+      <c r="I606" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J606" s="1" t="s">
+        <v>3022</v>
+      </c>
+      <c r="K606" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L606" s="1" t="s">
+        <v>3023</v>
+      </c>
+      <c r="M606" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N606" s="1" t="s">
+        <v>3072</v>
+      </c>
+      <c r="O606" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P606" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q606" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R606" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S606" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T606" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U606" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V606" s="1" t="s">
+        <v>3073</v>
+      </c>
+      <c r="W606" s="1" t="s">
+        <v>3069</v>
+      </c>
+      <c r="X606" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y606" s="1" t="s">
+        <v>3074</v>
+      </c>
+      <c r="Z606" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA606" s="1" t="s">
+        <v>2078</v>
+      </c>
+      <c r="AB606" s="1" t="s">
+        <v>3075</v>
+      </c>
+      <c r="AC606" s="1" t="s">
+        <v>3076</v>
+      </c>
+      <c r="AD606" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE606" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF606" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG606" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH606" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI606" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="607" spans="1:35">
+      <c r="A607" s="1" t="s">
+        <v>3129</v>
+      </c>
+      <c r="B607" s="1" t="s">
+        <v>3130</v>
+      </c>
+      <c r="C607" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D607" s="1" t="s">
+        <v>3131</v>
+      </c>
+      <c r="E607" s="3" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F607" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G607" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H607" s="1" t="s">
+        <v>3132</v>
+      </c>
+      <c r="I607" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J607" s="1" t="s">
+        <v>3022</v>
+      </c>
+      <c r="K607" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L607" s="1" t="s">
+        <v>3023</v>
+      </c>
+      <c r="M607" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N607" s="1" t="s">
+        <v>3133</v>
+      </c>
+      <c r="O607" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P607" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q607" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R607" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S607" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T607" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U607" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V607" s="1" t="s">
+        <v>3134</v>
+      </c>
+      <c r="W607" s="1" t="s">
+        <v>3130</v>
+      </c>
+      <c r="X607" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y607" s="1" t="s">
+        <v>3135</v>
+      </c>
+      <c r="Z607" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA607" s="1" t="s">
+        <v>2554</v>
+      </c>
+      <c r="AB607" s="1" t="s">
+        <v>2555</v>
+      </c>
+      <c r="AC607" s="1" t="s">
+        <v>3136</v>
+      </c>
+      <c r="AD607" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE607" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF607" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG607" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH607" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI607" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="608" spans="1:35">
+      <c r="A608" s="1" t="s">
+        <v>3137</v>
+      </c>
+      <c r="B608" s="1" t="s">
+        <v>3138</v>
+      </c>
+      <c r="C608" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D608" s="1" t="s">
+        <v>3079</v>
+      </c>
+      <c r="E608" s="3" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F608" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G608" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H608" s="1" t="s">
+        <v>3139</v>
+      </c>
+      <c r="I608" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J608" s="1" t="s">
+        <v>3022</v>
+      </c>
+      <c r="K608" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L608" s="1" t="s">
+        <v>3023</v>
+      </c>
+      <c r="M608" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N608" s="1" t="s">
+        <v>3140</v>
+      </c>
+      <c r="O608" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P608" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q608" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R608" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S608" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T608" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U608" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V608" s="1" t="s">
+        <v>3141</v>
+      </c>
+      <c r="W608" s="1" t="s">
+        <v>3138</v>
+      </c>
+      <c r="X608" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y608" s="1" t="s">
+        <v>3142</v>
+      </c>
+      <c r="Z608" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA608" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="AB608" s="1" t="s">
+        <v>3143</v>
+      </c>
+      <c r="AC608" s="1" t="s">
+        <v>3144</v>
+      </c>
+      <c r="AD608" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AE608" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF608" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG608" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH608" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI608" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="609" spans="1:35">
+      <c r="A609" s="1" t="s">
+        <v>3148</v>
+      </c>
+      <c r="B609" s="1" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C609" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D609" s="1" t="s">
+        <v>3062</v>
+      </c>
+      <c r="E609" s="3" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F609" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G609" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H609" s="1" t="s">
+        <v>3150</v>
+      </c>
+      <c r="I609" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J609" s="1" t="s">
+        <v>3044</v>
+      </c>
+      <c r="K609" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L609" s="1" t="s">
+        <v>3045</v>
+      </c>
+      <c r="M609" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N609" s="1" t="s">
+        <v>3151</v>
+      </c>
+      <c r="O609" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P609" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q609" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R609" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S609" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T609" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U609" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V609" s="1" t="s">
+        <v>3152</v>
+      </c>
+      <c r="W609" s="1" t="s">
+        <v>3149</v>
+      </c>
+      <c r="X609" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y609" s="1" t="s">
+        <v>3153</v>
+      </c>
+      <c r="Z609" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA609" s="1" t="s">
+        <v>3154</v>
+      </c>
+      <c r="AB609" s="1" t="s">
+        <v>3155</v>
+      </c>
+      <c r="AC609" s="1" t="s">
+        <v>3156</v>
+      </c>
+      <c r="AD609" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AE609" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF609" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG609" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH609" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI609" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="610" spans="1:35">
+      <c r="A610" s="1" t="s">
+        <v>3040</v>
+      </c>
+      <c r="B610" s="1" t="s">
+        <v>3041</v>
+      </c>
+      <c r="C610" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D610" s="1" t="s">
+        <v>3042</v>
+      </c>
+      <c r="E610" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F610" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G610" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H610" s="1" t="s">
+        <v>3043</v>
+      </c>
+      <c r="I610" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J610" s="1" t="s">
+        <v>3044</v>
+      </c>
+      <c r="K610" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L610" s="1" t="s">
+        <v>3045</v>
+      </c>
+      <c r="M610" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N610" s="1" t="s">
+        <v>3046</v>
+      </c>
+      <c r="O610" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P610" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q610" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R610" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S610" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T610" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U610" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V610" s="1" t="s">
+        <v>3047</v>
+      </c>
+      <c r="W610" s="1" t="s">
+        <v>3041</v>
+      </c>
+      <c r="X610" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y610" s="1" t="s">
+        <v>3048</v>
+      </c>
+      <c r="Z610" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA610" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="AB610" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="AC610" s="1" t="s">
+        <v>3049</v>
+      </c>
+      <c r="AD610" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AE610" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF610" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG610" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH610" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI610" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="611" spans="1:35">
+      <c r="A611" s="1" t="s">
+        <v>3110</v>
+      </c>
+      <c r="B611" s="1" t="s">
+        <v>3111</v>
+      </c>
+      <c r="C611" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D611" s="1" t="s">
+        <v>3112</v>
+      </c>
+      <c r="E611" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F611" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G611" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H611" s="1" t="s">
+        <v>3113</v>
+      </c>
+      <c r="I611" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J611" s="1" t="s">
+        <v>3045</v>
+      </c>
+      <c r="K611" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L611" s="1" t="s">
+        <v>3114</v>
+      </c>
+      <c r="M611" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N611" s="1" t="s">
+        <v>3115</v>
+      </c>
+      <c r="O611" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P611" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q611" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R611" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S611" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T611" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U611" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V611" s="1" t="s">
+        <v>3116</v>
+      </c>
+      <c r="W611" s="1" t="s">
+        <v>3111</v>
+      </c>
+      <c r="X611" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y611" s="1" t="s">
+        <v>3117</v>
+      </c>
+      <c r="Z611" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA611" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="AB611" s="1" t="s">
+        <v>3118</v>
+      </c>
+      <c r="AC611" s="1" t="s">
+        <v>3119</v>
+      </c>
+      <c r="AD611" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE611" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF611" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG611" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH611" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI611" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="612" spans="1:35">
+      <c r="A612" s="1" t="s">
+        <v>3060</v>
+      </c>
+      <c r="B612" s="1" t="s">
+        <v>3061</v>
+      </c>
+      <c r="C612" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D612" s="1" t="s">
+        <v>3062</v>
+      </c>
+      <c r="E612" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F612" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G612" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H612" s="1" t="s">
+        <v>2498</v>
+      </c>
+      <c r="I612" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J612" s="1" t="s">
+        <v>3044</v>
+      </c>
+      <c r="K612" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L612" s="1" t="s">
+        <v>3045</v>
+      </c>
+      <c r="M612" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N612" s="1" t="s">
+        <v>2388</v>
+      </c>
+      <c r="O612" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P612" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q612" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R612" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S612" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T612" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U612" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V612" s="1" t="s">
+        <v>3063</v>
+      </c>
+      <c r="W612" s="1" t="s">
+        <v>3061</v>
+      </c>
+      <c r="X612" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y612" s="1" t="s">
+        <v>3064</v>
+      </c>
+      <c r="Z612" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA612" s="1" t="s">
+        <v>3065</v>
+      </c>
+      <c r="AB612" s="1" t="s">
+        <v>3066</v>
+      </c>
+      <c r="AC612" s="1" t="s">
+        <v>3067</v>
+      </c>
+      <c r="AD612" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE612" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF612" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG612" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH612" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI612" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="613" spans="1:35">
+      <c r="A613" s="1" t="s">
+        <v>3094</v>
+      </c>
+      <c r="B613" s="1" t="s">
+        <v>3095</v>
+      </c>
+      <c r="C613" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D613" s="1" t="s">
+        <v>3096</v>
+      </c>
+      <c r="E613" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F613" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G613" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H613" s="1" t="s">
+        <v>3097</v>
+      </c>
+      <c r="I613" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J613" s="1" t="s">
+        <v>3032</v>
+      </c>
+      <c r="K613" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L613" s="1" t="s">
+        <v>3033</v>
+      </c>
+      <c r="M613" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N613" s="1" t="s">
+        <v>3098</v>
+      </c>
+      <c r="O613" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P613" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q613" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R613" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S613" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T613" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U613" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V613" s="1" t="s">
+        <v>3099</v>
+      </c>
+      <c r="W613" s="1" t="s">
+        <v>3095</v>
+      </c>
+      <c r="X613" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y613" s="1" t="s">
+        <v>3100</v>
+      </c>
+      <c r="Z613" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA613" s="1" t="s">
+        <v>1391</v>
+      </c>
+      <c r="AB613" s="1" t="s">
+        <v>3101</v>
+      </c>
+      <c r="AC613" s="1" t="s">
+        <v>3102</v>
+      </c>
+      <c r="AD613" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AE613" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF613" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG613" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH613" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI613" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="614" spans="1:35">
+      <c r="A614" s="1" t="s">
+        <v>3120</v>
+      </c>
+      <c r="B614" s="1" t="s">
+        <v>3121</v>
+      </c>
+      <c r="C614" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D614" s="1" t="s">
+        <v>3122</v>
+      </c>
+      <c r="E614" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F614" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G614" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H614" s="1" t="s">
+        <v>3123</v>
+      </c>
+      <c r="I614" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J614" s="1" t="s">
+        <v>3045</v>
+      </c>
+      <c r="K614" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L614" s="1" t="s">
+        <v>3114</v>
+      </c>
+      <c r="M614" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N614" s="1" t="s">
+        <v>3124</v>
+      </c>
+      <c r="O614" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P614" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q614" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R614" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S614" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T614" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U614" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V614" s="1" t="s">
+        <v>3125</v>
+      </c>
+      <c r="W614" s="1" t="s">
+        <v>3121</v>
+      </c>
+      <c r="X614" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y614" s="1" t="s">
+        <v>3126</v>
+      </c>
+      <c r="Z614" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA614" s="1" t="s">
+        <v>2840</v>
+      </c>
+      <c r="AB614" s="1" t="s">
+        <v>3127</v>
+      </c>
+      <c r="AC614" s="1" t="s">
+        <v>3128</v>
+      </c>
+      <c r="AD614" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE614" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF614" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG614" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH614" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI614" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="615" spans="1:35">
+      <c r="A615" s="1" t="s">
+        <v>3145</v>
+      </c>
+      <c r="B615" s="1" t="s">
+        <v>2780</v>
+      </c>
+      <c r="C615" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D615" s="1" t="s">
+        <v>3146</v>
+      </c>
+      <c r="E615" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F615" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G615" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H615" s="1" t="s">
+        <v>2782</v>
+      </c>
+      <c r="I615" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J615" s="1" t="s">
+        <v>3022</v>
+      </c>
+      <c r="K615" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L615" s="1" t="s">
+        <v>3023</v>
+      </c>
+      <c r="M615" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N615" s="1" t="s">
+        <v>3147</v>
+      </c>
+      <c r="O615" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P615" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q615" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R615" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S615" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T615" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U615" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="V615" s="1" t="s">
+        <v>2784</v>
+      </c>
+      <c r="W615" s="1" t="s">
+        <v>2780</v>
+      </c>
+      <c r="X615" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y615" s="1" t="s">
+        <v>2785</v>
+      </c>
+      <c r="Z615" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA615" s="1" t="s">
+        <v>2786</v>
+      </c>
+      <c r="AB615" s="1" t="s">
+        <v>2787</v>
+      </c>
+      <c r="AC615" s="1" t="s">
+        <v>2788</v>
+      </c>
+      <c r="AD615" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AE615" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="AF615" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG615" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH615" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI615" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="616" spans="1:35">
+      <c r="A616" s="1" t="s">
+        <v>3018</v>
+      </c>
+      <c r="B616" s="1" t="s">
+        <v>3019</v>
+      </c>
+      <c r="C616" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D616" s="1" t="s">
+        <v>3020</v>
+      </c>
+      <c r="E616" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F616" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G616" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H616" s="1" t="s">
+        <v>3021</v>
+      </c>
+      <c r="I616" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J616" s="1" t="s">
+        <v>3022</v>
+      </c>
+      <c r="K616" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L616" s="1" t="s">
+        <v>3023</v>
+      </c>
+      <c r="M616" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N616" s="1" t="s">
+        <v>3024</v>
+      </c>
+      <c r="O616" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P616" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q616" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R616" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S616" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T616" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U616" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V616" s="1" t="s">
+        <v>3025</v>
+      </c>
+      <c r="W616" s="1" t="s">
+        <v>3019</v>
+      </c>
+      <c r="X616" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y616" s="1" t="s">
+        <v>3026</v>
+      </c>
+      <c r="Z616" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA616" s="1" t="s">
+        <v>2803</v>
+      </c>
+      <c r="AB616" s="1" t="s">
+        <v>2804</v>
+      </c>
+      <c r="AC616" s="1" t="s">
+        <v>3027</v>
+      </c>
+      <c r="AD616" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE616" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF616" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG616" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH616" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI616" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="617" spans="1:35">
+      <c r="A617" s="1" t="s">
+        <v>3028</v>
+      </c>
+      <c r="B617" s="1" t="s">
+        <v>3029</v>
+      </c>
+      <c r="C617" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D617" s="1" t="s">
+        <v>3030</v>
+      </c>
+      <c r="E617" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F617" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G617" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H617" s="1" t="s">
+        <v>3031</v>
+      </c>
+      <c r="I617" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J617" s="1" t="s">
+        <v>3032</v>
+      </c>
+      <c r="K617" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L617" s="1" t="s">
+        <v>3033</v>
+      </c>
+      <c r="M617" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N617" s="1" t="s">
+        <v>3034</v>
+      </c>
+      <c r="O617" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P617" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q617" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R617" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S617" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T617" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U617" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V617" s="1" t="s">
+        <v>3035</v>
+      </c>
+      <c r="W617" s="1" t="s">
+        <v>3029</v>
+      </c>
+      <c r="X617" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y617" s="1" t="s">
+        <v>3036</v>
+      </c>
+      <c r="Z617" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA617" s="1" t="s">
+        <v>3037</v>
+      </c>
+      <c r="AB617" s="1" t="s">
+        <v>3038</v>
+      </c>
+      <c r="AC617" s="1" t="s">
+        <v>3039</v>
+      </c>
+      <c r="AD617" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AE617" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF617" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG617" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH617" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI617" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="618" spans="1:35">
+      <c r="A618" s="1" t="s">
+        <v>3077</v>
+      </c>
+      <c r="B618" s="1" t="s">
+        <v>3078</v>
+      </c>
+      <c r="C618" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D618" s="1" t="s">
+        <v>3079</v>
+      </c>
+      <c r="E618" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F618" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G618" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H618" s="1" t="s">
+        <v>3080</v>
+      </c>
+      <c r="I618" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J618" s="1" t="s">
+        <v>3022</v>
+      </c>
+      <c r="K618" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L618" s="1" t="s">
+        <v>3023</v>
+      </c>
+      <c r="M618" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N618" s="1" t="s">
+        <v>3081</v>
+      </c>
+      <c r="O618" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P618" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q618" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R618" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S618" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T618" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U618" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V618" s="1" t="s">
+        <v>3082</v>
+      </c>
+      <c r="W618" s="1" t="s">
+        <v>3078</v>
+      </c>
+      <c r="X618" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y618" s="1" t="s">
+        <v>3083</v>
+      </c>
+      <c r="Z618" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA618" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB618" s="1" t="s">
+        <v>3084</v>
+      </c>
+      <c r="AC618" s="1" t="s">
+        <v>3085</v>
+      </c>
+      <c r="AD618" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE618" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF618" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG618" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH618" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI618" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="619" spans="1:35">
+      <c r="A619" s="1" t="s">
+        <v>3086</v>
+      </c>
+      <c r="B619" s="1" t="s">
+        <v>3087</v>
+      </c>
+      <c r="C619" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D619" s="1" t="s">
+        <v>3088</v>
+      </c>
+      <c r="E619" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F619" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G619" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H619" s="1" t="s">
+        <v>3089</v>
+      </c>
+      <c r="I619" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J619" s="1" t="s">
+        <v>3032</v>
+      </c>
+      <c r="K619" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L619" s="1" t="s">
+        <v>3033</v>
+      </c>
+      <c r="M619" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N619" s="1" t="s">
+        <v>3090</v>
+      </c>
+      <c r="O619" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P619" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q619" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R619" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S619" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="T619" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U619" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V619" s="1" t="s">
+        <v>3091</v>
+      </c>
+      <c r="W619" s="1" t="s">
+        <v>3087</v>
+      </c>
+      <c r="X619" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y619" s="1" t="s">
+        <v>3092</v>
+      </c>
+      <c r="Z619" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA619" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="AB619" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="AC619" s="1" t="s">
+        <v>3093</v>
+      </c>
+      <c r="AD619" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE619" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF619" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG619" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH619" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI619" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="620" spans="1:35">
+      <c r="A620" s="1" t="s">
+        <v>3103</v>
+      </c>
+      <c r="B620" s="1" t="s">
+        <v>3104</v>
+      </c>
+      <c r="C620" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D620" s="1" t="s">
+        <v>3096</v>
+      </c>
+      <c r="E620" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F620" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G620" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H620" s="1" t="s">
+        <v>3105</v>
+      </c>
+      <c r="I620" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J620" s="1" t="s">
+        <v>3044</v>
+      </c>
+      <c r="K620" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L620" s="1" t="s">
+        <v>3045</v>
+      </c>
+      <c r="M620" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N620" s="1" t="s">
+        <v>3106</v>
+      </c>
+      <c r="O620" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P620" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q620" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R620" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S620" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="T620" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U620" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V620" s="1" t="s">
+        <v>3107</v>
+      </c>
+      <c r="W620" s="1" t="s">
+        <v>3104</v>
+      </c>
+      <c r="X620" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y620" s="1" t="s">
+        <v>3108</v>
+      </c>
+      <c r="Z620" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA620" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="AB620" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AC620" s="1" t="s">
+        <v>3109</v>
+      </c>
+      <c r="AD620" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE620" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF620" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG620" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH620" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI620" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="621" spans="1:35">
+      <c r="A621" s="1" t="s">
+        <v>3157</v>
+      </c>
+      <c r="B621" s="1" t="s">
+        <v>3158</v>
+      </c>
+      <c r="C621" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D621" s="1" t="s">
+        <v>3062</v>
+      </c>
+      <c r="E621" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F621" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G621" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H621" s="1" t="s">
+        <v>3159</v>
+      </c>
+      <c r="I621" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J621" s="1" t="s">
+        <v>3045</v>
+      </c>
+      <c r="K621" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L621" s="1" t="s">
+        <v>3114</v>
+      </c>
+      <c r="M621" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N621" s="1" t="s">
+        <v>3160</v>
+      </c>
+      <c r="O621" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P621" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q621" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R621" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S621" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T621" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U621" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V621" s="1" t="s">
+        <v>3161</v>
+      </c>
+      <c r="W621" s="1" t="s">
+        <v>3158</v>
+      </c>
+      <c r="X621" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y621" s="1" t="s">
+        <v>3162</v>
+      </c>
+      <c r="Z621" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA621" s="1" t="s">
+        <v>3163</v>
+      </c>
+      <c r="AB621" s="1" t="s">
+        <v>3164</v>
+      </c>
+      <c r="AC621" s="1" t="s">
+        <v>3165</v>
+      </c>
+      <c r="AD621" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AE621" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF621" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG621" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH621" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI621" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="622" spans="1:35">
+      <c r="A622" s="1" t="s">
+        <v>3050</v>
+      </c>
+      <c r="B622" s="1" t="s">
+        <v>3051</v>
+      </c>
+      <c r="C622" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D622" s="1" t="s">
+        <v>3052</v>
+      </c>
+      <c r="E622" s="3" t="s">
+        <v>1900</v>
+      </c>
+      <c r="F622" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G622" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H622" s="1" t="s">
+        <v>3053</v>
+      </c>
+      <c r="I622" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J622" s="1" t="s">
+        <v>3032</v>
+      </c>
+      <c r="K622" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L622" s="1" t="s">
+        <v>3033</v>
+      </c>
+      <c r="M622" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N622" s="1" t="s">
+        <v>3054</v>
+      </c>
+      <c r="O622" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P622" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q622" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R622" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S622" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T622" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U622" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V622" s="1" t="s">
+        <v>3055</v>
+      </c>
+      <c r="W622" s="1" t="s">
+        <v>3051</v>
+      </c>
+      <c r="X622" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y622" s="1" t="s">
+        <v>3056</v>
+      </c>
+      <c r="Z622" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA622" s="1" t="s">
+        <v>3057</v>
+      </c>
+      <c r="AB622" s="1" t="s">
+        <v>3058</v>
+      </c>
+      <c r="AC622" s="1" t="s">
+        <v>3059</v>
+      </c>
+      <c r="AD622" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE622" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF622" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG622" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH622" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI622" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="623" spans="1:35">
+      <c r="A623" s="1" t="s">
+        <v>3068</v>
+      </c>
+      <c r="B623" s="1" t="s">
+        <v>3069</v>
+      </c>
+      <c r="C623" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D623" s="1" t="s">
+        <v>3070</v>
+      </c>
+      <c r="E623" s="3" t="s">
+        <v>1900</v>
+      </c>
+      <c r="F623" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G623" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H623" s="1" t="s">
+        <v>3071</v>
+      </c>
+      <c r="I623" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J623" s="1" t="s">
+        <v>3022</v>
+      </c>
+      <c r="K623" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L623" s="1" t="s">
+        <v>3023</v>
+      </c>
+      <c r="M623" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N623" s="1" t="s">
+        <v>3072</v>
+      </c>
+      <c r="O623" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P623" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q623" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R623" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S623" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T623" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U623" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V623" s="1" t="s">
+        <v>3073</v>
+      </c>
+      <c r="W623" s="1" t="s">
+        <v>3069</v>
+      </c>
+      <c r="X623" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y623" s="1" t="s">
+        <v>3074</v>
+      </c>
+      <c r="Z623" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA623" s="1" t="s">
+        <v>2078</v>
+      </c>
+      <c r="AB623" s="1" t="s">
+        <v>3075</v>
+      </c>
+      <c r="AC623" s="1" t="s">
+        <v>3076</v>
+      </c>
+      <c r="AD623" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE623" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF623" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG623" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH623" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI623" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="624" spans="1:35">
+      <c r="A624" s="1" t="s">
+        <v>3129</v>
+      </c>
+      <c r="B624" s="1" t="s">
+        <v>3130</v>
+      </c>
+      <c r="C624" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D624" s="1" t="s">
+        <v>3131</v>
+      </c>
+      <c r="E624" s="3" t="s">
+        <v>1900</v>
+      </c>
+      <c r="F624" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G624" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H624" s="1" t="s">
+        <v>3132</v>
+      </c>
+      <c r="I624" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J624" s="1" t="s">
+        <v>3022</v>
+      </c>
+      <c r="K624" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L624" s="1" t="s">
+        <v>3023</v>
+      </c>
+      <c r="M624" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N624" s="1" t="s">
+        <v>3133</v>
+      </c>
+      <c r="O624" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P624" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q624" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R624" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S624" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T624" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U624" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V624" s="1" t="s">
+        <v>3134</v>
+      </c>
+      <c r="W624" s="1" t="s">
+        <v>3130</v>
+      </c>
+      <c r="X624" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y624" s="1" t="s">
+        <v>3135</v>
+      </c>
+      <c r="Z624" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA624" s="1" t="s">
+        <v>2554</v>
+      </c>
+      <c r="AB624" s="1" t="s">
+        <v>2555</v>
+      </c>
+      <c r="AC624" s="1" t="s">
+        <v>3136</v>
+      </c>
+      <c r="AD624" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE624" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF624" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG624" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH624" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI624" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="625" spans="1:35">
+      <c r="A625" s="1" t="s">
+        <v>3137</v>
+      </c>
+      <c r="B625" s="1" t="s">
+        <v>3138</v>
+      </c>
+      <c r="C625" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D625" s="1" t="s">
+        <v>3079</v>
+      </c>
+      <c r="E625" s="3" t="s">
+        <v>1900</v>
+      </c>
+      <c r="F625" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G625" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H625" s="1" t="s">
+        <v>3139</v>
+      </c>
+      <c r="I625" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J625" s="1" t="s">
+        <v>3022</v>
+      </c>
+      <c r="K625" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L625" s="1" t="s">
+        <v>3023</v>
+      </c>
+      <c r="M625" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N625" s="1" t="s">
+        <v>3140</v>
+      </c>
+      <c r="O625" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P625" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q625" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R625" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S625" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T625" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U625" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V625" s="1" t="s">
+        <v>3141</v>
+      </c>
+      <c r="W625" s="1" t="s">
+        <v>3138</v>
+      </c>
+      <c r="X625" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y625" s="1" t="s">
+        <v>3142</v>
+      </c>
+      <c r="Z625" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA625" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="AB625" s="1" t="s">
+        <v>3143</v>
+      </c>
+      <c r="AC625" s="1" t="s">
+        <v>3144</v>
+      </c>
+      <c r="AD625" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AE625" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF625" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG625" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH625" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI625" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="626" spans="1:35">
+      <c r="A626" s="1" t="s">
+        <v>3148</v>
+      </c>
+      <c r="B626" s="1" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C626" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D626" s="1" t="s">
+        <v>3062</v>
+      </c>
+      <c r="E626" s="3" t="s">
+        <v>1900</v>
+      </c>
+      <c r="F626" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G626" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H626" s="1" t="s">
+        <v>3150</v>
+      </c>
+      <c r="I626" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J626" s="1" t="s">
+        <v>3044</v>
+      </c>
+      <c r="K626" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L626" s="1" t="s">
+        <v>3045</v>
+      </c>
+      <c r="M626" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N626" s="1" t="s">
+        <v>3151</v>
+      </c>
+      <c r="O626" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P626" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q626" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R626" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S626" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T626" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U626" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V626" s="1" t="s">
+        <v>3152</v>
+      </c>
+      <c r="W626" s="1" t="s">
+        <v>3149</v>
+      </c>
+      <c r="X626" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y626" s="1" t="s">
+        <v>3153</v>
+      </c>
+      <c r="Z626" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA626" s="1" t="s">
+        <v>3154</v>
+      </c>
+      <c r="AB626" s="1" t="s">
+        <v>3155</v>
+      </c>
+      <c r="AC626" s="1" t="s">
+        <v>3156</v>
+      </c>
+      <c r="AD626" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AE626" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF626" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG626" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH626" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI626" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="627" spans="1:35">
+      <c r="A627" s="1" t="s">
+        <v>3060</v>
+      </c>
+      <c r="B627" s="1" t="s">
+        <v>3061</v>
+      </c>
+      <c r="C627" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D627" s="1" t="s">
+        <v>3062</v>
+      </c>
+      <c r="E627" s="3" t="s">
+        <v>1907</v>
+      </c>
+      <c r="F627" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G627" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H627" s="1" t="s">
+        <v>2498</v>
+      </c>
+      <c r="I627" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J627" s="1" t="s">
+        <v>3044</v>
+      </c>
+      <c r="K627" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L627" s="1" t="s">
+        <v>3045</v>
+      </c>
+      <c r="M627" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N627" s="1" t="s">
+        <v>2388</v>
+      </c>
+      <c r="O627" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P627" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q627" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R627" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S627" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T627" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U627" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V627" s="1" t="s">
+        <v>3063</v>
+      </c>
+      <c r="W627" s="1" t="s">
+        <v>3061</v>
+      </c>
+      <c r="X627" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y627" s="1" t="s">
+        <v>3064</v>
+      </c>
+      <c r="Z627" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA627" s="1" t="s">
+        <v>3065</v>
+      </c>
+      <c r="AB627" s="1" t="s">
+        <v>3066</v>
+      </c>
+      <c r="AC627" s="1" t="s">
+        <v>3067</v>
+      </c>
+      <c r="AD627" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE627" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF627" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG627" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH627" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI627" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="628" spans="1:35">
+      <c r="A628" s="1" t="s">
+        <v>3094</v>
+      </c>
+      <c r="B628" s="1" t="s">
+        <v>3095</v>
+      </c>
+      <c r="C628" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D628" s="1" t="s">
+        <v>3096</v>
+      </c>
+      <c r="E628" s="3" t="s">
+        <v>1907</v>
+      </c>
+      <c r="F628" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G628" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H628" s="1" t="s">
+        <v>3097</v>
+      </c>
+      <c r="I628" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J628" s="1" t="s">
+        <v>3032</v>
+      </c>
+      <c r="K628" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L628" s="1" t="s">
+        <v>3033</v>
+      </c>
+      <c r="M628" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N628" s="1" t="s">
+        <v>3098</v>
+      </c>
+      <c r="O628" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P628" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q628" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R628" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S628" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T628" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U628" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V628" s="1" t="s">
+        <v>3099</v>
+      </c>
+      <c r="W628" s="1" t="s">
+        <v>3095</v>
+      </c>
+      <c r="X628" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y628" s="1" t="s">
+        <v>3100</v>
+      </c>
+      <c r="Z628" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA628" s="1" t="s">
+        <v>1391</v>
+      </c>
+      <c r="AB628" s="1" t="s">
+        <v>3101</v>
+      </c>
+      <c r="AC628" s="1" t="s">
+        <v>3102</v>
+      </c>
+      <c r="AD628" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AE628" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF628" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG628" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH628" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI628" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="629" spans="1:35">
+      <c r="A629" s="1" t="s">
+        <v>3120</v>
+      </c>
+      <c r="B629" s="1" t="s">
+        <v>3121</v>
+      </c>
+      <c r="C629" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D629" s="1" t="s">
+        <v>3122</v>
+      </c>
+      <c r="E629" s="3" t="s">
+        <v>1907</v>
+      </c>
+      <c r="F629" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G629" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H629" s="1" t="s">
+        <v>3123</v>
+      </c>
+      <c r="I629" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J629" s="1" t="s">
+        <v>3045</v>
+      </c>
+      <c r="K629" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L629" s="1" t="s">
+        <v>3114</v>
+      </c>
+      <c r="M629" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N629" s="1" t="s">
+        <v>3124</v>
+      </c>
+      <c r="O629" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P629" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q629" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R629" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S629" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T629" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U629" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V629" s="1" t="s">
+        <v>3125</v>
+      </c>
+      <c r="W629" s="1" t="s">
+        <v>3121</v>
+      </c>
+      <c r="X629" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y629" s="1" t="s">
+        <v>3126</v>
+      </c>
+      <c r="Z629" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA629" s="1" t="s">
+        <v>2840</v>
+      </c>
+      <c r="AB629" s="1" t="s">
+        <v>3127</v>
+      </c>
+      <c r="AC629" s="1" t="s">
+        <v>3128</v>
+      </c>
+      <c r="AD629" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE629" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF629" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG629" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH629" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI629" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="630" spans="1:35">
+      <c r="A630" s="1" t="s">
+        <v>3145</v>
+      </c>
+      <c r="B630" s="1" t="s">
+        <v>2780</v>
+      </c>
+      <c r="C630" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D630" s="1" t="s">
+        <v>3146</v>
+      </c>
+      <c r="E630" s="3" t="s">
+        <v>1907</v>
+      </c>
+      <c r="F630" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G630" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H630" s="1" t="s">
+        <v>2782</v>
+      </c>
+      <c r="I630" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J630" s="1" t="s">
+        <v>3022</v>
+      </c>
+      <c r="K630" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L630" s="1" t="s">
+        <v>3023</v>
+      </c>
+      <c r="M630" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N630" s="1" t="s">
+        <v>3147</v>
+      </c>
+      <c r="O630" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P630" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q630" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R630" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S630" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T630" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U630" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="V630" s="1" t="s">
+        <v>2784</v>
+      </c>
+      <c r="W630" s="1" t="s">
+        <v>2780</v>
+      </c>
+      <c r="X630" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y630" s="1" t="s">
+        <v>2785</v>
+      </c>
+      <c r="Z630" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA630" s="1" t="s">
+        <v>2786</v>
+      </c>
+      <c r="AB630" s="1" t="s">
+        <v>2787</v>
+      </c>
+      <c r="AC630" s="1" t="s">
+        <v>2788</v>
+      </c>
+      <c r="AD630" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AE630" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="AF630" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG630" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH630" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI630" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="631" spans="1:35">
+      <c r="A631" s="1" t="s">
+        <v>3018</v>
+      </c>
+      <c r="B631" s="1" t="s">
+        <v>3019</v>
+      </c>
+      <c r="C631" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D631" s="1" t="s">
+        <v>3020</v>
+      </c>
+      <c r="E631" s="3" t="s">
+        <v>1902</v>
+      </c>
+      <c r="F631" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G631" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H631" s="1" t="s">
+        <v>3021</v>
+      </c>
+      <c r="I631" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J631" s="1" t="s">
+        <v>3022</v>
+      </c>
+      <c r="K631" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L631" s="1" t="s">
+        <v>3023</v>
+      </c>
+      <c r="M631" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N631" s="1" t="s">
+        <v>3024</v>
+      </c>
+      <c r="O631" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P631" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q631" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R631" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S631" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T631" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U631" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V631" s="1" t="s">
+        <v>3025</v>
+      </c>
+      <c r="W631" s="1" t="s">
+        <v>3019</v>
+      </c>
+      <c r="X631" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y631" s="1" t="s">
+        <v>3026</v>
+      </c>
+      <c r="Z631" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA631" s="1" t="s">
+        <v>2803</v>
+      </c>
+      <c r="AB631" s="1" t="s">
+        <v>2804</v>
+      </c>
+      <c r="AC631" s="1" t="s">
+        <v>3027</v>
+      </c>
+      <c r="AD631" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE631" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF631" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG631" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH631" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI631" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="632" spans="1:35">
+      <c r="A632" s="1" t="s">
+        <v>3028</v>
+      </c>
+      <c r="B632" s="1" t="s">
+        <v>3029</v>
+      </c>
+      <c r="C632" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D632" s="1" t="s">
+        <v>3030</v>
+      </c>
+      <c r="E632" s="3" t="s">
+        <v>1902</v>
+      </c>
+      <c r="F632" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G632" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H632" s="1" t="s">
+        <v>3031</v>
+      </c>
+      <c r="I632" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J632" s="1" t="s">
+        <v>3032</v>
+      </c>
+      <c r="K632" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L632" s="1" t="s">
+        <v>3033</v>
+      </c>
+      <c r="M632" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N632" s="1" t="s">
+        <v>3034</v>
+      </c>
+      <c r="O632" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P632" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q632" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R632" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S632" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T632" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U632" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V632" s="1" t="s">
+        <v>3035</v>
+      </c>
+      <c r="W632" s="1" t="s">
+        <v>3029</v>
+      </c>
+      <c r="X632" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y632" s="1" t="s">
+        <v>3036</v>
+      </c>
+      <c r="Z632" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA632" s="1" t="s">
+        <v>3037</v>
+      </c>
+      <c r="AB632" s="1" t="s">
+        <v>3038</v>
+      </c>
+      <c r="AC632" s="1" t="s">
+        <v>3039</v>
+      </c>
+      <c r="AD632" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AE632" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF632" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG632" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH632" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI632" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="633" spans="1:35">
+      <c r="A633" s="1" t="s">
+        <v>3077</v>
+      </c>
+      <c r="B633" s="1" t="s">
+        <v>3078</v>
+      </c>
+      <c r="C633" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D633" s="1" t="s">
+        <v>3079</v>
+      </c>
+      <c r="E633" s="3" t="s">
+        <v>1902</v>
+      </c>
+      <c r="F633" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G633" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H633" s="1" t="s">
+        <v>3080</v>
+      </c>
+      <c r="I633" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J633" s="1" t="s">
+        <v>3022</v>
+      </c>
+      <c r="K633" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L633" s="1" t="s">
+        <v>3023</v>
+      </c>
+      <c r="M633" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N633" s="1" t="s">
+        <v>3081</v>
+      </c>
+      <c r="O633" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P633" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q633" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R633" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S633" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T633" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U633" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V633" s="1" t="s">
+        <v>3082</v>
+      </c>
+      <c r="W633" s="1" t="s">
+        <v>3078</v>
+      </c>
+      <c r="X633" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y633" s="1" t="s">
+        <v>3083</v>
+      </c>
+      <c r="Z633" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA633" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB633" s="1" t="s">
+        <v>3084</v>
+      </c>
+      <c r="AC633" s="1" t="s">
+        <v>3085</v>
+      </c>
+      <c r="AD633" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE633" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF633" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG633" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH633" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI633" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="634" spans="1:35">
+      <c r="A634" s="1" t="s">
+        <v>3086</v>
+      </c>
+      <c r="B634" s="1" t="s">
+        <v>3087</v>
+      </c>
+      <c r="C634" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D634" s="1" t="s">
+        <v>3088</v>
+      </c>
+      <c r="E634" s="3" t="s">
+        <v>1902</v>
+      </c>
+      <c r="F634" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G634" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H634" s="1" t="s">
+        <v>3089</v>
+      </c>
+      <c r="I634" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J634" s="1" t="s">
+        <v>3032</v>
+      </c>
+      <c r="K634" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L634" s="1" t="s">
+        <v>3033</v>
+      </c>
+      <c r="M634" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N634" s="1" t="s">
+        <v>3090</v>
+      </c>
+      <c r="O634" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P634" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q634" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R634" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S634" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="T634" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U634" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V634" s="1" t="s">
+        <v>3091</v>
+      </c>
+      <c r="W634" s="1" t="s">
+        <v>3087</v>
+      </c>
+      <c r="X634" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y634" s="1" t="s">
+        <v>3092</v>
+      </c>
+      <c r="Z634" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA634" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="AB634" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="AC634" s="1" t="s">
+        <v>3093</v>
+      </c>
+      <c r="AD634" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE634" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF634" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG634" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH634" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI634" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="635" spans="1:35">
+      <c r="A635" s="1" t="s">
+        <v>3103</v>
+      </c>
+      <c r="B635" s="1" t="s">
+        <v>3104</v>
+      </c>
+      <c r="C635" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D635" s="1" t="s">
+        <v>3096</v>
+      </c>
+      <c r="E635" s="3" t="s">
+        <v>1902</v>
+      </c>
+      <c r="F635" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G635" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H635" s="1" t="s">
+        <v>3105</v>
+      </c>
+      <c r="I635" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J635" s="1" t="s">
+        <v>3044</v>
+      </c>
+      <c r="K635" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L635" s="1" t="s">
+        <v>3045</v>
+      </c>
+      <c r="M635" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N635" s="1" t="s">
+        <v>3106</v>
+      </c>
+      <c r="O635" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P635" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q635" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R635" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S635" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="T635" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U635" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V635" s="1" t="s">
+        <v>3107</v>
+      </c>
+      <c r="W635" s="1" t="s">
+        <v>3104</v>
+      </c>
+      <c r="X635" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y635" s="1" t="s">
+        <v>3108</v>
+      </c>
+      <c r="Z635" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA635" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="AB635" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AC635" s="1" t="s">
+        <v>3109</v>
+      </c>
+      <c r="AD635" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE635" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF635" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG635" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH635" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI635" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="636" spans="1:35">
+      <c r="A636" s="1" t="s">
+        <v>3157</v>
+      </c>
+      <c r="B636" s="1" t="s">
+        <v>3158</v>
+      </c>
+      <c r="C636" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D636" s="1" t="s">
+        <v>3062</v>
+      </c>
+      <c r="E636" s="3" t="s">
+        <v>1902</v>
+      </c>
+      <c r="F636" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G636" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H636" s="1" t="s">
+        <v>3159</v>
+      </c>
+      <c r="I636" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J636" s="1" t="s">
+        <v>3045</v>
+      </c>
+      <c r="K636" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L636" s="1" t="s">
+        <v>3114</v>
+      </c>
+      <c r="M636" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N636" s="1" t="s">
+        <v>3160</v>
+      </c>
+      <c r="O636" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P636" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q636" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R636" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S636" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T636" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U636" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V636" s="1" t="s">
+        <v>3161</v>
+      </c>
+      <c r="W636" s="1" t="s">
+        <v>3158</v>
+      </c>
+      <c r="X636" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y636" s="1" t="s">
+        <v>3162</v>
+      </c>
+      <c r="Z636" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA636" s="1" t="s">
+        <v>3163</v>
+      </c>
+      <c r="AB636" s="1" t="s">
+        <v>3164</v>
+      </c>
+      <c r="AC636" s="1" t="s">
+        <v>3165</v>
+      </c>
+      <c r="AD636" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AE636" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF636" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG636" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH636" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI636" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AI500"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/deliveryopenfiber.xlsx
+++ b/deliveryopenfiber.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22225" uniqueCount="3166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24045" uniqueCount="3407">
   <si>
     <t>Codice</t>
   </si>
@@ -9515,6 +9515,729 @@
   </si>
   <si>
     <t>SR_01/04e24/I754_PIAZZALE MEDAGLIA D'ORO CARMELO GANCI_12_1</t>
+  </si>
+  <si>
+    <t>DEL1003553845</t>
+  </si>
+  <si>
+    <t>4224696945522177115</t>
+  </si>
+  <si>
+    <t>22/08/2025 10:48</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NICOLA</t>
+  </si>
+  <si>
+    <t>22/08/2025 08:30</t>
+  </si>
+  <si>
+    <t>22/08/2025 10:30</t>
+  </si>
+  <si>
+    <t>07/08/2025 13:56</t>
+  </si>
+  <si>
+    <t>OPI_3716740</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000969173_6</t>
+  </si>
+  <si>
+    <t>SR_01/05e11-SP_07</t>
+  </si>
+  <si>
+    <t>SR_01/05e11/I754_VIA TRIPOLI_6</t>
+  </si>
+  <si>
+    <t>DEL1003588912</t>
+  </si>
+  <si>
+    <t>4224696945539526585</t>
+  </si>
+  <si>
+    <t>22/08/2025 11:18</t>
+  </si>
+  <si>
+    <t>Neapolis Park srls Neapolis Park srls</t>
+  </si>
+  <si>
+    <t>21/08/2025 14:36</t>
+  </si>
+  <si>
+    <t>OPT-00000000027951</t>
+  </si>
+  <si>
+    <t>19_089_089017_8001005529_139</t>
+  </si>
+  <si>
+    <t>SR_01/01e34-SP_03</t>
+  </si>
+  <si>
+    <t>SR_01/01e34/I754_VIALE TEOCRITO_139_1</t>
+  </si>
+  <si>
+    <t>DEL1003584913</t>
+  </si>
+  <si>
+    <t>4224696945538346986</t>
+  </si>
+  <si>
+    <t>22/08/2025 11:36</t>
+  </si>
+  <si>
+    <t>ANTONINO MODICANO</t>
+  </si>
+  <si>
+    <t>20/08/2025 08:16</t>
+  </si>
+  <si>
+    <t>ENE_00000728672</t>
+  </si>
+  <si>
+    <t>19_089_089005_8000917193_421</t>
+  </si>
+  <si>
+    <t>SR_11/01e11-SP_01</t>
+  </si>
+  <si>
+    <t>SR_11/01e11/SR_11/01e11/B603_086</t>
+  </si>
+  <si>
+    <t>DEL1003580128</t>
+  </si>
+  <si>
+    <t>4224696945537812816</t>
+  </si>
+  <si>
+    <t>22/08/2025 09:56</t>
+  </si>
+  <si>
+    <t>PATRIZIA ZUCCA</t>
+  </si>
+  <si>
+    <t>18/08/2025 14:46</t>
+  </si>
+  <si>
+    <t>ENE_00000726905</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000969158_124</t>
+  </si>
+  <si>
+    <t>SR_01/EOF_0026</t>
+  </si>
+  <si>
+    <t>SR_01/04w24-SP_03</t>
+  </si>
+  <si>
+    <t>SR_01/04w24/I754_VIA TISIA_124_1_A</t>
+  </si>
+  <si>
+    <t>DEL1003588845</t>
+  </si>
+  <si>
+    <t>4224696945539529229</t>
+  </si>
+  <si>
+    <t>22/08/2025 10:18</t>
+  </si>
+  <si>
+    <t>ANDREA BIZZINI</t>
+  </si>
+  <si>
+    <t>21/08/2025 14:16</t>
+  </si>
+  <si>
+    <t>ILA_1755777357269</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000970351_61/1</t>
+  </si>
+  <si>
+    <t>SR_01/06e32/I754_VIA LAZIO_61/1_1</t>
+  </si>
+  <si>
+    <t>DEL1003588097</t>
+  </si>
+  <si>
+    <t>4224696945530037652</t>
+  </si>
+  <si>
+    <t>22/08/2025 11:28</t>
+  </si>
+  <si>
+    <t>EIKE BEREND POST</t>
+  </si>
+  <si>
+    <t>21/08/2025 09:56</t>
+  </si>
+  <si>
+    <t>ARU_174740971</t>
+  </si>
+  <si>
+    <t>DEL1003588319</t>
+  </si>
+  <si>
+    <t>4224696945539528035</t>
+  </si>
+  <si>
+    <t>22/08/2025 12:49</t>
+  </si>
+  <si>
+    <t>CLELIA ZITO</t>
+  </si>
+  <si>
+    <t>21/08/2025 11:06</t>
+  </si>
+  <si>
+    <t>ILA_1755765005869</t>
+  </si>
+  <si>
+    <t>19_089_089017_8001005514_130</t>
+  </si>
+  <si>
+    <t>SR_01/03w13-SP_07</t>
+  </si>
+  <si>
+    <t>SR_01/03w13/I754_VIALE LUIGI CADORNA_130_1</t>
+  </si>
+  <si>
+    <t>DEL1003583658</t>
+  </si>
+  <si>
+    <t>22/08/2025 15:38</t>
+  </si>
+  <si>
+    <t>19/08/2025 17:36</t>
+  </si>
+  <si>
+    <t>DEL1003581885</t>
+  </si>
+  <si>
+    <t>4224696945537814674</t>
+  </si>
+  <si>
+    <t>22/08/2025 16:38</t>
+  </si>
+  <si>
+    <t>GIACOMELLA PACE</t>
+  </si>
+  <si>
+    <t>22/08/2025 16:30</t>
+  </si>
+  <si>
+    <t>22/08/2025 18:00</t>
+  </si>
+  <si>
+    <t>19/08/2025 08:16</t>
+  </si>
+  <si>
+    <t>WN_9002085313</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000916391_90</t>
+  </si>
+  <si>
+    <t>SR_01/WIN_0085</t>
+  </si>
+  <si>
+    <t>SR_01/03w31-SP_05</t>
+  </si>
+  <si>
+    <t>SR_01/03w31/I754_VIA PIAVE_90</t>
+  </si>
+  <si>
+    <t>DEL1003586546</t>
+  </si>
+  <si>
+    <t>4224696945539526270</t>
+  </si>
+  <si>
+    <t>23/08/2025 09:58</t>
+  </si>
+  <si>
+    <t>MAURO PULVIRENTI</t>
+  </si>
+  <si>
+    <t>23/08/2025 08:30</t>
+  </si>
+  <si>
+    <t>23/08/2025 10:30</t>
+  </si>
+  <si>
+    <t>20/08/2025 17:26</t>
+  </si>
+  <si>
+    <t>ILA_1755702617437</t>
+  </si>
+  <si>
+    <t>19_089_089021_8000967779_26</t>
+  </si>
+  <si>
+    <t>SR_12/01w14/SR_12/01w14/M279_024</t>
+  </si>
+  <si>
+    <t>DEL1003575074</t>
+  </si>
+  <si>
+    <t>4224696945537222025</t>
+  </si>
+  <si>
+    <t>23/08/2025 11:48</t>
+  </si>
+  <si>
+    <t>ALESSANDRO LUMETTA</t>
+  </si>
+  <si>
+    <t>23/08/2025 11:30</t>
+  </si>
+  <si>
+    <t>23/08/2025 13:30</t>
+  </si>
+  <si>
+    <t>16/08/2025 08:26</t>
+  </si>
+  <si>
+    <t>ILA_1753895105011</t>
+  </si>
+  <si>
+    <t>19_089_089021_8000967707_22</t>
+  </si>
+  <si>
+    <t>SR_12/01w12/SR_12/01w12/M279_073</t>
+  </si>
+  <si>
+    <t>DEL1003521073</t>
+  </si>
+  <si>
+    <t>4224696945513056871</t>
+  </si>
+  <si>
+    <t>23/08/2025 14:46</t>
+  </si>
+  <si>
+    <t>ANTONIO ULMA</t>
+  </si>
+  <si>
+    <t>23/08/2025 14:30</t>
+  </si>
+  <si>
+    <t>23/08/2025 16:30</t>
+  </si>
+  <si>
+    <t>27/07/2025 12:36</t>
+  </si>
+  <si>
+    <t>WN_9002066616</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000970457_42</t>
+  </si>
+  <si>
+    <t>SR_01/WIN_0104</t>
+  </si>
+  <si>
+    <t>SR_01/01e24-SP_09</t>
+  </si>
+  <si>
+    <t>SR_01/01e24/I754_VIA COSTANZA BRUNO_36</t>
+  </si>
+  <si>
+    <t>DEL1003585821</t>
+  </si>
+  <si>
+    <t>4224696945538348516</t>
+  </si>
+  <si>
+    <t>22/08/2025 09:28</t>
+  </si>
+  <si>
+    <t>ANDREA PATERMO</t>
+  </si>
+  <si>
+    <t>20/08/2025 13:16</t>
+  </si>
+  <si>
+    <t>TLC_00000000186935</t>
+  </si>
+  <si>
+    <t>19_089_089009_8000946272_12</t>
+  </si>
+  <si>
+    <t>SR_09/EOF_0003</t>
+  </si>
+  <si>
+    <t>SR_09/01e33-SP_01</t>
+  </si>
+  <si>
+    <t>SR_09/01e33/SR_09/01e33/D636_063</t>
+  </si>
+  <si>
+    <t>DEL1003586069</t>
+  </si>
+  <si>
+    <t>4224696945538346747</t>
+  </si>
+  <si>
+    <t>CLAUDIO CUTRALE CLAUDIO</t>
+  </si>
+  <si>
+    <t>20/08/2025 14:46</t>
+  </si>
+  <si>
+    <t>TLC_00000000186673</t>
+  </si>
+  <si>
+    <t>19_089_089009_8001005560_92</t>
+  </si>
+  <si>
+    <t>SR_09/01e11/SR_09/01e11/D636_011</t>
+  </si>
+  <si>
+    <t>DEL1003582451</t>
+  </si>
+  <si>
+    <t>4224696945537816148</t>
+  </si>
+  <si>
+    <t>22/08/2025 14:08</t>
+  </si>
+  <si>
+    <t>Damiano Cappuccio</t>
+  </si>
+  <si>
+    <t>22/08/2025 14:30</t>
+  </si>
+  <si>
+    <t>OPI_AP_187866</t>
+  </si>
+  <si>
+    <t>SR_01/VOD_0007</t>
+  </si>
+  <si>
+    <t>SR_01/02w32-SP_02</t>
+  </si>
+  <si>
+    <t>SR_01/02w32/I754_VIA ALDO CARRATORE_18_1_B</t>
+  </si>
+  <si>
+    <t>DEL1003583413</t>
+  </si>
+  <si>
+    <t>4224696945538345314</t>
+  </si>
+  <si>
+    <t>RENATO REGOLI</t>
+  </si>
+  <si>
+    <t>19/08/2025 16:16</t>
+  </si>
+  <si>
+    <t>ILA_1755603321080</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000970412_8</t>
+  </si>
+  <si>
+    <t>SR_01/02w41-SP_06</t>
+  </si>
+  <si>
+    <t>SR_01/02w41/I754_VIA DANIMARCA_2</t>
+  </si>
+  <si>
+    <t>DEL1003585853</t>
+  </si>
+  <si>
+    <t>4224696945539525315</t>
+  </si>
+  <si>
+    <t>22/08/2025 17:08</t>
+  </si>
+  <si>
+    <t>SEBASTIANO CALLERI</t>
+  </si>
+  <si>
+    <t>20/08/2025 13:26</t>
+  </si>
+  <si>
+    <t>ENE_00000729124</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000970229_31</t>
+  </si>
+  <si>
+    <t>SR_01/07e14/I754_VIA MASCALUCIA_31_1</t>
+  </si>
+  <si>
+    <t>DEL1003580005</t>
+  </si>
+  <si>
+    <t>4224696945537813333</t>
+  </si>
+  <si>
+    <t>22/08/2025 09:48</t>
+  </si>
+  <si>
+    <t>SALVATORE LEUZZI</t>
+  </si>
+  <si>
+    <t>18/08/2025 14:06</t>
+  </si>
+  <si>
+    <t>OPI_AP_187622</t>
+  </si>
+  <si>
+    <t>19_089_089017_8001005525_51B</t>
+  </si>
+  <si>
+    <t>SR_01/VOD_0003</t>
+  </si>
+  <si>
+    <t>SR_01/01w33-SP_02</t>
+  </si>
+  <si>
+    <t>SR_01/01w33/I754_VIALE TERACATI_51_A</t>
+  </si>
+  <si>
+    <t>DEL1003588708</t>
+  </si>
+  <si>
+    <t>4224696945539527301</t>
+  </si>
+  <si>
+    <t>22/08/2025 10:56</t>
+  </si>
+  <si>
+    <t>GIOACCHINO CUTRUFO</t>
+  </si>
+  <si>
+    <t>21/08/2025 13:16</t>
+  </si>
+  <si>
+    <t>ENE_00000729076</t>
+  </si>
+  <si>
+    <t>19_089_089017_8001005533_161</t>
+  </si>
+  <si>
+    <t>SR_01/EOF_0001</t>
+  </si>
+  <si>
+    <t>SR_01/01w14-SP_03</t>
+  </si>
+  <si>
+    <t>SR_01/01w14/I754_VIALE SCALA GRECA_161_1_H</t>
+  </si>
+  <si>
+    <t>DEL1003581904</t>
+  </si>
+  <si>
+    <t>4224696945537813494</t>
+  </si>
+  <si>
+    <t>22/08/2025 11:08</t>
+  </si>
+  <si>
+    <t>RITA PULLICINO</t>
+  </si>
+  <si>
+    <t>19/08/2025 08:26</t>
+  </si>
+  <si>
+    <t>WN_9002085060</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000971042_25L</t>
+  </si>
+  <si>
+    <t>SR_01/WIN_0002</t>
+  </si>
+  <si>
+    <t>SR_01/01w24-SP_01</t>
+  </si>
+  <si>
+    <t>SR_01/01w24/I754_VIA NECROPOLI GROTTICELLE_25N</t>
+  </si>
+  <si>
+    <t>DEL1003588880</t>
+  </si>
+  <si>
+    <t>4224696945539528886</t>
+  </si>
+  <si>
+    <t>22/08/2025 12:48</t>
+  </si>
+  <si>
+    <t>CECILIA* CORSO</t>
+  </si>
+  <si>
+    <t>21/08/2025 14:26</t>
+  </si>
+  <si>
+    <t>WN_9002087080</t>
+  </si>
+  <si>
+    <t>SR_01/WIN_0123</t>
+  </si>
+  <si>
+    <t>SR_01/04e42-SP_08</t>
+  </si>
+  <si>
+    <t>DEL1003569054</t>
+  </si>
+  <si>
+    <t>22/08/2025 16:48</t>
+  </si>
+  <si>
+    <t>DEL1003577669</t>
+  </si>
+  <si>
+    <t>17/08/2025 15:06</t>
+  </si>
+  <si>
+    <t>DEL1003571576</t>
+  </si>
+  <si>
+    <t>4224696945537220040</t>
+  </si>
+  <si>
+    <t>23/08/2025 08:46</t>
+  </si>
+  <si>
+    <t>GIUSEPPE ROMANO</t>
+  </si>
+  <si>
+    <t>14/08/2025 12:26</t>
+  </si>
+  <si>
+    <t>ENE_00000726288</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000969267_3B</t>
+  </si>
+  <si>
+    <t>SR_01/06w43/I754_VIA SALVATORE NANNA_3B_1_B</t>
+  </si>
+  <si>
+    <t>DEL1003572530</t>
+  </si>
+  <si>
+    <t>4224696945537221037</t>
+  </si>
+  <si>
+    <t>23/08/2025 09:18</t>
+  </si>
+  <si>
+    <t>LAURA DI NARO</t>
+  </si>
+  <si>
+    <t>14/08/2025 19:16</t>
+  </si>
+  <si>
+    <t>FW_SPA000000063281</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000969302_51</t>
+  </si>
+  <si>
+    <t>SR_01/EOF_0046</t>
+  </si>
+  <si>
+    <t>SR_01/06e24-SP_03</t>
+  </si>
+  <si>
+    <t>SR_01/06e24/I754_VIA DEI SERVI DI MARIA_51_1_D</t>
+  </si>
+  <si>
+    <t>DEL1003585320</t>
+  </si>
+  <si>
+    <t>4224696945538347738</t>
+  </si>
+  <si>
+    <t>MARCELLA MIGLIORE</t>
+  </si>
+  <si>
+    <t>20/08/2025 10:26</t>
+  </si>
+  <si>
+    <t>ILA_1755677417360</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000969285_36</t>
+  </si>
+  <si>
+    <t>SR_01/ILD_0107</t>
+  </si>
+  <si>
+    <t>SR_01/07w33-SP_11</t>
+  </si>
+  <si>
+    <t>SR_01/07w33/I754_VIA SOLARINO_48</t>
+  </si>
+  <si>
+    <t>DEL1003588960</t>
+  </si>
+  <si>
+    <t>4224696945539526519</t>
+  </si>
+  <si>
+    <t>23/08/2025 13:08</t>
+  </si>
+  <si>
+    <t>CARMELA CASSIO</t>
+  </si>
+  <si>
+    <t>21/08/2025 14:56</t>
+  </si>
+  <si>
+    <t>ILA_1755097515156</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000970098_1</t>
+  </si>
+  <si>
+    <t>SR_01/ILD_0033</t>
+  </si>
+  <si>
+    <t>SR_01/06w11-SP_07</t>
+  </si>
+  <si>
+    <t>SR_01/06w11/I754_VIA LUIGI VINCI_1_1</t>
+  </si>
+  <si>
+    <t>DEL1003521271</t>
+  </si>
+  <si>
+    <t>4224696945513056846</t>
+  </si>
+  <si>
+    <t>23/08/2025 13:56</t>
+  </si>
+  <si>
+    <t>VINCENZO PEREZ</t>
+  </si>
+  <si>
+    <t>27/07/2025 15:06</t>
+  </si>
+  <si>
+    <t>WN_9002066603</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000969060_17</t>
+  </si>
+  <si>
+    <t>SR_01/WIN_0062</t>
+  </si>
+  <si>
+    <t>SR_01/07e23-SP_01</t>
+  </si>
+  <si>
+    <t>SR_01/07e23/I754_VIA RAMACCA_17_1</t>
+  </si>
+  <si>
+    <t>QUADARELLA ANDREA</t>
   </si>
 </sst>
 </file>
@@ -9851,10 +10574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI636"/>
+  <dimension ref="A1:AI688"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A600" workbookViewId="0">
-      <selection activeCell="E632" sqref="E632:E636"/>
+    <sheetView tabSelected="1" topLeftCell="A658" workbookViewId="0">
+      <selection activeCell="C679" sqref="C679"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -77813,6 +78536,5570 @@
         <v>57</v>
       </c>
     </row>
+    <row r="637" spans="1:35">
+      <c r="A637" s="1" t="s">
+        <v>3166</v>
+      </c>
+      <c r="B637" s="1" t="s">
+        <v>3167</v>
+      </c>
+      <c r="C637" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D637" s="1" t="s">
+        <v>3168</v>
+      </c>
+      <c r="E637" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F637" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G637" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H637" s="1" t="s">
+        <v>3169</v>
+      </c>
+      <c r="I637" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J637" s="1" t="s">
+        <v>3170</v>
+      </c>
+      <c r="K637" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L637" s="1" t="s">
+        <v>3171</v>
+      </c>
+      <c r="M637" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N637" s="1" t="s">
+        <v>3172</v>
+      </c>
+      <c r="O637" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P637" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q637" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R637" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S637" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T637" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U637" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V637" s="1" t="s">
+        <v>3173</v>
+      </c>
+      <c r="W637" s="1" t="s">
+        <v>3167</v>
+      </c>
+      <c r="X637" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y637" s="1" t="s">
+        <v>3174</v>
+      </c>
+      <c r="Z637" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA637" s="1" t="s">
+        <v>1646</v>
+      </c>
+      <c r="AB637" s="1" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AC637" s="1" t="s">
+        <v>3176</v>
+      </c>
+      <c r="AD637" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE637" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF637" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG637" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH637" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI637" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="638" spans="1:35">
+      <c r="A638" s="1" t="s">
+        <v>3177</v>
+      </c>
+      <c r="B638" s="1" t="s">
+        <v>3178</v>
+      </c>
+      <c r="C638" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D638" s="1" t="s">
+        <v>3179</v>
+      </c>
+      <c r="E638" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F638" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G638" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H638" s="1" t="s">
+        <v>3180</v>
+      </c>
+      <c r="I638" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J638" s="1" t="s">
+        <v>2586</v>
+      </c>
+      <c r="K638" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L638" s="1" t="s">
+        <v>2587</v>
+      </c>
+      <c r="M638" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N638" s="1" t="s">
+        <v>3181</v>
+      </c>
+      <c r="O638" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P638" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q638" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R638" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S638" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T638" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U638" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V638" s="1" t="s">
+        <v>3182</v>
+      </c>
+      <c r="W638" s="1" t="s">
+        <v>3178</v>
+      </c>
+      <c r="X638" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y638" s="1" t="s">
+        <v>3183</v>
+      </c>
+      <c r="Z638" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA638" s="1" t="s">
+        <v>1789</v>
+      </c>
+      <c r="AB638" s="1" t="s">
+        <v>3184</v>
+      </c>
+      <c r="AC638" s="1" t="s">
+        <v>3185</v>
+      </c>
+      <c r="AD638" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="AE638" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF638" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG638" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH638" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI638" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="639" spans="1:35">
+      <c r="A639" s="1" t="s">
+        <v>3186</v>
+      </c>
+      <c r="B639" s="1" t="s">
+        <v>3187</v>
+      </c>
+      <c r="C639" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D639" s="1" t="s">
+        <v>3188</v>
+      </c>
+      <c r="E639" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F639" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G639" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H639" s="1" t="s">
+        <v>3189</v>
+      </c>
+      <c r="I639" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J639" s="1" t="s">
+        <v>2586</v>
+      </c>
+      <c r="K639" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L639" s="1" t="s">
+        <v>2587</v>
+      </c>
+      <c r="M639" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N639" s="1" t="s">
+        <v>3190</v>
+      </c>
+      <c r="O639" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="P639" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q639" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R639" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S639" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="T639" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U639" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V639" s="1" t="s">
+        <v>3191</v>
+      </c>
+      <c r="W639" s="1" t="s">
+        <v>3187</v>
+      </c>
+      <c r="X639" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="Y639" s="1" t="s">
+        <v>3192</v>
+      </c>
+      <c r="Z639" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA639" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="AB639" s="1" t="s">
+        <v>3193</v>
+      </c>
+      <c r="AC639" s="1" t="s">
+        <v>3194</v>
+      </c>
+      <c r="AD639" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AE639" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF639" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG639" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH639" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI639" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="640" spans="1:35">
+      <c r="A640" s="1" t="s">
+        <v>3195</v>
+      </c>
+      <c r="B640" s="1" t="s">
+        <v>3196</v>
+      </c>
+      <c r="C640" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D640" s="1" t="s">
+        <v>3197</v>
+      </c>
+      <c r="E640" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F640" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G640" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H640" s="1" t="s">
+        <v>3198</v>
+      </c>
+      <c r="I640" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J640" s="1" t="s">
+        <v>3170</v>
+      </c>
+      <c r="K640" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L640" s="1" t="s">
+        <v>3171</v>
+      </c>
+      <c r="M640" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N640" s="1" t="s">
+        <v>3199</v>
+      </c>
+      <c r="O640" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P640" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q640" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R640" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S640" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T640" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U640" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V640" s="1" t="s">
+        <v>3200</v>
+      </c>
+      <c r="W640" s="1" t="s">
+        <v>3196</v>
+      </c>
+      <c r="X640" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y640" s="1" t="s">
+        <v>3201</v>
+      </c>
+      <c r="Z640" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA640" s="1" t="s">
+        <v>3202</v>
+      </c>
+      <c r="AB640" s="1" t="s">
+        <v>3203</v>
+      </c>
+      <c r="AC640" s="1" t="s">
+        <v>3204</v>
+      </c>
+      <c r="AD640" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AE640" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF640" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG640" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH640" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI640" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="641" spans="1:35">
+      <c r="A641" s="1" t="s">
+        <v>3205</v>
+      </c>
+      <c r="B641" s="1" t="s">
+        <v>3206</v>
+      </c>
+      <c r="C641" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D641" s="1" t="s">
+        <v>3207</v>
+      </c>
+      <c r="E641" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F641" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G641" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H641" s="1" t="s">
+        <v>3208</v>
+      </c>
+      <c r="I641" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J641" s="1" t="s">
+        <v>3170</v>
+      </c>
+      <c r="K641" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L641" s="1" t="s">
+        <v>3171</v>
+      </c>
+      <c r="M641" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N641" s="1" t="s">
+        <v>3209</v>
+      </c>
+      <c r="O641" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P641" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q641" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R641" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S641" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T641" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U641" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V641" s="1" t="s">
+        <v>3210</v>
+      </c>
+      <c r="W641" s="1" t="s">
+        <v>3206</v>
+      </c>
+      <c r="X641" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y641" s="1" t="s">
+        <v>3211</v>
+      </c>
+      <c r="Z641" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA641" s="1" t="s">
+        <v>1603</v>
+      </c>
+      <c r="AB641" s="1" t="s">
+        <v>1604</v>
+      </c>
+      <c r="AC641" s="1" t="s">
+        <v>3212</v>
+      </c>
+      <c r="AD641" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE641" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF641" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG641" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH641" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI641" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="642" spans="1:35">
+      <c r="A642" s="1" t="s">
+        <v>3213</v>
+      </c>
+      <c r="B642" s="1" t="s">
+        <v>3214</v>
+      </c>
+      <c r="C642" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D642" s="1" t="s">
+        <v>3215</v>
+      </c>
+      <c r="E642" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F642" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G642" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H642" s="1" t="s">
+        <v>3216</v>
+      </c>
+      <c r="I642" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J642" s="1" t="s">
+        <v>3170</v>
+      </c>
+      <c r="K642" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L642" s="1" t="s">
+        <v>3171</v>
+      </c>
+      <c r="M642" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N642" s="1" t="s">
+        <v>3217</v>
+      </c>
+      <c r="O642" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P642" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q642" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R642" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S642" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T642" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U642" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V642" s="1" t="s">
+        <v>3218</v>
+      </c>
+      <c r="W642" s="1" t="s">
+        <v>3214</v>
+      </c>
+      <c r="X642" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y642" s="1" t="s">
+        <v>1861</v>
+      </c>
+      <c r="Z642" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA642" s="1" t="s">
+        <v>1862</v>
+      </c>
+      <c r="AB642" s="1" t="s">
+        <v>1863</v>
+      </c>
+      <c r="AC642" s="1" t="s">
+        <v>1864</v>
+      </c>
+      <c r="AD642" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="AE642" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF642" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG642" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH642" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI642" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="643" spans="1:35">
+      <c r="A643" s="1" t="s">
+        <v>3219</v>
+      </c>
+      <c r="B643" s="1" t="s">
+        <v>3220</v>
+      </c>
+      <c r="C643" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D643" s="1" t="s">
+        <v>3221</v>
+      </c>
+      <c r="E643" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F643" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G643" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H643" s="1" t="s">
+        <v>3222</v>
+      </c>
+      <c r="I643" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J643" s="1" t="s">
+        <v>2586</v>
+      </c>
+      <c r="K643" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L643" s="1" t="s">
+        <v>2587</v>
+      </c>
+      <c r="M643" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N643" s="1" t="s">
+        <v>3223</v>
+      </c>
+      <c r="O643" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P643" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q643" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R643" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S643" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T643" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U643" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V643" s="1" t="s">
+        <v>3224</v>
+      </c>
+      <c r="W643" s="1" t="s">
+        <v>3220</v>
+      </c>
+      <c r="X643" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y643" s="1" t="s">
+        <v>3225</v>
+      </c>
+      <c r="Z643" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA643" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="AB643" s="1" t="s">
+        <v>3226</v>
+      </c>
+      <c r="AC643" s="1" t="s">
+        <v>3227</v>
+      </c>
+      <c r="AD643" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE643" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF643" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG643" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH643" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI643" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="644" spans="1:35">
+      <c r="A644" s="1" t="s">
+        <v>3228</v>
+      </c>
+      <c r="B644" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="C644" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D644" s="1" t="s">
+        <v>3229</v>
+      </c>
+      <c r="E644" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F644" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G644" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H644" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="I644" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J644" s="1" t="s">
+        <v>2586</v>
+      </c>
+      <c r="K644" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L644" s="1" t="s">
+        <v>2587</v>
+      </c>
+      <c r="M644" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N644" s="1" t="s">
+        <v>3230</v>
+      </c>
+      <c r="O644" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P644" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q644" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R644" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S644" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T644" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U644" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="V644" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="W644" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="X644" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y644" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="Z644" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA644" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="AB644" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="AC644" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="AD644" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE644" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF644" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG644" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH644" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI644" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="645" spans="1:35">
+      <c r="A645" s="1" t="s">
+        <v>3231</v>
+      </c>
+      <c r="B645" s="1" t="s">
+        <v>3232</v>
+      </c>
+      <c r="C645" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D645" s="1" t="s">
+        <v>3233</v>
+      </c>
+      <c r="E645" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F645" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G645" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H645" s="1" t="s">
+        <v>3234</v>
+      </c>
+      <c r="I645" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J645" s="1" t="s">
+        <v>3235</v>
+      </c>
+      <c r="K645" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L645" s="1" t="s">
+        <v>3236</v>
+      </c>
+      <c r="M645" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N645" s="1" t="s">
+        <v>3237</v>
+      </c>
+      <c r="O645" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P645" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q645" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R645" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S645" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T645" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U645" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V645" s="1" t="s">
+        <v>3238</v>
+      </c>
+      <c r="W645" s="1" t="s">
+        <v>3232</v>
+      </c>
+      <c r="X645" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y645" s="1" t="s">
+        <v>3239</v>
+      </c>
+      <c r="Z645" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA645" s="1" t="s">
+        <v>3240</v>
+      </c>
+      <c r="AB645" s="1" t="s">
+        <v>3241</v>
+      </c>
+      <c r="AC645" s="1" t="s">
+        <v>3242</v>
+      </c>
+      <c r="AD645" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE645" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF645" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG645" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH645" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI645" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="646" spans="1:35">
+      <c r="A646" s="1" t="s">
+        <v>3243</v>
+      </c>
+      <c r="B646" s="1" t="s">
+        <v>3244</v>
+      </c>
+      <c r="C646" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D646" s="1" t="s">
+        <v>3245</v>
+      </c>
+      <c r="E646" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F646" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G646" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H646" s="1" t="s">
+        <v>3246</v>
+      </c>
+      <c r="I646" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J646" s="1" t="s">
+        <v>3247</v>
+      </c>
+      <c r="K646" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L646" s="1" t="s">
+        <v>3248</v>
+      </c>
+      <c r="M646" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N646" s="1" t="s">
+        <v>3249</v>
+      </c>
+      <c r="O646" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P646" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q646" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R646" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="S646" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="T646" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U646" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V646" s="1" t="s">
+        <v>3250</v>
+      </c>
+      <c r="W646" s="1" t="s">
+        <v>3244</v>
+      </c>
+      <c r="X646" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y646" s="1" t="s">
+        <v>3251</v>
+      </c>
+      <c r="Z646" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA646" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB646" s="1" t="s">
+        <v>2116</v>
+      </c>
+      <c r="AC646" s="1" t="s">
+        <v>3252</v>
+      </c>
+      <c r="AD646" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE646" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF646" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG646" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH646" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI646" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="647" spans="1:35">
+      <c r="A647" s="1" t="s">
+        <v>3253</v>
+      </c>
+      <c r="B647" s="1" t="s">
+        <v>3254</v>
+      </c>
+      <c r="C647" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D647" s="1" t="s">
+        <v>3255</v>
+      </c>
+      <c r="E647" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F647" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G647" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H647" s="1" t="s">
+        <v>3256</v>
+      </c>
+      <c r="I647" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J647" s="1" t="s">
+        <v>3257</v>
+      </c>
+      <c r="K647" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L647" s="1" t="s">
+        <v>3258</v>
+      </c>
+      <c r="M647" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N647" s="1" t="s">
+        <v>3259</v>
+      </c>
+      <c r="O647" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P647" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q647" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R647" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S647" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="T647" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U647" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V647" s="1" t="s">
+        <v>3260</v>
+      </c>
+      <c r="W647" s="1" t="s">
+        <v>3254</v>
+      </c>
+      <c r="X647" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y647" s="1" t="s">
+        <v>3261</v>
+      </c>
+      <c r="Z647" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA647" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB647" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="AC647" s="1" t="s">
+        <v>3262</v>
+      </c>
+      <c r="AD647" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE647" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF647" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG647" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH647" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI647" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="648" spans="1:35">
+      <c r="A648" s="1" t="s">
+        <v>3263</v>
+      </c>
+      <c r="B648" s="1" t="s">
+        <v>3264</v>
+      </c>
+      <c r="C648" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D648" s="1" t="s">
+        <v>3265</v>
+      </c>
+      <c r="E648" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F648" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G648" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H648" s="1" t="s">
+        <v>3266</v>
+      </c>
+      <c r="I648" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J648" s="1" t="s">
+        <v>3267</v>
+      </c>
+      <c r="K648" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L648" s="1" t="s">
+        <v>3268</v>
+      </c>
+      <c r="M648" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N648" s="1" t="s">
+        <v>3269</v>
+      </c>
+      <c r="O648" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P648" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q648" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R648" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S648" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T648" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U648" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V648" s="1" t="s">
+        <v>3270</v>
+      </c>
+      <c r="W648" s="1" t="s">
+        <v>3264</v>
+      </c>
+      <c r="X648" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y648" s="1" t="s">
+        <v>3271</v>
+      </c>
+      <c r="Z648" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA648" s="1" t="s">
+        <v>3272</v>
+      </c>
+      <c r="AB648" s="1" t="s">
+        <v>3273</v>
+      </c>
+      <c r="AC648" s="1" t="s">
+        <v>3274</v>
+      </c>
+      <c r="AD648" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE648" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF648" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG648" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH648" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI648" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="649" spans="1:35">
+      <c r="A649" s="1" t="s">
+        <v>3205</v>
+      </c>
+      <c r="B649" s="1" t="s">
+        <v>3206</v>
+      </c>
+      <c r="C649" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D649" s="1" t="s">
+        <v>3207</v>
+      </c>
+      <c r="E649" s="1" t="s">
+        <v>1903</v>
+      </c>
+      <c r="F649" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G649" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H649" s="1" t="s">
+        <v>3208</v>
+      </c>
+      <c r="I649" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J649" s="1" t="s">
+        <v>3170</v>
+      </c>
+      <c r="K649" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L649" s="1" t="s">
+        <v>3171</v>
+      </c>
+      <c r="M649" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N649" s="1" t="s">
+        <v>3209</v>
+      </c>
+      <c r="O649" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P649" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q649" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R649" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S649" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T649" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U649" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V649" s="1" t="s">
+        <v>3210</v>
+      </c>
+      <c r="W649" s="1" t="s">
+        <v>3206</v>
+      </c>
+      <c r="X649" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y649" s="1" t="s">
+        <v>3211</v>
+      </c>
+      <c r="Z649" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA649" s="1" t="s">
+        <v>1603</v>
+      </c>
+      <c r="AB649" s="1" t="s">
+        <v>1604</v>
+      </c>
+      <c r="AC649" s="1" t="s">
+        <v>3212</v>
+      </c>
+      <c r="AD649" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE649" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF649" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG649" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH649" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI649" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="650" spans="1:35">
+      <c r="A650" s="1" t="s">
+        <v>3213</v>
+      </c>
+      <c r="B650" s="1" t="s">
+        <v>3214</v>
+      </c>
+      <c r="C650" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D650" s="1" t="s">
+        <v>3215</v>
+      </c>
+      <c r="E650" s="1" t="s">
+        <v>1903</v>
+      </c>
+      <c r="F650" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G650" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H650" s="1" t="s">
+        <v>3216</v>
+      </c>
+      <c r="I650" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J650" s="1" t="s">
+        <v>3170</v>
+      </c>
+      <c r="K650" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L650" s="1" t="s">
+        <v>3171</v>
+      </c>
+      <c r="M650" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N650" s="1" t="s">
+        <v>3217</v>
+      </c>
+      <c r="O650" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P650" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q650" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R650" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S650" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T650" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U650" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V650" s="1" t="s">
+        <v>3218</v>
+      </c>
+      <c r="W650" s="1" t="s">
+        <v>3214</v>
+      </c>
+      <c r="X650" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y650" s="1" t="s">
+        <v>1861</v>
+      </c>
+      <c r="Z650" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA650" s="1" t="s">
+        <v>1862</v>
+      </c>
+      <c r="AB650" s="1" t="s">
+        <v>1863</v>
+      </c>
+      <c r="AC650" s="1" t="s">
+        <v>1864</v>
+      </c>
+      <c r="AD650" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="AE650" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF650" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG650" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH650" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI650" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="651" spans="1:35">
+      <c r="A651" s="1" t="s">
+        <v>3219</v>
+      </c>
+      <c r="B651" s="1" t="s">
+        <v>3220</v>
+      </c>
+      <c r="C651" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D651" s="1" t="s">
+        <v>3221</v>
+      </c>
+      <c r="E651" s="1" t="s">
+        <v>1903</v>
+      </c>
+      <c r="F651" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G651" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H651" s="1" t="s">
+        <v>3222</v>
+      </c>
+      <c r="I651" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J651" s="1" t="s">
+        <v>2586</v>
+      </c>
+      <c r="K651" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L651" s="1" t="s">
+        <v>2587</v>
+      </c>
+      <c r="M651" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N651" s="1" t="s">
+        <v>3223</v>
+      </c>
+      <c r="O651" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P651" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q651" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R651" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S651" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T651" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U651" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V651" s="1" t="s">
+        <v>3224</v>
+      </c>
+      <c r="W651" s="1" t="s">
+        <v>3220</v>
+      </c>
+      <c r="X651" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y651" s="1" t="s">
+        <v>3225</v>
+      </c>
+      <c r="Z651" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA651" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="AB651" s="1" t="s">
+        <v>3226</v>
+      </c>
+      <c r="AC651" s="1" t="s">
+        <v>3227</v>
+      </c>
+      <c r="AD651" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE651" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF651" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG651" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH651" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI651" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="652" spans="1:35">
+      <c r="A652" s="1" t="s">
+        <v>3228</v>
+      </c>
+      <c r="B652" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="C652" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D652" s="1" t="s">
+        <v>3229</v>
+      </c>
+      <c r="E652" s="1" t="s">
+        <v>1903</v>
+      </c>
+      <c r="F652" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G652" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H652" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="I652" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J652" s="1" t="s">
+        <v>2586</v>
+      </c>
+      <c r="K652" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L652" s="1" t="s">
+        <v>2587</v>
+      </c>
+      <c r="M652" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N652" s="1" t="s">
+        <v>3230</v>
+      </c>
+      <c r="O652" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P652" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q652" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R652" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S652" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T652" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U652" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="V652" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="W652" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="X652" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y652" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="Z652" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA652" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="AB652" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="AC652" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="AD652" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE652" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF652" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG652" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH652" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI652" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="653" spans="1:35">
+      <c r="A653" s="1" t="s">
+        <v>3231</v>
+      </c>
+      <c r="B653" s="1" t="s">
+        <v>3232</v>
+      </c>
+      <c r="C653" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D653" s="1" t="s">
+        <v>3233</v>
+      </c>
+      <c r="E653" s="1" t="s">
+        <v>1903</v>
+      </c>
+      <c r="F653" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G653" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H653" s="1" t="s">
+        <v>3234</v>
+      </c>
+      <c r="I653" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J653" s="1" t="s">
+        <v>3235</v>
+      </c>
+      <c r="K653" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L653" s="1" t="s">
+        <v>3236</v>
+      </c>
+      <c r="M653" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N653" s="1" t="s">
+        <v>3237</v>
+      </c>
+      <c r="O653" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P653" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q653" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R653" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S653" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T653" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U653" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V653" s="1" t="s">
+        <v>3238</v>
+      </c>
+      <c r="W653" s="1" t="s">
+        <v>3232</v>
+      </c>
+      <c r="X653" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y653" s="1" t="s">
+        <v>3239</v>
+      </c>
+      <c r="Z653" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA653" s="1" t="s">
+        <v>3240</v>
+      </c>
+      <c r="AB653" s="1" t="s">
+        <v>3241</v>
+      </c>
+      <c r="AC653" s="1" t="s">
+        <v>3242</v>
+      </c>
+      <c r="AD653" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE653" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF653" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG653" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH653" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI653" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="654" spans="1:35">
+      <c r="A654" s="1" t="s">
+        <v>3243</v>
+      </c>
+      <c r="B654" s="1" t="s">
+        <v>3244</v>
+      </c>
+      <c r="C654" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D654" s="1" t="s">
+        <v>3245</v>
+      </c>
+      <c r="E654" s="1" t="s">
+        <v>1903</v>
+      </c>
+      <c r="F654" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G654" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H654" s="1" t="s">
+        <v>3246</v>
+      </c>
+      <c r="I654" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J654" s="1" t="s">
+        <v>3247</v>
+      </c>
+      <c r="K654" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L654" s="1" t="s">
+        <v>3248</v>
+      </c>
+      <c r="M654" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N654" s="1" t="s">
+        <v>3249</v>
+      </c>
+      <c r="O654" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P654" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q654" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R654" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="S654" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="T654" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U654" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V654" s="1" t="s">
+        <v>3250</v>
+      </c>
+      <c r="W654" s="1" t="s">
+        <v>3244</v>
+      </c>
+      <c r="X654" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y654" s="1" t="s">
+        <v>3251</v>
+      </c>
+      <c r="Z654" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA654" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB654" s="1" t="s">
+        <v>2116</v>
+      </c>
+      <c r="AC654" s="1" t="s">
+        <v>3252</v>
+      </c>
+      <c r="AD654" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE654" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF654" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG654" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH654" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI654" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="655" spans="1:35">
+      <c r="A655" s="1" t="s">
+        <v>3253</v>
+      </c>
+      <c r="B655" s="1" t="s">
+        <v>3254</v>
+      </c>
+      <c r="C655" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D655" s="1" t="s">
+        <v>3255</v>
+      </c>
+      <c r="E655" s="1" t="s">
+        <v>1903</v>
+      </c>
+      <c r="F655" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G655" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H655" s="1" t="s">
+        <v>3256</v>
+      </c>
+      <c r="I655" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J655" s="1" t="s">
+        <v>3257</v>
+      </c>
+      <c r="K655" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L655" s="1" t="s">
+        <v>3258</v>
+      </c>
+      <c r="M655" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N655" s="1" t="s">
+        <v>3259</v>
+      </c>
+      <c r="O655" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P655" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q655" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R655" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S655" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="T655" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U655" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V655" s="1" t="s">
+        <v>3260</v>
+      </c>
+      <c r="W655" s="1" t="s">
+        <v>3254</v>
+      </c>
+      <c r="X655" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y655" s="1" t="s">
+        <v>3261</v>
+      </c>
+      <c r="Z655" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA655" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB655" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="AC655" s="1" t="s">
+        <v>3262</v>
+      </c>
+      <c r="AD655" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE655" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF655" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG655" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH655" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI655" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="656" spans="1:35">
+      <c r="A656" s="1" t="s">
+        <v>3263</v>
+      </c>
+      <c r="B656" s="1" t="s">
+        <v>3264</v>
+      </c>
+      <c r="C656" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D656" s="1" t="s">
+        <v>3265</v>
+      </c>
+      <c r="E656" s="1" t="s">
+        <v>1903</v>
+      </c>
+      <c r="F656" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G656" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H656" s="1" t="s">
+        <v>3266</v>
+      </c>
+      <c r="I656" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J656" s="1" t="s">
+        <v>3267</v>
+      </c>
+      <c r="K656" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L656" s="1" t="s">
+        <v>3268</v>
+      </c>
+      <c r="M656" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N656" s="1" t="s">
+        <v>3269</v>
+      </c>
+      <c r="O656" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P656" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q656" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R656" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S656" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T656" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U656" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V656" s="1" t="s">
+        <v>3270</v>
+      </c>
+      <c r="W656" s="1" t="s">
+        <v>3264</v>
+      </c>
+      <c r="X656" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y656" s="1" t="s">
+        <v>3271</v>
+      </c>
+      <c r="Z656" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA656" s="1" t="s">
+        <v>3272</v>
+      </c>
+      <c r="AB656" s="1" t="s">
+        <v>3273</v>
+      </c>
+      <c r="AC656" s="1" t="s">
+        <v>3274</v>
+      </c>
+      <c r="AD656" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE656" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF656" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG656" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH656" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI656" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="657" spans="1:35">
+      <c r="A657" s="1" t="s">
+        <v>3275</v>
+      </c>
+      <c r="B657" s="1" t="s">
+        <v>3276</v>
+      </c>
+      <c r="C657" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D657" s="1" t="s">
+        <v>3277</v>
+      </c>
+      <c r="E657" s="3" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F657" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G657" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H657" s="1" t="s">
+        <v>3278</v>
+      </c>
+      <c r="I657" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J657" s="1" t="s">
+        <v>3170</v>
+      </c>
+      <c r="K657" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L657" s="1" t="s">
+        <v>3171</v>
+      </c>
+      <c r="M657" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N657" s="1" t="s">
+        <v>3279</v>
+      </c>
+      <c r="O657" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P657" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q657" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R657" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S657" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="T657" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U657" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V657" s="1" t="s">
+        <v>3280</v>
+      </c>
+      <c r="W657" s="1" t="s">
+        <v>3276</v>
+      </c>
+      <c r="X657" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y657" s="1" t="s">
+        <v>3281</v>
+      </c>
+      <c r="Z657" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA657" s="1" t="s">
+        <v>3282</v>
+      </c>
+      <c r="AB657" s="1" t="s">
+        <v>3283</v>
+      </c>
+      <c r="AC657" s="1" t="s">
+        <v>3284</v>
+      </c>
+      <c r="AD657" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE657" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF657" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG657" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH657" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI657" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="658" spans="1:35">
+      <c r="A658" s="1" t="s">
+        <v>3285</v>
+      </c>
+      <c r="B658" s="1" t="s">
+        <v>3286</v>
+      </c>
+      <c r="C658" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D658" s="1" t="s">
+        <v>3179</v>
+      </c>
+      <c r="E658" s="3" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F658" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G658" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H658" s="1" t="s">
+        <v>3287</v>
+      </c>
+      <c r="I658" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J658" s="1" t="s">
+        <v>2586</v>
+      </c>
+      <c r="K658" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L658" s="1" t="s">
+        <v>2587</v>
+      </c>
+      <c r="M658" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N658" s="1" t="s">
+        <v>3288</v>
+      </c>
+      <c r="O658" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P658" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q658" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R658" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S658" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="T658" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U658" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V658" s="1" t="s">
+        <v>3289</v>
+      </c>
+      <c r="W658" s="1" t="s">
+        <v>3286</v>
+      </c>
+      <c r="X658" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y658" s="1" t="s">
+        <v>3290</v>
+      </c>
+      <c r="Z658" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA658" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB658" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AC658" s="1" t="s">
+        <v>3291</v>
+      </c>
+      <c r="AD658" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE658" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF658" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG658" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH658" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI658" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="659" spans="1:35">
+      <c r="A659" s="1" t="s">
+        <v>3292</v>
+      </c>
+      <c r="B659" s="1" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C659" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D659" s="1" t="s">
+        <v>3294</v>
+      </c>
+      <c r="E659" s="3" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F659" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G659" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H659" s="1" t="s">
+        <v>3295</v>
+      </c>
+      <c r="I659" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J659" s="1" t="s">
+        <v>3296</v>
+      </c>
+      <c r="K659" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L659" s="1" t="s">
+        <v>3235</v>
+      </c>
+      <c r="M659" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N659" s="1" t="s">
+        <v>2972</v>
+      </c>
+      <c r="O659" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P659" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q659" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R659" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S659" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T659" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U659" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V659" s="1" t="s">
+        <v>3297</v>
+      </c>
+      <c r="W659" s="1" t="s">
+        <v>3293</v>
+      </c>
+      <c r="X659" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y659" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="Z659" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA659" s="1" t="s">
+        <v>3298</v>
+      </c>
+      <c r="AB659" s="1" t="s">
+        <v>3299</v>
+      </c>
+      <c r="AC659" s="1" t="s">
+        <v>3300</v>
+      </c>
+      <c r="AD659" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE659" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF659" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG659" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH659" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI659" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="660" spans="1:35">
+      <c r="A660" s="1" t="s">
+        <v>3301</v>
+      </c>
+      <c r="B660" s="1" t="s">
+        <v>3302</v>
+      </c>
+      <c r="C660" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D660" s="1" t="s">
+        <v>3233</v>
+      </c>
+      <c r="E660" s="3" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F660" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G660" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H660" s="1" t="s">
+        <v>3303</v>
+      </c>
+      <c r="I660" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J660" s="1" t="s">
+        <v>3235</v>
+      </c>
+      <c r="K660" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L660" s="1" t="s">
+        <v>3236</v>
+      </c>
+      <c r="M660" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N660" s="1" t="s">
+        <v>3304</v>
+      </c>
+      <c r="O660" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P660" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q660" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R660" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S660" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T660" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U660" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V660" s="1" t="s">
+        <v>3305</v>
+      </c>
+      <c r="W660" s="1" t="s">
+        <v>3302</v>
+      </c>
+      <c r="X660" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y660" s="1" t="s">
+        <v>3306</v>
+      </c>
+      <c r="Z660" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA660" s="1" t="s">
+        <v>2264</v>
+      </c>
+      <c r="AB660" s="1" t="s">
+        <v>3307</v>
+      </c>
+      <c r="AC660" s="1" t="s">
+        <v>3308</v>
+      </c>
+      <c r="AD660" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE660" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF660" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG660" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH660" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI660" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="661" spans="1:35">
+      <c r="A661" s="1" t="s">
+        <v>3309</v>
+      </c>
+      <c r="B661" s="1" t="s">
+        <v>3310</v>
+      </c>
+      <c r="C661" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D661" s="1" t="s">
+        <v>3311</v>
+      </c>
+      <c r="E661" s="3" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F661" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G661" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H661" s="1" t="s">
+        <v>3312</v>
+      </c>
+      <c r="I661" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J661" s="1" t="s">
+        <v>3296</v>
+      </c>
+      <c r="K661" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L661" s="1" t="s">
+        <v>3235</v>
+      </c>
+      <c r="M661" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N661" s="1" t="s">
+        <v>3313</v>
+      </c>
+      <c r="O661" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P661" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q661" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R661" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S661" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T661" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U661" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V661" s="1" t="s">
+        <v>3314</v>
+      </c>
+      <c r="W661" s="1" t="s">
+        <v>3310</v>
+      </c>
+      <c r="X661" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y661" s="1" t="s">
+        <v>3315</v>
+      </c>
+      <c r="Z661" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA661" s="1" t="s">
+        <v>1478</v>
+      </c>
+      <c r="AB661" s="1" t="s">
+        <v>1479</v>
+      </c>
+      <c r="AC661" s="1" t="s">
+        <v>3316</v>
+      </c>
+      <c r="AD661" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AE661" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF661" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG661" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH661" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI661" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="662" spans="1:35">
+      <c r="A662" s="1" t="s">
+        <v>3275</v>
+      </c>
+      <c r="B662" s="1" t="s">
+        <v>3276</v>
+      </c>
+      <c r="C662" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D662" s="1" t="s">
+        <v>3277</v>
+      </c>
+      <c r="E662" s="3" t="s">
+        <v>1900</v>
+      </c>
+      <c r="F662" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G662" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H662" s="1" t="s">
+        <v>3278</v>
+      </c>
+      <c r="I662" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J662" s="1" t="s">
+        <v>3170</v>
+      </c>
+      <c r="K662" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L662" s="1" t="s">
+        <v>3171</v>
+      </c>
+      <c r="M662" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N662" s="1" t="s">
+        <v>3279</v>
+      </c>
+      <c r="O662" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P662" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q662" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R662" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S662" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="T662" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U662" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V662" s="1" t="s">
+        <v>3280</v>
+      </c>
+      <c r="W662" s="1" t="s">
+        <v>3276</v>
+      </c>
+      <c r="X662" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y662" s="1" t="s">
+        <v>3281</v>
+      </c>
+      <c r="Z662" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA662" s="1" t="s">
+        <v>3282</v>
+      </c>
+      <c r="AB662" s="1" t="s">
+        <v>3283</v>
+      </c>
+      <c r="AC662" s="1" t="s">
+        <v>3284</v>
+      </c>
+      <c r="AD662" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE662" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF662" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG662" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH662" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI662" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="663" spans="1:35">
+      <c r="A663" s="1" t="s">
+        <v>3285</v>
+      </c>
+      <c r="B663" s="1" t="s">
+        <v>3286</v>
+      </c>
+      <c r="C663" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D663" s="1" t="s">
+        <v>3179</v>
+      </c>
+      <c r="E663" s="3" t="s">
+        <v>1900</v>
+      </c>
+      <c r="F663" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G663" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H663" s="1" t="s">
+        <v>3287</v>
+      </c>
+      <c r="I663" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J663" s="1" t="s">
+        <v>2586</v>
+      </c>
+      <c r="K663" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L663" s="1" t="s">
+        <v>2587</v>
+      </c>
+      <c r="M663" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N663" s="1" t="s">
+        <v>3288</v>
+      </c>
+      <c r="O663" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P663" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q663" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R663" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S663" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="T663" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U663" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V663" s="1" t="s">
+        <v>3289</v>
+      </c>
+      <c r="W663" s="1" t="s">
+        <v>3286</v>
+      </c>
+      <c r="X663" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y663" s="1" t="s">
+        <v>3290</v>
+      </c>
+      <c r="Z663" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA663" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB663" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AC663" s="1" t="s">
+        <v>3291</v>
+      </c>
+      <c r="AD663" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE663" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF663" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG663" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH663" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI663" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="664" spans="1:35">
+      <c r="A664" s="1" t="s">
+        <v>3292</v>
+      </c>
+      <c r="B664" s="1" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C664" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D664" s="1" t="s">
+        <v>3294</v>
+      </c>
+      <c r="E664" s="3" t="s">
+        <v>1900</v>
+      </c>
+      <c r="F664" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G664" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H664" s="1" t="s">
+        <v>3295</v>
+      </c>
+      <c r="I664" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J664" s="1" t="s">
+        <v>3296</v>
+      </c>
+      <c r="K664" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L664" s="1" t="s">
+        <v>3235</v>
+      </c>
+      <c r="M664" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N664" s="1" t="s">
+        <v>2972</v>
+      </c>
+      <c r="O664" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P664" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q664" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R664" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S664" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T664" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U664" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V664" s="1" t="s">
+        <v>3297</v>
+      </c>
+      <c r="W664" s="1" t="s">
+        <v>3293</v>
+      </c>
+      <c r="X664" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y664" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="Z664" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA664" s="1" t="s">
+        <v>3298</v>
+      </c>
+      <c r="AB664" s="1" t="s">
+        <v>3299</v>
+      </c>
+      <c r="AC664" s="1" t="s">
+        <v>3300</v>
+      </c>
+      <c r="AD664" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE664" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF664" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG664" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH664" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI664" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="665" spans="1:35">
+      <c r="A665" s="1" t="s">
+        <v>3301</v>
+      </c>
+      <c r="B665" s="1" t="s">
+        <v>3302</v>
+      </c>
+      <c r="C665" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D665" s="1" t="s">
+        <v>3233</v>
+      </c>
+      <c r="E665" s="3" t="s">
+        <v>1900</v>
+      </c>
+      <c r="F665" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G665" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H665" s="1" t="s">
+        <v>3303</v>
+      </c>
+      <c r="I665" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J665" s="1" t="s">
+        <v>3235</v>
+      </c>
+      <c r="K665" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L665" s="1" t="s">
+        <v>3236</v>
+      </c>
+      <c r="M665" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N665" s="1" t="s">
+        <v>3304</v>
+      </c>
+      <c r="O665" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P665" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q665" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R665" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S665" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T665" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U665" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V665" s="1" t="s">
+        <v>3305</v>
+      </c>
+      <c r="W665" s="1" t="s">
+        <v>3302</v>
+      </c>
+      <c r="X665" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y665" s="1" t="s">
+        <v>3306</v>
+      </c>
+      <c r="Z665" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA665" s="1" t="s">
+        <v>2264</v>
+      </c>
+      <c r="AB665" s="1" t="s">
+        <v>3307</v>
+      </c>
+      <c r="AC665" s="1" t="s">
+        <v>3308</v>
+      </c>
+      <c r="AD665" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE665" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF665" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG665" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH665" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI665" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="666" spans="1:35">
+      <c r="A666" s="1" t="s">
+        <v>3309</v>
+      </c>
+      <c r="B666" s="1" t="s">
+        <v>3310</v>
+      </c>
+      <c r="C666" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D666" s="1" t="s">
+        <v>3311</v>
+      </c>
+      <c r="E666" s="3" t="s">
+        <v>1900</v>
+      </c>
+      <c r="F666" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G666" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H666" s="1" t="s">
+        <v>3312</v>
+      </c>
+      <c r="I666" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J666" s="1" t="s">
+        <v>3296</v>
+      </c>
+      <c r="K666" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L666" s="1" t="s">
+        <v>3235</v>
+      </c>
+      <c r="M666" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N666" s="1" t="s">
+        <v>3313</v>
+      </c>
+      <c r="O666" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P666" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q666" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R666" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S666" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T666" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U666" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V666" s="1" t="s">
+        <v>3314</v>
+      </c>
+      <c r="W666" s="1" t="s">
+        <v>3310</v>
+      </c>
+      <c r="X666" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y666" s="1" t="s">
+        <v>3315</v>
+      </c>
+      <c r="Z666" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA666" s="1" t="s">
+        <v>1478</v>
+      </c>
+      <c r="AB666" s="1" t="s">
+        <v>1479</v>
+      </c>
+      <c r="AC666" s="1" t="s">
+        <v>3316</v>
+      </c>
+      <c r="AD666" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AE666" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF666" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG666" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH666" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI666" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="667" spans="1:35">
+      <c r="A667" s="1" t="s">
+        <v>3317</v>
+      </c>
+      <c r="B667" s="1" t="s">
+        <v>3318</v>
+      </c>
+      <c r="C667" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D667" s="1" t="s">
+        <v>3319</v>
+      </c>
+      <c r="E667" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F667" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G667" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H667" s="1" t="s">
+        <v>3320</v>
+      </c>
+      <c r="I667" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J667" s="1" t="s">
+        <v>3170</v>
+      </c>
+      <c r="K667" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L667" s="1" t="s">
+        <v>3171</v>
+      </c>
+      <c r="M667" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N667" s="1" t="s">
+        <v>3321</v>
+      </c>
+      <c r="O667" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P667" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q667" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R667" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S667" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T667" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U667" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V667" s="1" t="s">
+        <v>3322</v>
+      </c>
+      <c r="W667" s="1" t="s">
+        <v>3318</v>
+      </c>
+      <c r="X667" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y667" s="1" t="s">
+        <v>3323</v>
+      </c>
+      <c r="Z667" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA667" s="1" t="s">
+        <v>3324</v>
+      </c>
+      <c r="AB667" s="1" t="s">
+        <v>3325</v>
+      </c>
+      <c r="AC667" s="1" t="s">
+        <v>3326</v>
+      </c>
+      <c r="AD667" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE667" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF667" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG667" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH667" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI667" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="668" spans="1:35">
+      <c r="A668" s="1" t="s">
+        <v>3327</v>
+      </c>
+      <c r="B668" s="1" t="s">
+        <v>3328</v>
+      </c>
+      <c r="C668" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D668" s="1" t="s">
+        <v>3329</v>
+      </c>
+      <c r="E668" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F668" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G668" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H668" s="1" t="s">
+        <v>3330</v>
+      </c>
+      <c r="I668" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J668" s="1" t="s">
+        <v>3170</v>
+      </c>
+      <c r="K668" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L668" s="1" t="s">
+        <v>3171</v>
+      </c>
+      <c r="M668" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N668" s="1" t="s">
+        <v>3331</v>
+      </c>
+      <c r="O668" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P668" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q668" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R668" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S668" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T668" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U668" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V668" s="1" t="s">
+        <v>3332</v>
+      </c>
+      <c r="W668" s="1" t="s">
+        <v>3328</v>
+      </c>
+      <c r="X668" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y668" s="1" t="s">
+        <v>3333</v>
+      </c>
+      <c r="Z668" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA668" s="1" t="s">
+        <v>3334</v>
+      </c>
+      <c r="AB668" s="1" t="s">
+        <v>3335</v>
+      </c>
+      <c r="AC668" s="1" t="s">
+        <v>3336</v>
+      </c>
+      <c r="AD668" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AE668" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF668" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG668" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH668" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI668" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="669" spans="1:35">
+      <c r="A669" s="1" t="s">
+        <v>3337</v>
+      </c>
+      <c r="B669" s="1" t="s">
+        <v>3338</v>
+      </c>
+      <c r="C669" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D669" s="1" t="s">
+        <v>3339</v>
+      </c>
+      <c r="E669" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F669" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G669" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H669" s="1" t="s">
+        <v>3340</v>
+      </c>
+      <c r="I669" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J669" s="1" t="s">
+        <v>2586</v>
+      </c>
+      <c r="K669" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L669" s="1" t="s">
+        <v>2587</v>
+      </c>
+      <c r="M669" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N669" s="1" t="s">
+        <v>3341</v>
+      </c>
+      <c r="O669" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P669" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q669" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R669" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S669" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T669" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U669" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V669" s="1" t="s">
+        <v>3342</v>
+      </c>
+      <c r="W669" s="1" t="s">
+        <v>3338</v>
+      </c>
+      <c r="X669" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y669" s="1" t="s">
+        <v>3343</v>
+      </c>
+      <c r="Z669" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA669" s="1" t="s">
+        <v>3344</v>
+      </c>
+      <c r="AB669" s="1" t="s">
+        <v>3345</v>
+      </c>
+      <c r="AC669" s="1" t="s">
+        <v>3346</v>
+      </c>
+      <c r="AD669" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE669" s="1" t="s">
+        <v>1696</v>
+      </c>
+      <c r="AF669" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG669" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH669" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI669" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="670" spans="1:35">
+      <c r="A670" s="1" t="s">
+        <v>3347</v>
+      </c>
+      <c r="B670" s="1" t="s">
+        <v>3348</v>
+      </c>
+      <c r="C670" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D670" s="1" t="s">
+        <v>3349</v>
+      </c>
+      <c r="E670" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F670" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G670" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H670" s="1" t="s">
+        <v>3350</v>
+      </c>
+      <c r="I670" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J670" s="1" t="s">
+        <v>2586</v>
+      </c>
+      <c r="K670" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L670" s="1" t="s">
+        <v>2587</v>
+      </c>
+      <c r="M670" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N670" s="1" t="s">
+        <v>3351</v>
+      </c>
+      <c r="O670" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P670" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q670" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R670" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S670" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T670" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U670" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V670" s="1" t="s">
+        <v>3352</v>
+      </c>
+      <c r="W670" s="1" t="s">
+        <v>3348</v>
+      </c>
+      <c r="X670" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y670" s="1" t="s">
+        <v>2830</v>
+      </c>
+      <c r="Z670" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA670" s="1" t="s">
+        <v>3353</v>
+      </c>
+      <c r="AB670" s="1" t="s">
+        <v>3354</v>
+      </c>
+      <c r="AC670" s="1" t="s">
+        <v>2833</v>
+      </c>
+      <c r="AD670" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE670" s="1" t="s">
+        <v>1503</v>
+      </c>
+      <c r="AF670" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG670" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH670" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI670" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="671" spans="1:35">
+      <c r="A671" s="1" t="s">
+        <v>3355</v>
+      </c>
+      <c r="B671" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C671" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D671" s="1" t="s">
+        <v>3356</v>
+      </c>
+      <c r="E671" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F671" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G671" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H671" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="I671" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J671" s="1" t="s">
+        <v>3170</v>
+      </c>
+      <c r="K671" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L671" s="1" t="s">
+        <v>3171</v>
+      </c>
+      <c r="M671" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N671" s="1" t="s">
+        <v>2350</v>
+      </c>
+      <c r="O671" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P671" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q671" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R671" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S671" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="T671" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U671" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V671" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="W671" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="X671" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y671" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="Z671" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA671" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB671" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="AC671" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="AD671" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE671" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF671" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG671" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH671" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI671" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="672" spans="1:35">
+      <c r="A672" s="1" t="s">
+        <v>3357</v>
+      </c>
+      <c r="B672" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C672" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D672" s="1" t="s">
+        <v>3356</v>
+      </c>
+      <c r="E672" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F672" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G672" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H672" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="I672" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J672" s="1" t="s">
+        <v>2586</v>
+      </c>
+      <c r="K672" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L672" s="1" t="s">
+        <v>2587</v>
+      </c>
+      <c r="M672" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N672" s="1" t="s">
+        <v>3358</v>
+      </c>
+      <c r="O672" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P672" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q672" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R672" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S672" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="T672" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U672" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V672" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="W672" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="X672" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y672" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="Z672" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA672" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB672" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="AC672" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="AD672" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE672" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF672" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG672" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH672" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI672" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="673" spans="1:35">
+      <c r="A673" s="1" t="s">
+        <v>3359</v>
+      </c>
+      <c r="B673" s="1" t="s">
+        <v>3360</v>
+      </c>
+      <c r="C673" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D673" s="1" t="s">
+        <v>3361</v>
+      </c>
+      <c r="E673" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F673" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G673" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H673" s="1" t="s">
+        <v>3362</v>
+      </c>
+      <c r="I673" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J673" s="1" t="s">
+        <v>3247</v>
+      </c>
+      <c r="K673" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L673" s="1" t="s">
+        <v>3248</v>
+      </c>
+      <c r="M673" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N673" s="1" t="s">
+        <v>3363</v>
+      </c>
+      <c r="O673" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P673" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q673" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R673" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S673" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T673" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U673" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V673" s="1" t="s">
+        <v>3364</v>
+      </c>
+      <c r="W673" s="1" t="s">
+        <v>3360</v>
+      </c>
+      <c r="X673" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y673" s="1" t="s">
+        <v>3365</v>
+      </c>
+      <c r="Z673" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA673" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="AB673" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="AC673" s="1" t="s">
+        <v>3366</v>
+      </c>
+      <c r="AD673" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AE673" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF673" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG673" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH673" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI673" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="674" spans="1:35">
+      <c r="A674" s="1" t="s">
+        <v>3367</v>
+      </c>
+      <c r="B674" s="1" t="s">
+        <v>3368</v>
+      </c>
+      <c r="C674" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D674" s="1" t="s">
+        <v>3369</v>
+      </c>
+      <c r="E674" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F674" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G674" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H674" s="1" t="s">
+        <v>3370</v>
+      </c>
+      <c r="I674" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J674" s="1" t="s">
+        <v>3247</v>
+      </c>
+      <c r="K674" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L674" s="1" t="s">
+        <v>3248</v>
+      </c>
+      <c r="M674" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N674" s="1" t="s">
+        <v>3371</v>
+      </c>
+      <c r="O674" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P674" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q674" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R674" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="S674" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T674" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U674" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V674" s="1" t="s">
+        <v>3372</v>
+      </c>
+      <c r="W674" s="1" t="s">
+        <v>3368</v>
+      </c>
+      <c r="X674" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y674" s="1" t="s">
+        <v>3373</v>
+      </c>
+      <c r="Z674" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA674" s="1" t="s">
+        <v>3374</v>
+      </c>
+      <c r="AB674" s="1" t="s">
+        <v>3375</v>
+      </c>
+      <c r="AC674" s="1" t="s">
+        <v>3376</v>
+      </c>
+      <c r="AD674" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AE674" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF674" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG674" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH674" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI674" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="675" spans="1:35">
+      <c r="A675" s="1" t="s">
+        <v>3377</v>
+      </c>
+      <c r="B675" s="1" t="s">
+        <v>3378</v>
+      </c>
+      <c r="C675" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D675" s="1" t="s">
+        <v>3245</v>
+      </c>
+      <c r="E675" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F675" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G675" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H675" s="1" t="s">
+        <v>3379</v>
+      </c>
+      <c r="I675" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J675" s="1" t="s">
+        <v>3247</v>
+      </c>
+      <c r="K675" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L675" s="1" t="s">
+        <v>3248</v>
+      </c>
+      <c r="M675" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N675" s="1" t="s">
+        <v>3380</v>
+      </c>
+      <c r="O675" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P675" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q675" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R675" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="S675" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T675" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U675" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V675" s="1" t="s">
+        <v>3381</v>
+      </c>
+      <c r="W675" s="1" t="s">
+        <v>3378</v>
+      </c>
+      <c r="X675" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y675" s="1" t="s">
+        <v>3382</v>
+      </c>
+      <c r="Z675" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA675" s="1" t="s">
+        <v>3383</v>
+      </c>
+      <c r="AB675" s="1" t="s">
+        <v>3384</v>
+      </c>
+      <c r="AC675" s="1" t="s">
+        <v>3385</v>
+      </c>
+      <c r="AD675" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE675" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF675" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG675" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH675" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI675" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="676" spans="1:35">
+      <c r="A676" s="1" t="s">
+        <v>3386</v>
+      </c>
+      <c r="B676" s="1" t="s">
+        <v>3387</v>
+      </c>
+      <c r="C676" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D676" s="1" t="s">
+        <v>3388</v>
+      </c>
+      <c r="E676" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F676" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G676" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H676" s="1" t="s">
+        <v>3389</v>
+      </c>
+      <c r="I676" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J676" s="1" t="s">
+        <v>3257</v>
+      </c>
+      <c r="K676" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L676" s="1" t="s">
+        <v>3258</v>
+      </c>
+      <c r="M676" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N676" s="1" t="s">
+        <v>3390</v>
+      </c>
+      <c r="O676" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P676" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q676" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R676" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S676" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T676" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U676" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V676" s="1" t="s">
+        <v>3391</v>
+      </c>
+      <c r="W676" s="1" t="s">
+        <v>3387</v>
+      </c>
+      <c r="X676" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y676" s="1" t="s">
+        <v>3392</v>
+      </c>
+      <c r="Z676" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA676" s="1" t="s">
+        <v>3393</v>
+      </c>
+      <c r="AB676" s="1" t="s">
+        <v>3394</v>
+      </c>
+      <c r="AC676" s="1" t="s">
+        <v>3395</v>
+      </c>
+      <c r="AD676" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE676" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF676" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG676" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH676" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI676" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="677" spans="1:35">
+      <c r="A677" s="1" t="s">
+        <v>3396</v>
+      </c>
+      <c r="B677" s="1" t="s">
+        <v>3397</v>
+      </c>
+      <c r="C677" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D677" s="1" t="s">
+        <v>3398</v>
+      </c>
+      <c r="E677" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F677" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G677" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H677" s="1" t="s">
+        <v>3399</v>
+      </c>
+      <c r="I677" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J677" s="1" t="s">
+        <v>3257</v>
+      </c>
+      <c r="K677" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L677" s="1" t="s">
+        <v>3258</v>
+      </c>
+      <c r="M677" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N677" s="1" t="s">
+        <v>3400</v>
+      </c>
+      <c r="O677" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P677" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q677" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R677" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S677" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T677" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U677" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V677" s="1" t="s">
+        <v>3401</v>
+      </c>
+      <c r="W677" s="1" t="s">
+        <v>3397</v>
+      </c>
+      <c r="X677" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y677" s="1" t="s">
+        <v>3402</v>
+      </c>
+      <c r="Z677" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA677" s="1" t="s">
+        <v>3403</v>
+      </c>
+      <c r="AB677" s="1" t="s">
+        <v>3404</v>
+      </c>
+      <c r="AC677" s="1" t="s">
+        <v>3405</v>
+      </c>
+      <c r="AD677" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE677" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF677" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG677" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH677" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI677" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="678" spans="1:35">
+      <c r="A678" s="1" t="s">
+        <v>3317</v>
+      </c>
+      <c r="B678" s="1" t="s">
+        <v>3318</v>
+      </c>
+      <c r="C678" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D678" s="1" t="s">
+        <v>3319</v>
+      </c>
+      <c r="E678" s="1" t="s">
+        <v>3406</v>
+      </c>
+      <c r="F678" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G678" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H678" s="1" t="s">
+        <v>3320</v>
+      </c>
+      <c r="I678" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J678" s="1" t="s">
+        <v>3170</v>
+      </c>
+      <c r="K678" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L678" s="1" t="s">
+        <v>3171</v>
+      </c>
+      <c r="M678" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N678" s="1" t="s">
+        <v>3321</v>
+      </c>
+      <c r="O678" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P678" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q678" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R678" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S678" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T678" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U678" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V678" s="1" t="s">
+        <v>3322</v>
+      </c>
+      <c r="W678" s="1" t="s">
+        <v>3318</v>
+      </c>
+      <c r="X678" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y678" s="1" t="s">
+        <v>3323</v>
+      </c>
+      <c r="Z678" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA678" s="1" t="s">
+        <v>3324</v>
+      </c>
+      <c r="AB678" s="1" t="s">
+        <v>3325</v>
+      </c>
+      <c r="AC678" s="1" t="s">
+        <v>3326</v>
+      </c>
+      <c r="AD678" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE678" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF678" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG678" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH678" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI678" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="679" spans="1:35">
+      <c r="A679" s="1" t="s">
+        <v>3327</v>
+      </c>
+      <c r="B679" s="1" t="s">
+        <v>3328</v>
+      </c>
+      <c r="C679" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D679" s="1" t="s">
+        <v>3329</v>
+      </c>
+      <c r="E679" s="1" t="s">
+        <v>3406</v>
+      </c>
+      <c r="F679" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G679" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H679" s="1" t="s">
+        <v>3330</v>
+      </c>
+      <c r="I679" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J679" s="1" t="s">
+        <v>3170</v>
+      </c>
+      <c r="K679" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L679" s="1" t="s">
+        <v>3171</v>
+      </c>
+      <c r="M679" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N679" s="1" t="s">
+        <v>3331</v>
+      </c>
+      <c r="O679" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P679" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q679" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R679" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S679" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T679" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U679" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V679" s="1" t="s">
+        <v>3332</v>
+      </c>
+      <c r="W679" s="1" t="s">
+        <v>3328</v>
+      </c>
+      <c r="X679" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y679" s="1" t="s">
+        <v>3333</v>
+      </c>
+      <c r="Z679" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA679" s="1" t="s">
+        <v>3334</v>
+      </c>
+      <c r="AB679" s="1" t="s">
+        <v>3335</v>
+      </c>
+      <c r="AC679" s="1" t="s">
+        <v>3336</v>
+      </c>
+      <c r="AD679" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AE679" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF679" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG679" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH679" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI679" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="680" spans="1:35">
+      <c r="A680" s="1" t="s">
+        <v>3337</v>
+      </c>
+      <c r="B680" s="1" t="s">
+        <v>3338</v>
+      </c>
+      <c r="C680" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D680" s="1" t="s">
+        <v>3339</v>
+      </c>
+      <c r="E680" s="1" t="s">
+        <v>3406</v>
+      </c>
+      <c r="F680" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G680" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H680" s="1" t="s">
+        <v>3340</v>
+      </c>
+      <c r="I680" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J680" s="1" t="s">
+        <v>2586</v>
+      </c>
+      <c r="K680" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L680" s="1" t="s">
+        <v>2587</v>
+      </c>
+      <c r="M680" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N680" s="1" t="s">
+        <v>3341</v>
+      </c>
+      <c r="O680" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P680" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q680" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R680" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S680" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T680" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U680" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V680" s="1" t="s">
+        <v>3342</v>
+      </c>
+      <c r="W680" s="1" t="s">
+        <v>3338</v>
+      </c>
+      <c r="X680" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y680" s="1" t="s">
+        <v>3343</v>
+      </c>
+      <c r="Z680" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA680" s="1" t="s">
+        <v>3344</v>
+      </c>
+      <c r="AB680" s="1" t="s">
+        <v>3345</v>
+      </c>
+      <c r="AC680" s="1" t="s">
+        <v>3346</v>
+      </c>
+      <c r="AD680" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE680" s="1" t="s">
+        <v>1696</v>
+      </c>
+      <c r="AF680" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG680" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH680" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI680" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="681" spans="1:35">
+      <c r="A681" s="1" t="s">
+        <v>3347</v>
+      </c>
+      <c r="B681" s="1" t="s">
+        <v>3348</v>
+      </c>
+      <c r="C681" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D681" s="1" t="s">
+        <v>3349</v>
+      </c>
+      <c r="E681" s="1" t="s">
+        <v>3406</v>
+      </c>
+      <c r="F681" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G681" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H681" s="1" t="s">
+        <v>3350</v>
+      </c>
+      <c r="I681" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J681" s="1" t="s">
+        <v>2586</v>
+      </c>
+      <c r="K681" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L681" s="1" t="s">
+        <v>2587</v>
+      </c>
+      <c r="M681" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N681" s="1" t="s">
+        <v>3351</v>
+      </c>
+      <c r="O681" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P681" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q681" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R681" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S681" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T681" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U681" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V681" s="1" t="s">
+        <v>3352</v>
+      </c>
+      <c r="W681" s="1" t="s">
+        <v>3348</v>
+      </c>
+      <c r="X681" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y681" s="1" t="s">
+        <v>2830</v>
+      </c>
+      <c r="Z681" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA681" s="1" t="s">
+        <v>3353</v>
+      </c>
+      <c r="AB681" s="1" t="s">
+        <v>3354</v>
+      </c>
+      <c r="AC681" s="1" t="s">
+        <v>2833</v>
+      </c>
+      <c r="AD681" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE681" s="1" t="s">
+        <v>1503</v>
+      </c>
+      <c r="AF681" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG681" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH681" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI681" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="682" spans="1:35">
+      <c r="A682" s="1" t="s">
+        <v>3355</v>
+      </c>
+      <c r="B682" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C682" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D682" s="1" t="s">
+        <v>3356</v>
+      </c>
+      <c r="E682" s="1" t="s">
+        <v>3406</v>
+      </c>
+      <c r="F682" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G682" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H682" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="I682" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J682" s="1" t="s">
+        <v>3170</v>
+      </c>
+      <c r="K682" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L682" s="1" t="s">
+        <v>3171</v>
+      </c>
+      <c r="M682" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N682" s="1" t="s">
+        <v>2350</v>
+      </c>
+      <c r="O682" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P682" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q682" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R682" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S682" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="T682" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U682" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V682" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="W682" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="X682" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y682" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="Z682" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA682" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB682" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="AC682" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="AD682" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE682" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF682" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG682" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH682" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI682" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="683" spans="1:35">
+      <c r="A683" s="1" t="s">
+        <v>3357</v>
+      </c>
+      <c r="B683" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C683" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D683" s="1" t="s">
+        <v>3356</v>
+      </c>
+      <c r="E683" s="1" t="s">
+        <v>3406</v>
+      </c>
+      <c r="F683" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G683" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H683" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="I683" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J683" s="1" t="s">
+        <v>2586</v>
+      </c>
+      <c r="K683" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L683" s="1" t="s">
+        <v>2587</v>
+      </c>
+      <c r="M683" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N683" s="1" t="s">
+        <v>3358</v>
+      </c>
+      <c r="O683" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P683" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q683" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R683" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S683" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="T683" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U683" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V683" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="W683" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="X683" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y683" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="Z683" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA683" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB683" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="AC683" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="AD683" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE683" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF683" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG683" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH683" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI683" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="684" spans="1:35">
+      <c r="A684" s="1" t="s">
+        <v>3359</v>
+      </c>
+      <c r="B684" s="1" t="s">
+        <v>3360</v>
+      </c>
+      <c r="C684" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D684" s="1" t="s">
+        <v>3361</v>
+      </c>
+      <c r="E684" s="3" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F684" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G684" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H684" s="1" t="s">
+        <v>3362</v>
+      </c>
+      <c r="I684" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J684" s="1" t="s">
+        <v>3247</v>
+      </c>
+      <c r="K684" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L684" s="1" t="s">
+        <v>3248</v>
+      </c>
+      <c r="M684" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N684" s="1" t="s">
+        <v>3363</v>
+      </c>
+      <c r="O684" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P684" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q684" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R684" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S684" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T684" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U684" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V684" s="1" t="s">
+        <v>3364</v>
+      </c>
+      <c r="W684" s="1" t="s">
+        <v>3360</v>
+      </c>
+      <c r="X684" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y684" s="1" t="s">
+        <v>3365</v>
+      </c>
+      <c r="Z684" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA684" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="AB684" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="AC684" s="1" t="s">
+        <v>3366</v>
+      </c>
+      <c r="AD684" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AE684" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF684" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG684" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH684" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI684" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="685" spans="1:35">
+      <c r="A685" s="1" t="s">
+        <v>3367</v>
+      </c>
+      <c r="B685" s="1" t="s">
+        <v>3368</v>
+      </c>
+      <c r="C685" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D685" s="1" t="s">
+        <v>3369</v>
+      </c>
+      <c r="E685" s="3" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F685" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G685" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H685" s="1" t="s">
+        <v>3370</v>
+      </c>
+      <c r="I685" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J685" s="1" t="s">
+        <v>3247</v>
+      </c>
+      <c r="K685" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L685" s="1" t="s">
+        <v>3248</v>
+      </c>
+      <c r="M685" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N685" s="1" t="s">
+        <v>3371</v>
+      </c>
+      <c r="O685" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P685" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q685" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R685" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="S685" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T685" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U685" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V685" s="1" t="s">
+        <v>3372</v>
+      </c>
+      <c r="W685" s="1" t="s">
+        <v>3368</v>
+      </c>
+      <c r="X685" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y685" s="1" t="s">
+        <v>3373</v>
+      </c>
+      <c r="Z685" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA685" s="1" t="s">
+        <v>3374</v>
+      </c>
+      <c r="AB685" s="1" t="s">
+        <v>3375</v>
+      </c>
+      <c r="AC685" s="1" t="s">
+        <v>3376</v>
+      </c>
+      <c r="AD685" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AE685" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF685" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG685" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH685" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI685" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="686" spans="1:35">
+      <c r="A686" s="1" t="s">
+        <v>3377</v>
+      </c>
+      <c r="B686" s="1" t="s">
+        <v>3378</v>
+      </c>
+      <c r="C686" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D686" s="1" t="s">
+        <v>3245</v>
+      </c>
+      <c r="E686" s="3" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F686" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G686" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H686" s="1" t="s">
+        <v>3379</v>
+      </c>
+      <c r="I686" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J686" s="1" t="s">
+        <v>3247</v>
+      </c>
+      <c r="K686" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L686" s="1" t="s">
+        <v>3248</v>
+      </c>
+      <c r="M686" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N686" s="1" t="s">
+        <v>3380</v>
+      </c>
+      <c r="O686" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P686" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q686" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R686" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="S686" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T686" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U686" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V686" s="1" t="s">
+        <v>3381</v>
+      </c>
+      <c r="W686" s="1" t="s">
+        <v>3378</v>
+      </c>
+      <c r="X686" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y686" s="1" t="s">
+        <v>3382</v>
+      </c>
+      <c r="Z686" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA686" s="1" t="s">
+        <v>3383</v>
+      </c>
+      <c r="AB686" s="1" t="s">
+        <v>3384</v>
+      </c>
+      <c r="AC686" s="1" t="s">
+        <v>3385</v>
+      </c>
+      <c r="AD686" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE686" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF686" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG686" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH686" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI686" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="687" spans="1:35">
+      <c r="A687" s="1" t="s">
+        <v>3386</v>
+      </c>
+      <c r="B687" s="1" t="s">
+        <v>3387</v>
+      </c>
+      <c r="C687" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D687" s="1" t="s">
+        <v>3388</v>
+      </c>
+      <c r="E687" s="3" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F687" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G687" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H687" s="1" t="s">
+        <v>3389</v>
+      </c>
+      <c r="I687" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J687" s="1" t="s">
+        <v>3257</v>
+      </c>
+      <c r="K687" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L687" s="1" t="s">
+        <v>3258</v>
+      </c>
+      <c r="M687" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N687" s="1" t="s">
+        <v>3390</v>
+      </c>
+      <c r="O687" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P687" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q687" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R687" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S687" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T687" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U687" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V687" s="1" t="s">
+        <v>3391</v>
+      </c>
+      <c r="W687" s="1" t="s">
+        <v>3387</v>
+      </c>
+      <c r="X687" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y687" s="1" t="s">
+        <v>3392</v>
+      </c>
+      <c r="Z687" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA687" s="1" t="s">
+        <v>3393</v>
+      </c>
+      <c r="AB687" s="1" t="s">
+        <v>3394</v>
+      </c>
+      <c r="AC687" s="1" t="s">
+        <v>3395</v>
+      </c>
+      <c r="AD687" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE687" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF687" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG687" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH687" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI687" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="688" spans="1:35">
+      <c r="A688" s="1" t="s">
+        <v>3396</v>
+      </c>
+      <c r="B688" s="1" t="s">
+        <v>3397</v>
+      </c>
+      <c r="C688" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D688" s="1" t="s">
+        <v>3398</v>
+      </c>
+      <c r="E688" s="3" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F688" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G688" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H688" s="1" t="s">
+        <v>3399</v>
+      </c>
+      <c r="I688" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J688" s="1" t="s">
+        <v>3257</v>
+      </c>
+      <c r="K688" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L688" s="1" t="s">
+        <v>3258</v>
+      </c>
+      <c r="M688" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N688" s="1" t="s">
+        <v>3400</v>
+      </c>
+      <c r="O688" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P688" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q688" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R688" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S688" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T688" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U688" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V688" s="1" t="s">
+        <v>3401</v>
+      </c>
+      <c r="W688" s="1" t="s">
+        <v>3397</v>
+      </c>
+      <c r="X688" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y688" s="1" t="s">
+        <v>3402</v>
+      </c>
+      <c r="Z688" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA688" s="1" t="s">
+        <v>3403</v>
+      </c>
+      <c r="AB688" s="1" t="s">
+        <v>3404</v>
+      </c>
+      <c r="AC688" s="1" t="s">
+        <v>3405</v>
+      </c>
+      <c r="AD688" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE688" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF688" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG688" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH688" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI688" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AI500"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/deliveryopenfiber.xlsx
+++ b/deliveryopenfiber.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24045" uniqueCount="3407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25235" uniqueCount="3545">
   <si>
     <t>Codice</t>
   </si>
@@ -10238,6 +10238,420 @@
   </si>
   <si>
     <t>QUADARELLA ANDREA</t>
+  </si>
+  <si>
+    <t>DEL1003563397</t>
+  </si>
+  <si>
+    <t>4224696945479429524</t>
+  </si>
+  <si>
+    <t>25/08/2025 15:08</t>
+  </si>
+  <si>
+    <t>GIUSEPPE SPERANZA</t>
+  </si>
+  <si>
+    <t>25/08/2025 14:30</t>
+  </si>
+  <si>
+    <t>25/08/2025 16:30</t>
+  </si>
+  <si>
+    <t>DA03447531</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000970111_27</t>
+  </si>
+  <si>
+    <t>SR_01/EOF_0098</t>
+  </si>
+  <si>
+    <t>SR_01/06e14-SP_09</t>
+  </si>
+  <si>
+    <t>SR_01/06e14/I754_VIA PIETRO NOVELLI_42</t>
+  </si>
+  <si>
+    <t>DEL1003568284</t>
+  </si>
+  <si>
+    <t>4224696945535866115</t>
+  </si>
+  <si>
+    <t>25/08/2025 10:48</t>
+  </si>
+  <si>
+    <t>SERGIO ANGELO SANFILIPPO</t>
+  </si>
+  <si>
+    <t>25/08/2025 08:30</t>
+  </si>
+  <si>
+    <t>25/08/2025 10:30</t>
+  </si>
+  <si>
+    <t>13/08/2025 08:26</t>
+  </si>
+  <si>
+    <t>ILA_1755019805126</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000970038_15</t>
+  </si>
+  <si>
+    <t>SR_01/ILD_0030</t>
+  </si>
+  <si>
+    <t>SR_01/05w22-SP_05</t>
+  </si>
+  <si>
+    <t>SR_01/05w22/I754_VIA ARIZZI_23</t>
+  </si>
+  <si>
+    <t>DEL1003569501</t>
+  </si>
+  <si>
+    <t>4224696945536624896</t>
+  </si>
+  <si>
+    <t>25/08/2025 12:56</t>
+  </si>
+  <si>
+    <t>MARIA NOVELLO</t>
+  </si>
+  <si>
+    <t>13/08/2025 16:06</t>
+  </si>
+  <si>
+    <t>WN_9002082874</t>
+  </si>
+  <si>
+    <t>19_089_089017_8001005533_428</t>
+  </si>
+  <si>
+    <t>SR_01/WIN_0118</t>
+  </si>
+  <si>
+    <t>SR_01/07e41-SP_08</t>
+  </si>
+  <si>
+    <t>SR_01/07e41/I754_VIALE SCALA GRECA_424</t>
+  </si>
+  <si>
+    <t>DEL1003573160</t>
+  </si>
+  <si>
+    <t>25/08/2025 09:16</t>
+  </si>
+  <si>
+    <t>15/08/2025 04:06</t>
+  </si>
+  <si>
+    <t>DEL1003586779</t>
+  </si>
+  <si>
+    <t>25/08/2025 08:38</t>
+  </si>
+  <si>
+    <t>20/08/2025 19:06</t>
+  </si>
+  <si>
+    <t>DEL1003518980</t>
+  </si>
+  <si>
+    <t>4224696945498320878</t>
+  </si>
+  <si>
+    <t>25/08/2025 12:46</t>
+  </si>
+  <si>
+    <t>GIANLUCA MINCELLA</t>
+  </si>
+  <si>
+    <t>25/08/2025 18:00</t>
+  </si>
+  <si>
+    <t>26/07/2025 11:46</t>
+  </si>
+  <si>
+    <t>FW_SP0000001594043</t>
+  </si>
+  <si>
+    <t>19_089_089017_8001005533_396</t>
+  </si>
+  <si>
+    <t>SR_01/EOF_0071</t>
+  </si>
+  <si>
+    <t>SR_01/07e41-SP_09</t>
+  </si>
+  <si>
+    <t>SR_01/07e41/I754_VIALE SCALA GRECA_394_1</t>
+  </si>
+  <si>
+    <t>DEL1003553657</t>
+  </si>
+  <si>
+    <t>4224696945526860894</t>
+  </si>
+  <si>
+    <t>25/08/2025 09:28</t>
+  </si>
+  <si>
+    <t>claudio corpaci</t>
+  </si>
+  <si>
+    <t>OPI_3719560</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000970358_54</t>
+  </si>
+  <si>
+    <t>SR_01/VOD_0110</t>
+  </si>
+  <si>
+    <t>SR_01/02w24-SP_06</t>
+  </si>
+  <si>
+    <t>SR_01/02w24/I754_VIA ITALIA_54_1</t>
+  </si>
+  <si>
+    <t>DEL1003553416</t>
+  </si>
+  <si>
+    <t>4224696945531701786</t>
+  </si>
+  <si>
+    <t>25/08/2025 08:58</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ERMES COMUNICAZIONE</t>
+  </si>
+  <si>
+    <t>07/08/2025 11:26</t>
+  </si>
+  <si>
+    <t>OPI_3722800</t>
+  </si>
+  <si>
+    <t>19_089_089017_8001005525_90</t>
+  </si>
+  <si>
+    <t>SR_01/01e22-SP_02</t>
+  </si>
+  <si>
+    <t>SR_01/01e22/I754_VIALE TERACATI_90</t>
+  </si>
+  <si>
+    <t>DEL1003567314</t>
+  </si>
+  <si>
+    <t>4224696945535864180</t>
+  </si>
+  <si>
+    <t>25/08/2025 11:48</t>
+  </si>
+  <si>
+    <t>INDIVIDUALE CELESTI JUNIO GIUSEPPE</t>
+  </si>
+  <si>
+    <t>25/08/2025 11:30</t>
+  </si>
+  <si>
+    <t>25/08/2025 13:30</t>
+  </si>
+  <si>
+    <t>12/08/2025 19:06</t>
+  </si>
+  <si>
+    <t>FW_SP0000001633503</t>
+  </si>
+  <si>
+    <t>19_089_089017_8001005525_102E</t>
+  </si>
+  <si>
+    <t>SR_01/01e22/I754_VIALE TERACATI_100B</t>
+  </si>
+  <si>
+    <t>DEL1003582867</t>
+  </si>
+  <si>
+    <t>25/08/2025 09:38</t>
+  </si>
+  <si>
+    <t>19/08/2025 13:06</t>
+  </si>
+  <si>
+    <t>SR_01/01e23-SP_09</t>
+  </si>
+  <si>
+    <t>SR_01/01e23/I754_VIA LUIGI SPAGNA_50C_1</t>
+  </si>
+  <si>
+    <t>DEL1003585902</t>
+  </si>
+  <si>
+    <t>4224696945538348413</t>
+  </si>
+  <si>
+    <t>25/08/2025 15:38</t>
+  </si>
+  <si>
+    <t>VINCENZA CANTONE</t>
+  </si>
+  <si>
+    <t>20/08/2025 13:46</t>
+  </si>
+  <si>
+    <t>WN_9002086900</t>
+  </si>
+  <si>
+    <t>DEL1003587980</t>
+  </si>
+  <si>
+    <t>4224696945539527101</t>
+  </si>
+  <si>
+    <t>25/08/2025 14:28</t>
+  </si>
+  <si>
+    <t>DAMIANO FICILI</t>
+  </si>
+  <si>
+    <t>21/08/2025 09:16</t>
+  </si>
+  <si>
+    <t>TLC_00000000187237</t>
+  </si>
+  <si>
+    <t>19_089_089018_8000967637_20</t>
+  </si>
+  <si>
+    <t>SR_09/02e21/SR_09/01w21/I785_044</t>
+  </si>
+  <si>
+    <t>DEL1003582604</t>
+  </si>
+  <si>
+    <t>4224696945537815759</t>
+  </si>
+  <si>
+    <t>KHANSAA EL HARAK</t>
+  </si>
+  <si>
+    <t>19/08/2025 11:46</t>
+  </si>
+  <si>
+    <t>ENE_00000727907</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000970392_10</t>
+  </si>
+  <si>
+    <t>SR_01/01e41-SP_03</t>
+  </si>
+  <si>
+    <t>SR_01/01e41/I754_VIA IGNAZIO MARABITTI_10_A</t>
+  </si>
+  <si>
+    <t>DEL1003589094</t>
+  </si>
+  <si>
+    <t>4224696945541324469</t>
+  </si>
+  <si>
+    <t>25/08/2025 10:58</t>
+  </si>
+  <si>
+    <t>ANDREA INGLESE</t>
+  </si>
+  <si>
+    <t>21/08/2025 15:46</t>
+  </si>
+  <si>
+    <t>ILA_1755782735329</t>
+  </si>
+  <si>
+    <t>19_089_089017_8001078361_24</t>
+  </si>
+  <si>
+    <t>SR_01/05e23-SP_05</t>
+  </si>
+  <si>
+    <t>SR_01/05e23/I754_VIA DEI CORDARI_26</t>
+  </si>
+  <si>
+    <t>DEL1003589516</t>
+  </si>
+  <si>
+    <t>4224696945539529339</t>
+  </si>
+  <si>
+    <t>25/08/2025 16:28</t>
+  </si>
+  <si>
+    <t>ROBERTA GIONFRIDDO</t>
+  </si>
+  <si>
+    <t>21/08/2025 17:56</t>
+  </si>
+  <si>
+    <t>WN_9002088146</t>
+  </si>
+  <si>
+    <t>19_089_089021_8000967711_11/A</t>
+  </si>
+  <si>
+    <t>SR_12/01w13/SR_12/01w13/M279_003</t>
+  </si>
+  <si>
+    <t>DEL1003591378</t>
+  </si>
+  <si>
+    <t>4224696945541326990</t>
+  </si>
+  <si>
+    <t>25/08/2025 11:28</t>
+  </si>
+  <si>
+    <t>GIUSEPPE IPPOLITO</t>
+  </si>
+  <si>
+    <t>22/08/2025 11:46</t>
+  </si>
+  <si>
+    <t>COC_90000000187765</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000969060_19</t>
+  </si>
+  <si>
+    <t>SR_01/07e23/I754_VIA RAMACCA_19_1</t>
+  </si>
+  <si>
+    <t>DEL1003592767</t>
+  </si>
+  <si>
+    <t>4224696945542621755</t>
+  </si>
+  <si>
+    <t>25/08/2025 14:08</t>
+  </si>
+  <si>
+    <t>ALESSIA BLANCO</t>
+  </si>
+  <si>
+    <t>22/08/2025 20:46</t>
+  </si>
+  <si>
+    <t>FW_SP0000001640028</t>
+  </si>
+  <si>
+    <t>19_089_089021_8000967775_8</t>
+  </si>
+  <si>
+    <t>SR_12/01w22/SR_12/01w22/M279_001</t>
   </si>
 </sst>
 </file>
@@ -10574,10 +10988,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI688"/>
+  <dimension ref="A1:AI722"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A658" workbookViewId="0">
-      <selection activeCell="C679" sqref="C679"/>
+    <sheetView tabSelected="1" topLeftCell="A676" workbookViewId="0">
+      <selection activeCell="B690" sqref="B690"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -84100,6 +84514,3644 @@
         <v>57</v>
       </c>
     </row>
+    <row r="689" spans="1:35">
+      <c r="A689" s="1" t="s">
+        <v>3407</v>
+      </c>
+      <c r="B689" s="1" t="s">
+        <v>3408</v>
+      </c>
+      <c r="C689" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D689" s="1" t="s">
+        <v>3409</v>
+      </c>
+      <c r="E689" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F689" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G689" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H689" s="1" t="s">
+        <v>3410</v>
+      </c>
+      <c r="I689" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J689" s="1" t="s">
+        <v>3411</v>
+      </c>
+      <c r="K689" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L689" s="1" t="s">
+        <v>3412</v>
+      </c>
+      <c r="M689" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N689" s="1" t="s">
+        <v>2329</v>
+      </c>
+      <c r="O689" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P689" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q689" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R689" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S689" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T689" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U689" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="V689" s="1" t="s">
+        <v>3413</v>
+      </c>
+      <c r="W689" s="1" t="s">
+        <v>3408</v>
+      </c>
+      <c r="X689" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y689" s="1" t="s">
+        <v>3414</v>
+      </c>
+      <c r="Z689" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA689" s="1" t="s">
+        <v>3415</v>
+      </c>
+      <c r="AB689" s="1" t="s">
+        <v>3416</v>
+      </c>
+      <c r="AC689" s="1" t="s">
+        <v>3417</v>
+      </c>
+      <c r="AD689" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="AE689" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF689" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG689" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH689" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI689" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="690" spans="1:35">
+      <c r="A690" s="1" t="s">
+        <v>3418</v>
+      </c>
+      <c r="B690" s="1" t="s">
+        <v>3419</v>
+      </c>
+      <c r="C690" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D690" s="1" t="s">
+        <v>3420</v>
+      </c>
+      <c r="E690" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F690" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G690" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H690" s="1" t="s">
+        <v>3421</v>
+      </c>
+      <c r="I690" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J690" s="1" t="s">
+        <v>3422</v>
+      </c>
+      <c r="K690" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L690" s="1" t="s">
+        <v>3423</v>
+      </c>
+      <c r="M690" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N690" s="1" t="s">
+        <v>3424</v>
+      </c>
+      <c r="O690" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P690" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q690" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R690" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S690" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T690" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U690" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V690" s="1" t="s">
+        <v>3425</v>
+      </c>
+      <c r="W690" s="1" t="s">
+        <v>3419</v>
+      </c>
+      <c r="X690" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y690" s="1" t="s">
+        <v>3426</v>
+      </c>
+      <c r="Z690" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA690" s="1" t="s">
+        <v>3427</v>
+      </c>
+      <c r="AB690" s="1" t="s">
+        <v>3428</v>
+      </c>
+      <c r="AC690" s="1" t="s">
+        <v>3429</v>
+      </c>
+      <c r="AD690" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE690" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF690" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG690" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH690" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI690" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="691" spans="1:35">
+      <c r="A691" s="1" t="s">
+        <v>3430</v>
+      </c>
+      <c r="B691" s="1" t="s">
+        <v>3431</v>
+      </c>
+      <c r="C691" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D691" s="1" t="s">
+        <v>3432</v>
+      </c>
+      <c r="E691" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F691" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G691" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H691" s="1" t="s">
+        <v>3433</v>
+      </c>
+      <c r="I691" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J691" s="1" t="s">
+        <v>3411</v>
+      </c>
+      <c r="K691" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L691" s="1" t="s">
+        <v>3412</v>
+      </c>
+      <c r="M691" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N691" s="1" t="s">
+        <v>3434</v>
+      </c>
+      <c r="O691" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P691" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q691" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R691" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S691" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T691" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U691" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V691" s="1" t="s">
+        <v>3435</v>
+      </c>
+      <c r="W691" s="1" t="s">
+        <v>3431</v>
+      </c>
+      <c r="X691" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y691" s="1" t="s">
+        <v>3436</v>
+      </c>
+      <c r="Z691" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA691" s="1" t="s">
+        <v>3437</v>
+      </c>
+      <c r="AB691" s="1" t="s">
+        <v>3438</v>
+      </c>
+      <c r="AC691" s="1" t="s">
+        <v>3439</v>
+      </c>
+      <c r="AD691" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE691" s="1" t="s">
+        <v>1503</v>
+      </c>
+      <c r="AF691" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG691" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH691" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI691" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="692" spans="1:35">
+      <c r="A692" s="1" t="s">
+        <v>3440</v>
+      </c>
+      <c r="B692" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="C692" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D692" s="1" t="s">
+        <v>3441</v>
+      </c>
+      <c r="E692" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F692" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G692" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H692" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="I692" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J692" s="1" t="s">
+        <v>3422</v>
+      </c>
+      <c r="K692" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L692" s="1" t="s">
+        <v>3423</v>
+      </c>
+      <c r="M692" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N692" s="1" t="s">
+        <v>3442</v>
+      </c>
+      <c r="O692" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P692" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q692" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R692" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S692" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T692" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U692" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="V692" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="W692" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="X692" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y692" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="Z692" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA692" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="AB692" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="AC692" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="AD692" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AE692" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="AF692" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG692" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH692" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI692" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="693" spans="1:35">
+      <c r="A693" s="1" t="s">
+        <v>3443</v>
+      </c>
+      <c r="B693" s="1" t="s">
+        <v>2180</v>
+      </c>
+      <c r="C693" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D693" s="1" t="s">
+        <v>3444</v>
+      </c>
+      <c r="E693" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F693" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G693" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H693" s="1" t="s">
+        <v>2182</v>
+      </c>
+      <c r="I693" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J693" s="1" t="s">
+        <v>3422</v>
+      </c>
+      <c r="K693" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L693" s="1" t="s">
+        <v>3423</v>
+      </c>
+      <c r="M693" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N693" s="1" t="s">
+        <v>3445</v>
+      </c>
+      <c r="O693" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P693" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q693" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R693" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S693" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="T693" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U693" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="V693" s="1" t="s">
+        <v>2184</v>
+      </c>
+      <c r="W693" s="1" t="s">
+        <v>2180</v>
+      </c>
+      <c r="X693" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="Y693" s="1" t="s">
+        <v>2185</v>
+      </c>
+      <c r="Z693" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA693" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="AB693" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="AC693" s="1" t="s">
+        <v>2186</v>
+      </c>
+      <c r="AD693" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE693" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF693" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG693" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH693" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI693" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="694" spans="1:35">
+      <c r="A694" s="1" t="s">
+        <v>3446</v>
+      </c>
+      <c r="B694" s="1" t="s">
+        <v>3447</v>
+      </c>
+      <c r="C694" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D694" s="1" t="s">
+        <v>3448</v>
+      </c>
+      <c r="E694" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F694" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G694" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H694" s="1" t="s">
+        <v>3449</v>
+      </c>
+      <c r="I694" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J694" s="1" t="s">
+        <v>3412</v>
+      </c>
+      <c r="K694" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L694" s="1" t="s">
+        <v>3450</v>
+      </c>
+      <c r="M694" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N694" s="1" t="s">
+        <v>3451</v>
+      </c>
+      <c r="O694" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="P694" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q694" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R694" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S694" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T694" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U694" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="V694" s="1" t="s">
+        <v>3452</v>
+      </c>
+      <c r="W694" s="1" t="s">
+        <v>3447</v>
+      </c>
+      <c r="X694" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y694" s="1" t="s">
+        <v>3453</v>
+      </c>
+      <c r="Z694" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA694" s="1" t="s">
+        <v>3454</v>
+      </c>
+      <c r="AB694" s="1" t="s">
+        <v>3455</v>
+      </c>
+      <c r="AC694" s="1" t="s">
+        <v>3456</v>
+      </c>
+      <c r="AD694" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AE694" s="1" t="s">
+        <v>2029</v>
+      </c>
+      <c r="AF694" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG694" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH694" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI694" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="695" spans="1:35">
+      <c r="A695" s="1" t="s">
+        <v>3457</v>
+      </c>
+      <c r="B695" s="1" t="s">
+        <v>3458</v>
+      </c>
+      <c r="C695" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D695" s="1" t="s">
+        <v>3459</v>
+      </c>
+      <c r="E695" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F695" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G695" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H695" s="1" t="s">
+        <v>3460</v>
+      </c>
+      <c r="I695" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J695" s="1" t="s">
+        <v>3422</v>
+      </c>
+      <c r="K695" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L695" s="1" t="s">
+        <v>3423</v>
+      </c>
+      <c r="M695" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N695" s="1" t="s">
+        <v>1742</v>
+      </c>
+      <c r="O695" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P695" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q695" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R695" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="S695" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T695" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U695" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V695" s="1" t="s">
+        <v>3461</v>
+      </c>
+      <c r="W695" s="1" t="s">
+        <v>3458</v>
+      </c>
+      <c r="X695" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y695" s="1" t="s">
+        <v>3462</v>
+      </c>
+      <c r="Z695" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA695" s="1" t="s">
+        <v>3463</v>
+      </c>
+      <c r="AB695" s="1" t="s">
+        <v>3464</v>
+      </c>
+      <c r="AC695" s="1" t="s">
+        <v>3465</v>
+      </c>
+      <c r="AD695" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE695" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF695" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG695" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH695" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI695" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="696" spans="1:35">
+      <c r="A696" s="1" t="s">
+        <v>3466</v>
+      </c>
+      <c r="B696" s="1" t="s">
+        <v>3467</v>
+      </c>
+      <c r="C696" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D696" s="1" t="s">
+        <v>3468</v>
+      </c>
+      <c r="E696" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F696" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G696" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H696" s="1" t="s">
+        <v>3469</v>
+      </c>
+      <c r="I696" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J696" s="1" t="s">
+        <v>3422</v>
+      </c>
+      <c r="K696" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L696" s="1" t="s">
+        <v>3423</v>
+      </c>
+      <c r="M696" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N696" s="1" t="s">
+        <v>3470</v>
+      </c>
+      <c r="O696" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P696" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q696" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R696" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S696" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T696" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U696" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V696" s="1" t="s">
+        <v>3471</v>
+      </c>
+      <c r="W696" s="1" t="s">
+        <v>3467</v>
+      </c>
+      <c r="X696" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y696" s="1" t="s">
+        <v>3472</v>
+      </c>
+      <c r="Z696" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA696" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="AB696" s="1" t="s">
+        <v>3473</v>
+      </c>
+      <c r="AC696" s="1" t="s">
+        <v>3474</v>
+      </c>
+      <c r="AD696" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE696" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF696" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG696" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH696" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI696" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="697" spans="1:35">
+      <c r="A697" s="1" t="s">
+        <v>3475</v>
+      </c>
+      <c r="B697" s="1" t="s">
+        <v>3476</v>
+      </c>
+      <c r="C697" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D697" s="1" t="s">
+        <v>3477</v>
+      </c>
+      <c r="E697" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F697" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G697" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H697" s="1" t="s">
+        <v>3478</v>
+      </c>
+      <c r="I697" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J697" s="1" t="s">
+        <v>3479</v>
+      </c>
+      <c r="K697" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L697" s="1" t="s">
+        <v>3480</v>
+      </c>
+      <c r="M697" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N697" s="1" t="s">
+        <v>3481</v>
+      </c>
+      <c r="O697" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P697" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q697" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R697" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S697" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T697" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U697" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V697" s="1" t="s">
+        <v>3482</v>
+      </c>
+      <c r="W697" s="1" t="s">
+        <v>3476</v>
+      </c>
+      <c r="X697" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y697" s="1" t="s">
+        <v>3483</v>
+      </c>
+      <c r="Z697" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA697" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="AB697" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="AC697" s="1" t="s">
+        <v>3484</v>
+      </c>
+      <c r="AD697" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AE697" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="AF697" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG697" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH697" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI697" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="698" spans="1:35">
+      <c r="A698" s="1" t="s">
+        <v>3485</v>
+      </c>
+      <c r="B698" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C698" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D698" s="1" t="s">
+        <v>3486</v>
+      </c>
+      <c r="E698" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F698" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G698" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H698" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="I698" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J698" s="1" t="s">
+        <v>3479</v>
+      </c>
+      <c r="K698" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L698" s="1" t="s">
+        <v>3480</v>
+      </c>
+      <c r="M698" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N698" s="1" t="s">
+        <v>3487</v>
+      </c>
+      <c r="O698" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P698" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q698" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R698" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S698" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T698" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U698" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="V698" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="W698" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="X698" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y698" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="Z698" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA698" s="1" t="s">
+        <v>3272</v>
+      </c>
+      <c r="AB698" s="1" t="s">
+        <v>3488</v>
+      </c>
+      <c r="AC698" s="1" t="s">
+        <v>3489</v>
+      </c>
+      <c r="AD698" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE698" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF698" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG698" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH698" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI698" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="699" spans="1:35">
+      <c r="A699" s="1" t="s">
+        <v>3490</v>
+      </c>
+      <c r="B699" s="1" t="s">
+        <v>3491</v>
+      </c>
+      <c r="C699" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D699" s="1" t="s">
+        <v>3492</v>
+      </c>
+      <c r="E699" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F699" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G699" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H699" s="1" t="s">
+        <v>3493</v>
+      </c>
+      <c r="I699" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J699" s="1" t="s">
+        <v>3411</v>
+      </c>
+      <c r="K699" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L699" s="1" t="s">
+        <v>3412</v>
+      </c>
+      <c r="M699" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N699" s="1" t="s">
+        <v>3494</v>
+      </c>
+      <c r="O699" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P699" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q699" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R699" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S699" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="T699" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U699" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V699" s="1" t="s">
+        <v>3495</v>
+      </c>
+      <c r="W699" s="1" t="s">
+        <v>3491</v>
+      </c>
+      <c r="X699" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y699" s="1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="Z699" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA699" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB699" s="1" t="s">
+        <v>1464</v>
+      </c>
+      <c r="AC699" s="1" t="s">
+        <v>1465</v>
+      </c>
+      <c r="AD699" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE699" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF699" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG699" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH699" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI699" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="700" spans="1:35">
+      <c r="A700" s="1" t="s">
+        <v>3496</v>
+      </c>
+      <c r="B700" s="1" t="s">
+        <v>3497</v>
+      </c>
+      <c r="C700" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D700" s="1" t="s">
+        <v>3498</v>
+      </c>
+      <c r="E700" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F700" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G700" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H700" s="1" t="s">
+        <v>3499</v>
+      </c>
+      <c r="I700" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J700" s="1" t="s">
+        <v>3412</v>
+      </c>
+      <c r="K700" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L700" s="1" t="s">
+        <v>3450</v>
+      </c>
+      <c r="M700" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N700" s="1" t="s">
+        <v>3500</v>
+      </c>
+      <c r="O700" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P700" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q700" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R700" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S700" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="T700" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U700" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V700" s="1" t="s">
+        <v>3501</v>
+      </c>
+      <c r="W700" s="1" t="s">
+        <v>3497</v>
+      </c>
+      <c r="X700" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y700" s="1" t="s">
+        <v>3502</v>
+      </c>
+      <c r="Z700" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA700" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AB700" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="AC700" s="1" t="s">
+        <v>3503</v>
+      </c>
+      <c r="AD700" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE700" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF700" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG700" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH700" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI700" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="701" spans="1:35">
+      <c r="A701" s="1" t="s">
+        <v>3504</v>
+      </c>
+      <c r="B701" s="1" t="s">
+        <v>3505</v>
+      </c>
+      <c r="C701" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D701" s="1" t="s">
+        <v>3468</v>
+      </c>
+      <c r="E701" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F701" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G701" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H701" s="1" t="s">
+        <v>3506</v>
+      </c>
+      <c r="I701" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J701" s="1" t="s">
+        <v>3422</v>
+      </c>
+      <c r="K701" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L701" s="1" t="s">
+        <v>3423</v>
+      </c>
+      <c r="M701" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N701" s="1" t="s">
+        <v>3507</v>
+      </c>
+      <c r="O701" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P701" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q701" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R701" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S701" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T701" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U701" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V701" s="1" t="s">
+        <v>3508</v>
+      </c>
+      <c r="W701" s="1" t="s">
+        <v>3505</v>
+      </c>
+      <c r="X701" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y701" s="1" t="s">
+        <v>3509</v>
+      </c>
+      <c r="Z701" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA701" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="AB701" s="1" t="s">
+        <v>3510</v>
+      </c>
+      <c r="AC701" s="1" t="s">
+        <v>3511</v>
+      </c>
+      <c r="AD701" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AE701" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF701" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG701" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH701" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI701" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="702" spans="1:35">
+      <c r="A702" s="1" t="s">
+        <v>3512</v>
+      </c>
+      <c r="B702" s="1" t="s">
+        <v>3513</v>
+      </c>
+      <c r="C702" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D702" s="1" t="s">
+        <v>3514</v>
+      </c>
+      <c r="E702" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F702" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G702" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H702" s="1" t="s">
+        <v>3515</v>
+      </c>
+      <c r="I702" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J702" s="1" t="s">
+        <v>3412</v>
+      </c>
+      <c r="K702" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L702" s="1" t="s">
+        <v>3450</v>
+      </c>
+      <c r="M702" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N702" s="1" t="s">
+        <v>3516</v>
+      </c>
+      <c r="O702" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P702" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q702" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R702" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S702" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T702" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U702" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V702" s="1" t="s">
+        <v>3517</v>
+      </c>
+      <c r="W702" s="1" t="s">
+        <v>3513</v>
+      </c>
+      <c r="X702" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y702" s="1" t="s">
+        <v>3518</v>
+      </c>
+      <c r="Z702" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA702" s="1" t="s">
+        <v>2690</v>
+      </c>
+      <c r="AB702" s="1" t="s">
+        <v>3519</v>
+      </c>
+      <c r="AC702" s="1" t="s">
+        <v>3520</v>
+      </c>
+      <c r="AD702" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE702" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF702" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG702" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH702" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI702" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="703" spans="1:35">
+      <c r="A703" s="1" t="s">
+        <v>3521</v>
+      </c>
+      <c r="B703" s="1" t="s">
+        <v>3522</v>
+      </c>
+      <c r="C703" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D703" s="1" t="s">
+        <v>3523</v>
+      </c>
+      <c r="E703" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F703" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G703" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H703" s="1" t="s">
+        <v>3524</v>
+      </c>
+      <c r="I703" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J703" s="1" t="s">
+        <v>3411</v>
+      </c>
+      <c r="K703" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L703" s="1" t="s">
+        <v>3412</v>
+      </c>
+      <c r="M703" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N703" s="1" t="s">
+        <v>3525</v>
+      </c>
+      <c r="O703" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P703" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q703" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R703" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S703" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="T703" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U703" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V703" s="1" t="s">
+        <v>3526</v>
+      </c>
+      <c r="W703" s="1" t="s">
+        <v>3522</v>
+      </c>
+      <c r="X703" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y703" s="1" t="s">
+        <v>3527</v>
+      </c>
+      <c r="Z703" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA703" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB703" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC703" s="1" t="s">
+        <v>3528</v>
+      </c>
+      <c r="AD703" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE703" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF703" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG703" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH703" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI703" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="704" spans="1:35">
+      <c r="A704" s="1" t="s">
+        <v>3529</v>
+      </c>
+      <c r="B704" s="1" t="s">
+        <v>3530</v>
+      </c>
+      <c r="C704" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D704" s="1" t="s">
+        <v>3531</v>
+      </c>
+      <c r="E704" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F704" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G704" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H704" s="1" t="s">
+        <v>3532</v>
+      </c>
+      <c r="I704" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J704" s="1" t="s">
+        <v>3479</v>
+      </c>
+      <c r="K704" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L704" s="1" t="s">
+        <v>3480</v>
+      </c>
+      <c r="M704" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N704" s="1" t="s">
+        <v>3533</v>
+      </c>
+      <c r="O704" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P704" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q704" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R704" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S704" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T704" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U704" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V704" s="1" t="s">
+        <v>3534</v>
+      </c>
+      <c r="W704" s="1" t="s">
+        <v>3530</v>
+      </c>
+      <c r="X704" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y704" s="1" t="s">
+        <v>3535</v>
+      </c>
+      <c r="Z704" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA704" s="1" t="s">
+        <v>3154</v>
+      </c>
+      <c r="AB704" s="1" t="s">
+        <v>3155</v>
+      </c>
+      <c r="AC704" s="1" t="s">
+        <v>3536</v>
+      </c>
+      <c r="AD704" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="AE704" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF704" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG704" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH704" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI704" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="705" spans="1:35">
+      <c r="A705" s="1" t="s">
+        <v>3537</v>
+      </c>
+      <c r="B705" s="1" t="s">
+        <v>3538</v>
+      </c>
+      <c r="C705" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D705" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="E705" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F705" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G705" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H705" s="1" t="s">
+        <v>3540</v>
+      </c>
+      <c r="I705" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J705" s="1" t="s">
+        <v>3479</v>
+      </c>
+      <c r="K705" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L705" s="1" t="s">
+        <v>3480</v>
+      </c>
+      <c r="M705" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N705" s="1" t="s">
+        <v>3541</v>
+      </c>
+      <c r="O705" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P705" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q705" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R705" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S705" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="T705" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U705" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V705" s="1" t="s">
+        <v>3542</v>
+      </c>
+      <c r="W705" s="1" t="s">
+        <v>3538</v>
+      </c>
+      <c r="X705" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y705" s="1" t="s">
+        <v>3543</v>
+      </c>
+      <c r="Z705" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA705" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="AB705" s="1" t="s">
+        <v>1989</v>
+      </c>
+      <c r="AC705" s="1" t="s">
+        <v>3544</v>
+      </c>
+      <c r="AD705" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AE705" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="AF705" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG705" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH705" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI705" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="706" spans="1:35">
+      <c r="A706" s="1" t="s">
+        <v>3407</v>
+      </c>
+      <c r="B706" s="1" t="s">
+        <v>3408</v>
+      </c>
+      <c r="C706" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D706" s="1" t="s">
+        <v>3409</v>
+      </c>
+      <c r="E706" s="3" t="s">
+        <v>1902</v>
+      </c>
+      <c r="F706" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G706" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H706" s="1" t="s">
+        <v>3410</v>
+      </c>
+      <c r="I706" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J706" s="1" t="s">
+        <v>3411</v>
+      </c>
+      <c r="K706" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L706" s="1" t="s">
+        <v>3412</v>
+      </c>
+      <c r="M706" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N706" s="1" t="s">
+        <v>2329</v>
+      </c>
+      <c r="O706" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P706" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q706" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R706" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S706" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T706" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U706" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="V706" s="1" t="s">
+        <v>3413</v>
+      </c>
+      <c r="W706" s="1" t="s">
+        <v>3408</v>
+      </c>
+      <c r="X706" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y706" s="1" t="s">
+        <v>3414</v>
+      </c>
+      <c r="Z706" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA706" s="1" t="s">
+        <v>3415</v>
+      </c>
+      <c r="AB706" s="1" t="s">
+        <v>3416</v>
+      </c>
+      <c r="AC706" s="1" t="s">
+        <v>3417</v>
+      </c>
+      <c r="AD706" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="AE706" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF706" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG706" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH706" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI706" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="707" spans="1:35">
+      <c r="A707" s="1" t="s">
+        <v>3418</v>
+      </c>
+      <c r="B707" s="1" t="s">
+        <v>3419</v>
+      </c>
+      <c r="C707" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D707" s="1" t="s">
+        <v>3420</v>
+      </c>
+      <c r="E707" s="3" t="s">
+        <v>1902</v>
+      </c>
+      <c r="F707" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G707" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H707" s="1" t="s">
+        <v>3421</v>
+      </c>
+      <c r="I707" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J707" s="1" t="s">
+        <v>3422</v>
+      </c>
+      <c r="K707" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L707" s="1" t="s">
+        <v>3423</v>
+      </c>
+      <c r="M707" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N707" s="1" t="s">
+        <v>3424</v>
+      </c>
+      <c r="O707" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P707" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q707" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R707" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S707" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T707" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U707" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V707" s="1" t="s">
+        <v>3425</v>
+      </c>
+      <c r="W707" s="1" t="s">
+        <v>3419</v>
+      </c>
+      <c r="X707" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y707" s="1" t="s">
+        <v>3426</v>
+      </c>
+      <c r="Z707" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA707" s="1" t="s">
+        <v>3427</v>
+      </c>
+      <c r="AB707" s="1" t="s">
+        <v>3428</v>
+      </c>
+      <c r="AC707" s="1" t="s">
+        <v>3429</v>
+      </c>
+      <c r="AD707" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE707" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF707" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG707" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH707" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI707" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="708" spans="1:35">
+      <c r="A708" s="1" t="s">
+        <v>3430</v>
+      </c>
+      <c r="B708" s="1" t="s">
+        <v>3431</v>
+      </c>
+      <c r="C708" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D708" s="1" t="s">
+        <v>3432</v>
+      </c>
+      <c r="E708" s="3" t="s">
+        <v>1902</v>
+      </c>
+      <c r="F708" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G708" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H708" s="1" t="s">
+        <v>3433</v>
+      </c>
+      <c r="I708" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J708" s="1" t="s">
+        <v>3411</v>
+      </c>
+      <c r="K708" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L708" s="1" t="s">
+        <v>3412</v>
+      </c>
+      <c r="M708" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N708" s="1" t="s">
+        <v>3434</v>
+      </c>
+      <c r="O708" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P708" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q708" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R708" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S708" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T708" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U708" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V708" s="1" t="s">
+        <v>3435</v>
+      </c>
+      <c r="W708" s="1" t="s">
+        <v>3431</v>
+      </c>
+      <c r="X708" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y708" s="1" t="s">
+        <v>3436</v>
+      </c>
+      <c r="Z708" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA708" s="1" t="s">
+        <v>3437</v>
+      </c>
+      <c r="AB708" s="1" t="s">
+        <v>3438</v>
+      </c>
+      <c r="AC708" s="1" t="s">
+        <v>3439</v>
+      </c>
+      <c r="AD708" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE708" s="1" t="s">
+        <v>1503</v>
+      </c>
+      <c r="AF708" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG708" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH708" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI708" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="709" spans="1:35">
+      <c r="A709" s="1" t="s">
+        <v>3440</v>
+      </c>
+      <c r="B709" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="C709" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D709" s="1" t="s">
+        <v>3441</v>
+      </c>
+      <c r="E709" s="3" t="s">
+        <v>1902</v>
+      </c>
+      <c r="F709" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G709" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H709" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="I709" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J709" s="1" t="s">
+        <v>3422</v>
+      </c>
+      <c r="K709" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L709" s="1" t="s">
+        <v>3423</v>
+      </c>
+      <c r="M709" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N709" s="1" t="s">
+        <v>3442</v>
+      </c>
+      <c r="O709" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P709" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q709" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R709" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S709" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T709" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U709" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="V709" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="W709" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="X709" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y709" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="Z709" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA709" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="AB709" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="AC709" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="AD709" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AE709" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="AF709" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG709" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH709" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI709" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="710" spans="1:35">
+      <c r="A710" s="1" t="s">
+        <v>3443</v>
+      </c>
+      <c r="B710" s="1" t="s">
+        <v>2180</v>
+      </c>
+      <c r="C710" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D710" s="1" t="s">
+        <v>3444</v>
+      </c>
+      <c r="E710" s="3" t="s">
+        <v>1902</v>
+      </c>
+      <c r="F710" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G710" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H710" s="1" t="s">
+        <v>2182</v>
+      </c>
+      <c r="I710" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J710" s="1" t="s">
+        <v>3422</v>
+      </c>
+      <c r="K710" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L710" s="1" t="s">
+        <v>3423</v>
+      </c>
+      <c r="M710" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N710" s="1" t="s">
+        <v>3445</v>
+      </c>
+      <c r="O710" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P710" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q710" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R710" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S710" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="T710" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U710" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="V710" s="1" t="s">
+        <v>2184</v>
+      </c>
+      <c r="W710" s="1" t="s">
+        <v>2180</v>
+      </c>
+      <c r="X710" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="Y710" s="1" t="s">
+        <v>2185</v>
+      </c>
+      <c r="Z710" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA710" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="AB710" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="AC710" s="1" t="s">
+        <v>2186</v>
+      </c>
+      <c r="AD710" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE710" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF710" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG710" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH710" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI710" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="711" spans="1:35">
+      <c r="A711" s="1" t="s">
+        <v>3446</v>
+      </c>
+      <c r="B711" s="1" t="s">
+        <v>3447</v>
+      </c>
+      <c r="C711" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D711" s="1" t="s">
+        <v>3448</v>
+      </c>
+      <c r="E711" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F711" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G711" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H711" s="1" t="s">
+        <v>3449</v>
+      </c>
+      <c r="I711" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J711" s="1" t="s">
+        <v>3412</v>
+      </c>
+      <c r="K711" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L711" s="1" t="s">
+        <v>3450</v>
+      </c>
+      <c r="M711" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N711" s="1" t="s">
+        <v>3451</v>
+      </c>
+      <c r="O711" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="P711" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q711" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R711" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S711" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T711" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U711" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="V711" s="1" t="s">
+        <v>3452</v>
+      </c>
+      <c r="W711" s="1" t="s">
+        <v>3447</v>
+      </c>
+      <c r="X711" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y711" s="1" t="s">
+        <v>3453</v>
+      </c>
+      <c r="Z711" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA711" s="1" t="s">
+        <v>3454</v>
+      </c>
+      <c r="AB711" s="1" t="s">
+        <v>3455</v>
+      </c>
+      <c r="AC711" s="1" t="s">
+        <v>3456</v>
+      </c>
+      <c r="AD711" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AE711" s="1" t="s">
+        <v>2029</v>
+      </c>
+      <c r="AF711" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG711" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH711" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI711" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="712" spans="1:35">
+      <c r="A712" s="1" t="s">
+        <v>3457</v>
+      </c>
+      <c r="B712" s="1" t="s">
+        <v>3458</v>
+      </c>
+      <c r="C712" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D712" s="1" t="s">
+        <v>3459</v>
+      </c>
+      <c r="E712" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F712" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G712" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H712" s="1" t="s">
+        <v>3460</v>
+      </c>
+      <c r="I712" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J712" s="1" t="s">
+        <v>3422</v>
+      </c>
+      <c r="K712" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L712" s="1" t="s">
+        <v>3423</v>
+      </c>
+      <c r="M712" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N712" s="1" t="s">
+        <v>1742</v>
+      </c>
+      <c r="O712" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P712" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q712" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R712" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="S712" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T712" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U712" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V712" s="1" t="s">
+        <v>3461</v>
+      </c>
+      <c r="W712" s="1" t="s">
+        <v>3458</v>
+      </c>
+      <c r="X712" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y712" s="1" t="s">
+        <v>3462</v>
+      </c>
+      <c r="Z712" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA712" s="1" t="s">
+        <v>3463</v>
+      </c>
+      <c r="AB712" s="1" t="s">
+        <v>3464</v>
+      </c>
+      <c r="AC712" s="1" t="s">
+        <v>3465</v>
+      </c>
+      <c r="AD712" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE712" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF712" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG712" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH712" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI712" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="713" spans="1:35">
+      <c r="A713" s="1" t="s">
+        <v>3504</v>
+      </c>
+      <c r="B713" s="1" t="s">
+        <v>3505</v>
+      </c>
+      <c r="C713" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D713" s="1" t="s">
+        <v>3468</v>
+      </c>
+      <c r="E713" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F713" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G713" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H713" s="1" t="s">
+        <v>3506</v>
+      </c>
+      <c r="I713" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J713" s="1" t="s">
+        <v>3422</v>
+      </c>
+      <c r="K713" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L713" s="1" t="s">
+        <v>3423</v>
+      </c>
+      <c r="M713" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N713" s="1" t="s">
+        <v>3507</v>
+      </c>
+      <c r="O713" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P713" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q713" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R713" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S713" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T713" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U713" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V713" s="1" t="s">
+        <v>3508</v>
+      </c>
+      <c r="W713" s="1" t="s">
+        <v>3505</v>
+      </c>
+      <c r="X713" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y713" s="1" t="s">
+        <v>3509</v>
+      </c>
+      <c r="Z713" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA713" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="AB713" s="1" t="s">
+        <v>3510</v>
+      </c>
+      <c r="AC713" s="1" t="s">
+        <v>3511</v>
+      </c>
+      <c r="AD713" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AE713" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF713" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG713" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH713" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI713" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="714" spans="1:35">
+      <c r="A714" s="1" t="s">
+        <v>3512</v>
+      </c>
+      <c r="B714" s="1" t="s">
+        <v>3513</v>
+      </c>
+      <c r="C714" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D714" s="1" t="s">
+        <v>3514</v>
+      </c>
+      <c r="E714" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F714" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G714" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H714" s="1" t="s">
+        <v>3515</v>
+      </c>
+      <c r="I714" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J714" s="1" t="s">
+        <v>3412</v>
+      </c>
+      <c r="K714" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L714" s="1" t="s">
+        <v>3450</v>
+      </c>
+      <c r="M714" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N714" s="1" t="s">
+        <v>3516</v>
+      </c>
+      <c r="O714" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P714" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q714" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R714" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S714" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T714" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U714" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V714" s="1" t="s">
+        <v>3517</v>
+      </c>
+      <c r="W714" s="1" t="s">
+        <v>3513</v>
+      </c>
+      <c r="X714" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y714" s="1" t="s">
+        <v>3518</v>
+      </c>
+      <c r="Z714" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA714" s="1" t="s">
+        <v>2690</v>
+      </c>
+      <c r="AB714" s="1" t="s">
+        <v>3519</v>
+      </c>
+      <c r="AC714" s="1" t="s">
+        <v>3520</v>
+      </c>
+      <c r="AD714" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE714" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF714" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG714" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH714" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI714" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="715" spans="1:35">
+      <c r="A715" s="1" t="s">
+        <v>3521</v>
+      </c>
+      <c r="B715" s="1" t="s">
+        <v>3522</v>
+      </c>
+      <c r="C715" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D715" s="1" t="s">
+        <v>3523</v>
+      </c>
+      <c r="E715" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F715" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G715" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H715" s="1" t="s">
+        <v>3524</v>
+      </c>
+      <c r="I715" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J715" s="1" t="s">
+        <v>3411</v>
+      </c>
+      <c r="K715" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L715" s="1" t="s">
+        <v>3412</v>
+      </c>
+      <c r="M715" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N715" s="1" t="s">
+        <v>3525</v>
+      </c>
+      <c r="O715" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P715" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q715" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R715" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S715" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="T715" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U715" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V715" s="1" t="s">
+        <v>3526</v>
+      </c>
+      <c r="W715" s="1" t="s">
+        <v>3522</v>
+      </c>
+      <c r="X715" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y715" s="1" t="s">
+        <v>3527</v>
+      </c>
+      <c r="Z715" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA715" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB715" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC715" s="1" t="s">
+        <v>3528</v>
+      </c>
+      <c r="AD715" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE715" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF715" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG715" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH715" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI715" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="716" spans="1:35">
+      <c r="A716" s="1" t="s">
+        <v>3529</v>
+      </c>
+      <c r="B716" s="1" t="s">
+        <v>3530</v>
+      </c>
+      <c r="C716" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D716" s="1" t="s">
+        <v>3531</v>
+      </c>
+      <c r="E716" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F716" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G716" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H716" s="1" t="s">
+        <v>3532</v>
+      </c>
+      <c r="I716" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J716" s="1" t="s">
+        <v>3479</v>
+      </c>
+      <c r="K716" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L716" s="1" t="s">
+        <v>3480</v>
+      </c>
+      <c r="M716" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N716" s="1" t="s">
+        <v>3533</v>
+      </c>
+      <c r="O716" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P716" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q716" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R716" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S716" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T716" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U716" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V716" s="1" t="s">
+        <v>3534</v>
+      </c>
+      <c r="W716" s="1" t="s">
+        <v>3530</v>
+      </c>
+      <c r="X716" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y716" s="1" t="s">
+        <v>3535</v>
+      </c>
+      <c r="Z716" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA716" s="1" t="s">
+        <v>3154</v>
+      </c>
+      <c r="AB716" s="1" t="s">
+        <v>3155</v>
+      </c>
+      <c r="AC716" s="1" t="s">
+        <v>3536</v>
+      </c>
+      <c r="AD716" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="AE716" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF716" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG716" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH716" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI716" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="717" spans="1:35">
+      <c r="A717" s="1" t="s">
+        <v>3537</v>
+      </c>
+      <c r="B717" s="1" t="s">
+        <v>3538</v>
+      </c>
+      <c r="C717" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D717" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="E717" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F717" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G717" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H717" s="1" t="s">
+        <v>3540</v>
+      </c>
+      <c r="I717" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J717" s="1" t="s">
+        <v>3479</v>
+      </c>
+      <c r="K717" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L717" s="1" t="s">
+        <v>3480</v>
+      </c>
+      <c r="M717" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N717" s="1" t="s">
+        <v>3541</v>
+      </c>
+      <c r="O717" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P717" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q717" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R717" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S717" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="T717" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U717" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V717" s="1" t="s">
+        <v>3542</v>
+      </c>
+      <c r="W717" s="1" t="s">
+        <v>3538</v>
+      </c>
+      <c r="X717" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y717" s="1" t="s">
+        <v>3543</v>
+      </c>
+      <c r="Z717" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA717" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="AB717" s="1" t="s">
+        <v>1989</v>
+      </c>
+      <c r="AC717" s="1" t="s">
+        <v>3544</v>
+      </c>
+      <c r="AD717" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AE717" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="AF717" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG717" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH717" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI717" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="718" spans="1:35">
+      <c r="A718" s="1" t="s">
+        <v>3466</v>
+      </c>
+      <c r="B718" s="1" t="s">
+        <v>3467</v>
+      </c>
+      <c r="C718" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D718" s="1" t="s">
+        <v>3468</v>
+      </c>
+      <c r="E718" s="1" t="s">
+        <v>1903</v>
+      </c>
+      <c r="F718" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G718" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H718" s="1" t="s">
+        <v>3469</v>
+      </c>
+      <c r="I718" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J718" s="1" t="s">
+        <v>3422</v>
+      </c>
+      <c r="K718" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L718" s="1" t="s">
+        <v>3423</v>
+      </c>
+      <c r="M718" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N718" s="1" t="s">
+        <v>3470</v>
+      </c>
+      <c r="O718" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P718" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q718" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R718" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S718" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T718" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U718" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V718" s="1" t="s">
+        <v>3471</v>
+      </c>
+      <c r="W718" s="1" t="s">
+        <v>3467</v>
+      </c>
+      <c r="X718" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y718" s="1" t="s">
+        <v>3472</v>
+      </c>
+      <c r="Z718" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA718" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="AB718" s="1" t="s">
+        <v>3473</v>
+      </c>
+      <c r="AC718" s="1" t="s">
+        <v>3474</v>
+      </c>
+      <c r="AD718" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE718" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF718" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG718" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH718" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI718" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="719" spans="1:35">
+      <c r="A719" s="1" t="s">
+        <v>3475</v>
+      </c>
+      <c r="B719" s="1" t="s">
+        <v>3476</v>
+      </c>
+      <c r="C719" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D719" s="1" t="s">
+        <v>3477</v>
+      </c>
+      <c r="E719" s="1" t="s">
+        <v>1903</v>
+      </c>
+      <c r="F719" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G719" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H719" s="1" t="s">
+        <v>3478</v>
+      </c>
+      <c r="I719" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J719" s="1" t="s">
+        <v>3479</v>
+      </c>
+      <c r="K719" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L719" s="1" t="s">
+        <v>3480</v>
+      </c>
+      <c r="M719" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N719" s="1" t="s">
+        <v>3481</v>
+      </c>
+      <c r="O719" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P719" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q719" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R719" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S719" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T719" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U719" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V719" s="1" t="s">
+        <v>3482</v>
+      </c>
+      <c r="W719" s="1" t="s">
+        <v>3476</v>
+      </c>
+      <c r="X719" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y719" s="1" t="s">
+        <v>3483</v>
+      </c>
+      <c r="Z719" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA719" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="AB719" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="AC719" s="1" t="s">
+        <v>3484</v>
+      </c>
+      <c r="AD719" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AE719" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="AF719" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG719" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH719" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI719" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="720" spans="1:35">
+      <c r="A720" s="1" t="s">
+        <v>3485</v>
+      </c>
+      <c r="B720" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C720" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D720" s="1" t="s">
+        <v>3486</v>
+      </c>
+      <c r="E720" s="1" t="s">
+        <v>1903</v>
+      </c>
+      <c r="F720" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G720" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H720" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="I720" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J720" s="1" t="s">
+        <v>3479</v>
+      </c>
+      <c r="K720" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L720" s="1" t="s">
+        <v>3480</v>
+      </c>
+      <c r="M720" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N720" s="1" t="s">
+        <v>3487</v>
+      </c>
+      <c r="O720" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P720" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q720" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R720" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S720" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T720" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U720" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="V720" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="W720" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="X720" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y720" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="Z720" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA720" s="1" t="s">
+        <v>3272</v>
+      </c>
+      <c r="AB720" s="1" t="s">
+        <v>3488</v>
+      </c>
+      <c r="AC720" s="1" t="s">
+        <v>3489</v>
+      </c>
+      <c r="AD720" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE720" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF720" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG720" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH720" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI720" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="721" spans="1:35">
+      <c r="A721" s="1" t="s">
+        <v>3490</v>
+      </c>
+      <c r="B721" s="1" t="s">
+        <v>3491</v>
+      </c>
+      <c r="C721" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D721" s="1" t="s">
+        <v>3492</v>
+      </c>
+      <c r="E721" s="1" t="s">
+        <v>1903</v>
+      </c>
+      <c r="F721" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G721" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H721" s="1" t="s">
+        <v>3493</v>
+      </c>
+      <c r="I721" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J721" s="1" t="s">
+        <v>3411</v>
+      </c>
+      <c r="K721" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L721" s="1" t="s">
+        <v>3412</v>
+      </c>
+      <c r="M721" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N721" s="1" t="s">
+        <v>3494</v>
+      </c>
+      <c r="O721" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P721" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q721" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R721" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S721" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="T721" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U721" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V721" s="1" t="s">
+        <v>3495</v>
+      </c>
+      <c r="W721" s="1" t="s">
+        <v>3491</v>
+      </c>
+      <c r="X721" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y721" s="1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="Z721" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA721" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB721" s="1" t="s">
+        <v>1464</v>
+      </c>
+      <c r="AC721" s="1" t="s">
+        <v>1465</v>
+      </c>
+      <c r="AD721" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE721" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF721" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG721" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH721" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI721" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="722" spans="1:35">
+      <c r="A722" s="1" t="s">
+        <v>3496</v>
+      </c>
+      <c r="B722" s="1" t="s">
+        <v>3497</v>
+      </c>
+      <c r="C722" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D722" s="1" t="s">
+        <v>3498</v>
+      </c>
+      <c r="E722" s="1" t="s">
+        <v>1903</v>
+      </c>
+      <c r="F722" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G722" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H722" s="1" t="s">
+        <v>3499</v>
+      </c>
+      <c r="I722" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J722" s="1" t="s">
+        <v>3412</v>
+      </c>
+      <c r="K722" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L722" s="1" t="s">
+        <v>3450</v>
+      </c>
+      <c r="M722" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N722" s="1" t="s">
+        <v>3500</v>
+      </c>
+      <c r="O722" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P722" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q722" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R722" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S722" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="T722" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U722" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V722" s="1" t="s">
+        <v>3501</v>
+      </c>
+      <c r="W722" s="1" t="s">
+        <v>3497</v>
+      </c>
+      <c r="X722" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y722" s="1" t="s">
+        <v>3502</v>
+      </c>
+      <c r="Z722" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA722" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AB722" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="AC722" s="1" t="s">
+        <v>3503</v>
+      </c>
+      <c r="AD722" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE722" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF722" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG722" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH722" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI722" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AI500"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/deliveryopenfiber.xlsx
+++ b/deliveryopenfiber.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25235" uniqueCount="3545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26705" uniqueCount="3717">
   <si>
     <t>Codice</t>
   </si>
@@ -10652,6 +10652,522 @@
   </si>
   <si>
     <t>SR_12/01w22/SR_12/01w22/M279_001</t>
+  </si>
+  <si>
+    <t>DEL1003526727</t>
+  </si>
+  <si>
+    <t>4224696945515147979</t>
+  </si>
+  <si>
+    <t>26/08/2025 14:18</t>
+  </si>
+  <si>
+    <t>MARIANGELA VALENTINA MICCICHE</t>
+  </si>
+  <si>
+    <t>26/08/2025 11:30</t>
+  </si>
+  <si>
+    <t>26/08/2025 13:30</t>
+  </si>
+  <si>
+    <t>29/07/2025 12:16</t>
+  </si>
+  <si>
+    <t>WN_9002067732</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000925175_79</t>
+  </si>
+  <si>
+    <t>SR_01/WIN_0082</t>
+  </si>
+  <si>
+    <t>SR_01/04e43-SP_07</t>
+  </si>
+  <si>
+    <t>SR_01/04e43/I754_VIALE TUNISI_79_A_1</t>
+  </si>
+  <si>
+    <t>DEL1003537508</t>
+  </si>
+  <si>
+    <t>4224696945524243792</t>
+  </si>
+  <si>
+    <t>26/08/2025 06:56</t>
+  </si>
+  <si>
+    <t>DANIELA MIRAGLIA</t>
+  </si>
+  <si>
+    <t>26/08/2025 08:30</t>
+  </si>
+  <si>
+    <t>26/08/2025 10:30</t>
+  </si>
+  <si>
+    <t>WN_9002072062</t>
+  </si>
+  <si>
+    <t>SR_01/07w44/I754_VIA AVOLA_2_Sc D_1</t>
+  </si>
+  <si>
+    <t>DEL1003537534</t>
+  </si>
+  <si>
+    <t>4224696945524244111</t>
+  </si>
+  <si>
+    <t>26/08/2025 07:26</t>
+  </si>
+  <si>
+    <t>RITA ANZELMO</t>
+  </si>
+  <si>
+    <t>WN_9002072173</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000970059_7</t>
+  </si>
+  <si>
+    <t>SR_01/WIN_0126</t>
+  </si>
+  <si>
+    <t>SR_01/03e12-SP_08</t>
+  </si>
+  <si>
+    <t>SR_01/03e12/I754_VIA ARNO_7_1_B</t>
+  </si>
+  <si>
+    <t>DEL1003580703</t>
+  </si>
+  <si>
+    <t>4224696945537813824</t>
+  </si>
+  <si>
+    <t>26/08/2025 10:58</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VERTIPREP.LAB SRLS</t>
+  </si>
+  <si>
+    <t>18/08/2025 17:56</t>
+  </si>
+  <si>
+    <t>OPFX04638</t>
+  </si>
+  <si>
+    <t>SR_01/EOF_0078</t>
+  </si>
+  <si>
+    <t>SR_01/07w43-SP_09</t>
+  </si>
+  <si>
+    <t>Sirius Technology S.R.L.</t>
+  </si>
+  <si>
+    <t>DEL1003589510</t>
+  </si>
+  <si>
+    <t>4224696945541325157</t>
+  </si>
+  <si>
+    <t>26/08/2025 07:16</t>
+  </si>
+  <si>
+    <t>BENITO CAPPUCCIO</t>
+  </si>
+  <si>
+    <t>OPI_AP_188979</t>
+  </si>
+  <si>
+    <t>SR_01/VOD_0048</t>
+  </si>
+  <si>
+    <t>SR_01/06e43-SP_02</t>
+  </si>
+  <si>
+    <t>DEL1003590738</t>
+  </si>
+  <si>
+    <t>4224696945541326220</t>
+  </si>
+  <si>
+    <t>26/08/2025 12:08</t>
+  </si>
+  <si>
+    <t>MARIAGRAZIA TEODORO</t>
+  </si>
+  <si>
+    <t>22/08/2025 08:36</t>
+  </si>
+  <si>
+    <t>FW_SP0000001639455</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000970195_120C</t>
+  </si>
+  <si>
+    <t>SR_01/02w14/I754_VIA MODICA_120</t>
+  </si>
+  <si>
+    <t>DEL1003592408</t>
+  </si>
+  <si>
+    <t>4224696945541328700</t>
+  </si>
+  <si>
+    <t>26/08/2025 16:38</t>
+  </si>
+  <si>
+    <t>SEBASTIANO MOSCUZZA</t>
+  </si>
+  <si>
+    <t>26/08/2025 16:30</t>
+  </si>
+  <si>
+    <t>26/08/2025 18:00</t>
+  </si>
+  <si>
+    <t>22/08/2025 17:56</t>
+  </si>
+  <si>
+    <t>ENE_00000731300</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000970053_13</t>
+  </si>
+  <si>
+    <t>SR_01/02e23/I754_VIA ANTONELLO DA MESSINA_13_1</t>
+  </si>
+  <si>
+    <t>DEL1003594251</t>
+  </si>
+  <si>
+    <t>4224696945542622347</t>
+  </si>
+  <si>
+    <t>26/08/2025 16:08</t>
+  </si>
+  <si>
+    <t>GIUSEPPE GRILLO</t>
+  </si>
+  <si>
+    <t>23/08/2025 13:46</t>
+  </si>
+  <si>
+    <t>ILA_1755940522968</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000970265_184</t>
+  </si>
+  <si>
+    <t>SR_01/ILD_0092</t>
+  </si>
+  <si>
+    <t>SR_01/06e23-SP_11</t>
+  </si>
+  <si>
+    <t>SR_01/06e23/I754_VIA FILISTO_184_1</t>
+  </si>
+  <si>
+    <t>DEL1003594469</t>
+  </si>
+  <si>
+    <t>4224696945539528991</t>
+  </si>
+  <si>
+    <t>26/08/2025 13:19</t>
+  </si>
+  <si>
+    <t>FEDERICA VOCINO</t>
+  </si>
+  <si>
+    <t>23/08/2025 15:26</t>
+  </si>
+  <si>
+    <t>ILA_1755685211436</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000970358_103A</t>
+  </si>
+  <si>
+    <t>SR_01/02w31/I754_VIA ITALIA_103A_1_E</t>
+  </si>
+  <si>
+    <t>DEL1003570252</t>
+  </si>
+  <si>
+    <t>4224696945536624118</t>
+  </si>
+  <si>
+    <t>NATASHA GAROFALO</t>
+  </si>
+  <si>
+    <t>13/08/2025 22:26</t>
+  </si>
+  <si>
+    <t>ILA_1755077425017</t>
+  </si>
+  <si>
+    <t>19_089_089017_8001376585_55</t>
+  </si>
+  <si>
+    <t>SR_01/06w42-SP_10</t>
+  </si>
+  <si>
+    <t>SR_01/06w42/I754_VIA LUIGI CASSIA_55_1</t>
+  </si>
+  <si>
+    <t>DEL1003579039</t>
+  </si>
+  <si>
+    <t>4224696945537223396</t>
+  </si>
+  <si>
+    <t>26/08/2025 10:18</t>
+  </si>
+  <si>
+    <t>Altro ANTARES SOCIETA' COOPERATIVA</t>
+  </si>
+  <si>
+    <t>26/08/2025 14:30</t>
+  </si>
+  <si>
+    <t>18/08/2025 09:06</t>
+  </si>
+  <si>
+    <t>FW_SPA000000063484</t>
+  </si>
+  <si>
+    <t>SR_01/02e11-SP_10</t>
+  </si>
+  <si>
+    <t>SR_01/02e11/I754_VIALE SANTA PANAGIA_136_1_D</t>
+  </si>
+  <si>
+    <t>DEL1003591316</t>
+  </si>
+  <si>
+    <t>4224696945541326430</t>
+  </si>
+  <si>
+    <t>26/08/2025 13:08</t>
+  </si>
+  <si>
+    <t>MARGHERITA CELESTE</t>
+  </si>
+  <si>
+    <t>22/08/2025 11:26</t>
+  </si>
+  <si>
+    <t>FW_SP0000001639490</t>
+  </si>
+  <si>
+    <t>SR_01/04w21-SP_03</t>
+  </si>
+  <si>
+    <t>SR_01/04w21/I754_RONCO II VIA TISIA_1_B</t>
+  </si>
+  <si>
+    <t>DEL1003592191</t>
+  </si>
+  <si>
+    <t>4224696945541328357</t>
+  </si>
+  <si>
+    <t>26/08/2025 09:26</t>
+  </si>
+  <si>
+    <t>TERESA MAGLIOLI</t>
+  </si>
+  <si>
+    <t>22/08/2025 16:46</t>
+  </si>
+  <si>
+    <t>TLC_00000000187843</t>
+  </si>
+  <si>
+    <t>19_089_089021_8000967723_36/A</t>
+  </si>
+  <si>
+    <t>SR_12/01w12/SR_12/01w12/M279_008</t>
+  </si>
+  <si>
+    <t>DEL1003601207</t>
+  </si>
+  <si>
+    <t>4224696945543737469</t>
+  </si>
+  <si>
+    <t>26/08/2025 22:16</t>
+  </si>
+  <si>
+    <t>CRISTINA GIROTTI</t>
+  </si>
+  <si>
+    <t>27/08/2025 16:30</t>
+  </si>
+  <si>
+    <t>27/08/2025 18:00</t>
+  </si>
+  <si>
+    <t>26/08/2025 10:06</t>
+  </si>
+  <si>
+    <t>ILA_1755710406776</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000969238_9</t>
+  </si>
+  <si>
+    <t>SR_01/02w24/I754_VIA SAN MARINO_9_1</t>
+  </si>
+  <si>
+    <t>DEL1003592409</t>
+  </si>
+  <si>
+    <t>26/08/2025 13:28</t>
+  </si>
+  <si>
+    <t>DEL1003593987</t>
+  </si>
+  <si>
+    <t>4224696945542622227</t>
+  </si>
+  <si>
+    <t>26/08/2025 09:38</t>
+  </si>
+  <si>
+    <t>PAOLO STIVALA</t>
+  </si>
+  <si>
+    <t>23/08/2025 11:36</t>
+  </si>
+  <si>
+    <t>COC_90000000188202</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000969277_48</t>
+  </si>
+  <si>
+    <t>SR_01/EOF_0019</t>
+  </si>
+  <si>
+    <t>SR_01/02e34-SP_03</t>
+  </si>
+  <si>
+    <t>SR_01/02e34/I754_VIA SOFIO FERRERO_48_1</t>
+  </si>
+  <si>
+    <t>DEL1003598348</t>
+  </si>
+  <si>
+    <t>4224696945543733887</t>
+  </si>
+  <si>
+    <t>26/08/2025 10:28</t>
+  </si>
+  <si>
+    <t>ANGELO SEBASTIANO LIISTRO</t>
+  </si>
+  <si>
+    <t>25/08/2025 12:06</t>
+  </si>
+  <si>
+    <t>WN_9002089708</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000970223_1</t>
+  </si>
+  <si>
+    <t>SR_01/WIN_0095</t>
+  </si>
+  <si>
+    <t>SR_01/06w11-SP_06</t>
+  </si>
+  <si>
+    <t>SR_01/06w11/I754_VIA NICOLÒ BONINCONTRO_1_1_B</t>
+  </si>
+  <si>
+    <t>DEL1003590886</t>
+  </si>
+  <si>
+    <t>4224696945541325389</t>
+  </si>
+  <si>
+    <t>RITA SALERNO</t>
+  </si>
+  <si>
+    <t>22/08/2025 09:16</t>
+  </si>
+  <si>
+    <t>WN_9002088383</t>
+  </si>
+  <si>
+    <t>19_089_089018_8000915342_109</t>
+  </si>
+  <si>
+    <t>SR_09/02e12/SR_09/01w12/I785_039</t>
+  </si>
+  <si>
+    <t>DEL1003591790</t>
+  </si>
+  <si>
+    <t>4224696945541324541</t>
+  </si>
+  <si>
+    <t>SHANA TRALONGO ARNONE</t>
+  </si>
+  <si>
+    <t>22/08/2025 14:36</t>
+  </si>
+  <si>
+    <t>TLC_00000000187491</t>
+  </si>
+  <si>
+    <t>19_089_089009_8000975304_6</t>
+  </si>
+  <si>
+    <t>SR_09/01e33-SP_02</t>
+  </si>
+  <si>
+    <t>SR_09/01e33/SR_09/01e33/D636_019</t>
+  </si>
+  <si>
+    <t>DEL1003592078</t>
+  </si>
+  <si>
+    <t>26/08/2025 12:18</t>
+  </si>
+  <si>
+    <t>22/08/2025 16:06</t>
+  </si>
+  <si>
+    <t>DEL1003594552</t>
+  </si>
+  <si>
+    <t>4224696945541325478</t>
+  </si>
+  <si>
+    <t>26/08/2025 16:58</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GI.SAL SRL-US</t>
+  </si>
+  <si>
+    <t>23/08/2025 15:56</t>
+  </si>
+  <si>
+    <t>OPI_3731784</t>
+  </si>
+  <si>
+    <t>19_089_089009_8001005560_70</t>
+  </si>
+  <si>
+    <t>SR_09/01e11/SR_09/01e11/D636_022</t>
   </si>
 </sst>
 </file>
@@ -10988,10 +11504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI722"/>
+  <dimension ref="A1:AI764"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A676" workbookViewId="0">
-      <selection activeCell="B690" sqref="B690"/>
+    <sheetView tabSelected="1" topLeftCell="A727" workbookViewId="0">
+      <selection activeCell="F753" sqref="F753"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -88152,6 +88668,4500 @@
         <v>57</v>
       </c>
     </row>
+    <row r="723" spans="1:35">
+      <c r="A723" s="1" t="s">
+        <v>3545</v>
+      </c>
+      <c r="B723" s="1" t="s">
+        <v>3546</v>
+      </c>
+      <c r="C723" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D723" s="1" t="s">
+        <v>3547</v>
+      </c>
+      <c r="E723" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F723" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G723" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H723" s="1" t="s">
+        <v>3548</v>
+      </c>
+      <c r="I723" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J723" s="1" t="s">
+        <v>3549</v>
+      </c>
+      <c r="K723" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L723" s="1" t="s">
+        <v>3550</v>
+      </c>
+      <c r="M723" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N723" s="1" t="s">
+        <v>3551</v>
+      </c>
+      <c r="O723" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P723" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q723" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R723" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S723" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T723" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U723" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V723" s="1" t="s">
+        <v>3552</v>
+      </c>
+      <c r="W723" s="1" t="s">
+        <v>3546</v>
+      </c>
+      <c r="X723" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y723" s="1" t="s">
+        <v>3553</v>
+      </c>
+      <c r="Z723" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA723" s="1" t="s">
+        <v>3554</v>
+      </c>
+      <c r="AB723" s="1" t="s">
+        <v>3555</v>
+      </c>
+      <c r="AC723" s="1" t="s">
+        <v>3556</v>
+      </c>
+      <c r="AD723" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE723" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF723" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG723" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH723" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI723" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="724" spans="1:35">
+      <c r="A724" s="1" t="s">
+        <v>3557</v>
+      </c>
+      <c r="B724" s="1" t="s">
+        <v>3558</v>
+      </c>
+      <c r="C724" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D724" s="1" t="s">
+        <v>3559</v>
+      </c>
+      <c r="E724" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F724" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G724" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H724" s="1" t="s">
+        <v>3560</v>
+      </c>
+      <c r="I724" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J724" s="1" t="s">
+        <v>3561</v>
+      </c>
+      <c r="K724" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L724" s="1" t="s">
+        <v>3562</v>
+      </c>
+      <c r="M724" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N724" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="O724" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P724" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q724" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R724" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S724" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T724" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U724" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V724" s="1" t="s">
+        <v>3563</v>
+      </c>
+      <c r="W724" s="1" t="s">
+        <v>3558</v>
+      </c>
+      <c r="X724" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y724" s="1" t="s">
+        <v>1896</v>
+      </c>
+      <c r="Z724" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA724" s="1" t="s">
+        <v>1897</v>
+      </c>
+      <c r="AB724" s="1" t="s">
+        <v>1898</v>
+      </c>
+      <c r="AC724" s="1" t="s">
+        <v>3564</v>
+      </c>
+      <c r="AD724" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE724" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF724" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG724" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH724" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI724" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="725" spans="1:35">
+      <c r="A725" s="1" t="s">
+        <v>3565</v>
+      </c>
+      <c r="B725" s="1" t="s">
+        <v>3566</v>
+      </c>
+      <c r="C725" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D725" s="1" t="s">
+        <v>3567</v>
+      </c>
+      <c r="E725" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F725" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G725" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H725" s="1" t="s">
+        <v>3568</v>
+      </c>
+      <c r="I725" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J725" s="1" t="s">
+        <v>3549</v>
+      </c>
+      <c r="K725" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L725" s="1" t="s">
+        <v>3550</v>
+      </c>
+      <c r="M725" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N725" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="O725" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P725" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q725" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R725" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S725" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T725" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U725" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V725" s="1" t="s">
+        <v>3569</v>
+      </c>
+      <c r="W725" s="1" t="s">
+        <v>3566</v>
+      </c>
+      <c r="X725" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y725" s="1" t="s">
+        <v>3570</v>
+      </c>
+      <c r="Z725" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA725" s="1" t="s">
+        <v>3571</v>
+      </c>
+      <c r="AB725" s="1" t="s">
+        <v>3572</v>
+      </c>
+      <c r="AC725" s="1" t="s">
+        <v>3573</v>
+      </c>
+      <c r="AD725" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE725" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF725" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG725" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH725" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI725" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="726" spans="1:35">
+      <c r="A726" s="1" t="s">
+        <v>3574</v>
+      </c>
+      <c r="B726" s="1" t="s">
+        <v>3575</v>
+      </c>
+      <c r="C726" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D726" s="1" t="s">
+        <v>3576</v>
+      </c>
+      <c r="E726" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F726" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G726" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H726" s="1" t="s">
+        <v>3577</v>
+      </c>
+      <c r="I726" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J726" s="1" t="s">
+        <v>3549</v>
+      </c>
+      <c r="K726" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L726" s="1" t="s">
+        <v>3550</v>
+      </c>
+      <c r="M726" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N726" s="1" t="s">
+        <v>3578</v>
+      </c>
+      <c r="O726" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P726" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q726" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R726" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S726" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T726" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U726" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V726" s="1" t="s">
+        <v>3579</v>
+      </c>
+      <c r="W726" s="1" t="s">
+        <v>3575</v>
+      </c>
+      <c r="X726" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y726" s="1" t="s">
+        <v>2900</v>
+      </c>
+      <c r="Z726" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA726" s="1" t="s">
+        <v>3580</v>
+      </c>
+      <c r="AB726" s="1" t="s">
+        <v>3581</v>
+      </c>
+      <c r="AC726" s="1" t="s">
+        <v>2903</v>
+      </c>
+      <c r="AD726" s="1" t="s">
+        <v>3582</v>
+      </c>
+      <c r="AE726" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF726" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG726" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH726" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI726" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="727" spans="1:35">
+      <c r="A727" s="1" t="s">
+        <v>3583</v>
+      </c>
+      <c r="B727" s="1" t="s">
+        <v>3584</v>
+      </c>
+      <c r="C727" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D727" s="1" t="s">
+        <v>3585</v>
+      </c>
+      <c r="E727" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F727" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G727" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H727" s="1" t="s">
+        <v>3586</v>
+      </c>
+      <c r="I727" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J727" s="1" t="s">
+        <v>3561</v>
+      </c>
+      <c r="K727" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L727" s="1" t="s">
+        <v>3562</v>
+      </c>
+      <c r="M727" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N727" s="1" t="s">
+        <v>3525</v>
+      </c>
+      <c r="O727" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P727" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q727" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R727" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S727" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T727" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U727" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V727" s="1" t="s">
+        <v>3587</v>
+      </c>
+      <c r="W727" s="1" t="s">
+        <v>3584</v>
+      </c>
+      <c r="X727" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y727" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="Z727" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA727" s="1" t="s">
+        <v>3588</v>
+      </c>
+      <c r="AB727" s="1" t="s">
+        <v>3589</v>
+      </c>
+      <c r="AC727" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="AD727" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE727" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF727" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG727" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH727" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI727" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="728" spans="1:35">
+      <c r="A728" s="1" t="s">
+        <v>3590</v>
+      </c>
+      <c r="B728" s="1" t="s">
+        <v>3591</v>
+      </c>
+      <c r="C728" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D728" s="1" t="s">
+        <v>3592</v>
+      </c>
+      <c r="E728" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F728" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G728" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H728" s="1" t="s">
+        <v>3593</v>
+      </c>
+      <c r="I728" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J728" s="1" t="s">
+        <v>3549</v>
+      </c>
+      <c r="K728" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L728" s="1" t="s">
+        <v>3550</v>
+      </c>
+      <c r="M728" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N728" s="1" t="s">
+        <v>3594</v>
+      </c>
+      <c r="O728" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P728" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q728" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R728" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S728" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T728" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U728" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V728" s="1" t="s">
+        <v>3595</v>
+      </c>
+      <c r="W728" s="1" t="s">
+        <v>3591</v>
+      </c>
+      <c r="X728" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y728" s="1" t="s">
+        <v>3596</v>
+      </c>
+      <c r="Z728" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA728" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="AB728" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="AC728" s="1" t="s">
+        <v>3597</v>
+      </c>
+      <c r="AD728" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AE728" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="AF728" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG728" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH728" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI728" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="729" spans="1:35">
+      <c r="A729" s="1" t="s">
+        <v>3598</v>
+      </c>
+      <c r="B729" s="1" t="s">
+        <v>3599</v>
+      </c>
+      <c r="C729" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D729" s="1" t="s">
+        <v>3600</v>
+      </c>
+      <c r="E729" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F729" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G729" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H729" s="1" t="s">
+        <v>3601</v>
+      </c>
+      <c r="I729" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J729" s="1" t="s">
+        <v>3602</v>
+      </c>
+      <c r="K729" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L729" s="1" t="s">
+        <v>3603</v>
+      </c>
+      <c r="M729" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N729" s="1" t="s">
+        <v>3604</v>
+      </c>
+      <c r="O729" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P729" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q729" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R729" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S729" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T729" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U729" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V729" s="1" t="s">
+        <v>3605</v>
+      </c>
+      <c r="W729" s="1" t="s">
+        <v>3599</v>
+      </c>
+      <c r="X729" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y729" s="1" t="s">
+        <v>3606</v>
+      </c>
+      <c r="Z729" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA729" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="AB729" s="1" t="s">
+        <v>2659</v>
+      </c>
+      <c r="AC729" s="1" t="s">
+        <v>3607</v>
+      </c>
+      <c r="AD729" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AE729" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF729" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG729" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH729" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI729" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="730" spans="1:35">
+      <c r="A730" s="1" t="s">
+        <v>3608</v>
+      </c>
+      <c r="B730" s="1" t="s">
+        <v>3609</v>
+      </c>
+      <c r="C730" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D730" s="1" t="s">
+        <v>3610</v>
+      </c>
+      <c r="E730" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F730" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G730" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H730" s="1" t="s">
+        <v>3611</v>
+      </c>
+      <c r="I730" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J730" s="1" t="s">
+        <v>3602</v>
+      </c>
+      <c r="K730" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L730" s="1" t="s">
+        <v>3603</v>
+      </c>
+      <c r="M730" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N730" s="1" t="s">
+        <v>3612</v>
+      </c>
+      <c r="O730" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P730" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q730" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R730" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S730" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T730" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U730" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V730" s="1" t="s">
+        <v>3613</v>
+      </c>
+      <c r="W730" s="1" t="s">
+        <v>3609</v>
+      </c>
+      <c r="X730" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y730" s="1" t="s">
+        <v>3614</v>
+      </c>
+      <c r="Z730" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA730" s="1" t="s">
+        <v>3615</v>
+      </c>
+      <c r="AB730" s="1" t="s">
+        <v>3616</v>
+      </c>
+      <c r="AC730" s="1" t="s">
+        <v>3617</v>
+      </c>
+      <c r="AD730" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE730" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF730" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG730" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH730" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI730" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="731" spans="1:35">
+      <c r="A731" s="1" t="s">
+        <v>3618</v>
+      </c>
+      <c r="B731" s="1" t="s">
+        <v>3619</v>
+      </c>
+      <c r="C731" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D731" s="1" t="s">
+        <v>3620</v>
+      </c>
+      <c r="E731" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F731" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G731" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H731" s="1" t="s">
+        <v>3621</v>
+      </c>
+      <c r="I731" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J731" s="1" t="s">
+        <v>3549</v>
+      </c>
+      <c r="K731" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L731" s="1" t="s">
+        <v>3550</v>
+      </c>
+      <c r="M731" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N731" s="1" t="s">
+        <v>3622</v>
+      </c>
+      <c r="O731" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P731" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q731" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R731" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S731" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T731" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U731" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V731" s="1" t="s">
+        <v>3623</v>
+      </c>
+      <c r="W731" s="1" t="s">
+        <v>3619</v>
+      </c>
+      <c r="X731" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y731" s="1" t="s">
+        <v>3624</v>
+      </c>
+      <c r="Z731" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA731" s="1" t="s">
+        <v>1770</v>
+      </c>
+      <c r="AB731" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="AC731" s="1" t="s">
+        <v>3625</v>
+      </c>
+      <c r="AD731" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE731" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF731" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG731" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH731" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI731" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="732" spans="1:35">
+      <c r="A732" s="1" t="s">
+        <v>3626</v>
+      </c>
+      <c r="B732" s="1" t="s">
+        <v>3627</v>
+      </c>
+      <c r="C732" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D732" s="1" t="s">
+        <v>3600</v>
+      </c>
+      <c r="E732" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F732" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G732" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H732" s="1" t="s">
+        <v>3628</v>
+      </c>
+      <c r="I732" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J732" s="1" t="s">
+        <v>3602</v>
+      </c>
+      <c r="K732" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L732" s="1" t="s">
+        <v>3603</v>
+      </c>
+      <c r="M732" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N732" s="1" t="s">
+        <v>3629</v>
+      </c>
+      <c r="O732" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P732" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q732" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R732" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="S732" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T732" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U732" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="V732" s="1" t="s">
+        <v>3630</v>
+      </c>
+      <c r="W732" s="1" t="s">
+        <v>3627</v>
+      </c>
+      <c r="X732" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y732" s="1" t="s">
+        <v>3631</v>
+      </c>
+      <c r="Z732" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA732" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="AB732" s="1" t="s">
+        <v>3632</v>
+      </c>
+      <c r="AC732" s="1" t="s">
+        <v>3633</v>
+      </c>
+      <c r="AD732" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE732" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF732" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG732" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH732" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI732" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="733" spans="1:35">
+      <c r="A733" s="1" t="s">
+        <v>3634</v>
+      </c>
+      <c r="B733" s="1" t="s">
+        <v>3635</v>
+      </c>
+      <c r="C733" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D733" s="1" t="s">
+        <v>3636</v>
+      </c>
+      <c r="E733" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F733" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G733" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H733" s="1" t="s">
+        <v>3637</v>
+      </c>
+      <c r="I733" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J733" s="1" t="s">
+        <v>3638</v>
+      </c>
+      <c r="K733" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L733" s="1" t="s">
+        <v>3602</v>
+      </c>
+      <c r="M733" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N733" s="1" t="s">
+        <v>3639</v>
+      </c>
+      <c r="O733" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P733" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q733" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R733" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S733" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T733" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U733" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V733" s="1" t="s">
+        <v>3640</v>
+      </c>
+      <c r="W733" s="1" t="s">
+        <v>3635</v>
+      </c>
+      <c r="X733" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y733" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="Z733" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA733" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="AB733" s="1" t="s">
+        <v>3641</v>
+      </c>
+      <c r="AC733" s="1" t="s">
+        <v>3642</v>
+      </c>
+      <c r="AD733" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AE733" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF733" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG733" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH733" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI733" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="734" spans="1:35">
+      <c r="A734" s="1" t="s">
+        <v>3643</v>
+      </c>
+      <c r="B734" s="1" t="s">
+        <v>3644</v>
+      </c>
+      <c r="C734" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D734" s="1" t="s">
+        <v>3645</v>
+      </c>
+      <c r="E734" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F734" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G734" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H734" s="1" t="s">
+        <v>3646</v>
+      </c>
+      <c r="I734" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J734" s="1" t="s">
+        <v>3549</v>
+      </c>
+      <c r="K734" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L734" s="1" t="s">
+        <v>3550</v>
+      </c>
+      <c r="M734" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N734" s="1" t="s">
+        <v>3647</v>
+      </c>
+      <c r="O734" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P734" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q734" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R734" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S734" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T734" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U734" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V734" s="1" t="s">
+        <v>3648</v>
+      </c>
+      <c r="W734" s="1" t="s">
+        <v>3644</v>
+      </c>
+      <c r="X734" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y734" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="Z734" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA734" s="1" t="s">
+        <v>3202</v>
+      </c>
+      <c r="AB734" s="1" t="s">
+        <v>3649</v>
+      </c>
+      <c r="AC734" s="1" t="s">
+        <v>3650</v>
+      </c>
+      <c r="AD734" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AE734" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="AF734" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG734" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH734" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI734" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="735" spans="1:35">
+      <c r="A735" s="1" t="s">
+        <v>3651</v>
+      </c>
+      <c r="B735" s="1" t="s">
+        <v>3652</v>
+      </c>
+      <c r="C735" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D735" s="1" t="s">
+        <v>3653</v>
+      </c>
+      <c r="E735" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F735" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G735" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H735" s="1" t="s">
+        <v>3654</v>
+      </c>
+      <c r="I735" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J735" s="1" t="s">
+        <v>3561</v>
+      </c>
+      <c r="K735" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L735" s="1" t="s">
+        <v>3562</v>
+      </c>
+      <c r="M735" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N735" s="1" t="s">
+        <v>3655</v>
+      </c>
+      <c r="O735" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P735" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q735" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R735" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S735" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="T735" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U735" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V735" s="1" t="s">
+        <v>3656</v>
+      </c>
+      <c r="W735" s="1" t="s">
+        <v>3652</v>
+      </c>
+      <c r="X735" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y735" s="1" t="s">
+        <v>3657</v>
+      </c>
+      <c r="Z735" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA735" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB735" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="AC735" s="1" t="s">
+        <v>3658</v>
+      </c>
+      <c r="AD735" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE735" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF735" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG735" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH735" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI735" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="736" spans="1:35">
+      <c r="A736" s="1" t="s">
+        <v>3659</v>
+      </c>
+      <c r="B736" s="1" t="s">
+        <v>3660</v>
+      </c>
+      <c r="C736" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D736" s="1" t="s">
+        <v>3661</v>
+      </c>
+      <c r="E736" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F736" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G736" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H736" s="1" t="s">
+        <v>3662</v>
+      </c>
+      <c r="I736" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J736" s="1" t="s">
+        <v>3663</v>
+      </c>
+      <c r="K736" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L736" s="1" t="s">
+        <v>3664</v>
+      </c>
+      <c r="M736" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N736" s="1" t="s">
+        <v>3665</v>
+      </c>
+      <c r="O736" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P736" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q736" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R736" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S736" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T736" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U736" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V736" s="1" t="s">
+        <v>3666</v>
+      </c>
+      <c r="W736" s="1" t="s">
+        <v>3660</v>
+      </c>
+      <c r="X736" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y736" s="1" t="s">
+        <v>3667</v>
+      </c>
+      <c r="Z736" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA736" s="1" t="s">
+        <v>2248</v>
+      </c>
+      <c r="AB736" s="1" t="s">
+        <v>2249</v>
+      </c>
+      <c r="AC736" s="1" t="s">
+        <v>3668</v>
+      </c>
+      <c r="AD736" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE736" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF736" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG736" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH736" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI736" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="737" spans="1:35">
+      <c r="A737" s="1" t="s">
+        <v>3669</v>
+      </c>
+      <c r="B737" s="1" t="s">
+        <v>1927</v>
+      </c>
+      <c r="C737" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D737" s="1" t="s">
+        <v>3670</v>
+      </c>
+      <c r="E737" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F737" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G737" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H737" s="1" t="s">
+        <v>1929</v>
+      </c>
+      <c r="I737" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J737" s="1" t="s">
+        <v>3549</v>
+      </c>
+      <c r="K737" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L737" s="1" t="s">
+        <v>3550</v>
+      </c>
+      <c r="M737" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N737" s="1" t="s">
+        <v>3604</v>
+      </c>
+      <c r="O737" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="P737" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q737" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R737" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S737" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T737" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U737" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="V737" s="1" t="s">
+        <v>1931</v>
+      </c>
+      <c r="W737" s="1" t="s">
+        <v>1927</v>
+      </c>
+      <c r="X737" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y737" s="1" t="s">
+        <v>1932</v>
+      </c>
+      <c r="Z737" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA737" s="1" t="s">
+        <v>1933</v>
+      </c>
+      <c r="AB737" s="1" t="s">
+        <v>1934</v>
+      </c>
+      <c r="AC737" s="1" t="s">
+        <v>1935</v>
+      </c>
+      <c r="AD737" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE737" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF737" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG737" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH737" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI737" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="738" spans="1:35">
+      <c r="A738" s="1" t="s">
+        <v>3671</v>
+      </c>
+      <c r="B738" s="1" t="s">
+        <v>3672</v>
+      </c>
+      <c r="C738" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D738" s="1" t="s">
+        <v>3673</v>
+      </c>
+      <c r="E738" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F738" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G738" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H738" s="1" t="s">
+        <v>3674</v>
+      </c>
+      <c r="I738" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J738" s="1" t="s">
+        <v>3561</v>
+      </c>
+      <c r="K738" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L738" s="1" t="s">
+        <v>3562</v>
+      </c>
+      <c r="M738" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N738" s="1" t="s">
+        <v>3675</v>
+      </c>
+      <c r="O738" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P738" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q738" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R738" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S738" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T738" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U738" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V738" s="1" t="s">
+        <v>3676</v>
+      </c>
+      <c r="W738" s="1" t="s">
+        <v>3672</v>
+      </c>
+      <c r="X738" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y738" s="1" t="s">
+        <v>3677</v>
+      </c>
+      <c r="Z738" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA738" s="1" t="s">
+        <v>3678</v>
+      </c>
+      <c r="AB738" s="1" t="s">
+        <v>3679</v>
+      </c>
+      <c r="AC738" s="1" t="s">
+        <v>3680</v>
+      </c>
+      <c r="AD738" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="AE738" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF738" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG738" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH738" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI738" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="739" spans="1:35">
+      <c r="A739" s="1" t="s">
+        <v>3681</v>
+      </c>
+      <c r="B739" s="1" t="s">
+        <v>3682</v>
+      </c>
+      <c r="C739" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D739" s="1" t="s">
+        <v>3683</v>
+      </c>
+      <c r="E739" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F739" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G739" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H739" s="1" t="s">
+        <v>3684</v>
+      </c>
+      <c r="I739" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J739" s="1" t="s">
+        <v>3561</v>
+      </c>
+      <c r="K739" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L739" s="1" t="s">
+        <v>3562</v>
+      </c>
+      <c r="M739" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N739" s="1" t="s">
+        <v>3685</v>
+      </c>
+      <c r="O739" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P739" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q739" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R739" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S739" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T739" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U739" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V739" s="1" t="s">
+        <v>3686</v>
+      </c>
+      <c r="W739" s="1" t="s">
+        <v>3682</v>
+      </c>
+      <c r="X739" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y739" s="1" t="s">
+        <v>3687</v>
+      </c>
+      <c r="Z739" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA739" s="1" t="s">
+        <v>3688</v>
+      </c>
+      <c r="AB739" s="1" t="s">
+        <v>3689</v>
+      </c>
+      <c r="AC739" s="1" t="s">
+        <v>3690</v>
+      </c>
+      <c r="AD739" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE739" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF739" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG739" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH739" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI739" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="740" spans="1:35">
+      <c r="A740" s="1" t="s">
+        <v>3691</v>
+      </c>
+      <c r="B740" s="1" t="s">
+        <v>3692</v>
+      </c>
+      <c r="C740" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D740" s="1" t="s">
+        <v>3673</v>
+      </c>
+      <c r="E740" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F740" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G740" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H740" s="1" t="s">
+        <v>3693</v>
+      </c>
+      <c r="I740" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J740" s="1" t="s">
+        <v>3561</v>
+      </c>
+      <c r="K740" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L740" s="1" t="s">
+        <v>3562</v>
+      </c>
+      <c r="M740" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N740" s="1" t="s">
+        <v>3694</v>
+      </c>
+      <c r="O740" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P740" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q740" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R740" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S740" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="T740" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U740" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V740" s="1" t="s">
+        <v>3695</v>
+      </c>
+      <c r="W740" s="1" t="s">
+        <v>3692</v>
+      </c>
+      <c r="X740" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y740" s="1" t="s">
+        <v>3696</v>
+      </c>
+      <c r="Z740" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA740" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="AB740" s="1" t="s">
+        <v>2648</v>
+      </c>
+      <c r="AC740" s="1" t="s">
+        <v>3697</v>
+      </c>
+      <c r="AD740" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE740" s="1" t="s">
+        <v>1696</v>
+      </c>
+      <c r="AF740" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG740" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH740" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI740" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="741" spans="1:35">
+      <c r="A741" s="1" t="s">
+        <v>3698</v>
+      </c>
+      <c r="B741" s="1" t="s">
+        <v>3699</v>
+      </c>
+      <c r="C741" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D741" s="1" t="s">
+        <v>3576</v>
+      </c>
+      <c r="E741" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F741" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G741" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H741" s="1" t="s">
+        <v>3700</v>
+      </c>
+      <c r="I741" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J741" s="1" t="s">
+        <v>3561</v>
+      </c>
+      <c r="K741" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L741" s="1" t="s">
+        <v>3562</v>
+      </c>
+      <c r="M741" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N741" s="1" t="s">
+        <v>3701</v>
+      </c>
+      <c r="O741" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P741" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q741" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R741" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S741" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="T741" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U741" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V741" s="1" t="s">
+        <v>3702</v>
+      </c>
+      <c r="W741" s="1" t="s">
+        <v>3699</v>
+      </c>
+      <c r="X741" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y741" s="1" t="s">
+        <v>3703</v>
+      </c>
+      <c r="Z741" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA741" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="AB741" s="1" t="s">
+        <v>3704</v>
+      </c>
+      <c r="AC741" s="1" t="s">
+        <v>3705</v>
+      </c>
+      <c r="AD741" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE741" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF741" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG741" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH741" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI741" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="742" spans="1:35">
+      <c r="A742" s="1" t="s">
+        <v>3706</v>
+      </c>
+      <c r="B742" s="1" t="s">
+        <v>2439</v>
+      </c>
+      <c r="C742" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D742" s="1" t="s">
+        <v>3707</v>
+      </c>
+      <c r="E742" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F742" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G742" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H742" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="I742" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J742" s="1" t="s">
+        <v>3549</v>
+      </c>
+      <c r="K742" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L742" s="1" t="s">
+        <v>3550</v>
+      </c>
+      <c r="M742" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N742" s="1" t="s">
+        <v>3708</v>
+      </c>
+      <c r="O742" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P742" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q742" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R742" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S742" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="T742" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U742" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="V742" s="1" t="s">
+        <v>2442</v>
+      </c>
+      <c r="W742" s="1" t="s">
+        <v>2439</v>
+      </c>
+      <c r="X742" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y742" s="1" t="s">
+        <v>2443</v>
+      </c>
+      <c r="Z742" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA742" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="AB742" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="AC742" s="1" t="s">
+        <v>2444</v>
+      </c>
+      <c r="AD742" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE742" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF742" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG742" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH742" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI742" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="743" spans="1:35">
+      <c r="A743" s="1" t="s">
+        <v>3709</v>
+      </c>
+      <c r="B743" s="1" t="s">
+        <v>3710</v>
+      </c>
+      <c r="C743" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D743" s="1" t="s">
+        <v>3711</v>
+      </c>
+      <c r="E743" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F743" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G743" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H743" s="1" t="s">
+        <v>3712</v>
+      </c>
+      <c r="I743" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J743" s="1" t="s">
+        <v>3602</v>
+      </c>
+      <c r="K743" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L743" s="1" t="s">
+        <v>3603</v>
+      </c>
+      <c r="M743" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N743" s="1" t="s">
+        <v>3713</v>
+      </c>
+      <c r="O743" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P743" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q743" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R743" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S743" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="T743" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U743" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V743" s="1" t="s">
+        <v>3714</v>
+      </c>
+      <c r="W743" s="1" t="s">
+        <v>3710</v>
+      </c>
+      <c r="X743" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y743" s="1" t="s">
+        <v>3715</v>
+      </c>
+      <c r="Z743" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA743" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB743" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AC743" s="1" t="s">
+        <v>3716</v>
+      </c>
+      <c r="AD743" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE743" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AF743" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG743" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH743" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI743" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="744" spans="1:35">
+      <c r="A744" s="1" t="s">
+        <v>3545</v>
+      </c>
+      <c r="B744" s="1" t="s">
+        <v>3546</v>
+      </c>
+      <c r="C744" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D744" s="1" t="s">
+        <v>3547</v>
+      </c>
+      <c r="E744" s="3" t="s">
+        <v>1902</v>
+      </c>
+      <c r="F744" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G744" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H744" s="1" t="s">
+        <v>3548</v>
+      </c>
+      <c r="I744" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J744" s="1" t="s">
+        <v>3549</v>
+      </c>
+      <c r="K744" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L744" s="1" t="s">
+        <v>3550</v>
+      </c>
+      <c r="M744" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N744" s="1" t="s">
+        <v>3551</v>
+      </c>
+      <c r="O744" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P744" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q744" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R744" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S744" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T744" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U744" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V744" s="1" t="s">
+        <v>3552</v>
+      </c>
+      <c r="W744" s="1" t="s">
+        <v>3546</v>
+      </c>
+      <c r="X744" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y744" s="1" t="s">
+        <v>3553</v>
+      </c>
+      <c r="Z744" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA744" s="1" t="s">
+        <v>3554</v>
+      </c>
+      <c r="AB744" s="1" t="s">
+        <v>3555</v>
+      </c>
+      <c r="AC744" s="1" t="s">
+        <v>3556</v>
+      </c>
+      <c r="AD744" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE744" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF744" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG744" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH744" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI744" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="745" spans="1:35">
+      <c r="A745" s="1" t="s">
+        <v>3557</v>
+      </c>
+      <c r="B745" s="1" t="s">
+        <v>3558</v>
+      </c>
+      <c r="C745" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D745" s="1" t="s">
+        <v>3559</v>
+      </c>
+      <c r="E745" s="3" t="s">
+        <v>1902</v>
+      </c>
+      <c r="F745" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G745" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H745" s="1" t="s">
+        <v>3560</v>
+      </c>
+      <c r="I745" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J745" s="1" t="s">
+        <v>3561</v>
+      </c>
+      <c r="K745" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L745" s="1" t="s">
+        <v>3562</v>
+      </c>
+      <c r="M745" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N745" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="O745" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P745" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q745" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R745" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S745" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T745" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U745" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V745" s="1" t="s">
+        <v>3563</v>
+      </c>
+      <c r="W745" s="1" t="s">
+        <v>3558</v>
+      </c>
+      <c r="X745" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y745" s="1" t="s">
+        <v>1896</v>
+      </c>
+      <c r="Z745" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA745" s="1" t="s">
+        <v>1897</v>
+      </c>
+      <c r="AB745" s="1" t="s">
+        <v>1898</v>
+      </c>
+      <c r="AC745" s="1" t="s">
+        <v>3564</v>
+      </c>
+      <c r="AD745" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE745" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF745" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG745" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH745" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI745" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="746" spans="1:35">
+      <c r="A746" s="1" t="s">
+        <v>3565</v>
+      </c>
+      <c r="B746" s="1" t="s">
+        <v>3566</v>
+      </c>
+      <c r="C746" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D746" s="1" t="s">
+        <v>3567</v>
+      </c>
+      <c r="E746" s="3" t="s">
+        <v>1902</v>
+      </c>
+      <c r="F746" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G746" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H746" s="1" t="s">
+        <v>3568</v>
+      </c>
+      <c r="I746" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J746" s="1" t="s">
+        <v>3549</v>
+      </c>
+      <c r="K746" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L746" s="1" t="s">
+        <v>3550</v>
+      </c>
+      <c r="M746" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N746" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="O746" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P746" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q746" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R746" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S746" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T746" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U746" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V746" s="1" t="s">
+        <v>3569</v>
+      </c>
+      <c r="W746" s="1" t="s">
+        <v>3566</v>
+      </c>
+      <c r="X746" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y746" s="1" t="s">
+        <v>3570</v>
+      </c>
+      <c r="Z746" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA746" s="1" t="s">
+        <v>3571</v>
+      </c>
+      <c r="AB746" s="1" t="s">
+        <v>3572</v>
+      </c>
+      <c r="AC746" s="1" t="s">
+        <v>3573</v>
+      </c>
+      <c r="AD746" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE746" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF746" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG746" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH746" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI746" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="747" spans="1:35">
+      <c r="A747" s="1" t="s">
+        <v>3574</v>
+      </c>
+      <c r="B747" s="1" t="s">
+        <v>3575</v>
+      </c>
+      <c r="C747" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D747" s="1" t="s">
+        <v>3576</v>
+      </c>
+      <c r="E747" s="3" t="s">
+        <v>1902</v>
+      </c>
+      <c r="F747" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G747" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H747" s="1" t="s">
+        <v>3577</v>
+      </c>
+      <c r="I747" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J747" s="1" t="s">
+        <v>3549</v>
+      </c>
+      <c r="K747" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L747" s="1" t="s">
+        <v>3550</v>
+      </c>
+      <c r="M747" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N747" s="1" t="s">
+        <v>3578</v>
+      </c>
+      <c r="O747" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P747" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q747" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R747" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S747" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T747" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U747" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V747" s="1" t="s">
+        <v>3579</v>
+      </c>
+      <c r="W747" s="1" t="s">
+        <v>3575</v>
+      </c>
+      <c r="X747" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y747" s="1" t="s">
+        <v>2900</v>
+      </c>
+      <c r="Z747" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA747" s="1" t="s">
+        <v>3580</v>
+      </c>
+      <c r="AB747" s="1" t="s">
+        <v>3581</v>
+      </c>
+      <c r="AC747" s="1" t="s">
+        <v>2903</v>
+      </c>
+      <c r="AD747" s="1" t="s">
+        <v>3582</v>
+      </c>
+      <c r="AE747" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF747" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG747" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH747" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI747" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="748" spans="1:35">
+      <c r="A748" s="1" t="s">
+        <v>3583</v>
+      </c>
+      <c r="B748" s="1" t="s">
+        <v>3584</v>
+      </c>
+      <c r="C748" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D748" s="1" t="s">
+        <v>3585</v>
+      </c>
+      <c r="E748" s="3" t="s">
+        <v>1902</v>
+      </c>
+      <c r="F748" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G748" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H748" s="1" t="s">
+        <v>3586</v>
+      </c>
+      <c r="I748" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J748" s="1" t="s">
+        <v>3561</v>
+      </c>
+      <c r="K748" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L748" s="1" t="s">
+        <v>3562</v>
+      </c>
+      <c r="M748" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N748" s="1" t="s">
+        <v>3525</v>
+      </c>
+      <c r="O748" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P748" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q748" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R748" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S748" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T748" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U748" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V748" s="1" t="s">
+        <v>3587</v>
+      </c>
+      <c r="W748" s="1" t="s">
+        <v>3584</v>
+      </c>
+      <c r="X748" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y748" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="Z748" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA748" s="1" t="s">
+        <v>3588</v>
+      </c>
+      <c r="AB748" s="1" t="s">
+        <v>3589</v>
+      </c>
+      <c r="AC748" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="AD748" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE748" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF748" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG748" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH748" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI748" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="749" spans="1:35">
+      <c r="A749" s="1" t="s">
+        <v>3590</v>
+      </c>
+      <c r="B749" s="1" t="s">
+        <v>3591</v>
+      </c>
+      <c r="C749" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D749" s="1" t="s">
+        <v>3592</v>
+      </c>
+      <c r="E749" s="3" t="s">
+        <v>1902</v>
+      </c>
+      <c r="F749" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G749" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H749" s="1" t="s">
+        <v>3593</v>
+      </c>
+      <c r="I749" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J749" s="1" t="s">
+        <v>3549</v>
+      </c>
+      <c r="K749" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L749" s="1" t="s">
+        <v>3550</v>
+      </c>
+      <c r="M749" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N749" s="1" t="s">
+        <v>3594</v>
+      </c>
+      <c r="O749" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P749" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q749" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R749" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S749" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T749" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U749" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V749" s="1" t="s">
+        <v>3595</v>
+      </c>
+      <c r="W749" s="1" t="s">
+        <v>3591</v>
+      </c>
+      <c r="X749" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y749" s="1" t="s">
+        <v>3596</v>
+      </c>
+      <c r="Z749" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA749" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="AB749" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="AC749" s="1" t="s">
+        <v>3597</v>
+      </c>
+      <c r="AD749" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AE749" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="AF749" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG749" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH749" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI749" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="750" spans="1:35">
+      <c r="A750" s="1" t="s">
+        <v>3598</v>
+      </c>
+      <c r="B750" s="1" t="s">
+        <v>3599</v>
+      </c>
+      <c r="C750" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D750" s="1" t="s">
+        <v>3600</v>
+      </c>
+      <c r="E750" s="3" t="s">
+        <v>1902</v>
+      </c>
+      <c r="F750" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G750" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H750" s="1" t="s">
+        <v>3601</v>
+      </c>
+      <c r="I750" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J750" s="1" t="s">
+        <v>3602</v>
+      </c>
+      <c r="K750" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L750" s="1" t="s">
+        <v>3603</v>
+      </c>
+      <c r="M750" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N750" s="1" t="s">
+        <v>3604</v>
+      </c>
+      <c r="O750" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P750" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q750" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R750" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S750" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T750" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U750" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V750" s="1" t="s">
+        <v>3605</v>
+      </c>
+      <c r="W750" s="1" t="s">
+        <v>3599</v>
+      </c>
+      <c r="X750" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y750" s="1" t="s">
+        <v>3606</v>
+      </c>
+      <c r="Z750" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA750" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="AB750" s="1" t="s">
+        <v>2659</v>
+      </c>
+      <c r="AC750" s="1" t="s">
+        <v>3607</v>
+      </c>
+      <c r="AD750" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AE750" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF750" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG750" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH750" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI750" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="751" spans="1:35">
+      <c r="A751" s="1" t="s">
+        <v>3608</v>
+      </c>
+      <c r="B751" s="1" t="s">
+        <v>3609</v>
+      </c>
+      <c r="C751" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D751" s="1" t="s">
+        <v>3610</v>
+      </c>
+      <c r="E751" s="3" t="s">
+        <v>1902</v>
+      </c>
+      <c r="F751" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G751" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H751" s="1" t="s">
+        <v>3611</v>
+      </c>
+      <c r="I751" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J751" s="1" t="s">
+        <v>3602</v>
+      </c>
+      <c r="K751" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L751" s="1" t="s">
+        <v>3603</v>
+      </c>
+      <c r="M751" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N751" s="1" t="s">
+        <v>3612</v>
+      </c>
+      <c r="O751" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P751" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q751" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R751" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S751" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T751" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U751" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V751" s="1" t="s">
+        <v>3613</v>
+      </c>
+      <c r="W751" s="1" t="s">
+        <v>3609</v>
+      </c>
+      <c r="X751" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y751" s="1" t="s">
+        <v>3614</v>
+      </c>
+      <c r="Z751" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA751" s="1" t="s">
+        <v>3615</v>
+      </c>
+      <c r="AB751" s="1" t="s">
+        <v>3616</v>
+      </c>
+      <c r="AC751" s="1" t="s">
+        <v>3617</v>
+      </c>
+      <c r="AD751" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE751" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF751" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG751" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH751" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI751" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="752" spans="1:35">
+      <c r="A752" s="1" t="s">
+        <v>3618</v>
+      </c>
+      <c r="B752" s="1" t="s">
+        <v>3619</v>
+      </c>
+      <c r="C752" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D752" s="1" t="s">
+        <v>3620</v>
+      </c>
+      <c r="E752" s="3" t="s">
+        <v>1902</v>
+      </c>
+      <c r="F752" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G752" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H752" s="1" t="s">
+        <v>3621</v>
+      </c>
+      <c r="I752" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J752" s="1" t="s">
+        <v>3549</v>
+      </c>
+      <c r="K752" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L752" s="1" t="s">
+        <v>3550</v>
+      </c>
+      <c r="M752" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N752" s="1" t="s">
+        <v>3622</v>
+      </c>
+      <c r="O752" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P752" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q752" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R752" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S752" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T752" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U752" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V752" s="1" t="s">
+        <v>3623</v>
+      </c>
+      <c r="W752" s="1" t="s">
+        <v>3619</v>
+      </c>
+      <c r="X752" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y752" s="1" t="s">
+        <v>3624</v>
+      </c>
+      <c r="Z752" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA752" s="1" t="s">
+        <v>1770</v>
+      </c>
+      <c r="AB752" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="AC752" s="1" t="s">
+        <v>3625</v>
+      </c>
+      <c r="AD752" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE752" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF752" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG752" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH752" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI752" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="753" spans="1:35">
+      <c r="A753" s="1" t="s">
+        <v>3626</v>
+      </c>
+      <c r="B753" s="1" t="s">
+        <v>3627</v>
+      </c>
+      <c r="C753" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D753" s="1" t="s">
+        <v>3600</v>
+      </c>
+      <c r="E753" s="1" t="s">
+        <v>1907</v>
+      </c>
+      <c r="F753" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G753" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H753" s="1" t="s">
+        <v>3628</v>
+      </c>
+      <c r="I753" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J753" s="1" t="s">
+        <v>3602</v>
+      </c>
+      <c r="K753" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L753" s="1" t="s">
+        <v>3603</v>
+      </c>
+      <c r="M753" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N753" s="1" t="s">
+        <v>3629</v>
+      </c>
+      <c r="O753" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P753" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q753" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R753" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="S753" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T753" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U753" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="V753" s="1" t="s">
+        <v>3630</v>
+      </c>
+      <c r="W753" s="1" t="s">
+        <v>3627</v>
+      </c>
+      <c r="X753" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y753" s="1" t="s">
+        <v>3631</v>
+      </c>
+      <c r="Z753" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA753" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="AB753" s="1" t="s">
+        <v>3632</v>
+      </c>
+      <c r="AC753" s="1" t="s">
+        <v>3633</v>
+      </c>
+      <c r="AD753" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE753" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF753" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG753" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH753" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI753" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="754" spans="1:35">
+      <c r="A754" s="1" t="s">
+        <v>3634</v>
+      </c>
+      <c r="B754" s="1" t="s">
+        <v>3635</v>
+      </c>
+      <c r="C754" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D754" s="1" t="s">
+        <v>3636</v>
+      </c>
+      <c r="E754" s="1" t="s">
+        <v>1907</v>
+      </c>
+      <c r="F754" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G754" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H754" s="1" t="s">
+        <v>3637</v>
+      </c>
+      <c r="I754" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J754" s="1" t="s">
+        <v>3638</v>
+      </c>
+      <c r="K754" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L754" s="1" t="s">
+        <v>3602</v>
+      </c>
+      <c r="M754" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N754" s="1" t="s">
+        <v>3639</v>
+      </c>
+      <c r="O754" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P754" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q754" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R754" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S754" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T754" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U754" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V754" s="1" t="s">
+        <v>3640</v>
+      </c>
+      <c r="W754" s="1" t="s">
+        <v>3635</v>
+      </c>
+      <c r="X754" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y754" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="Z754" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA754" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="AB754" s="1" t="s">
+        <v>3641</v>
+      </c>
+      <c r="AC754" s="1" t="s">
+        <v>3642</v>
+      </c>
+      <c r="AD754" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AE754" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF754" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG754" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH754" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI754" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="755" spans="1:35">
+      <c r="A755" s="1" t="s">
+        <v>3643</v>
+      </c>
+      <c r="B755" s="1" t="s">
+        <v>3644</v>
+      </c>
+      <c r="C755" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D755" s="1" t="s">
+        <v>3645</v>
+      </c>
+      <c r="E755" s="1" t="s">
+        <v>1907</v>
+      </c>
+      <c r="F755" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G755" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H755" s="1" t="s">
+        <v>3646</v>
+      </c>
+      <c r="I755" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J755" s="1" t="s">
+        <v>3549</v>
+      </c>
+      <c r="K755" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L755" s="1" t="s">
+        <v>3550</v>
+      </c>
+      <c r="M755" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N755" s="1" t="s">
+        <v>3647</v>
+      </c>
+      <c r="O755" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P755" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q755" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R755" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S755" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T755" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U755" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V755" s="1" t="s">
+        <v>3648</v>
+      </c>
+      <c r="W755" s="1" t="s">
+        <v>3644</v>
+      </c>
+      <c r="X755" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y755" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="Z755" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA755" s="1" t="s">
+        <v>3202</v>
+      </c>
+      <c r="AB755" s="1" t="s">
+        <v>3649</v>
+      </c>
+      <c r="AC755" s="1" t="s">
+        <v>3650</v>
+      </c>
+      <c r="AD755" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AE755" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="AF755" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG755" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH755" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI755" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="756" spans="1:35">
+      <c r="A756" s="1" t="s">
+        <v>3651</v>
+      </c>
+      <c r="B756" s="1" t="s">
+        <v>3652</v>
+      </c>
+      <c r="C756" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D756" s="1" t="s">
+        <v>3653</v>
+      </c>
+      <c r="E756" s="1" t="s">
+        <v>1907</v>
+      </c>
+      <c r="F756" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G756" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H756" s="1" t="s">
+        <v>3654</v>
+      </c>
+      <c r="I756" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J756" s="1" t="s">
+        <v>3561</v>
+      </c>
+      <c r="K756" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L756" s="1" t="s">
+        <v>3562</v>
+      </c>
+      <c r="M756" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N756" s="1" t="s">
+        <v>3655</v>
+      </c>
+      <c r="O756" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P756" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q756" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R756" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S756" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="T756" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U756" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V756" s="1" t="s">
+        <v>3656</v>
+      </c>
+      <c r="W756" s="1" t="s">
+        <v>3652</v>
+      </c>
+      <c r="X756" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y756" s="1" t="s">
+        <v>3657</v>
+      </c>
+      <c r="Z756" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA756" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB756" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="AC756" s="1" t="s">
+        <v>3658</v>
+      </c>
+      <c r="AD756" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE756" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF756" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG756" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH756" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI756" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="757" spans="1:35">
+      <c r="A757" s="1" t="s">
+        <v>3659</v>
+      </c>
+      <c r="B757" s="1" t="s">
+        <v>3660</v>
+      </c>
+      <c r="C757" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D757" s="1" t="s">
+        <v>3661</v>
+      </c>
+      <c r="E757" s="1" t="s">
+        <v>1907</v>
+      </c>
+      <c r="F757" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G757" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H757" s="1" t="s">
+        <v>3662</v>
+      </c>
+      <c r="I757" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J757" s="1" t="s">
+        <v>3663</v>
+      </c>
+      <c r="K757" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L757" s="1" t="s">
+        <v>3664</v>
+      </c>
+      <c r="M757" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N757" s="1" t="s">
+        <v>3665</v>
+      </c>
+      <c r="O757" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P757" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q757" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R757" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S757" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T757" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U757" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V757" s="1" t="s">
+        <v>3666</v>
+      </c>
+      <c r="W757" s="1" t="s">
+        <v>3660</v>
+      </c>
+      <c r="X757" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y757" s="1" t="s">
+        <v>3667</v>
+      </c>
+      <c r="Z757" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA757" s="1" t="s">
+        <v>2248</v>
+      </c>
+      <c r="AB757" s="1" t="s">
+        <v>2249</v>
+      </c>
+      <c r="AC757" s="1" t="s">
+        <v>3668</v>
+      </c>
+      <c r="AD757" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE757" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF757" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG757" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH757" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI757" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="758" spans="1:35">
+      <c r="A758" s="1" t="s">
+        <v>3669</v>
+      </c>
+      <c r="B758" s="1" t="s">
+        <v>1927</v>
+      </c>
+      <c r="C758" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D758" s="1" t="s">
+        <v>3670</v>
+      </c>
+      <c r="E758" s="1" t="s">
+        <v>1903</v>
+      </c>
+      <c r="F758" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G758" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H758" s="1" t="s">
+        <v>1929</v>
+      </c>
+      <c r="I758" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J758" s="1" t="s">
+        <v>3549</v>
+      </c>
+      <c r="K758" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L758" s="1" t="s">
+        <v>3550</v>
+      </c>
+      <c r="M758" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N758" s="1" t="s">
+        <v>3604</v>
+      </c>
+      <c r="O758" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="P758" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q758" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R758" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S758" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T758" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U758" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="V758" s="1" t="s">
+        <v>1931</v>
+      </c>
+      <c r="W758" s="1" t="s">
+        <v>1927</v>
+      </c>
+      <c r="X758" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y758" s="1" t="s">
+        <v>1932</v>
+      </c>
+      <c r="Z758" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA758" s="1" t="s">
+        <v>1933</v>
+      </c>
+      <c r="AB758" s="1" t="s">
+        <v>1934</v>
+      </c>
+      <c r="AC758" s="1" t="s">
+        <v>1935</v>
+      </c>
+      <c r="AD758" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE758" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF758" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG758" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH758" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI758" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="759" spans="1:35">
+      <c r="A759" s="1" t="s">
+        <v>3671</v>
+      </c>
+      <c r="B759" s="1" t="s">
+        <v>3672</v>
+      </c>
+      <c r="C759" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D759" s="1" t="s">
+        <v>3673</v>
+      </c>
+      <c r="E759" s="1" t="s">
+        <v>1903</v>
+      </c>
+      <c r="F759" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G759" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H759" s="1" t="s">
+        <v>3674</v>
+      </c>
+      <c r="I759" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J759" s="1" t="s">
+        <v>3561</v>
+      </c>
+      <c r="K759" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L759" s="1" t="s">
+        <v>3562</v>
+      </c>
+      <c r="M759" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N759" s="1" t="s">
+        <v>3675</v>
+      </c>
+      <c r="O759" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P759" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q759" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R759" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S759" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T759" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U759" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V759" s="1" t="s">
+        <v>3676</v>
+      </c>
+      <c r="W759" s="1" t="s">
+        <v>3672</v>
+      </c>
+      <c r="X759" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y759" s="1" t="s">
+        <v>3677</v>
+      </c>
+      <c r="Z759" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA759" s="1" t="s">
+        <v>3678</v>
+      </c>
+      <c r="AB759" s="1" t="s">
+        <v>3679</v>
+      </c>
+      <c r="AC759" s="1" t="s">
+        <v>3680</v>
+      </c>
+      <c r="AD759" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="AE759" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF759" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG759" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH759" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI759" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="760" spans="1:35">
+      <c r="A760" s="1" t="s">
+        <v>3681</v>
+      </c>
+      <c r="B760" s="1" t="s">
+        <v>3682</v>
+      </c>
+      <c r="C760" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D760" s="1" t="s">
+        <v>3683</v>
+      </c>
+      <c r="E760" s="1" t="s">
+        <v>1903</v>
+      </c>
+      <c r="F760" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G760" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H760" s="1" t="s">
+        <v>3684</v>
+      </c>
+      <c r="I760" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J760" s="1" t="s">
+        <v>3561</v>
+      </c>
+      <c r="K760" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L760" s="1" t="s">
+        <v>3562</v>
+      </c>
+      <c r="M760" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N760" s="1" t="s">
+        <v>3685</v>
+      </c>
+      <c r="O760" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P760" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q760" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R760" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S760" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T760" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U760" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V760" s="1" t="s">
+        <v>3686</v>
+      </c>
+      <c r="W760" s="1" t="s">
+        <v>3682</v>
+      </c>
+      <c r="X760" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y760" s="1" t="s">
+        <v>3687</v>
+      </c>
+      <c r="Z760" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA760" s="1" t="s">
+        <v>3688</v>
+      </c>
+      <c r="AB760" s="1" t="s">
+        <v>3689</v>
+      </c>
+      <c r="AC760" s="1" t="s">
+        <v>3690</v>
+      </c>
+      <c r="AD760" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE760" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF760" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG760" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH760" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI760" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="761" spans="1:35">
+      <c r="A761" s="1" t="s">
+        <v>3691</v>
+      </c>
+      <c r="B761" s="1" t="s">
+        <v>3692</v>
+      </c>
+      <c r="C761" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D761" s="1" t="s">
+        <v>3673</v>
+      </c>
+      <c r="E761" s="1" t="s">
+        <v>1900</v>
+      </c>
+      <c r="F761" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G761" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H761" s="1" t="s">
+        <v>3693</v>
+      </c>
+      <c r="I761" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J761" s="1" t="s">
+        <v>3561</v>
+      </c>
+      <c r="K761" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L761" s="1" t="s">
+        <v>3562</v>
+      </c>
+      <c r="M761" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N761" s="1" t="s">
+        <v>3694</v>
+      </c>
+      <c r="O761" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P761" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q761" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R761" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S761" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="T761" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U761" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V761" s="1" t="s">
+        <v>3695</v>
+      </c>
+      <c r="W761" s="1" t="s">
+        <v>3692</v>
+      </c>
+      <c r="X761" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y761" s="1" t="s">
+        <v>3696</v>
+      </c>
+      <c r="Z761" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA761" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="AB761" s="1" t="s">
+        <v>2648</v>
+      </c>
+      <c r="AC761" s="1" t="s">
+        <v>3697</v>
+      </c>
+      <c r="AD761" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE761" s="1" t="s">
+        <v>1696</v>
+      </c>
+      <c r="AF761" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG761" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH761" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI761" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="762" spans="1:35">
+      <c r="A762" s="1" t="s">
+        <v>3698</v>
+      </c>
+      <c r="B762" s="1" t="s">
+        <v>3699</v>
+      </c>
+      <c r="C762" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D762" s="1" t="s">
+        <v>3576</v>
+      </c>
+      <c r="E762" s="1" t="s">
+        <v>1900</v>
+      </c>
+      <c r="F762" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G762" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H762" s="1" t="s">
+        <v>3700</v>
+      </c>
+      <c r="I762" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J762" s="1" t="s">
+        <v>3561</v>
+      </c>
+      <c r="K762" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L762" s="1" t="s">
+        <v>3562</v>
+      </c>
+      <c r="M762" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N762" s="1" t="s">
+        <v>3701</v>
+      </c>
+      <c r="O762" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P762" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q762" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R762" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S762" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="T762" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U762" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V762" s="1" t="s">
+        <v>3702</v>
+      </c>
+      <c r="W762" s="1" t="s">
+        <v>3699</v>
+      </c>
+      <c r="X762" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y762" s="1" t="s">
+        <v>3703</v>
+      </c>
+      <c r="Z762" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA762" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="AB762" s="1" t="s">
+        <v>3704</v>
+      </c>
+      <c r="AC762" s="1" t="s">
+        <v>3705</v>
+      </c>
+      <c r="AD762" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE762" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF762" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG762" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH762" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI762" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="763" spans="1:35">
+      <c r="A763" s="1" t="s">
+        <v>3706</v>
+      </c>
+      <c r="B763" s="1" t="s">
+        <v>2439</v>
+      </c>
+      <c r="C763" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D763" s="1" t="s">
+        <v>3707</v>
+      </c>
+      <c r="E763" s="1" t="s">
+        <v>1900</v>
+      </c>
+      <c r="F763" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G763" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H763" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="I763" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J763" s="1" t="s">
+        <v>3549</v>
+      </c>
+      <c r="K763" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L763" s="1" t="s">
+        <v>3550</v>
+      </c>
+      <c r="M763" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N763" s="1" t="s">
+        <v>3708</v>
+      </c>
+      <c r="O763" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P763" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q763" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R763" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S763" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="T763" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U763" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="V763" s="1" t="s">
+        <v>2442</v>
+      </c>
+      <c r="W763" s="1" t="s">
+        <v>2439</v>
+      </c>
+      <c r="X763" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y763" s="1" t="s">
+        <v>2443</v>
+      </c>
+      <c r="Z763" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA763" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="AB763" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="AC763" s="1" t="s">
+        <v>2444</v>
+      </c>
+      <c r="AD763" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE763" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF763" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG763" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH763" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI763" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="764" spans="1:35">
+      <c r="A764" s="1" t="s">
+        <v>3709</v>
+      </c>
+      <c r="B764" s="1" t="s">
+        <v>3710</v>
+      </c>
+      <c r="C764" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D764" s="1" t="s">
+        <v>3711</v>
+      </c>
+      <c r="E764" s="1" t="s">
+        <v>1900</v>
+      </c>
+      <c r="F764" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G764" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H764" s="1" t="s">
+        <v>3712</v>
+      </c>
+      <c r="I764" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J764" s="1" t="s">
+        <v>3602</v>
+      </c>
+      <c r="K764" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L764" s="1" t="s">
+        <v>3603</v>
+      </c>
+      <c r="M764" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N764" s="1" t="s">
+        <v>3713</v>
+      </c>
+      <c r="O764" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P764" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q764" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R764" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S764" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="T764" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U764" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V764" s="1" t="s">
+        <v>3714</v>
+      </c>
+      <c r="W764" s="1" t="s">
+        <v>3710</v>
+      </c>
+      <c r="X764" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y764" s="1" t="s">
+        <v>3715</v>
+      </c>
+      <c r="Z764" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA764" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB764" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AC764" s="1" t="s">
+        <v>3716</v>
+      </c>
+      <c r="AD764" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE764" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AF764" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG764" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH764" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI764" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AI500"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/deliveryopenfiber.xlsx
+++ b/deliveryopenfiber.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26705" uniqueCount="3717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28105" uniqueCount="3890">
   <si>
     <t>Codice</t>
   </si>
@@ -11168,6 +11168,525 @@
   </si>
   <si>
     <t>SR_09/01e11/SR_09/01e11/D636_022</t>
+  </si>
+  <si>
+    <t>DEL1003588964</t>
+  </si>
+  <si>
+    <t>4224696945539529359</t>
+  </si>
+  <si>
+    <t>27/08/2025 08:48</t>
+  </si>
+  <si>
+    <t>IGNAZIO MAUCERI</t>
+  </si>
+  <si>
+    <t>27/08/2025 08:30</t>
+  </si>
+  <si>
+    <t>27/08/2025 10:30</t>
+  </si>
+  <si>
+    <t>ILA_1755780018745</t>
+  </si>
+  <si>
+    <t>19_089_089017_8001005533_406</t>
+  </si>
+  <si>
+    <t>SR_01/07e41/I754_VIALE SCALA GRECA_406_B_1</t>
+  </si>
+  <si>
+    <t>DEL1003592335</t>
+  </si>
+  <si>
+    <t>4224696945541327096</t>
+  </si>
+  <si>
+    <t>27/08/2025 15:16</t>
+  </si>
+  <si>
+    <t>MARIANGELA FLORIDDIA</t>
+  </si>
+  <si>
+    <t>27/08/2025 14:30</t>
+  </si>
+  <si>
+    <t>22/08/2025 17:36</t>
+  </si>
+  <si>
+    <t>COC_90000000187497</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000970361_48</t>
+  </si>
+  <si>
+    <t>SR_01/07e43-SP_09</t>
+  </si>
+  <si>
+    <t>SR_01/07e43/I754_VIA LENTINI_44C</t>
+  </si>
+  <si>
+    <t>DEL1003598034</t>
+  </si>
+  <si>
+    <t>4224696945541328550</t>
+  </si>
+  <si>
+    <t>27/08/2025 15:38</t>
+  </si>
+  <si>
+    <t>PAOLO PASSANISI</t>
+  </si>
+  <si>
+    <t>28/08/2025 11:30</t>
+  </si>
+  <si>
+    <t>28/08/2025 13:30</t>
+  </si>
+  <si>
+    <t>25/08/2025 10:26</t>
+  </si>
+  <si>
+    <t>WN_9002087934</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000970503_45</t>
+  </si>
+  <si>
+    <t>SR_01/WIN_0120</t>
+  </si>
+  <si>
+    <t>SR_01/03e21-SP_08</t>
+  </si>
+  <si>
+    <t>SR_01/03e21/I754_VIA BRENTA_45_1</t>
+  </si>
+  <si>
+    <t>DEL1003598709</t>
+  </si>
+  <si>
+    <t>4224696945543734018</t>
+  </si>
+  <si>
+    <t>27/08/2025 15:08</t>
+  </si>
+  <si>
+    <t>ABOUBACAR SIDIKI SOUMARO</t>
+  </si>
+  <si>
+    <t>25/08/2025 14:06</t>
+  </si>
+  <si>
+    <t>ILA_1755870622287</t>
+  </si>
+  <si>
+    <t>19_089_089017_8001295239_90</t>
+  </si>
+  <si>
+    <t>SR_01/ILD_0104</t>
+  </si>
+  <si>
+    <t>SR_01/04w14-SP_10</t>
+  </si>
+  <si>
+    <t>SR_01/04w14/I754_VIALE TICA_90_1_A</t>
+  </si>
+  <si>
+    <t>DEL1003601436</t>
+  </si>
+  <si>
+    <t>27/08/2025 12:19</t>
+  </si>
+  <si>
+    <t>26/08/2025 11:16</t>
+  </si>
+  <si>
+    <t>DEL1003602063</t>
+  </si>
+  <si>
+    <t>4224696945544361894</t>
+  </si>
+  <si>
+    <t>27/08/2025 12:08</t>
+  </si>
+  <si>
+    <t>DESIREE LATINO</t>
+  </si>
+  <si>
+    <t>27/08/2025 11:30</t>
+  </si>
+  <si>
+    <t>27/08/2025 13:30</t>
+  </si>
+  <si>
+    <t>26/08/2025 14:16</t>
+  </si>
+  <si>
+    <t>ILA_1756206012751</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000970358_103C</t>
+  </si>
+  <si>
+    <t>SR_01/02w31/I754_VIA ITALIA_103C_1_C</t>
+  </si>
+  <si>
+    <t>DEL1003587883</t>
+  </si>
+  <si>
+    <t>4224696945539526581</t>
+  </si>
+  <si>
+    <t>27/08/2025 11:28</t>
+  </si>
+  <si>
+    <t>ANTONELLA ROMANO</t>
+  </si>
+  <si>
+    <t>21/08/2025 08:36</t>
+  </si>
+  <si>
+    <t>DA04278748</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000970054_41</t>
+  </si>
+  <si>
+    <t>SR_01/EOF_0068</t>
+  </si>
+  <si>
+    <t>SR_01/02e31-SP_08</t>
+  </si>
+  <si>
+    <t>SR_01/02e31/I754_VIA ANDREA PALMA_41_1</t>
+  </si>
+  <si>
+    <t>DEL1003592070</t>
+  </si>
+  <si>
+    <t>4224696945541328101</t>
+  </si>
+  <si>
+    <t>27/08/2025 16:08</t>
+  </si>
+  <si>
+    <t>MIRKO BLANCO</t>
+  </si>
+  <si>
+    <t>ILA_1755870609236</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000970361_63</t>
+  </si>
+  <si>
+    <t>SR_01/07e32-SP_06</t>
+  </si>
+  <si>
+    <t>SR_01/07e32/I754_VIA LENTINI_63</t>
+  </si>
+  <si>
+    <t>DEL1003596305</t>
+  </si>
+  <si>
+    <t>4224696945542623793</t>
+  </si>
+  <si>
+    <t>RAFFAELA CAVALIERE</t>
+  </si>
+  <si>
+    <t>24/08/2025 14:26</t>
+  </si>
+  <si>
+    <t>ILA_1756032904842</t>
+  </si>
+  <si>
+    <t>19_089_089017_8001005530_14</t>
+  </si>
+  <si>
+    <t>SR_01/ILD_0004</t>
+  </si>
+  <si>
+    <t>SR_01/01w43-SP_07</t>
+  </si>
+  <si>
+    <t>SR_01/01w43/I754_VIALE ZECCHINO_14_1_A</t>
+  </si>
+  <si>
+    <t>DEL1003600705</t>
+  </si>
+  <si>
+    <t>4224696945543737102</t>
+  </si>
+  <si>
+    <t>27/08/2025 11:48</t>
+  </si>
+  <si>
+    <t>SALVATORE COSTANZO</t>
+  </si>
+  <si>
+    <t>WN_9002082275</t>
+  </si>
+  <si>
+    <t>19_089_089017_8001078271_4A</t>
+  </si>
+  <si>
+    <t>SR_01/06w13-SP_06</t>
+  </si>
+  <si>
+    <t>SR_01/06w13/I754_VIA GIUSEPPE RIZZA_4A_1_A</t>
+  </si>
+  <si>
+    <t>DEL1003601143</t>
+  </si>
+  <si>
+    <t>4224696945543736138</t>
+  </si>
+  <si>
+    <t>27/08/2025 13:18</t>
+  </si>
+  <si>
+    <t>SANTA COCO</t>
+  </si>
+  <si>
+    <t>26/08/2025 09:46</t>
+  </si>
+  <si>
+    <t>ILA_1755597007634</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000954116_2</t>
+  </si>
+  <si>
+    <t>SR_01/07e34-SP_06</t>
+  </si>
+  <si>
+    <t>SR_01/07e34/I754_PIAZZA DELLA PROVINCIA_2_1</t>
+  </si>
+  <si>
+    <t>DEL1003588124</t>
+  </si>
+  <si>
+    <t>4224696945539527522</t>
+  </si>
+  <si>
+    <t>27/08/2025 13:58</t>
+  </si>
+  <si>
+    <t>LIDIA VALENTI</t>
+  </si>
+  <si>
+    <t>SORTINO</t>
+  </si>
+  <si>
+    <t>FW_SP0000001638670</t>
+  </si>
+  <si>
+    <t>SR_08</t>
+  </si>
+  <si>
+    <t>19_089_089019_8000967878_60</t>
+  </si>
+  <si>
+    <t>SR_08/EOF_0001</t>
+  </si>
+  <si>
+    <t>SR_08/01w13-SP_01</t>
+  </si>
+  <si>
+    <t>SR_08/01w13/SR_08/01w13/I864_126</t>
+  </si>
+  <si>
+    <t>DEL1003592066</t>
+  </si>
+  <si>
+    <t>4224696945541327719</t>
+  </si>
+  <si>
+    <t>27/08/2025 09:18</t>
+  </si>
+  <si>
+    <t>GIORGIO GALAZZO</t>
+  </si>
+  <si>
+    <t>WN_9002089149</t>
+  </si>
+  <si>
+    <t>DEL1003596863</t>
+  </si>
+  <si>
+    <t>4224696945542624240</t>
+  </si>
+  <si>
+    <t>27/08/2025 12:38</t>
+  </si>
+  <si>
+    <t>SALVATORE MAZZARELLA</t>
+  </si>
+  <si>
+    <t>24/08/2025 21:56</t>
+  </si>
+  <si>
+    <t>WN_9002090231</t>
+  </si>
+  <si>
+    <t>19_089_089018_8000967633_35</t>
+  </si>
+  <si>
+    <t>SR_09/02e13/SR_09/01w13/I785_078</t>
+  </si>
+  <si>
+    <t>DEL1003602249</t>
+  </si>
+  <si>
+    <t>4224696945544361480</t>
+  </si>
+  <si>
+    <t>DAGMAR REGELE</t>
+  </si>
+  <si>
+    <t>26/08/2025 15:06</t>
+  </si>
+  <si>
+    <t>WN_9002090867</t>
+  </si>
+  <si>
+    <t>19_089_089017_8001078373_55</t>
+  </si>
+  <si>
+    <t>SR_01/WIN_0133</t>
+  </si>
+  <si>
+    <t>SR_01/05w33-SP_07</t>
+  </si>
+  <si>
+    <t>SR_01/05w33/I754_VIA DEL CROCIFISSO_55_1</t>
+  </si>
+  <si>
+    <t>DEL1003566794</t>
+  </si>
+  <si>
+    <t>4224696945535865034</t>
+  </si>
+  <si>
+    <t>27/08/2025 09:08</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Andrea Molino</t>
+  </si>
+  <si>
+    <t>12/08/2025 15:46</t>
+  </si>
+  <si>
+    <t>ACN_AOF76940_10580</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000946239_198</t>
+  </si>
+  <si>
+    <t>SR_01/05e14-SP_03</t>
+  </si>
+  <si>
+    <t>SR_01/05e14/I754_CORSO UMBERTO I_198_1</t>
+  </si>
+  <si>
+    <t>DEL1003596907</t>
+  </si>
+  <si>
+    <t>4224696945542624260</t>
+  </si>
+  <si>
+    <t>27/08/2025 13:28</t>
+  </si>
+  <si>
+    <t>PASQUALE CONTI</t>
+  </si>
+  <si>
+    <t>24/08/2025 22:36</t>
+  </si>
+  <si>
+    <t>FW_SP0000001640448</t>
+  </si>
+  <si>
+    <t>19_089_089021_8000967719_2</t>
+  </si>
+  <si>
+    <t>SR_12/01w23/SR_12/01w23/M279_079</t>
+  </si>
+  <si>
+    <t>Migrazione BS</t>
+  </si>
+  <si>
+    <t>DEL1003598376</t>
+  </si>
+  <si>
+    <t>4224696945543733946</t>
+  </si>
+  <si>
+    <t>27/08/2025 16:18</t>
+  </si>
+  <si>
+    <t>CARMELA AMENTA</t>
+  </si>
+  <si>
+    <t>25/08/2025 12:16</t>
+  </si>
+  <si>
+    <t>OPI_3733449</t>
+  </si>
+  <si>
+    <t>19_089_089017_8001295239_88</t>
+  </si>
+  <si>
+    <t>SR_01/VOD_0093</t>
+  </si>
+  <si>
+    <t>SR_01/04w14-SP_07</t>
+  </si>
+  <si>
+    <t>SR_01/04w14/I754_VIALE TICA_88_1</t>
+  </si>
+  <si>
+    <t>DEL1003598648</t>
+  </si>
+  <si>
+    <t>4224696945543734288</t>
+  </si>
+  <si>
+    <t>GIORGIA ROSSITTO</t>
+  </si>
+  <si>
+    <t>25/08/2025 13:46</t>
+  </si>
+  <si>
+    <t>TLC_00000000188652</t>
+  </si>
+  <si>
+    <t>DEL1003602257</t>
+  </si>
+  <si>
+    <t>4224696945544360467</t>
+  </si>
+  <si>
+    <t>27/08/2025 10:18</t>
+  </si>
+  <si>
+    <t>ANDREA CHISESI</t>
+  </si>
+  <si>
+    <t>COC250826074426174</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000969037_26</t>
+  </si>
+  <si>
+    <t>SR_01/EOF_0043</t>
+  </si>
+  <si>
+    <t>SR_01/05e34-SP_03</t>
+  </si>
+  <si>
+    <t>SR_01/05e34/I754_VIA ROMA_26_1</t>
   </si>
 </sst>
 </file>
@@ -11185,12 +11704,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -11205,11 +11730,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -11504,10 +12030,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI764"/>
+  <dimension ref="A1:AI804"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A727" workbookViewId="0">
-      <selection activeCell="F753" sqref="F753"/>
+    <sheetView tabSelected="1" topLeftCell="A769" workbookViewId="0">
+      <selection activeCell="E789" sqref="E789"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -93162,6 +93688,4286 @@
         <v>57</v>
       </c>
     </row>
+    <row r="765" spans="1:35">
+      <c r="A765" s="1" t="s">
+        <v>3717</v>
+      </c>
+      <c r="B765" s="1" t="s">
+        <v>3718</v>
+      </c>
+      <c r="C765" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D765" s="1" t="s">
+        <v>3719</v>
+      </c>
+      <c r="E765" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F765" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G765" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H765" s="1" t="s">
+        <v>3720</v>
+      </c>
+      <c r="I765" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J765" s="1" t="s">
+        <v>3721</v>
+      </c>
+      <c r="K765" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L765" s="1" t="s">
+        <v>3722</v>
+      </c>
+      <c r="M765" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N765" s="1" t="s">
+        <v>3390</v>
+      </c>
+      <c r="O765" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P765" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q765" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R765" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S765" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T765" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U765" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V765" s="1" t="s">
+        <v>3723</v>
+      </c>
+      <c r="W765" s="1" t="s">
+        <v>3718</v>
+      </c>
+      <c r="X765" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y765" s="1" t="s">
+        <v>3724</v>
+      </c>
+      <c r="Z765" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA765" s="1" t="s">
+        <v>1703</v>
+      </c>
+      <c r="AB765" s="1" t="s">
+        <v>1704</v>
+      </c>
+      <c r="AC765" s="1" t="s">
+        <v>3725</v>
+      </c>
+      <c r="AD765" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE765" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF765" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG765" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH765" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI765" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="766" spans="1:35">
+      <c r="A766" s="1" t="s">
+        <v>3726</v>
+      </c>
+      <c r="B766" s="1" t="s">
+        <v>3727</v>
+      </c>
+      <c r="C766" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D766" s="1" t="s">
+        <v>3728</v>
+      </c>
+      <c r="E766" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F766" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G766" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H766" s="1" t="s">
+        <v>3729</v>
+      </c>
+      <c r="I766" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J766" s="1" t="s">
+        <v>3730</v>
+      </c>
+      <c r="K766" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L766" s="1" t="s">
+        <v>3663</v>
+      </c>
+      <c r="M766" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N766" s="1" t="s">
+        <v>3731</v>
+      </c>
+      <c r="O766" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P766" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q766" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R766" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S766" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T766" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U766" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V766" s="1" t="s">
+        <v>3732</v>
+      </c>
+      <c r="W766" s="1" t="s">
+        <v>3727</v>
+      </c>
+      <c r="X766" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y766" s="1" t="s">
+        <v>3733</v>
+      </c>
+      <c r="Z766" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA766" s="1" t="s">
+        <v>3454</v>
+      </c>
+      <c r="AB766" s="1" t="s">
+        <v>3734</v>
+      </c>
+      <c r="AC766" s="1" t="s">
+        <v>3735</v>
+      </c>
+      <c r="AD766" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="AE766" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF766" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG766" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH766" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI766" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="767" spans="1:35">
+      <c r="A767" s="1" t="s">
+        <v>3736</v>
+      </c>
+      <c r="B767" s="1" t="s">
+        <v>3737</v>
+      </c>
+      <c r="C767" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D767" s="1" t="s">
+        <v>3738</v>
+      </c>
+      <c r="E767" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F767" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G767" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H767" s="1" t="s">
+        <v>3739</v>
+      </c>
+      <c r="I767" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J767" s="1" t="s">
+        <v>3740</v>
+      </c>
+      <c r="K767" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L767" s="1" t="s">
+        <v>3741</v>
+      </c>
+      <c r="M767" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N767" s="1" t="s">
+        <v>3742</v>
+      </c>
+      <c r="O767" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P767" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q767" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R767" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S767" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T767" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U767" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V767" s="1" t="s">
+        <v>3743</v>
+      </c>
+      <c r="W767" s="1" t="s">
+        <v>3737</v>
+      </c>
+      <c r="X767" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y767" s="1" t="s">
+        <v>3744</v>
+      </c>
+      <c r="Z767" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA767" s="1" t="s">
+        <v>3745</v>
+      </c>
+      <c r="AB767" s="1" t="s">
+        <v>3746</v>
+      </c>
+      <c r="AC767" s="1" t="s">
+        <v>3747</v>
+      </c>
+      <c r="AD767" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE767" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF767" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG767" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH767" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI767" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="768" spans="1:35">
+      <c r="A768" s="1" t="s">
+        <v>3748</v>
+      </c>
+      <c r="B768" s="1" t="s">
+        <v>3749</v>
+      </c>
+      <c r="C768" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D768" s="1" t="s">
+        <v>3750</v>
+      </c>
+      <c r="E768" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F768" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G768" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H768" s="1" t="s">
+        <v>3751</v>
+      </c>
+      <c r="I768" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J768" s="1" t="s">
+        <v>3730</v>
+      </c>
+      <c r="K768" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L768" s="1" t="s">
+        <v>3663</v>
+      </c>
+      <c r="M768" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N768" s="1" t="s">
+        <v>3752</v>
+      </c>
+      <c r="O768" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P768" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q768" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R768" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="S768" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T768" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U768" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V768" s="1" t="s">
+        <v>3753</v>
+      </c>
+      <c r="W768" s="1" t="s">
+        <v>3749</v>
+      </c>
+      <c r="X768" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y768" s="1" t="s">
+        <v>3754</v>
+      </c>
+      <c r="Z768" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA768" s="1" t="s">
+        <v>3755</v>
+      </c>
+      <c r="AB768" s="1" t="s">
+        <v>3756</v>
+      </c>
+      <c r="AC768" s="1" t="s">
+        <v>3757</v>
+      </c>
+      <c r="AD768" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE768" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF768" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG768" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH768" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI768" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="769" spans="1:35">
+      <c r="A769" s="1" t="s">
+        <v>3758</v>
+      </c>
+      <c r="B769" s="1" t="s">
+        <v>3196</v>
+      </c>
+      <c r="C769" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D769" s="1" t="s">
+        <v>3759</v>
+      </c>
+      <c r="E769" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F769" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G769" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H769" s="1" t="s">
+        <v>3198</v>
+      </c>
+      <c r="I769" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J769" s="1" t="s">
+        <v>3721</v>
+      </c>
+      <c r="K769" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L769" s="1" t="s">
+        <v>3722</v>
+      </c>
+      <c r="M769" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N769" s="1" t="s">
+        <v>3760</v>
+      </c>
+      <c r="O769" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P769" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q769" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R769" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S769" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T769" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U769" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="V769" s="1" t="s">
+        <v>3200</v>
+      </c>
+      <c r="W769" s="1" t="s">
+        <v>3196</v>
+      </c>
+      <c r="X769" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y769" s="1" t="s">
+        <v>3201</v>
+      </c>
+      <c r="Z769" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA769" s="1" t="s">
+        <v>3202</v>
+      </c>
+      <c r="AB769" s="1" t="s">
+        <v>3203</v>
+      </c>
+      <c r="AC769" s="1" t="s">
+        <v>3204</v>
+      </c>
+      <c r="AD769" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AE769" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF769" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG769" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH769" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI769" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="770" spans="1:35">
+      <c r="A770" s="1" t="s">
+        <v>3761</v>
+      </c>
+      <c r="B770" s="1" t="s">
+        <v>3762</v>
+      </c>
+      <c r="C770" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D770" s="1" t="s">
+        <v>3763</v>
+      </c>
+      <c r="E770" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F770" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G770" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H770" s="1" t="s">
+        <v>3764</v>
+      </c>
+      <c r="I770" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J770" s="1" t="s">
+        <v>3765</v>
+      </c>
+      <c r="K770" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L770" s="1" t="s">
+        <v>3766</v>
+      </c>
+      <c r="M770" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N770" s="1" t="s">
+        <v>3767</v>
+      </c>
+      <c r="O770" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P770" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q770" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R770" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S770" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T770" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U770" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V770" s="1" t="s">
+        <v>3768</v>
+      </c>
+      <c r="W770" s="1" t="s">
+        <v>3762</v>
+      </c>
+      <c r="X770" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y770" s="1" t="s">
+        <v>3769</v>
+      </c>
+      <c r="Z770" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA770" s="1" t="s">
+        <v>1770</v>
+      </c>
+      <c r="AB770" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="AC770" s="1" t="s">
+        <v>3770</v>
+      </c>
+      <c r="AD770" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE770" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF770" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG770" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH770" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI770" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="771" spans="1:35">
+      <c r="A771" s="1" t="s">
+        <v>3771</v>
+      </c>
+      <c r="B771" s="1" t="s">
+        <v>3772</v>
+      </c>
+      <c r="C771" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D771" s="1" t="s">
+        <v>3773</v>
+      </c>
+      <c r="E771" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F771" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G771" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H771" s="1" t="s">
+        <v>3774</v>
+      </c>
+      <c r="I771" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J771" s="1" t="s">
+        <v>3765</v>
+      </c>
+      <c r="K771" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L771" s="1" t="s">
+        <v>3766</v>
+      </c>
+      <c r="M771" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N771" s="1" t="s">
+        <v>3775</v>
+      </c>
+      <c r="O771" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P771" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q771" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R771" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S771" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T771" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U771" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V771" s="1" t="s">
+        <v>3776</v>
+      </c>
+      <c r="W771" s="1" t="s">
+        <v>3772</v>
+      </c>
+      <c r="X771" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y771" s="1" t="s">
+        <v>3777</v>
+      </c>
+      <c r="Z771" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA771" s="1" t="s">
+        <v>3778</v>
+      </c>
+      <c r="AB771" s="1" t="s">
+        <v>3779</v>
+      </c>
+      <c r="AC771" s="1" t="s">
+        <v>3780</v>
+      </c>
+      <c r="AD771" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="AE771" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF771" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG771" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH771" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI771" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="772" spans="1:35">
+      <c r="A772" s="1" t="s">
+        <v>3781</v>
+      </c>
+      <c r="B772" s="1" t="s">
+        <v>3782</v>
+      </c>
+      <c r="C772" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D772" s="1" t="s">
+        <v>3783</v>
+      </c>
+      <c r="E772" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F772" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G772" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H772" s="1" t="s">
+        <v>3784</v>
+      </c>
+      <c r="I772" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J772" s="1" t="s">
+        <v>3663</v>
+      </c>
+      <c r="K772" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L772" s="1" t="s">
+        <v>3664</v>
+      </c>
+      <c r="M772" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N772" s="1" t="s">
+        <v>3708</v>
+      </c>
+      <c r="O772" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P772" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q772" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R772" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S772" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T772" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U772" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V772" s="1" t="s">
+        <v>3785</v>
+      </c>
+      <c r="W772" s="1" t="s">
+        <v>3782</v>
+      </c>
+      <c r="X772" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y772" s="1" t="s">
+        <v>3786</v>
+      </c>
+      <c r="Z772" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA772" s="1" t="s">
+        <v>2037</v>
+      </c>
+      <c r="AB772" s="1" t="s">
+        <v>3787</v>
+      </c>
+      <c r="AC772" s="1" t="s">
+        <v>3788</v>
+      </c>
+      <c r="AD772" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE772" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF772" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG772" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH772" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI772" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="773" spans="1:35">
+      <c r="A773" s="1" t="s">
+        <v>3789</v>
+      </c>
+      <c r="B773" s="1" t="s">
+        <v>3790</v>
+      </c>
+      <c r="C773" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D773" s="1" t="s">
+        <v>3738</v>
+      </c>
+      <c r="E773" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F773" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G773" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H773" s="1" t="s">
+        <v>3791</v>
+      </c>
+      <c r="I773" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J773" s="1" t="s">
+        <v>3730</v>
+      </c>
+      <c r="K773" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L773" s="1" t="s">
+        <v>3663</v>
+      </c>
+      <c r="M773" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N773" s="1" t="s">
+        <v>3792</v>
+      </c>
+      <c r="O773" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P773" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q773" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R773" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S773" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T773" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U773" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V773" s="1" t="s">
+        <v>3793</v>
+      </c>
+      <c r="W773" s="1" t="s">
+        <v>3790</v>
+      </c>
+      <c r="X773" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y773" s="1" t="s">
+        <v>3794</v>
+      </c>
+      <c r="Z773" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA773" s="1" t="s">
+        <v>3795</v>
+      </c>
+      <c r="AB773" s="1" t="s">
+        <v>3796</v>
+      </c>
+      <c r="AC773" s="1" t="s">
+        <v>3797</v>
+      </c>
+      <c r="AD773" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE773" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF773" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG773" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH773" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI773" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="774" spans="1:35">
+      <c r="A774" s="1" t="s">
+        <v>3798</v>
+      </c>
+      <c r="B774" s="1" t="s">
+        <v>3799</v>
+      </c>
+      <c r="C774" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D774" s="1" t="s">
+        <v>3800</v>
+      </c>
+      <c r="E774" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F774" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G774" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H774" s="1" t="s">
+        <v>3801</v>
+      </c>
+      <c r="I774" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J774" s="1" t="s">
+        <v>3765</v>
+      </c>
+      <c r="K774" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L774" s="1" t="s">
+        <v>3766</v>
+      </c>
+      <c r="M774" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N774" s="1" t="s">
+        <v>3585</v>
+      </c>
+      <c r="O774" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="P774" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q774" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R774" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S774" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T774" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U774" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V774" s="1" t="s">
+        <v>3802</v>
+      </c>
+      <c r="W774" s="1" t="s">
+        <v>3799</v>
+      </c>
+      <c r="X774" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y774" s="1" t="s">
+        <v>3803</v>
+      </c>
+      <c r="Z774" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA774" s="1" t="s">
+        <v>3688</v>
+      </c>
+      <c r="AB774" s="1" t="s">
+        <v>3804</v>
+      </c>
+      <c r="AC774" s="1" t="s">
+        <v>3805</v>
+      </c>
+      <c r="AD774" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE774" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF774" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG774" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH774" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI774" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="775" spans="1:35">
+      <c r="A775" s="1" t="s">
+        <v>3806</v>
+      </c>
+      <c r="B775" s="1" t="s">
+        <v>3807</v>
+      </c>
+      <c r="C775" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D775" s="1" t="s">
+        <v>3808</v>
+      </c>
+      <c r="E775" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F775" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G775" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H775" s="1" t="s">
+        <v>3809</v>
+      </c>
+      <c r="I775" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J775" s="1" t="s">
+        <v>3663</v>
+      </c>
+      <c r="K775" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L775" s="1" t="s">
+        <v>3664</v>
+      </c>
+      <c r="M775" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N775" s="1" t="s">
+        <v>3810</v>
+      </c>
+      <c r="O775" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P775" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q775" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R775" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S775" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T775" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U775" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V775" s="1" t="s">
+        <v>3811</v>
+      </c>
+      <c r="W775" s="1" t="s">
+        <v>3807</v>
+      </c>
+      <c r="X775" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y775" s="1" t="s">
+        <v>3812</v>
+      </c>
+      <c r="Z775" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA775" s="1" t="s">
+        <v>2037</v>
+      </c>
+      <c r="AB775" s="1" t="s">
+        <v>3813</v>
+      </c>
+      <c r="AC775" s="1" t="s">
+        <v>3814</v>
+      </c>
+      <c r="AD775" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE775" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF775" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG775" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH775" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI775" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="776" spans="1:35">
+      <c r="A776" s="1" t="s">
+        <v>3815</v>
+      </c>
+      <c r="B776" s="1" t="s">
+        <v>3816</v>
+      </c>
+      <c r="C776" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D776" s="1" t="s">
+        <v>3817</v>
+      </c>
+      <c r="E776" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F776" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G776" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H776" s="1" t="s">
+        <v>3818</v>
+      </c>
+      <c r="I776" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J776" s="1" t="s">
+        <v>3765</v>
+      </c>
+      <c r="K776" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L776" s="1" t="s">
+        <v>3766</v>
+      </c>
+      <c r="M776" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N776" s="1" t="s">
+        <v>3217</v>
+      </c>
+      <c r="O776" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P776" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q776" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R776" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S776" s="1" t="s">
+        <v>3819</v>
+      </c>
+      <c r="T776" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U776" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V776" s="1" t="s">
+        <v>3820</v>
+      </c>
+      <c r="W776" s="1" t="s">
+        <v>3816</v>
+      </c>
+      <c r="X776" s="1" t="s">
+        <v>3821</v>
+      </c>
+      <c r="Y776" s="1" t="s">
+        <v>3822</v>
+      </c>
+      <c r="Z776" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA776" s="1" t="s">
+        <v>3823</v>
+      </c>
+      <c r="AB776" s="1" t="s">
+        <v>3824</v>
+      </c>
+      <c r="AC776" s="1" t="s">
+        <v>3825</v>
+      </c>
+      <c r="AD776" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AE776" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="AF776" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG776" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH776" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI776" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="777" spans="1:35">
+      <c r="A777" s="1" t="s">
+        <v>3826</v>
+      </c>
+      <c r="B777" s="1" t="s">
+        <v>3827</v>
+      </c>
+      <c r="C777" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D777" s="1" t="s">
+        <v>3828</v>
+      </c>
+      <c r="E777" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F777" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G777" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H777" s="1" t="s">
+        <v>3829</v>
+      </c>
+      <c r="I777" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J777" s="1" t="s">
+        <v>3721</v>
+      </c>
+      <c r="K777" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L777" s="1" t="s">
+        <v>3722</v>
+      </c>
+      <c r="M777" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N777" s="1" t="s">
+        <v>3708</v>
+      </c>
+      <c r="O777" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P777" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q777" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R777" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S777" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="T777" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U777" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V777" s="1" t="s">
+        <v>3830</v>
+      </c>
+      <c r="W777" s="1" t="s">
+        <v>3827</v>
+      </c>
+      <c r="X777" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y777" s="1" t="s">
+        <v>1539</v>
+      </c>
+      <c r="Z777" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA777" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="AB777" s="1" t="s">
+        <v>1230</v>
+      </c>
+      <c r="AC777" s="1" t="s">
+        <v>1540</v>
+      </c>
+      <c r="AD777" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE777" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF777" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG777" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH777" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI777" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="778" spans="1:35">
+      <c r="A778" s="1" t="s">
+        <v>3831</v>
+      </c>
+      <c r="B778" s="1" t="s">
+        <v>3832</v>
+      </c>
+      <c r="C778" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D778" s="1" t="s">
+        <v>3833</v>
+      </c>
+      <c r="E778" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F778" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G778" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H778" s="1" t="s">
+        <v>3834</v>
+      </c>
+      <c r="I778" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J778" s="1" t="s">
+        <v>3765</v>
+      </c>
+      <c r="K778" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L778" s="1" t="s">
+        <v>3766</v>
+      </c>
+      <c r="M778" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N778" s="1" t="s">
+        <v>3835</v>
+      </c>
+      <c r="O778" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P778" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q778" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R778" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S778" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="T778" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U778" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V778" s="1" t="s">
+        <v>3836</v>
+      </c>
+      <c r="W778" s="1" t="s">
+        <v>3832</v>
+      </c>
+      <c r="X778" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y778" s="1" t="s">
+        <v>3837</v>
+      </c>
+      <c r="Z778" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA778" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="AB778" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="AC778" s="1" t="s">
+        <v>3838</v>
+      </c>
+      <c r="AD778" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE778" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF778" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG778" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH778" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI778" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="779" spans="1:35">
+      <c r="A779" s="1" t="s">
+        <v>3839</v>
+      </c>
+      <c r="B779" s="1" t="s">
+        <v>3840</v>
+      </c>
+      <c r="C779" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D779" s="1" t="s">
+        <v>3728</v>
+      </c>
+      <c r="E779" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F779" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G779" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H779" s="1" t="s">
+        <v>3841</v>
+      </c>
+      <c r="I779" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J779" s="1" t="s">
+        <v>3730</v>
+      </c>
+      <c r="K779" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L779" s="1" t="s">
+        <v>3663</v>
+      </c>
+      <c r="M779" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N779" s="1" t="s">
+        <v>3842</v>
+      </c>
+      <c r="O779" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="P779" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q779" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R779" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S779" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T779" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U779" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V779" s="1" t="s">
+        <v>3843</v>
+      </c>
+      <c r="W779" s="1" t="s">
+        <v>3840</v>
+      </c>
+      <c r="X779" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y779" s="1" t="s">
+        <v>3844</v>
+      </c>
+      <c r="Z779" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA779" s="1" t="s">
+        <v>3845</v>
+      </c>
+      <c r="AB779" s="1" t="s">
+        <v>3846</v>
+      </c>
+      <c r="AC779" s="1" t="s">
+        <v>3847</v>
+      </c>
+      <c r="AD779" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE779" s="1" t="s">
+        <v>1503</v>
+      </c>
+      <c r="AF779" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG779" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH779" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI779" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="780" spans="1:35">
+      <c r="A780" s="1" t="s">
+        <v>3848</v>
+      </c>
+      <c r="B780" s="1" t="s">
+        <v>3849</v>
+      </c>
+      <c r="C780" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D780" s="1" t="s">
+        <v>3850</v>
+      </c>
+      <c r="E780" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F780" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G780" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H780" s="1" t="s">
+        <v>3851</v>
+      </c>
+      <c r="I780" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J780" s="1" t="s">
+        <v>3721</v>
+      </c>
+      <c r="K780" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L780" s="1" t="s">
+        <v>3722</v>
+      </c>
+      <c r="M780" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N780" s="1" t="s">
+        <v>3852</v>
+      </c>
+      <c r="O780" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P780" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q780" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R780" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S780" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T780" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U780" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V780" s="1" t="s">
+        <v>3853</v>
+      </c>
+      <c r="W780" s="1" t="s">
+        <v>3849</v>
+      </c>
+      <c r="X780" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y780" s="1" t="s">
+        <v>3854</v>
+      </c>
+      <c r="Z780" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA780" s="1" t="s">
+        <v>2014</v>
+      </c>
+      <c r="AB780" s="1" t="s">
+        <v>3855</v>
+      </c>
+      <c r="AC780" s="1" t="s">
+        <v>3856</v>
+      </c>
+      <c r="AD780" s="1" t="s">
+        <v>1481</v>
+      </c>
+      <c r="AE780" s="1" t="s">
+        <v>1482</v>
+      </c>
+      <c r="AF780" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG780" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH780" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI780" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="781" spans="1:35">
+      <c r="A781" s="1" t="s">
+        <v>3857</v>
+      </c>
+      <c r="B781" s="1" t="s">
+        <v>3858</v>
+      </c>
+      <c r="C781" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D781" s="1" t="s">
+        <v>3859</v>
+      </c>
+      <c r="E781" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F781" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G781" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H781" s="1" t="s">
+        <v>3860</v>
+      </c>
+      <c r="I781" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J781" s="1" t="s">
+        <v>3730</v>
+      </c>
+      <c r="K781" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L781" s="1" t="s">
+        <v>3663</v>
+      </c>
+      <c r="M781" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N781" s="1" t="s">
+        <v>3861</v>
+      </c>
+      <c r="O781" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P781" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q781" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R781" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S781" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="T781" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U781" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V781" s="1" t="s">
+        <v>3862</v>
+      </c>
+      <c r="W781" s="1" t="s">
+        <v>3858</v>
+      </c>
+      <c r="X781" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y781" s="1" t="s">
+        <v>3863</v>
+      </c>
+      <c r="Z781" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA781" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="AB781" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="AC781" s="1" t="s">
+        <v>3864</v>
+      </c>
+      <c r="AD781" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AE781" s="1" t="s">
+        <v>3865</v>
+      </c>
+      <c r="AF781" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG781" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH781" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI781" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="782" spans="1:35">
+      <c r="A782" s="1" t="s">
+        <v>3866</v>
+      </c>
+      <c r="B782" s="1" t="s">
+        <v>3867</v>
+      </c>
+      <c r="C782" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D782" s="1" t="s">
+        <v>3868</v>
+      </c>
+      <c r="E782" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F782" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G782" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H782" s="1" t="s">
+        <v>3869</v>
+      </c>
+      <c r="I782" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J782" s="1" t="s">
+        <v>3663</v>
+      </c>
+      <c r="K782" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L782" s="1" t="s">
+        <v>3664</v>
+      </c>
+      <c r="M782" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N782" s="1" t="s">
+        <v>3870</v>
+      </c>
+      <c r="O782" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P782" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q782" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R782" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S782" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T782" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U782" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V782" s="1" t="s">
+        <v>3871</v>
+      </c>
+      <c r="W782" s="1" t="s">
+        <v>3867</v>
+      </c>
+      <c r="X782" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y782" s="1" t="s">
+        <v>3872</v>
+      </c>
+      <c r="Z782" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA782" s="1" t="s">
+        <v>3873</v>
+      </c>
+      <c r="AB782" s="1" t="s">
+        <v>3874</v>
+      </c>
+      <c r="AC782" s="1" t="s">
+        <v>3875</v>
+      </c>
+      <c r="AD782" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE782" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF782" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG782" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH782" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI782" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="783" spans="1:35">
+      <c r="A783" s="1" t="s">
+        <v>3876</v>
+      </c>
+      <c r="B783" s="1" t="s">
+        <v>3877</v>
+      </c>
+      <c r="C783" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D783" s="1" t="s">
+        <v>3800</v>
+      </c>
+      <c r="E783" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F783" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G783" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H783" s="1" t="s">
+        <v>3878</v>
+      </c>
+      <c r="I783" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J783" s="1" t="s">
+        <v>3721</v>
+      </c>
+      <c r="K783" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L783" s="1" t="s">
+        <v>3722</v>
+      </c>
+      <c r="M783" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N783" s="1" t="s">
+        <v>3879</v>
+      </c>
+      <c r="O783" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P783" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q783" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R783" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S783" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="T783" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U783" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V783" s="1" t="s">
+        <v>3880</v>
+      </c>
+      <c r="W783" s="1" t="s">
+        <v>3877</v>
+      </c>
+      <c r="X783" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y783" s="1" t="s">
+        <v>3657</v>
+      </c>
+      <c r="Z783" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA783" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB783" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="AC783" s="1" t="s">
+        <v>3658</v>
+      </c>
+      <c r="AD783" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE783" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF783" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG783" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH783" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI783" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="784" spans="1:35">
+      <c r="A784" s="1" t="s">
+        <v>3881</v>
+      </c>
+      <c r="B784" s="1" t="s">
+        <v>3882</v>
+      </c>
+      <c r="C784" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D784" s="1" t="s">
+        <v>3883</v>
+      </c>
+      <c r="E784" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F784" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G784" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H784" s="1" t="s">
+        <v>3884</v>
+      </c>
+      <c r="I784" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J784" s="1" t="s">
+        <v>3765</v>
+      </c>
+      <c r="K784" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L784" s="1" t="s">
+        <v>3766</v>
+      </c>
+      <c r="M784" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N784" s="1" t="s">
+        <v>3842</v>
+      </c>
+      <c r="O784" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P784" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q784" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R784" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S784" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T784" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U784" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V784" s="1" t="s">
+        <v>3885</v>
+      </c>
+      <c r="W784" s="1" t="s">
+        <v>3882</v>
+      </c>
+      <c r="X784" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y784" s="1" t="s">
+        <v>3886</v>
+      </c>
+      <c r="Z784" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA784" s="1" t="s">
+        <v>3887</v>
+      </c>
+      <c r="AB784" s="1" t="s">
+        <v>3888</v>
+      </c>
+      <c r="AC784" s="1" t="s">
+        <v>3889</v>
+      </c>
+      <c r="AD784" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="AE784" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="AF784" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG784" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH784" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI784" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="785" spans="1:35">
+      <c r="A785" s="4" t="s">
+        <v>3717</v>
+      </c>
+      <c r="B785" s="4" t="s">
+        <v>3718</v>
+      </c>
+      <c r="C785" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D785" s="4" t="s">
+        <v>3719</v>
+      </c>
+      <c r="E785" s="4" t="s">
+        <v>1902</v>
+      </c>
+      <c r="F785" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G785" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H785" s="4" t="s">
+        <v>3720</v>
+      </c>
+      <c r="I785" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J785" s="4" t="s">
+        <v>3721</v>
+      </c>
+      <c r="K785" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="L785" s="4" t="s">
+        <v>3722</v>
+      </c>
+      <c r="M785" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N785" s="4" t="s">
+        <v>3390</v>
+      </c>
+      <c r="O785" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P785" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q785" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="R785" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="S785" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T785" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="U785" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="V785" s="4" t="s">
+        <v>3723</v>
+      </c>
+      <c r="W785" s="4" t="s">
+        <v>3718</v>
+      </c>
+      <c r="X785" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y785" s="4" t="s">
+        <v>3724</v>
+      </c>
+      <c r="Z785" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA785" s="4" t="s">
+        <v>1703</v>
+      </c>
+      <c r="AB785" s="4" t="s">
+        <v>1704</v>
+      </c>
+      <c r="AC785" s="4" t="s">
+        <v>3725</v>
+      </c>
+      <c r="AD785" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE785" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF785" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG785" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH785" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI785" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="786" spans="1:35">
+      <c r="A786" s="4" t="s">
+        <v>3726</v>
+      </c>
+      <c r="B786" s="4" t="s">
+        <v>3727</v>
+      </c>
+      <c r="C786" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D786" s="4" t="s">
+        <v>3728</v>
+      </c>
+      <c r="E786" s="4" t="s">
+        <v>1902</v>
+      </c>
+      <c r="F786" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G786" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H786" s="4" t="s">
+        <v>3729</v>
+      </c>
+      <c r="I786" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J786" s="4" t="s">
+        <v>3730</v>
+      </c>
+      <c r="K786" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="L786" s="4" t="s">
+        <v>3663</v>
+      </c>
+      <c r="M786" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N786" s="4" t="s">
+        <v>3731</v>
+      </c>
+      <c r="O786" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P786" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q786" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="R786" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="S786" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T786" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="U786" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="V786" s="4" t="s">
+        <v>3732</v>
+      </c>
+      <c r="W786" s="4" t="s">
+        <v>3727</v>
+      </c>
+      <c r="X786" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y786" s="4" t="s">
+        <v>3733</v>
+      </c>
+      <c r="Z786" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA786" s="4" t="s">
+        <v>3454</v>
+      </c>
+      <c r="AB786" s="4" t="s">
+        <v>3734</v>
+      </c>
+      <c r="AC786" s="4" t="s">
+        <v>3735</v>
+      </c>
+      <c r="AD786" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="AE786" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF786" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG786" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH786" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI786" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="787" spans="1:35">
+      <c r="A787" s="4" t="s">
+        <v>3736</v>
+      </c>
+      <c r="B787" s="4" t="s">
+        <v>3737</v>
+      </c>
+      <c r="C787" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D787" s="4" t="s">
+        <v>3738</v>
+      </c>
+      <c r="E787" s="4" t="s">
+        <v>1902</v>
+      </c>
+      <c r="F787" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G787" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H787" s="4" t="s">
+        <v>3739</v>
+      </c>
+      <c r="I787" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J787" s="4" t="s">
+        <v>3740</v>
+      </c>
+      <c r="K787" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="L787" s="4" t="s">
+        <v>3741</v>
+      </c>
+      <c r="M787" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N787" s="4" t="s">
+        <v>3742</v>
+      </c>
+      <c r="O787" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="P787" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q787" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="R787" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="S787" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T787" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="U787" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="V787" s="4" t="s">
+        <v>3743</v>
+      </c>
+      <c r="W787" s="4" t="s">
+        <v>3737</v>
+      </c>
+      <c r="X787" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y787" s="4" t="s">
+        <v>3744</v>
+      </c>
+      <c r="Z787" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA787" s="4" t="s">
+        <v>3745</v>
+      </c>
+      <c r="AB787" s="4" t="s">
+        <v>3746</v>
+      </c>
+      <c r="AC787" s="4" t="s">
+        <v>3747</v>
+      </c>
+      <c r="AD787" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE787" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF787" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG787" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH787" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI787" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="788" spans="1:35">
+      <c r="A788" s="4" t="s">
+        <v>3748</v>
+      </c>
+      <c r="B788" s="4" t="s">
+        <v>3749</v>
+      </c>
+      <c r="C788" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D788" s="4" t="s">
+        <v>3750</v>
+      </c>
+      <c r="E788" s="4" t="s">
+        <v>1902</v>
+      </c>
+      <c r="F788" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G788" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H788" s="4" t="s">
+        <v>3751</v>
+      </c>
+      <c r="I788" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J788" s="4" t="s">
+        <v>3730</v>
+      </c>
+      <c r="K788" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="L788" s="4" t="s">
+        <v>3663</v>
+      </c>
+      <c r="M788" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N788" s="4" t="s">
+        <v>3752</v>
+      </c>
+      <c r="O788" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P788" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q788" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="R788" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="S788" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T788" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="U788" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="V788" s="4" t="s">
+        <v>3753</v>
+      </c>
+      <c r="W788" s="4" t="s">
+        <v>3749</v>
+      </c>
+      <c r="X788" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y788" s="4" t="s">
+        <v>3754</v>
+      </c>
+      <c r="Z788" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA788" s="4" t="s">
+        <v>3755</v>
+      </c>
+      <c r="AB788" s="4" t="s">
+        <v>3756</v>
+      </c>
+      <c r="AC788" s="4" t="s">
+        <v>3757</v>
+      </c>
+      <c r="AD788" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE788" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF788" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG788" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH788" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI788" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="789" spans="1:35">
+      <c r="A789" s="4" t="s">
+        <v>3758</v>
+      </c>
+      <c r="B789" s="4" t="s">
+        <v>3196</v>
+      </c>
+      <c r="C789" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D789" s="4" t="s">
+        <v>3759</v>
+      </c>
+      <c r="E789" s="4" t="s">
+        <v>1902</v>
+      </c>
+      <c r="F789" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G789" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H789" s="4" t="s">
+        <v>3198</v>
+      </c>
+      <c r="I789" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J789" s="4" t="s">
+        <v>3721</v>
+      </c>
+      <c r="K789" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="L789" s="4" t="s">
+        <v>3722</v>
+      </c>
+      <c r="M789" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N789" s="4" t="s">
+        <v>3760</v>
+      </c>
+      <c r="O789" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P789" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q789" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="R789" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="S789" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T789" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="U789" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="V789" s="4" t="s">
+        <v>3200</v>
+      </c>
+      <c r="W789" s="4" t="s">
+        <v>3196</v>
+      </c>
+      <c r="X789" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y789" s="4" t="s">
+        <v>3201</v>
+      </c>
+      <c r="Z789" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA789" s="4" t="s">
+        <v>3202</v>
+      </c>
+      <c r="AB789" s="4" t="s">
+        <v>3203</v>
+      </c>
+      <c r="AC789" s="4" t="s">
+        <v>3204</v>
+      </c>
+      <c r="AD789" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="AE789" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF789" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG789" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH789" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI789" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="790" spans="1:35">
+      <c r="A790" s="4" t="s">
+        <v>3761</v>
+      </c>
+      <c r="B790" s="4" t="s">
+        <v>3762</v>
+      </c>
+      <c r="C790" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D790" s="4" t="s">
+        <v>3763</v>
+      </c>
+      <c r="E790" s="4" t="s">
+        <v>1902</v>
+      </c>
+      <c r="F790" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G790" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H790" s="4" t="s">
+        <v>3764</v>
+      </c>
+      <c r="I790" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J790" s="4" t="s">
+        <v>3765</v>
+      </c>
+      <c r="K790" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="L790" s="4" t="s">
+        <v>3766</v>
+      </c>
+      <c r="M790" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N790" s="4" t="s">
+        <v>3767</v>
+      </c>
+      <c r="O790" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P790" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q790" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="R790" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="S790" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T790" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="U790" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="V790" s="4" t="s">
+        <v>3768</v>
+      </c>
+      <c r="W790" s="4" t="s">
+        <v>3762</v>
+      </c>
+      <c r="X790" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y790" s="4" t="s">
+        <v>3769</v>
+      </c>
+      <c r="Z790" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA790" s="4" t="s">
+        <v>1770</v>
+      </c>
+      <c r="AB790" s="4" t="s">
+        <v>1771</v>
+      </c>
+      <c r="AC790" s="4" t="s">
+        <v>3770</v>
+      </c>
+      <c r="AD790" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE790" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF790" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG790" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH790" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI790" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="791" spans="1:35">
+      <c r="A791" s="4" t="s">
+        <v>3771</v>
+      </c>
+      <c r="B791" s="4" t="s">
+        <v>3772</v>
+      </c>
+      <c r="C791" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D791" s="4" t="s">
+        <v>3773</v>
+      </c>
+      <c r="E791" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="F791" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G791" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="H791" s="4" t="s">
+        <v>3774</v>
+      </c>
+      <c r="I791" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J791" s="4" t="s">
+        <v>3765</v>
+      </c>
+      <c r="K791" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="L791" s="4" t="s">
+        <v>3766</v>
+      </c>
+      <c r="M791" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N791" s="4" t="s">
+        <v>3775</v>
+      </c>
+      <c r="O791" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="P791" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q791" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="R791" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="S791" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T791" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="U791" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="V791" s="4" t="s">
+        <v>3776</v>
+      </c>
+      <c r="W791" s="4" t="s">
+        <v>3772</v>
+      </c>
+      <c r="X791" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y791" s="4" t="s">
+        <v>3777</v>
+      </c>
+      <c r="Z791" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA791" s="4" t="s">
+        <v>3778</v>
+      </c>
+      <c r="AB791" s="4" t="s">
+        <v>3779</v>
+      </c>
+      <c r="AC791" s="4" t="s">
+        <v>3780</v>
+      </c>
+      <c r="AD791" s="4" t="s">
+        <v>891</v>
+      </c>
+      <c r="AE791" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF791" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG791" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH791" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI791" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="792" spans="1:35">
+      <c r="A792" s="4" t="s">
+        <v>3781</v>
+      </c>
+      <c r="B792" s="4" t="s">
+        <v>3782</v>
+      </c>
+      <c r="C792" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D792" s="4" t="s">
+        <v>3783</v>
+      </c>
+      <c r="E792" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="F792" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G792" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H792" s="4" t="s">
+        <v>3784</v>
+      </c>
+      <c r="I792" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J792" s="4" t="s">
+        <v>3663</v>
+      </c>
+      <c r="K792" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="L792" s="4" t="s">
+        <v>3664</v>
+      </c>
+      <c r="M792" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N792" s="4" t="s">
+        <v>3708</v>
+      </c>
+      <c r="O792" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P792" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q792" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="R792" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="S792" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T792" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="U792" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="V792" s="4" t="s">
+        <v>3785</v>
+      </c>
+      <c r="W792" s="4" t="s">
+        <v>3782</v>
+      </c>
+      <c r="X792" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y792" s="4" t="s">
+        <v>3786</v>
+      </c>
+      <c r="Z792" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA792" s="4" t="s">
+        <v>2037</v>
+      </c>
+      <c r="AB792" s="4" t="s">
+        <v>3787</v>
+      </c>
+      <c r="AC792" s="4" t="s">
+        <v>3788</v>
+      </c>
+      <c r="AD792" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE792" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF792" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG792" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH792" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI792" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="793" spans="1:35">
+      <c r="A793" s="4" t="s">
+        <v>3789</v>
+      </c>
+      <c r="B793" s="4" t="s">
+        <v>3790</v>
+      </c>
+      <c r="C793" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D793" s="4" t="s">
+        <v>3738</v>
+      </c>
+      <c r="E793" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="F793" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G793" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H793" s="4" t="s">
+        <v>3791</v>
+      </c>
+      <c r="I793" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J793" s="4" t="s">
+        <v>3730</v>
+      </c>
+      <c r="K793" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="L793" s="4" t="s">
+        <v>3663</v>
+      </c>
+      <c r="M793" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N793" s="4" t="s">
+        <v>3792</v>
+      </c>
+      <c r="O793" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P793" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q793" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="R793" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="S793" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T793" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="U793" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="V793" s="4" t="s">
+        <v>3793</v>
+      </c>
+      <c r="W793" s="4" t="s">
+        <v>3790</v>
+      </c>
+      <c r="X793" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y793" s="4" t="s">
+        <v>3794</v>
+      </c>
+      <c r="Z793" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA793" s="4" t="s">
+        <v>3795</v>
+      </c>
+      <c r="AB793" s="4" t="s">
+        <v>3796</v>
+      </c>
+      <c r="AC793" s="4" t="s">
+        <v>3797</v>
+      </c>
+      <c r="AD793" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE793" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF793" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG793" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH793" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI793" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="794" spans="1:35">
+      <c r="A794" s="4" t="s">
+        <v>3798</v>
+      </c>
+      <c r="B794" s="4" t="s">
+        <v>3799</v>
+      </c>
+      <c r="C794" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D794" s="4" t="s">
+        <v>3800</v>
+      </c>
+      <c r="E794" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="F794" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G794" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H794" s="4" t="s">
+        <v>3801</v>
+      </c>
+      <c r="I794" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J794" s="4" t="s">
+        <v>3765</v>
+      </c>
+      <c r="K794" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="L794" s="4" t="s">
+        <v>3766</v>
+      </c>
+      <c r="M794" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N794" s="4" t="s">
+        <v>3585</v>
+      </c>
+      <c r="O794" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="P794" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q794" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="R794" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="S794" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T794" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="U794" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="V794" s="4" t="s">
+        <v>3802</v>
+      </c>
+      <c r="W794" s="4" t="s">
+        <v>3799</v>
+      </c>
+      <c r="X794" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y794" s="4" t="s">
+        <v>3803</v>
+      </c>
+      <c r="Z794" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA794" s="4" t="s">
+        <v>3688</v>
+      </c>
+      <c r="AB794" s="4" t="s">
+        <v>3804</v>
+      </c>
+      <c r="AC794" s="4" t="s">
+        <v>3805</v>
+      </c>
+      <c r="AD794" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE794" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF794" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG794" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH794" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI794" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="795" spans="1:35">
+      <c r="A795" s="4" t="s">
+        <v>3806</v>
+      </c>
+      <c r="B795" s="4" t="s">
+        <v>3807</v>
+      </c>
+      <c r="C795" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D795" s="4" t="s">
+        <v>3808</v>
+      </c>
+      <c r="E795" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="F795" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G795" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="H795" s="4" t="s">
+        <v>3809</v>
+      </c>
+      <c r="I795" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J795" s="4" t="s">
+        <v>3663</v>
+      </c>
+      <c r="K795" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="L795" s="4" t="s">
+        <v>3664</v>
+      </c>
+      <c r="M795" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N795" s="4" t="s">
+        <v>3810</v>
+      </c>
+      <c r="O795" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="P795" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q795" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="R795" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="S795" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T795" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="U795" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="V795" s="4" t="s">
+        <v>3811</v>
+      </c>
+      <c r="W795" s="4" t="s">
+        <v>3807</v>
+      </c>
+      <c r="X795" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y795" s="4" t="s">
+        <v>3812</v>
+      </c>
+      <c r="Z795" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA795" s="4" t="s">
+        <v>2037</v>
+      </c>
+      <c r="AB795" s="4" t="s">
+        <v>3813</v>
+      </c>
+      <c r="AC795" s="4" t="s">
+        <v>3814</v>
+      </c>
+      <c r="AD795" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE795" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF795" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG795" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH795" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI795" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="796" spans="1:35">
+      <c r="A796" s="4" t="s">
+        <v>3815</v>
+      </c>
+      <c r="B796" s="4" t="s">
+        <v>3816</v>
+      </c>
+      <c r="C796" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D796" s="4" t="s">
+        <v>3817</v>
+      </c>
+      <c r="E796" s="4" t="s">
+        <v>1903</v>
+      </c>
+      <c r="F796" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G796" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H796" s="4" t="s">
+        <v>3818</v>
+      </c>
+      <c r="I796" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J796" s="4" t="s">
+        <v>3765</v>
+      </c>
+      <c r="K796" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="L796" s="4" t="s">
+        <v>3766</v>
+      </c>
+      <c r="M796" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N796" s="4" t="s">
+        <v>3217</v>
+      </c>
+      <c r="O796" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P796" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q796" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="R796" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="S796" s="4" t="s">
+        <v>3819</v>
+      </c>
+      <c r="T796" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="U796" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="V796" s="4" t="s">
+        <v>3820</v>
+      </c>
+      <c r="W796" s="4" t="s">
+        <v>3816</v>
+      </c>
+      <c r="X796" s="4" t="s">
+        <v>3821</v>
+      </c>
+      <c r="Y796" s="4" t="s">
+        <v>3822</v>
+      </c>
+      <c r="Z796" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA796" s="4" t="s">
+        <v>3823</v>
+      </c>
+      <c r="AB796" s="4" t="s">
+        <v>3824</v>
+      </c>
+      <c r="AC796" s="4" t="s">
+        <v>3825</v>
+      </c>
+      <c r="AD796" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="AE796" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="AF796" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG796" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH796" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI796" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="797" spans="1:35">
+      <c r="A797" s="4" t="s">
+        <v>3826</v>
+      </c>
+      <c r="B797" s="4" t="s">
+        <v>3827</v>
+      </c>
+      <c r="C797" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D797" s="4" t="s">
+        <v>3828</v>
+      </c>
+      <c r="E797" s="4" t="s">
+        <v>1903</v>
+      </c>
+      <c r="F797" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G797" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H797" s="4" t="s">
+        <v>3829</v>
+      </c>
+      <c r="I797" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J797" s="4" t="s">
+        <v>3721</v>
+      </c>
+      <c r="K797" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="L797" s="4" t="s">
+        <v>3722</v>
+      </c>
+      <c r="M797" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N797" s="4" t="s">
+        <v>3708</v>
+      </c>
+      <c r="O797" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P797" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q797" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="R797" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="S797" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="T797" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="U797" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="V797" s="4" t="s">
+        <v>3830</v>
+      </c>
+      <c r="W797" s="4" t="s">
+        <v>3827</v>
+      </c>
+      <c r="X797" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y797" s="4" t="s">
+        <v>1539</v>
+      </c>
+      <c r="Z797" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA797" s="4" t="s">
+        <v>1229</v>
+      </c>
+      <c r="AB797" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="AC797" s="4" t="s">
+        <v>1540</v>
+      </c>
+      <c r="AD797" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE797" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF797" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG797" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH797" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI797" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="798" spans="1:35">
+      <c r="A798" s="4" t="s">
+        <v>3831</v>
+      </c>
+      <c r="B798" s="4" t="s">
+        <v>3832</v>
+      </c>
+      <c r="C798" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D798" s="4" t="s">
+        <v>3833</v>
+      </c>
+      <c r="E798" s="4" t="s">
+        <v>1903</v>
+      </c>
+      <c r="F798" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G798" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H798" s="4" t="s">
+        <v>3834</v>
+      </c>
+      <c r="I798" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J798" s="4" t="s">
+        <v>3765</v>
+      </c>
+      <c r="K798" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="L798" s="4" t="s">
+        <v>3766</v>
+      </c>
+      <c r="M798" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N798" s="4" t="s">
+        <v>3835</v>
+      </c>
+      <c r="O798" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P798" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q798" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="R798" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="S798" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="T798" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="U798" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="V798" s="4" t="s">
+        <v>3836</v>
+      </c>
+      <c r="W798" s="4" t="s">
+        <v>3832</v>
+      </c>
+      <c r="X798" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y798" s="4" t="s">
+        <v>3837</v>
+      </c>
+      <c r="Z798" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA798" s="4" t="s">
+        <v>1308</v>
+      </c>
+      <c r="AB798" s="4" t="s">
+        <v>1309</v>
+      </c>
+      <c r="AC798" s="4" t="s">
+        <v>3838</v>
+      </c>
+      <c r="AD798" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE798" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF798" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG798" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH798" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI798" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="799" spans="1:35">
+      <c r="A799" s="4" t="s">
+        <v>3839</v>
+      </c>
+      <c r="B799" s="4" t="s">
+        <v>3840</v>
+      </c>
+      <c r="C799" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D799" s="4" t="s">
+        <v>3728</v>
+      </c>
+      <c r="E799" s="4" t="s">
+        <v>1903</v>
+      </c>
+      <c r="F799" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G799" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H799" s="4" t="s">
+        <v>3841</v>
+      </c>
+      <c r="I799" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J799" s="4" t="s">
+        <v>3730</v>
+      </c>
+      <c r="K799" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="L799" s="4" t="s">
+        <v>3663</v>
+      </c>
+      <c r="M799" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N799" s="4" t="s">
+        <v>3842</v>
+      </c>
+      <c r="O799" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="P799" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q799" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="R799" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="S799" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T799" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="U799" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="V799" s="4" t="s">
+        <v>3843</v>
+      </c>
+      <c r="W799" s="4" t="s">
+        <v>3840</v>
+      </c>
+      <c r="X799" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y799" s="4" t="s">
+        <v>3844</v>
+      </c>
+      <c r="Z799" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA799" s="4" t="s">
+        <v>3845</v>
+      </c>
+      <c r="AB799" s="4" t="s">
+        <v>3846</v>
+      </c>
+      <c r="AC799" s="4" t="s">
+        <v>3847</v>
+      </c>
+      <c r="AD799" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE799" s="4" t="s">
+        <v>1503</v>
+      </c>
+      <c r="AF799" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG799" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH799" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI799" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="800" spans="1:35">
+      <c r="A800" s="4" t="s">
+        <v>3848</v>
+      </c>
+      <c r="B800" s="4" t="s">
+        <v>3849</v>
+      </c>
+      <c r="C800" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D800" s="4" t="s">
+        <v>3850</v>
+      </c>
+      <c r="E800" s="4" t="s">
+        <v>1900</v>
+      </c>
+      <c r="F800" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G800" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H800" s="4" t="s">
+        <v>3851</v>
+      </c>
+      <c r="I800" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J800" s="4" t="s">
+        <v>3721</v>
+      </c>
+      <c r="K800" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="L800" s="4" t="s">
+        <v>3722</v>
+      </c>
+      <c r="M800" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N800" s="4" t="s">
+        <v>3852</v>
+      </c>
+      <c r="O800" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P800" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q800" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="R800" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="S800" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T800" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="U800" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="V800" s="4" t="s">
+        <v>3853</v>
+      </c>
+      <c r="W800" s="4" t="s">
+        <v>3849</v>
+      </c>
+      <c r="X800" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y800" s="4" t="s">
+        <v>3854</v>
+      </c>
+      <c r="Z800" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA800" s="4" t="s">
+        <v>2014</v>
+      </c>
+      <c r="AB800" s="4" t="s">
+        <v>3855</v>
+      </c>
+      <c r="AC800" s="4" t="s">
+        <v>3856</v>
+      </c>
+      <c r="AD800" s="4" t="s">
+        <v>1481</v>
+      </c>
+      <c r="AE800" s="4" t="s">
+        <v>1482</v>
+      </c>
+      <c r="AF800" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG800" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH800" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI800" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="801" spans="1:35">
+      <c r="A801" s="4" t="s">
+        <v>3857</v>
+      </c>
+      <c r="B801" s="4" t="s">
+        <v>3858</v>
+      </c>
+      <c r="C801" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D801" s="4" t="s">
+        <v>3859</v>
+      </c>
+      <c r="E801" s="4" t="s">
+        <v>1900</v>
+      </c>
+      <c r="F801" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G801" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H801" s="4" t="s">
+        <v>3860</v>
+      </c>
+      <c r="I801" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J801" s="4" t="s">
+        <v>3730</v>
+      </c>
+      <c r="K801" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="L801" s="4" t="s">
+        <v>3663</v>
+      </c>
+      <c r="M801" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N801" s="4" t="s">
+        <v>3861</v>
+      </c>
+      <c r="O801" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P801" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q801" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="R801" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="S801" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="T801" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="U801" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="V801" s="4" t="s">
+        <v>3862</v>
+      </c>
+      <c r="W801" s="4" t="s">
+        <v>3858</v>
+      </c>
+      <c r="X801" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y801" s="4" t="s">
+        <v>3863</v>
+      </c>
+      <c r="Z801" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA801" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="AB801" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="AC801" s="4" t="s">
+        <v>3864</v>
+      </c>
+      <c r="AD801" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="AE801" s="4" t="s">
+        <v>3865</v>
+      </c>
+      <c r="AF801" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG801" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH801" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI801" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="802" spans="1:35">
+      <c r="A802" s="4" t="s">
+        <v>3866</v>
+      </c>
+      <c r="B802" s="4" t="s">
+        <v>3867</v>
+      </c>
+      <c r="C802" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D802" s="4" t="s">
+        <v>3868</v>
+      </c>
+      <c r="E802" s="4" t="s">
+        <v>1900</v>
+      </c>
+      <c r="F802" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G802" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H802" s="4" t="s">
+        <v>3869</v>
+      </c>
+      <c r="I802" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J802" s="4" t="s">
+        <v>3663</v>
+      </c>
+      <c r="K802" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="L802" s="4" t="s">
+        <v>3664</v>
+      </c>
+      <c r="M802" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N802" s="4" t="s">
+        <v>3870</v>
+      </c>
+      <c r="O802" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P802" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q802" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="R802" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="S802" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T802" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="U802" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="V802" s="4" t="s">
+        <v>3871</v>
+      </c>
+      <c r="W802" s="4" t="s">
+        <v>3867</v>
+      </c>
+      <c r="X802" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y802" s="4" t="s">
+        <v>3872</v>
+      </c>
+      <c r="Z802" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA802" s="4" t="s">
+        <v>3873</v>
+      </c>
+      <c r="AB802" s="4" t="s">
+        <v>3874</v>
+      </c>
+      <c r="AC802" s="4" t="s">
+        <v>3875</v>
+      </c>
+      <c r="AD802" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE802" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF802" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG802" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH802" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI802" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="803" spans="1:35">
+      <c r="A803" s="4" t="s">
+        <v>3876</v>
+      </c>
+      <c r="B803" s="4" t="s">
+        <v>3877</v>
+      </c>
+      <c r="C803" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D803" s="4" t="s">
+        <v>3800</v>
+      </c>
+      <c r="E803" s="4" t="s">
+        <v>1900</v>
+      </c>
+      <c r="F803" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G803" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H803" s="4" t="s">
+        <v>3878</v>
+      </c>
+      <c r="I803" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J803" s="4" t="s">
+        <v>3721</v>
+      </c>
+      <c r="K803" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="L803" s="4" t="s">
+        <v>3722</v>
+      </c>
+      <c r="M803" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N803" s="4" t="s">
+        <v>3879</v>
+      </c>
+      <c r="O803" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P803" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q803" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="R803" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="S803" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="T803" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="U803" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="V803" s="4" t="s">
+        <v>3880</v>
+      </c>
+      <c r="W803" s="4" t="s">
+        <v>3877</v>
+      </c>
+      <c r="X803" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y803" s="4" t="s">
+        <v>3657</v>
+      </c>
+      <c r="Z803" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA803" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB803" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="AC803" s="4" t="s">
+        <v>3658</v>
+      </c>
+      <c r="AD803" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE803" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF803" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG803" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH803" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI803" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="804" spans="1:35">
+      <c r="A804" s="4" t="s">
+        <v>3881</v>
+      </c>
+      <c r="B804" s="4" t="s">
+        <v>3882</v>
+      </c>
+      <c r="C804" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D804" s="4" t="s">
+        <v>3883</v>
+      </c>
+      <c r="E804" s="4" t="s">
+        <v>1900</v>
+      </c>
+      <c r="F804" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G804" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H804" s="4" t="s">
+        <v>3884</v>
+      </c>
+      <c r="I804" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J804" s="4" t="s">
+        <v>3765</v>
+      </c>
+      <c r="K804" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="L804" s="4" t="s">
+        <v>3766</v>
+      </c>
+      <c r="M804" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N804" s="4" t="s">
+        <v>3842</v>
+      </c>
+      <c r="O804" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P804" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q804" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="R804" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="S804" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T804" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="U804" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="V804" s="4" t="s">
+        <v>3885</v>
+      </c>
+      <c r="W804" s="4" t="s">
+        <v>3882</v>
+      </c>
+      <c r="X804" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y804" s="4" t="s">
+        <v>3886</v>
+      </c>
+      <c r="Z804" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA804" s="4" t="s">
+        <v>3887</v>
+      </c>
+      <c r="AB804" s="4" t="s">
+        <v>3888</v>
+      </c>
+      <c r="AC804" s="4" t="s">
+        <v>3889</v>
+      </c>
+      <c r="AD804" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="AE804" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="AF804" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG804" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH804" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI804" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AI500"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/deliveryopenfiber.xlsx
+++ b/deliveryopenfiber.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28105" uniqueCount="3890">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29890" uniqueCount="4132">
   <si>
     <t>Codice</t>
   </si>
@@ -11687,6 +11687,732 @@
   </si>
   <si>
     <t>SR_01/05e34/I754_VIA ROMA_26_1</t>
+  </si>
+  <si>
+    <t>DEL1003594191</t>
+  </si>
+  <si>
+    <t>4224696945526860912</t>
+  </si>
+  <si>
+    <t>28/08/2025 09:38</t>
+  </si>
+  <si>
+    <t>GIUSEPPE AMORE</t>
+  </si>
+  <si>
+    <t>28/08/2025 08:30</t>
+  </si>
+  <si>
+    <t>28/08/2025 10:30</t>
+  </si>
+  <si>
+    <t>23/08/2025 13:16</t>
+  </si>
+  <si>
+    <t>OPI_3719566</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000971070_30</t>
+  </si>
+  <si>
+    <t>SR_01/VOD_0069</t>
+  </si>
+  <si>
+    <t>SR_01/08w13-SP_02</t>
+  </si>
+  <si>
+    <t>SR_01/08w13/I754_VIA MONTI PELORITANI_30</t>
+  </si>
+  <si>
+    <t>DEL1003598056</t>
+  </si>
+  <si>
+    <t>4224696945542621544</t>
+  </si>
+  <si>
+    <t>28/08/2025 16:48</t>
+  </si>
+  <si>
+    <t>ANTONINO PAVANO</t>
+  </si>
+  <si>
+    <t>28/08/2025 16:30</t>
+  </si>
+  <si>
+    <t>28/08/2025 18:00</t>
+  </si>
+  <si>
+    <t>25/08/2025 10:36</t>
+  </si>
+  <si>
+    <t>OPI_3732380</t>
+  </si>
+  <si>
+    <t>19_089_089009_8001005560_59</t>
+  </si>
+  <si>
+    <t>SR_09/01e11/SR_09/01e11/D636_012</t>
+  </si>
+  <si>
+    <t>DEL1003602937</t>
+  </si>
+  <si>
+    <t>4224696945537221738</t>
+  </si>
+  <si>
+    <t>28/08/2025 14:48</t>
+  </si>
+  <si>
+    <t>SEBASTIANO CUCINOTTA</t>
+  </si>
+  <si>
+    <t>28/08/2025 14:30</t>
+  </si>
+  <si>
+    <t>26/08/2025 19:06</t>
+  </si>
+  <si>
+    <t>COC_90000000185246</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000970572_3</t>
+  </si>
+  <si>
+    <t>DEL1003605245</t>
+  </si>
+  <si>
+    <t>4224696945546066151</t>
+  </si>
+  <si>
+    <t>28/08/2025 12:48</t>
+  </si>
+  <si>
+    <t>concetta bordone</t>
+  </si>
+  <si>
+    <t>27/08/2025 14:16</t>
+  </si>
+  <si>
+    <t>OPI_3735250</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000970309_1</t>
+  </si>
+  <si>
+    <t>SR_01/VOD_0015</t>
+  </si>
+  <si>
+    <t>SR_01/01e34-SP_02</t>
+  </si>
+  <si>
+    <t>SR_01/01e34/I754_VIA DEMOSTENE_1_1</t>
+  </si>
+  <si>
+    <t>DEL1003605252</t>
+  </si>
+  <si>
+    <t>4224696945543735145</t>
+  </si>
+  <si>
+    <t>28/08/2025 16:06</t>
+  </si>
+  <si>
+    <t>GAETANO ROSSITTO</t>
+  </si>
+  <si>
+    <t>ENE_00000732677</t>
+  </si>
+  <si>
+    <t>19_089_089017_8001005525_142</t>
+  </si>
+  <si>
+    <t>SR_01/01e23-SP_03</t>
+  </si>
+  <si>
+    <t>SR_01/01e23/I754_VIALE TERACATI_142_1</t>
+  </si>
+  <si>
+    <t>DEL1003540424</t>
+  </si>
+  <si>
+    <t>4224696945515562587</t>
+  </si>
+  <si>
+    <t>28/08/2025 16:38</t>
+  </si>
+  <si>
+    <t>ELENA EPIFANIA MESSINA</t>
+  </si>
+  <si>
+    <t>02/08/2025 20:26</t>
+  </si>
+  <si>
+    <t>9455718338633439</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000970372_19</t>
+  </si>
+  <si>
+    <t>SR_01/SKY_0003</t>
+  </si>
+  <si>
+    <t>SR_01/01w31-SP_04</t>
+  </si>
+  <si>
+    <t>SR_01/01w31/I754_VIA GIOVANNI MALFITANO_19_1</t>
+  </si>
+  <si>
+    <t>DEL1003585327</t>
+  </si>
+  <si>
+    <t>4224696945527780495</t>
+  </si>
+  <si>
+    <t>28/08/2025 10:08</t>
+  </si>
+  <si>
+    <t>FRANCESCO PLANETA</t>
+  </si>
+  <si>
+    <t>OPI_3717946</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000969181_5</t>
+  </si>
+  <si>
+    <t>SR_01/VOD_0144</t>
+  </si>
+  <si>
+    <t>SR_01/06e12-SP_11</t>
+  </si>
+  <si>
+    <t>SR_01/06e12/I754_VIA GIANMARIA TREVISANO_5_1</t>
+  </si>
+  <si>
+    <t>DEL1003594054</t>
+  </si>
+  <si>
+    <t>4224696945535865161</t>
+  </si>
+  <si>
+    <t>28/08/2025 07:36</t>
+  </si>
+  <si>
+    <t>NELLA ARANGIO</t>
+  </si>
+  <si>
+    <t>23/08/2025 12:06</t>
+  </si>
+  <si>
+    <t>EDE_00000000025889</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000970256_1</t>
+  </si>
+  <si>
+    <t>SR_01/EOF_0089</t>
+  </si>
+  <si>
+    <t>SR_01/06w11-SP_10</t>
+  </si>
+  <si>
+    <t>SR_01/06w11/I754_VIA BARTOLOMEO CANNIZZO_1_1</t>
+  </si>
+  <si>
+    <t>DEL1003594910</t>
+  </si>
+  <si>
+    <t>4224696945542623273</t>
+  </si>
+  <si>
+    <t>28/08/2025 10:38</t>
+  </si>
+  <si>
+    <t>ELIO MICELI</t>
+  </si>
+  <si>
+    <t>23/08/2025 19:16</t>
+  </si>
+  <si>
+    <t>WN_9002089985</t>
+  </si>
+  <si>
+    <t>19_089_089017_8001078058_15</t>
+  </si>
+  <si>
+    <t>SR_01/04e13/I754_VIA TORINO_5D</t>
+  </si>
+  <si>
+    <t>DEL1003598382</t>
+  </si>
+  <si>
+    <t>4224696945543733538</t>
+  </si>
+  <si>
+    <t>28/08/2025 07:56</t>
+  </si>
+  <si>
+    <t>LUCIA RANDAZZO</t>
+  </si>
+  <si>
+    <t>ENE_00000732091</t>
+  </si>
+  <si>
+    <t>19_089_089017_8001077528_10</t>
+  </si>
+  <si>
+    <t>SR_01/01w11-SP_03</t>
+  </si>
+  <si>
+    <t>SR_01/01w11/I754_VIA ALESSANDRO FLEMING_14</t>
+  </si>
+  <si>
+    <t>DEL1003603096</t>
+  </si>
+  <si>
+    <t>4224696945544363635</t>
+  </si>
+  <si>
+    <t>28/08/2025 15:18</t>
+  </si>
+  <si>
+    <t>vincenzo cirasa</t>
+  </si>
+  <si>
+    <t>26/08/2025 19:56</t>
+  </si>
+  <si>
+    <t>OPI_3734865</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000970979_7</t>
+  </si>
+  <si>
+    <t>SR_01/08w12-SP_02</t>
+  </si>
+  <si>
+    <t>SR_01/08w12/I754_VIA MONTE ROSA_7_1</t>
+  </si>
+  <si>
+    <t>DEL1003604844</t>
+  </si>
+  <si>
+    <t>4224696945546066256</t>
+  </si>
+  <si>
+    <t>28/08/2025 13:48</t>
+  </si>
+  <si>
+    <t>SERGIO ADRAGNA</t>
+  </si>
+  <si>
+    <t>27/08/2025 11:56</t>
+  </si>
+  <si>
+    <t>WN_9002092629</t>
+  </si>
+  <si>
+    <t>19_089_089017_8001005528_114/1</t>
+  </si>
+  <si>
+    <t>SR_01/WIN_0144</t>
+  </si>
+  <si>
+    <t>SR_01/02e11-SP_07</t>
+  </si>
+  <si>
+    <t>SR_01/02e11/I754_VIALE SANTA PANAGIA_114/1_1</t>
+  </si>
+  <si>
+    <t>DEL1003548202</t>
+  </si>
+  <si>
+    <t>4224696945527778559</t>
+  </si>
+  <si>
+    <t>28/08/2025 12:18</t>
+  </si>
+  <si>
+    <t>GASPARE CAMPISI</t>
+  </si>
+  <si>
+    <t>4031784223986087</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000970099_112</t>
+  </si>
+  <si>
+    <t>SR_01/SKY_0019</t>
+  </si>
+  <si>
+    <t>SR_01/02e33-SP_04</t>
+  </si>
+  <si>
+    <t>SR_01/02e33/I754_VIA LUIGI VANVITELLI_112_1</t>
+  </si>
+  <si>
+    <t>DEL1003585406</t>
+  </si>
+  <si>
+    <t>4224696945538346523</t>
+  </si>
+  <si>
+    <t>LISA CURCURÙ</t>
+  </si>
+  <si>
+    <t>20/08/2025 10:56</t>
+  </si>
+  <si>
+    <t>ENE_00000727607</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000970503_37</t>
+  </si>
+  <si>
+    <t>SR_01/03e21-SP_10</t>
+  </si>
+  <si>
+    <t>SR_01/03e21/I754_VIA BRENTA_37_1</t>
+  </si>
+  <si>
+    <t>DEL1003597822</t>
+  </si>
+  <si>
+    <t>4224696945542621373</t>
+  </si>
+  <si>
+    <t>28/08/2025 15:06</t>
+  </si>
+  <si>
+    <t>SEBASTIANO FRONTE</t>
+  </si>
+  <si>
+    <t>25/08/2025 09:26</t>
+  </si>
+  <si>
+    <t>ILA_1755452105948</t>
+  </si>
+  <si>
+    <t>19_089_089017_8001005514_142</t>
+  </si>
+  <si>
+    <t>SR_01/03w13/I754_VIALE LUIGI CADORNA_150</t>
+  </si>
+  <si>
+    <t>DEL1003579505</t>
+  </si>
+  <si>
+    <t>4224696945501938023</t>
+  </si>
+  <si>
+    <t>28/08/2025 12:08</t>
+  </si>
+  <si>
+    <t>MICHELA DI GIUSEPPE</t>
+  </si>
+  <si>
+    <t>08/09/2025 08:30</t>
+  </si>
+  <si>
+    <t>08/09/2025 10:30</t>
+  </si>
+  <si>
+    <t>WN_9002042426</t>
+  </si>
+  <si>
+    <t>19_089_089014_8001458614_5</t>
+  </si>
+  <si>
+    <t>SRBWA/EOF_0005</t>
+  </si>
+  <si>
+    <t>G211_CNO1-SP_02</t>
+  </si>
+  <si>
+    <t>G211_CNO1/G211_125</t>
+  </si>
+  <si>
+    <t>DEL1003579561</t>
+  </si>
+  <si>
+    <t>4224696945416509774</t>
+  </si>
+  <si>
+    <t>28/08/2025 11:48</t>
+  </si>
+  <si>
+    <t>PATRIZIA AMENTA</t>
+  </si>
+  <si>
+    <t>30/08/2025 11:30</t>
+  </si>
+  <si>
+    <t>30/08/2025 13:30</t>
+  </si>
+  <si>
+    <t>WN_9002002254</t>
+  </si>
+  <si>
+    <t>19_089_089014_8001078034_21</t>
+  </si>
+  <si>
+    <t>G211_CNO1/G211_134</t>
+  </si>
+  <si>
+    <t>DEL1003579562</t>
+  </si>
+  <si>
+    <t>4224696945362192216</t>
+  </si>
+  <si>
+    <t>28/08/2025 12:58</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OLIMPIANS SERVIZI DI FELICE ARANGIO</t>
+  </si>
+  <si>
+    <t>OPI_3614935</t>
+  </si>
+  <si>
+    <t>19_089_089014_8001078455_10</t>
+  </si>
+  <si>
+    <t>G211_CNO1/F943_134</t>
+  </si>
+  <si>
+    <t>DEL1003605987</t>
+  </si>
+  <si>
+    <t>4224696945546068286</t>
+  </si>
+  <si>
+    <t>28/08/2025 16:28</t>
+  </si>
+  <si>
+    <t>PANTALEO SANSONE</t>
+  </si>
+  <si>
+    <t>27/08/2025 17:46</t>
+  </si>
+  <si>
+    <t>WN_9002093499</t>
+  </si>
+  <si>
+    <t>19_089_089017_8001005533_181</t>
+  </si>
+  <si>
+    <t>SR_01/WIN_0181</t>
+  </si>
+  <si>
+    <t>SR_01/01w12-SP_12</t>
+  </si>
+  <si>
+    <t>SR_01/01w12/I754_VIALE SCALA GRECA_181_1_D</t>
+  </si>
+  <si>
+    <t>DEL1003598259</t>
+  </si>
+  <si>
+    <t>4224696945541327225</t>
+  </si>
+  <si>
+    <t>28/08/2025 09:28</t>
+  </si>
+  <si>
+    <t>GIORGIA LO MANTO</t>
+  </si>
+  <si>
+    <t>25/08/2025 11:36</t>
+  </si>
+  <si>
+    <t>ILA_1755856545696</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000970396_12</t>
+  </si>
+  <si>
+    <t>SR_01/ILD_0010</t>
+  </si>
+  <si>
+    <t>SR_01/03w21-SP_07</t>
+  </si>
+  <si>
+    <t>SR_01/03w21/I754_VIA GIUSEPPE PRIVITERA_12</t>
+  </si>
+  <si>
+    <t>DEL1003598810</t>
+  </si>
+  <si>
+    <t>4224696945543734078</t>
+  </si>
+  <si>
+    <t>RAFFAELLA PIRAINO</t>
+  </si>
+  <si>
+    <t>25/08/2025 14:36</t>
+  </si>
+  <si>
+    <t>ILA_1756116904288</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000916253_7</t>
+  </si>
+  <si>
+    <t>SR_01/ILD_0043</t>
+  </si>
+  <si>
+    <t>SR_01/05e34-SP_05</t>
+  </si>
+  <si>
+    <t>SR_01/05e34/I754_VIA DELLA GIUDECCA_9</t>
+  </si>
+  <si>
+    <t>DEL1003602355</t>
+  </si>
+  <si>
+    <t>4224696945543734992</t>
+  </si>
+  <si>
+    <t>MARIA ROSA DE MARTE</t>
+  </si>
+  <si>
+    <t>26/08/2025 15:36</t>
+  </si>
+  <si>
+    <t>ILA_1756127135796</t>
+  </si>
+  <si>
+    <t>19_089_089021_8000915439_98/3</t>
+  </si>
+  <si>
+    <t>SR_12/01w23/SR_12/01w23/M279_100</t>
+  </si>
+  <si>
+    <t>DEL1003604551</t>
+  </si>
+  <si>
+    <t>4224696945544363056</t>
+  </si>
+  <si>
+    <t>PIETRO BENNARDO</t>
+  </si>
+  <si>
+    <t>27/08/2025 10:36</t>
+  </si>
+  <si>
+    <t>ENE_00000733943</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000967577_8</t>
+  </si>
+  <si>
+    <t>SR_01/07w13/I754_VIA GREGORIO ASBESTA_8_Sc B_1</t>
+  </si>
+  <si>
+    <t>DEL1003605104</t>
+  </si>
+  <si>
+    <t>4224696945546066462</t>
+  </si>
+  <si>
+    <t>28/08/2025 11:08</t>
+  </si>
+  <si>
+    <t>MARIAGRAZIA CARBONE</t>
+  </si>
+  <si>
+    <t>27/08/2025 13:26</t>
+  </si>
+  <si>
+    <t>WN_9002092589</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000970079_172</t>
+  </si>
+  <si>
+    <t>SR_01/WIN_0147</t>
+  </si>
+  <si>
+    <t>SR_01/03w23-SP_08</t>
+  </si>
+  <si>
+    <t>SR_01/03w23/I754_VIA BAINSIZZA_172_1</t>
+  </si>
+  <si>
+    <t>DEL1003594861</t>
+  </si>
+  <si>
+    <t>4224696945542622993</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Marzia giarrizzo</t>
+  </si>
+  <si>
+    <t>23/08/2025 18:46</t>
+  </si>
+  <si>
+    <t>OPI_3732803</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000969279_2</t>
+  </si>
+  <si>
+    <t>SR_01/03e13-SP_11</t>
+  </si>
+  <si>
+    <t>SR_01/03e13/I754_VIA SIMETO_6</t>
+  </si>
+  <si>
+    <t>DEL1003598978</t>
+  </si>
+  <si>
+    <t>4224696945543734362</t>
+  </si>
+  <si>
+    <t>SABRINA FABIO</t>
+  </si>
+  <si>
+    <t>25/08/2025 15:26</t>
+  </si>
+  <si>
+    <t>OPI_3733522</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000969157_10</t>
+  </si>
+  <si>
+    <t>SR_01/03e24-SP_06</t>
+  </si>
+  <si>
+    <t>SR_01/03e24/I754_VIA TEVERE_10_1</t>
+  </si>
+  <si>
+    <t>DEL1003604632</t>
+  </si>
+  <si>
+    <t>4224696945546065100</t>
+  </si>
+  <si>
+    <t>28/08/2025 14:08</t>
+  </si>
+  <si>
+    <t>CARMELA PASQUA</t>
+  </si>
+  <si>
+    <t>27/08/2025 10:56</t>
+  </si>
+  <si>
+    <t>WN_9002091160</t>
+  </si>
+  <si>
+    <t>19_089_089017_8000970398_22</t>
+  </si>
+  <si>
+    <t>SR_01/03e11-SP_08</t>
+  </si>
+  <si>
+    <t>SR_01/03e11/I754_VIA GIUSEPPE TESTAFERRATA_22_1_B</t>
   </si>
 </sst>
 </file>
@@ -12030,10 +12756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI804"/>
+  <dimension ref="A1:AI855"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A769" workbookViewId="0">
-      <selection activeCell="E789" sqref="E789"/>
+    <sheetView tabSelected="1" topLeftCell="A826" workbookViewId="0">
+      <selection activeCell="E855" sqref="E855"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -97968,6 +98694,5463 @@
         <v>57</v>
       </c>
     </row>
+    <row r="805" spans="1:35">
+      <c r="A805" s="1" t="s">
+        <v>3890</v>
+      </c>
+      <c r="B805" s="1" t="s">
+        <v>3891</v>
+      </c>
+      <c r="C805" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D805" s="1" t="s">
+        <v>3892</v>
+      </c>
+      <c r="E805" s="1" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F805" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G805" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H805" s="1" t="s">
+        <v>3893</v>
+      </c>
+      <c r="I805" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J805" s="1" t="s">
+        <v>3894</v>
+      </c>
+      <c r="K805" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L805" s="1" t="s">
+        <v>3895</v>
+      </c>
+      <c r="M805" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N805" s="1" t="s">
+        <v>3896</v>
+      </c>
+      <c r="O805" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P805" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q805" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R805" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S805" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T805" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U805" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V805" s="1" t="s">
+        <v>3897</v>
+      </c>
+      <c r="W805" s="1" t="s">
+        <v>3891</v>
+      </c>
+      <c r="X805" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y805" s="1" t="s">
+        <v>3898</v>
+      </c>
+      <c r="Z805" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA805" s="1" t="s">
+        <v>3899</v>
+      </c>
+      <c r="AB805" s="1" t="s">
+        <v>3900</v>
+      </c>
+      <c r="AC805" s="1" t="s">
+        <v>3901</v>
+      </c>
+      <c r="AD805" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE805" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF805" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG805" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH805" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI805" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="806" spans="1:35">
+      <c r="A806" s="1" t="s">
+        <v>3902</v>
+      </c>
+      <c r="B806" s="1" t="s">
+        <v>3903</v>
+      </c>
+      <c r="C806" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D806" s="1" t="s">
+        <v>3904</v>
+      </c>
+      <c r="E806" s="1" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F806" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G806" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H806" s="1" t="s">
+        <v>3905</v>
+      </c>
+      <c r="I806" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J806" s="1" t="s">
+        <v>3906</v>
+      </c>
+      <c r="K806" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L806" s="1" t="s">
+        <v>3907</v>
+      </c>
+      <c r="M806" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N806" s="1" t="s">
+        <v>3908</v>
+      </c>
+      <c r="O806" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P806" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q806" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R806" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S806" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="T806" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U806" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V806" s="1" t="s">
+        <v>3909</v>
+      </c>
+      <c r="W806" s="1" t="s">
+        <v>3903</v>
+      </c>
+      <c r="X806" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y806" s="1" t="s">
+        <v>3910</v>
+      </c>
+      <c r="Z806" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA806" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB806" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AC806" s="1" t="s">
+        <v>3911</v>
+      </c>
+      <c r="AD806" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE806" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AF806" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG806" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH806" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI806" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="807" spans="1:35">
+      <c r="A807" s="1" t="s">
+        <v>3912</v>
+      </c>
+      <c r="B807" s="1" t="s">
+        <v>3913</v>
+      </c>
+      <c r="C807" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D807" s="1" t="s">
+        <v>3914</v>
+      </c>
+      <c r="E807" s="1" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F807" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G807" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H807" s="1" t="s">
+        <v>3915</v>
+      </c>
+      <c r="I807" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J807" s="1" t="s">
+        <v>3916</v>
+      </c>
+      <c r="K807" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L807" s="1" t="s">
+        <v>3906</v>
+      </c>
+      <c r="M807" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N807" s="1" t="s">
+        <v>3917</v>
+      </c>
+      <c r="O807" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P807" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q807" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R807" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S807" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T807" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U807" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="V807" s="1" t="s">
+        <v>3918</v>
+      </c>
+      <c r="W807" s="1" t="s">
+        <v>3913</v>
+      </c>
+      <c r="X807" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y807" s="1" t="s">
+        <v>3919</v>
+      </c>
+      <c r="Z807" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA807" s="1" t="s">
+        <v>1789</v>
+      </c>
+      <c r="AB807" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="AC807" s="1" t="s">
+        <v>2178</v>
+      </c>
+      <c r="AD807" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="AE807" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF807" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG807" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH807" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI807" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="808" spans="1:35">
+      <c r="A808" s="1" t="s">
+        <v>3920</v>
+      </c>
+      <c r="B808" s="1" t="s">
+        <v>3921</v>
+      </c>
+      <c r="C808" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D808" s="1" t="s">
+        <v>3922</v>
+      </c>
+      <c r="E808" s="1" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F808" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G808" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H808" s="1" t="s">
+        <v>3923</v>
+      </c>
+      <c r="I808" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J808" s="1" t="s">
+        <v>3740</v>
+      </c>
+      <c r="K808" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L808" s="1" t="s">
+        <v>3741</v>
+      </c>
+      <c r="M808" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N808" s="1" t="s">
+        <v>3924</v>
+      </c>
+      <c r="O808" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P808" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q808" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R808" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S808" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T808" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U808" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V808" s="1" t="s">
+        <v>3925</v>
+      </c>
+      <c r="W808" s="1" t="s">
+        <v>3921</v>
+      </c>
+      <c r="X808" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y808" s="1" t="s">
+        <v>3926</v>
+      </c>
+      <c r="Z808" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA808" s="1" t="s">
+        <v>3927</v>
+      </c>
+      <c r="AB808" s="1" t="s">
+        <v>3928</v>
+      </c>
+      <c r="AC808" s="1" t="s">
+        <v>3929</v>
+      </c>
+      <c r="AD808" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE808" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF808" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG808" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH808" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI808" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="809" spans="1:35">
+      <c r="A809" s="1" t="s">
+        <v>3930</v>
+      </c>
+      <c r="B809" s="1" t="s">
+        <v>3931</v>
+      </c>
+      <c r="C809" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D809" s="1" t="s">
+        <v>3932</v>
+      </c>
+      <c r="E809" s="1" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F809" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G809" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H809" s="1" t="s">
+        <v>3933</v>
+      </c>
+      <c r="I809" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J809" s="1" t="s">
+        <v>3916</v>
+      </c>
+      <c r="K809" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L809" s="1" t="s">
+        <v>3906</v>
+      </c>
+      <c r="M809" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N809" s="1" t="s">
+        <v>3924</v>
+      </c>
+      <c r="O809" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="P809" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q809" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R809" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S809" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T809" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U809" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V809" s="1" t="s">
+        <v>3934</v>
+      </c>
+      <c r="W809" s="1" t="s">
+        <v>3931</v>
+      </c>
+      <c r="X809" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y809" s="1" t="s">
+        <v>3935</v>
+      </c>
+      <c r="Z809" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA809" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="AB809" s="1" t="s">
+        <v>3936</v>
+      </c>
+      <c r="AC809" s="1" t="s">
+        <v>3937</v>
+      </c>
+      <c r="AD809" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AE809" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF809" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG809" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH809" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI809" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="810" spans="1:35">
+      <c r="A810" s="1" t="s">
+        <v>3938</v>
+      </c>
+      <c r="B810" s="1" t="s">
+        <v>3939</v>
+      </c>
+      <c r="C810" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D810" s="1" t="s">
+        <v>3940</v>
+      </c>
+      <c r="E810" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F810" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G810" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H810" s="1" t="s">
+        <v>3941</v>
+      </c>
+      <c r="I810" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J810" s="1" t="s">
+        <v>3906</v>
+      </c>
+      <c r="K810" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L810" s="1" t="s">
+        <v>3907</v>
+      </c>
+      <c r="M810" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N810" s="1" t="s">
+        <v>3942</v>
+      </c>
+      <c r="O810" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="P810" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q810" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R810" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S810" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T810" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U810" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="V810" s="1" t="s">
+        <v>3943</v>
+      </c>
+      <c r="W810" s="1" t="s">
+        <v>3939</v>
+      </c>
+      <c r="X810" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y810" s="1" t="s">
+        <v>3944</v>
+      </c>
+      <c r="Z810" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA810" s="1" t="s">
+        <v>3945</v>
+      </c>
+      <c r="AB810" s="1" t="s">
+        <v>3946</v>
+      </c>
+      <c r="AC810" s="1" t="s">
+        <v>3947</v>
+      </c>
+      <c r="AD810" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AE810" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF810" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG810" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH810" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI810" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="811" spans="1:35">
+      <c r="A811" s="1" t="s">
+        <v>3948</v>
+      </c>
+      <c r="B811" s="1" t="s">
+        <v>3949</v>
+      </c>
+      <c r="C811" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D811" s="1" t="s">
+        <v>3950</v>
+      </c>
+      <c r="E811" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F811" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G811" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H811" s="1" t="s">
+        <v>3951</v>
+      </c>
+      <c r="I811" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J811" s="1" t="s">
+        <v>3894</v>
+      </c>
+      <c r="K811" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L811" s="1" t="s">
+        <v>3895</v>
+      </c>
+      <c r="M811" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N811" s="1" t="s">
+        <v>3380</v>
+      </c>
+      <c r="O811" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="P811" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q811" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R811" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S811" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T811" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U811" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V811" s="1" t="s">
+        <v>3952</v>
+      </c>
+      <c r="W811" s="1" t="s">
+        <v>3949</v>
+      </c>
+      <c r="X811" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y811" s="1" t="s">
+        <v>3953</v>
+      </c>
+      <c r="Z811" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA811" s="1" t="s">
+        <v>3954</v>
+      </c>
+      <c r="AB811" s="1" t="s">
+        <v>3955</v>
+      </c>
+      <c r="AC811" s="1" t="s">
+        <v>3956</v>
+      </c>
+      <c r="AD811" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE811" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF811" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG811" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH811" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI811" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="812" spans="1:35">
+      <c r="A812" s="1" t="s">
+        <v>3957</v>
+      </c>
+      <c r="B812" s="1" t="s">
+        <v>3958</v>
+      </c>
+      <c r="C812" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D812" s="1" t="s">
+        <v>3959</v>
+      </c>
+      <c r="E812" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F812" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G812" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H812" s="1" t="s">
+        <v>3960</v>
+      </c>
+      <c r="I812" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J812" s="1" t="s">
+        <v>3894</v>
+      </c>
+      <c r="K812" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L812" s="1" t="s">
+        <v>3895</v>
+      </c>
+      <c r="M812" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N812" s="1" t="s">
+        <v>3961</v>
+      </c>
+      <c r="O812" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P812" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q812" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R812" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S812" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T812" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U812" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V812" s="1" t="s">
+        <v>3962</v>
+      </c>
+      <c r="W812" s="1" t="s">
+        <v>3958</v>
+      </c>
+      <c r="X812" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y812" s="1" t="s">
+        <v>3963</v>
+      </c>
+      <c r="Z812" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA812" s="1" t="s">
+        <v>3964</v>
+      </c>
+      <c r="AB812" s="1" t="s">
+        <v>3965</v>
+      </c>
+      <c r="AC812" s="1" t="s">
+        <v>3966</v>
+      </c>
+      <c r="AD812" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="AE812" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF812" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG812" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH812" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI812" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="813" spans="1:35">
+      <c r="A813" s="1" t="s">
+        <v>3967</v>
+      </c>
+      <c r="B813" s="1" t="s">
+        <v>3968</v>
+      </c>
+      <c r="C813" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D813" s="1" t="s">
+        <v>3969</v>
+      </c>
+      <c r="E813" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F813" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G813" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H813" s="1" t="s">
+        <v>3970</v>
+      </c>
+      <c r="I813" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J813" s="1" t="s">
+        <v>3740</v>
+      </c>
+      <c r="K813" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L813" s="1" t="s">
+        <v>3741</v>
+      </c>
+      <c r="M813" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N813" s="1" t="s">
+        <v>3971</v>
+      </c>
+      <c r="O813" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P813" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q813" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R813" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S813" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T813" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U813" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V813" s="1" t="s">
+        <v>3972</v>
+      </c>
+      <c r="W813" s="1" t="s">
+        <v>3968</v>
+      </c>
+      <c r="X813" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y813" s="1" t="s">
+        <v>3973</v>
+      </c>
+      <c r="Z813" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA813" s="1" t="s">
+        <v>3057</v>
+      </c>
+      <c r="AB813" s="1" t="s">
+        <v>3058</v>
+      </c>
+      <c r="AC813" s="1" t="s">
+        <v>3974</v>
+      </c>
+      <c r="AD813" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE813" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF813" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG813" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH813" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI813" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="814" spans="1:35">
+      <c r="A814" s="1" t="s">
+        <v>3975</v>
+      </c>
+      <c r="B814" s="1" t="s">
+        <v>3976</v>
+      </c>
+      <c r="C814" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D814" s="1" t="s">
+        <v>3977</v>
+      </c>
+      <c r="E814" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F814" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G814" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H814" s="1" t="s">
+        <v>3978</v>
+      </c>
+      <c r="I814" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J814" s="1" t="s">
+        <v>3906</v>
+      </c>
+      <c r="K814" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L814" s="1" t="s">
+        <v>3907</v>
+      </c>
+      <c r="M814" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N814" s="1" t="s">
+        <v>3870</v>
+      </c>
+      <c r="O814" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P814" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q814" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R814" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S814" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T814" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U814" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V814" s="1" t="s">
+        <v>3979</v>
+      </c>
+      <c r="W814" s="1" t="s">
+        <v>3976</v>
+      </c>
+      <c r="X814" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y814" s="1" t="s">
+        <v>3980</v>
+      </c>
+      <c r="Z814" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA814" s="1" t="s">
+        <v>3334</v>
+      </c>
+      <c r="AB814" s="1" t="s">
+        <v>3981</v>
+      </c>
+      <c r="AC814" s="1" t="s">
+        <v>3982</v>
+      </c>
+      <c r="AD814" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AE814" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF814" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG814" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH814" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI814" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="815" spans="1:35">
+      <c r="A815" s="1" t="s">
+        <v>3983</v>
+      </c>
+      <c r="B815" s="1" t="s">
+        <v>3984</v>
+      </c>
+      <c r="C815" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D815" s="1" t="s">
+        <v>3985</v>
+      </c>
+      <c r="E815" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F815" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G815" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H815" s="1" t="s">
+        <v>3986</v>
+      </c>
+      <c r="I815" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J815" s="1" t="s">
+        <v>3916</v>
+      </c>
+      <c r="K815" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L815" s="1" t="s">
+        <v>3906</v>
+      </c>
+      <c r="M815" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N815" s="1" t="s">
+        <v>3987</v>
+      </c>
+      <c r="O815" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P815" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q815" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R815" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S815" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T815" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U815" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V815" s="1" t="s">
+        <v>3988</v>
+      </c>
+      <c r="W815" s="1" t="s">
+        <v>3984</v>
+      </c>
+      <c r="X815" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y815" s="1" t="s">
+        <v>3989</v>
+      </c>
+      <c r="Z815" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA815" s="1" t="s">
+        <v>3899</v>
+      </c>
+      <c r="AB815" s="1" t="s">
+        <v>3990</v>
+      </c>
+      <c r="AC815" s="1" t="s">
+        <v>3991</v>
+      </c>
+      <c r="AD815" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE815" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF815" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG815" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH815" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI815" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="816" spans="1:35">
+      <c r="A816" s="1" t="s">
+        <v>3992</v>
+      </c>
+      <c r="B816" s="1" t="s">
+        <v>3993</v>
+      </c>
+      <c r="C816" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D816" s="1" t="s">
+        <v>3994</v>
+      </c>
+      <c r="E816" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F816" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G816" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H816" s="1" t="s">
+        <v>3995</v>
+      </c>
+      <c r="I816" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J816" s="1" t="s">
+        <v>3740</v>
+      </c>
+      <c r="K816" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L816" s="1" t="s">
+        <v>3741</v>
+      </c>
+      <c r="M816" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N816" s="1" t="s">
+        <v>3996</v>
+      </c>
+      <c r="O816" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P816" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q816" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R816" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S816" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T816" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U816" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V816" s="1" t="s">
+        <v>3997</v>
+      </c>
+      <c r="W816" s="1" t="s">
+        <v>3993</v>
+      </c>
+      <c r="X816" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y816" s="1" t="s">
+        <v>3998</v>
+      </c>
+      <c r="Z816" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA816" s="1" t="s">
+        <v>3999</v>
+      </c>
+      <c r="AB816" s="1" t="s">
+        <v>4000</v>
+      </c>
+      <c r="AC816" s="1" t="s">
+        <v>4001</v>
+      </c>
+      <c r="AD816" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE816" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF816" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG816" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH816" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI816" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="817" spans="1:35">
+      <c r="A817" s="1" t="s">
+        <v>4002</v>
+      </c>
+      <c r="B817" s="1" t="s">
+        <v>4003</v>
+      </c>
+      <c r="C817" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D817" s="1" t="s">
+        <v>4004</v>
+      </c>
+      <c r="E817" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F817" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G817" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H817" s="1" t="s">
+        <v>4005</v>
+      </c>
+      <c r="I817" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J817" s="1" t="s">
+        <v>3740</v>
+      </c>
+      <c r="K817" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L817" s="1" t="s">
+        <v>3741</v>
+      </c>
+      <c r="M817" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N817" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="O817" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P817" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q817" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R817" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S817" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T817" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U817" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V817" s="1" t="s">
+        <v>4006</v>
+      </c>
+      <c r="W817" s="1" t="s">
+        <v>4003</v>
+      </c>
+      <c r="X817" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y817" s="1" t="s">
+        <v>4007</v>
+      </c>
+      <c r="Z817" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA817" s="1" t="s">
+        <v>4008</v>
+      </c>
+      <c r="AB817" s="1" t="s">
+        <v>4009</v>
+      </c>
+      <c r="AC817" s="1" t="s">
+        <v>4010</v>
+      </c>
+      <c r="AD817" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AE817" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF817" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG817" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH817" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI817" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="818" spans="1:35">
+      <c r="A818" s="1" t="s">
+        <v>4011</v>
+      </c>
+      <c r="B818" s="1" t="s">
+        <v>4012</v>
+      </c>
+      <c r="C818" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D818" s="1" t="s">
+        <v>3940</v>
+      </c>
+      <c r="E818" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F818" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G818" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H818" s="1" t="s">
+        <v>4013</v>
+      </c>
+      <c r="I818" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J818" s="1" t="s">
+        <v>3906</v>
+      </c>
+      <c r="K818" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L818" s="1" t="s">
+        <v>3907</v>
+      </c>
+      <c r="M818" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N818" s="1" t="s">
+        <v>4014</v>
+      </c>
+      <c r="O818" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P818" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q818" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R818" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S818" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T818" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U818" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V818" s="1" t="s">
+        <v>4015</v>
+      </c>
+      <c r="W818" s="1" t="s">
+        <v>4012</v>
+      </c>
+      <c r="X818" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y818" s="1" t="s">
+        <v>4016</v>
+      </c>
+      <c r="Z818" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA818" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="AB818" s="1" t="s">
+        <v>4017</v>
+      </c>
+      <c r="AC818" s="1" t="s">
+        <v>4018</v>
+      </c>
+      <c r="AD818" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AE818" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF818" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG818" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH818" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI818" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="819" spans="1:35">
+      <c r="A819" s="1" t="s">
+        <v>4019</v>
+      </c>
+      <c r="B819" s="1" t="s">
+        <v>4020</v>
+      </c>
+      <c r="C819" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D819" s="1" t="s">
+        <v>4021</v>
+      </c>
+      <c r="E819" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F819" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G819" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H819" s="1" t="s">
+        <v>4022</v>
+      </c>
+      <c r="I819" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J819" s="1" t="s">
+        <v>3916</v>
+      </c>
+      <c r="K819" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L819" s="1" t="s">
+        <v>3906</v>
+      </c>
+      <c r="M819" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N819" s="1" t="s">
+        <v>4023</v>
+      </c>
+      <c r="O819" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P819" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q819" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R819" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S819" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T819" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U819" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V819" s="1" t="s">
+        <v>4024</v>
+      </c>
+      <c r="W819" s="1" t="s">
+        <v>4020</v>
+      </c>
+      <c r="X819" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y819" s="1" t="s">
+        <v>4025</v>
+      </c>
+      <c r="Z819" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA819" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="AB819" s="1" t="s">
+        <v>3226</v>
+      </c>
+      <c r="AC819" s="1" t="s">
+        <v>4026</v>
+      </c>
+      <c r="AD819" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE819" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF819" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG819" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH819" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI819" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="820" spans="1:35">
+      <c r="A820" s="1" t="s">
+        <v>4027</v>
+      </c>
+      <c r="B820" s="1" t="s">
+        <v>4028</v>
+      </c>
+      <c r="C820" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D820" s="1" t="s">
+        <v>4029</v>
+      </c>
+      <c r="E820" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F820" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G820" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H820" s="1" t="s">
+        <v>4030</v>
+      </c>
+      <c r="I820" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J820" s="1" t="s">
+        <v>4031</v>
+      </c>
+      <c r="K820" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L820" s="1" t="s">
+        <v>4032</v>
+      </c>
+      <c r="M820" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N820" s="1" t="s">
+        <v>3098</v>
+      </c>
+      <c r="O820" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P820" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q820" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R820" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S820" s="1" t="s">
+        <v>2589</v>
+      </c>
+      <c r="T820" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U820" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="V820" s="1" t="s">
+        <v>4033</v>
+      </c>
+      <c r="W820" s="1" t="s">
+        <v>4028</v>
+      </c>
+      <c r="X820" s="1" t="s">
+        <v>2591</v>
+      </c>
+      <c r="Y820" s="1" t="s">
+        <v>4034</v>
+      </c>
+      <c r="Z820" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA820" s="1" t="s">
+        <v>4035</v>
+      </c>
+      <c r="AB820" s="1" t="s">
+        <v>4036</v>
+      </c>
+      <c r="AC820" s="1" t="s">
+        <v>4037</v>
+      </c>
+      <c r="AD820" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE820" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF820" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG820" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH820" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI820" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="821" spans="1:35">
+      <c r="A821" s="1" t="s">
+        <v>4038</v>
+      </c>
+      <c r="B821" s="1" t="s">
+        <v>4039</v>
+      </c>
+      <c r="C821" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D821" s="1" t="s">
+        <v>4040</v>
+      </c>
+      <c r="E821" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F821" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G821" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H821" s="1" t="s">
+        <v>4041</v>
+      </c>
+      <c r="I821" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J821" s="1" t="s">
+        <v>4042</v>
+      </c>
+      <c r="K821" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L821" s="1" t="s">
+        <v>4043</v>
+      </c>
+      <c r="M821" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N821" s="1" t="s">
+        <v>2588</v>
+      </c>
+      <c r="O821" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P821" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q821" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R821" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S821" s="1" t="s">
+        <v>2589</v>
+      </c>
+      <c r="T821" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U821" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="V821" s="1" t="s">
+        <v>4044</v>
+      </c>
+      <c r="W821" s="1" t="s">
+        <v>4039</v>
+      </c>
+      <c r="X821" s="1" t="s">
+        <v>2591</v>
+      </c>
+      <c r="Y821" s="1" t="s">
+        <v>4045</v>
+      </c>
+      <c r="Z821" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA821" s="1" t="s">
+        <v>4035</v>
+      </c>
+      <c r="AB821" s="1" t="s">
+        <v>4036</v>
+      </c>
+      <c r="AC821" s="1" t="s">
+        <v>4046</v>
+      </c>
+      <c r="AD821" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE821" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF821" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG821" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH821" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI821" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="822" spans="1:35">
+      <c r="A822" s="1" t="s">
+        <v>4047</v>
+      </c>
+      <c r="B822" s="1" t="s">
+        <v>4048</v>
+      </c>
+      <c r="C822" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D822" s="1" t="s">
+        <v>4049</v>
+      </c>
+      <c r="E822" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F822" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G822" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H822" s="1" t="s">
+        <v>4050</v>
+      </c>
+      <c r="I822" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J822" s="1" t="s">
+        <v>4042</v>
+      </c>
+      <c r="K822" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L822" s="1" t="s">
+        <v>4043</v>
+      </c>
+      <c r="M822" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N822" s="1" t="s">
+        <v>2588</v>
+      </c>
+      <c r="O822" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P822" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q822" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R822" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S822" s="1" t="s">
+        <v>2589</v>
+      </c>
+      <c r="T822" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U822" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="V822" s="1" t="s">
+        <v>4051</v>
+      </c>
+      <c r="W822" s="1" t="s">
+        <v>4048</v>
+      </c>
+      <c r="X822" s="1" t="s">
+        <v>2591</v>
+      </c>
+      <c r="Y822" s="1" t="s">
+        <v>4052</v>
+      </c>
+      <c r="Z822" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA822" s="1" t="s">
+        <v>4035</v>
+      </c>
+      <c r="AB822" s="1" t="s">
+        <v>4036</v>
+      </c>
+      <c r="AC822" s="1" t="s">
+        <v>4053</v>
+      </c>
+      <c r="AD822" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE822" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF822" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="AG822" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH822" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="AI822" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="823" spans="1:35">
+      <c r="A823" s="1" t="s">
+        <v>4054</v>
+      </c>
+      <c r="B823" s="1" t="s">
+        <v>4055</v>
+      </c>
+      <c r="C823" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D823" s="1" t="s">
+        <v>4056</v>
+      </c>
+      <c r="E823" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F823" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G823" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H823" s="1" t="s">
+        <v>4057</v>
+      </c>
+      <c r="I823" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J823" s="1" t="s">
+        <v>3916</v>
+      </c>
+      <c r="K823" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L823" s="1" t="s">
+        <v>3906</v>
+      </c>
+      <c r="M823" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N823" s="1" t="s">
+        <v>4058</v>
+      </c>
+      <c r="O823" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P823" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q823" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R823" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S823" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T823" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U823" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V823" s="1" t="s">
+        <v>4059</v>
+      </c>
+      <c r="W823" s="1" t="s">
+        <v>4055</v>
+      </c>
+      <c r="X823" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y823" s="1" t="s">
+        <v>4060</v>
+      </c>
+      <c r="Z823" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA823" s="1" t="s">
+        <v>4061</v>
+      </c>
+      <c r="AB823" s="1" t="s">
+        <v>4062</v>
+      </c>
+      <c r="AC823" s="1" t="s">
+        <v>4063</v>
+      </c>
+      <c r="AD823" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE823" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF823" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG823" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH823" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI823" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="824" spans="1:35">
+      <c r="A824" s="1" t="s">
+        <v>4064</v>
+      </c>
+      <c r="B824" s="1" t="s">
+        <v>4065</v>
+      </c>
+      <c r="C824" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D824" s="1" t="s">
+        <v>4066</v>
+      </c>
+      <c r="E824" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F824" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G824" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H824" s="1" t="s">
+        <v>4067</v>
+      </c>
+      <c r="I824" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J824" s="1" t="s">
+        <v>3894</v>
+      </c>
+      <c r="K824" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L824" s="1" t="s">
+        <v>3895</v>
+      </c>
+      <c r="M824" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N824" s="1" t="s">
+        <v>4068</v>
+      </c>
+      <c r="O824" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P824" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q824" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R824" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S824" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T824" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U824" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V824" s="1" t="s">
+        <v>4069</v>
+      </c>
+      <c r="W824" s="1" t="s">
+        <v>4065</v>
+      </c>
+      <c r="X824" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y824" s="1" t="s">
+        <v>4070</v>
+      </c>
+      <c r="Z824" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA824" s="1" t="s">
+        <v>4071</v>
+      </c>
+      <c r="AB824" s="1" t="s">
+        <v>4072</v>
+      </c>
+      <c r="AC824" s="1" t="s">
+        <v>4073</v>
+      </c>
+      <c r="AD824" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE824" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF824" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG824" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH824" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI824" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="825" spans="1:35">
+      <c r="A825" s="1" t="s">
+        <v>4074</v>
+      </c>
+      <c r="B825" s="1" t="s">
+        <v>4075</v>
+      </c>
+      <c r="C825" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D825" s="1" t="s">
+        <v>3922</v>
+      </c>
+      <c r="E825" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F825" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G825" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H825" s="1" t="s">
+        <v>4076</v>
+      </c>
+      <c r="I825" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J825" s="1" t="s">
+        <v>3894</v>
+      </c>
+      <c r="K825" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L825" s="1" t="s">
+        <v>3895</v>
+      </c>
+      <c r="M825" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N825" s="1" t="s">
+        <v>4077</v>
+      </c>
+      <c r="O825" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P825" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q825" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R825" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S825" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T825" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U825" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V825" s="1" t="s">
+        <v>4078</v>
+      </c>
+      <c r="W825" s="1" t="s">
+        <v>4075</v>
+      </c>
+      <c r="X825" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y825" s="1" t="s">
+        <v>4079</v>
+      </c>
+      <c r="Z825" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA825" s="1" t="s">
+        <v>4080</v>
+      </c>
+      <c r="AB825" s="1" t="s">
+        <v>4081</v>
+      </c>
+      <c r="AC825" s="1" t="s">
+        <v>4082</v>
+      </c>
+      <c r="AD825" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE825" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF825" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG825" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH825" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI825" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="826" spans="1:35">
+      <c r="A826" s="1" t="s">
+        <v>4083</v>
+      </c>
+      <c r="B826" s="1" t="s">
+        <v>4084</v>
+      </c>
+      <c r="C826" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D826" s="1" t="s">
+        <v>3994</v>
+      </c>
+      <c r="E826" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F826" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G826" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H826" s="1" t="s">
+        <v>4085</v>
+      </c>
+      <c r="I826" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J826" s="1" t="s">
+        <v>3894</v>
+      </c>
+      <c r="K826" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L826" s="1" t="s">
+        <v>3895</v>
+      </c>
+      <c r="M826" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N826" s="1" t="s">
+        <v>4086</v>
+      </c>
+      <c r="O826" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P826" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q826" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R826" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S826" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="T826" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U826" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V826" s="1" t="s">
+        <v>4087</v>
+      </c>
+      <c r="W826" s="1" t="s">
+        <v>4084</v>
+      </c>
+      <c r="X826" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y826" s="1" t="s">
+        <v>4088</v>
+      </c>
+      <c r="Z826" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA826" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="AB826" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="AC826" s="1" t="s">
+        <v>4089</v>
+      </c>
+      <c r="AD826" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE826" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF826" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG826" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH826" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI826" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="827" spans="1:35">
+      <c r="A827" s="1" t="s">
+        <v>4090</v>
+      </c>
+      <c r="B827" s="1" t="s">
+        <v>4091</v>
+      </c>
+      <c r="C827" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D827" s="1" t="s">
+        <v>3940</v>
+      </c>
+      <c r="E827" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F827" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G827" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H827" s="1" t="s">
+        <v>4092</v>
+      </c>
+      <c r="I827" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J827" s="1" t="s">
+        <v>3906</v>
+      </c>
+      <c r="K827" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L827" s="1" t="s">
+        <v>3907</v>
+      </c>
+      <c r="M827" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N827" s="1" t="s">
+        <v>4093</v>
+      </c>
+      <c r="O827" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P827" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q827" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R827" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S827" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T827" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U827" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V827" s="1" t="s">
+        <v>4094</v>
+      </c>
+      <c r="W827" s="1" t="s">
+        <v>4091</v>
+      </c>
+      <c r="X827" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y827" s="1" t="s">
+        <v>4095</v>
+      </c>
+      <c r="Z827" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA827" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="AB827" s="1" t="s">
+        <v>2090</v>
+      </c>
+      <c r="AC827" s="1" t="s">
+        <v>4096</v>
+      </c>
+      <c r="AD827" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AE827" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF827" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG827" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH827" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI827" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="828" spans="1:35">
+      <c r="A828" s="1" t="s">
+        <v>4097</v>
+      </c>
+      <c r="B828" s="1" t="s">
+        <v>4098</v>
+      </c>
+      <c r="C828" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D828" s="1" t="s">
+        <v>4099</v>
+      </c>
+      <c r="E828" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F828" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G828" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H828" s="1" t="s">
+        <v>4100</v>
+      </c>
+      <c r="I828" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J828" s="1" t="s">
+        <v>3894</v>
+      </c>
+      <c r="K828" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L828" s="1" t="s">
+        <v>3895</v>
+      </c>
+      <c r="M828" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N828" s="1" t="s">
+        <v>4101</v>
+      </c>
+      <c r="O828" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P828" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q828" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R828" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S828" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T828" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U828" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V828" s="1" t="s">
+        <v>4102</v>
+      </c>
+      <c r="W828" s="1" t="s">
+        <v>4098</v>
+      </c>
+      <c r="X828" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y828" s="1" t="s">
+        <v>4103</v>
+      </c>
+      <c r="Z828" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA828" s="1" t="s">
+        <v>4104</v>
+      </c>
+      <c r="AB828" s="1" t="s">
+        <v>4105</v>
+      </c>
+      <c r="AC828" s="1" t="s">
+        <v>4106</v>
+      </c>
+      <c r="AD828" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE828" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF828" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG828" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH828" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI828" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="829" spans="1:35">
+      <c r="A829" s="1" t="s">
+        <v>4107</v>
+      </c>
+      <c r="B829" s="1" t="s">
+        <v>4108</v>
+      </c>
+      <c r="C829" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D829" s="1" t="s">
+        <v>3940</v>
+      </c>
+      <c r="E829" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F829" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G829" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H829" s="1" t="s">
+        <v>4109</v>
+      </c>
+      <c r="I829" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J829" s="1" t="s">
+        <v>3906</v>
+      </c>
+      <c r="K829" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L829" s="1" t="s">
+        <v>3907</v>
+      </c>
+      <c r="M829" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N829" s="1" t="s">
+        <v>4110</v>
+      </c>
+      <c r="O829" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P829" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q829" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R829" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S829" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T829" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U829" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V829" s="1" t="s">
+        <v>4111</v>
+      </c>
+      <c r="W829" s="1" t="s">
+        <v>4108</v>
+      </c>
+      <c r="X829" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y829" s="1" t="s">
+        <v>4112</v>
+      </c>
+      <c r="Z829" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA829" s="1" t="s">
+        <v>2700</v>
+      </c>
+      <c r="AB829" s="1" t="s">
+        <v>4113</v>
+      </c>
+      <c r="AC829" s="1" t="s">
+        <v>4114</v>
+      </c>
+      <c r="AD829" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE829" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF829" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG829" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH829" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI829" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="830" spans="1:35">
+      <c r="A830" s="1" t="s">
+        <v>4115</v>
+      </c>
+      <c r="B830" s="1" t="s">
+        <v>4116</v>
+      </c>
+      <c r="C830" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D830" s="1" t="s">
+        <v>3904</v>
+      </c>
+      <c r="E830" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F830" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G830" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H830" s="1" t="s">
+        <v>4117</v>
+      </c>
+      <c r="I830" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J830" s="1" t="s">
+        <v>3906</v>
+      </c>
+      <c r="K830" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L830" s="1" t="s">
+        <v>3907</v>
+      </c>
+      <c r="M830" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N830" s="1" t="s">
+        <v>4118</v>
+      </c>
+      <c r="O830" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P830" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q830" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R830" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S830" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T830" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U830" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V830" s="1" t="s">
+        <v>4119</v>
+      </c>
+      <c r="W830" s="1" t="s">
+        <v>4116</v>
+      </c>
+      <c r="X830" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y830" s="1" t="s">
+        <v>4120</v>
+      </c>
+      <c r="Z830" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA830" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB830" s="1" t="s">
+        <v>4121</v>
+      </c>
+      <c r="AC830" s="1" t="s">
+        <v>4122</v>
+      </c>
+      <c r="AD830" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE830" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF830" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG830" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH830" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI830" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="831" spans="1:35">
+      <c r="A831" s="1" t="s">
+        <v>4123</v>
+      </c>
+      <c r="B831" s="1" t="s">
+        <v>4124</v>
+      </c>
+      <c r="C831" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D831" s="1" t="s">
+        <v>4125</v>
+      </c>
+      <c r="E831" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F831" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G831" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H831" s="1" t="s">
+        <v>4126</v>
+      </c>
+      <c r="I831" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J831" s="1" t="s">
+        <v>3740</v>
+      </c>
+      <c r="K831" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L831" s="1" t="s">
+        <v>3741</v>
+      </c>
+      <c r="M831" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N831" s="1" t="s">
+        <v>4127</v>
+      </c>
+      <c r="O831" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P831" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q831" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R831" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S831" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T831" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U831" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V831" s="1" t="s">
+        <v>4128</v>
+      </c>
+      <c r="W831" s="1" t="s">
+        <v>4124</v>
+      </c>
+      <c r="X831" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y831" s="1" t="s">
+        <v>4129</v>
+      </c>
+      <c r="Z831" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA831" s="1" t="s">
+        <v>3571</v>
+      </c>
+      <c r="AB831" s="1" t="s">
+        <v>4130</v>
+      </c>
+      <c r="AC831" s="1" t="s">
+        <v>4131</v>
+      </c>
+      <c r="AD831" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE831" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF831" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG831" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH831" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI831" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="832" spans="1:35">
+      <c r="A832" s="1" t="s">
+        <v>3890</v>
+      </c>
+      <c r="B832" s="1" t="s">
+        <v>3891</v>
+      </c>
+      <c r="C832" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D832" s="1" t="s">
+        <v>3892</v>
+      </c>
+      <c r="E832" s="1" t="s">
+        <v>1900</v>
+      </c>
+      <c r="F832" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G832" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H832" s="1" t="s">
+        <v>3893</v>
+      </c>
+      <c r="I832" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J832" s="1" t="s">
+        <v>3894</v>
+      </c>
+      <c r="K832" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L832" s="1" t="s">
+        <v>3895</v>
+      </c>
+      <c r="M832" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N832" s="1" t="s">
+        <v>3896</v>
+      </c>
+      <c r="O832" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P832" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q832" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R832" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S832" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T832" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U832" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V832" s="1" t="s">
+        <v>3897</v>
+      </c>
+      <c r="W832" s="1" t="s">
+        <v>3891</v>
+      </c>
+      <c r="X832" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y832" s="1" t="s">
+        <v>3898</v>
+      </c>
+      <c r="Z832" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA832" s="1" t="s">
+        <v>3899</v>
+      </c>
+      <c r="AB832" s="1" t="s">
+        <v>3900</v>
+      </c>
+      <c r="AC832" s="1" t="s">
+        <v>3901</v>
+      </c>
+      <c r="AD832" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE832" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF832" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG832" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH832" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI832" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="833" spans="1:35">
+      <c r="A833" s="1" t="s">
+        <v>3902</v>
+      </c>
+      <c r="B833" s="1" t="s">
+        <v>3903</v>
+      </c>
+      <c r="C833" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D833" s="1" t="s">
+        <v>3904</v>
+      </c>
+      <c r="E833" s="1" t="s">
+        <v>1900</v>
+      </c>
+      <c r="F833" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G833" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H833" s="1" t="s">
+        <v>3905</v>
+      </c>
+      <c r="I833" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J833" s="1" t="s">
+        <v>3906</v>
+      </c>
+      <c r="K833" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L833" s="1" t="s">
+        <v>3907</v>
+      </c>
+      <c r="M833" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N833" s="1" t="s">
+        <v>3908</v>
+      </c>
+      <c r="O833" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P833" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q833" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R833" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S833" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="T833" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U833" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V833" s="1" t="s">
+        <v>3909</v>
+      </c>
+      <c r="W833" s="1" t="s">
+        <v>3903</v>
+      </c>
+      <c r="X833" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y833" s="1" t="s">
+        <v>3910</v>
+      </c>
+      <c r="Z833" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA833" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB833" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AC833" s="1" t="s">
+        <v>3911</v>
+      </c>
+      <c r="AD833" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE833" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AF833" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG833" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH833" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI833" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="834" spans="1:35">
+      <c r="A834" s="1" t="s">
+        <v>3912</v>
+      </c>
+      <c r="B834" s="1" t="s">
+        <v>3913</v>
+      </c>
+      <c r="C834" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D834" s="1" t="s">
+        <v>3914</v>
+      </c>
+      <c r="E834" s="1" t="s">
+        <v>1900</v>
+      </c>
+      <c r="F834" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G834" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H834" s="1" t="s">
+        <v>3915</v>
+      </c>
+      <c r="I834" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J834" s="1" t="s">
+        <v>3916</v>
+      </c>
+      <c r="K834" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L834" s="1" t="s">
+        <v>3906</v>
+      </c>
+      <c r="M834" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N834" s="1" t="s">
+        <v>3917</v>
+      </c>
+      <c r="O834" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P834" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q834" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R834" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S834" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T834" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U834" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="V834" s="1" t="s">
+        <v>3918</v>
+      </c>
+      <c r="W834" s="1" t="s">
+        <v>3913</v>
+      </c>
+      <c r="X834" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y834" s="1" t="s">
+        <v>3919</v>
+      </c>
+      <c r="Z834" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA834" s="1" t="s">
+        <v>1789</v>
+      </c>
+      <c r="AB834" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="AC834" s="1" t="s">
+        <v>2178</v>
+      </c>
+      <c r="AD834" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="AE834" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF834" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG834" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH834" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI834" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="835" spans="1:35">
+      <c r="A835" s="1" t="s">
+        <v>3920</v>
+      </c>
+      <c r="B835" s="1" t="s">
+        <v>3921</v>
+      </c>
+      <c r="C835" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D835" s="1" t="s">
+        <v>3922</v>
+      </c>
+      <c r="E835" s="1" t="s">
+        <v>1900</v>
+      </c>
+      <c r="F835" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G835" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H835" s="1" t="s">
+        <v>3923</v>
+      </c>
+      <c r="I835" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J835" s="1" t="s">
+        <v>3740</v>
+      </c>
+      <c r="K835" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L835" s="1" t="s">
+        <v>3741</v>
+      </c>
+      <c r="M835" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N835" s="1" t="s">
+        <v>3924</v>
+      </c>
+      <c r="O835" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P835" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q835" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R835" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S835" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T835" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U835" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V835" s="1" t="s">
+        <v>3925</v>
+      </c>
+      <c r="W835" s="1" t="s">
+        <v>3921</v>
+      </c>
+      <c r="X835" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y835" s="1" t="s">
+        <v>3926</v>
+      </c>
+      <c r="Z835" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA835" s="1" t="s">
+        <v>3927</v>
+      </c>
+      <c r="AB835" s="1" t="s">
+        <v>3928</v>
+      </c>
+      <c r="AC835" s="1" t="s">
+        <v>3929</v>
+      </c>
+      <c r="AD835" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE835" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF835" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG835" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH835" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI835" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="836" spans="1:35">
+      <c r="A836" s="1" t="s">
+        <v>3930</v>
+      </c>
+      <c r="B836" s="1" t="s">
+        <v>3931</v>
+      </c>
+      <c r="C836" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D836" s="1" t="s">
+        <v>3932</v>
+      </c>
+      <c r="E836" s="1" t="s">
+        <v>1900</v>
+      </c>
+      <c r="F836" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G836" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H836" s="1" t="s">
+        <v>3933</v>
+      </c>
+      <c r="I836" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J836" s="1" t="s">
+        <v>3916</v>
+      </c>
+      <c r="K836" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L836" s="1" t="s">
+        <v>3906</v>
+      </c>
+      <c r="M836" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N836" s="1" t="s">
+        <v>3924</v>
+      </c>
+      <c r="O836" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="P836" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q836" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R836" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S836" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T836" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U836" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V836" s="1" t="s">
+        <v>3934</v>
+      </c>
+      <c r="W836" s="1" t="s">
+        <v>3931</v>
+      </c>
+      <c r="X836" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y836" s="1" t="s">
+        <v>3935</v>
+      </c>
+      <c r="Z836" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA836" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="AB836" s="1" t="s">
+        <v>3936</v>
+      </c>
+      <c r="AC836" s="1" t="s">
+        <v>3937</v>
+      </c>
+      <c r="AD836" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AE836" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF836" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG836" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH836" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI836" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="837" spans="1:35">
+      <c r="A837" s="1" t="s">
+        <v>3938</v>
+      </c>
+      <c r="B837" s="1" t="s">
+        <v>3939</v>
+      </c>
+      <c r="C837" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D837" s="1" t="s">
+        <v>3940</v>
+      </c>
+      <c r="E837" s="1" t="s">
+        <v>1902</v>
+      </c>
+      <c r="F837" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G837" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H837" s="1" t="s">
+        <v>3941</v>
+      </c>
+      <c r="I837" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J837" s="1" t="s">
+        <v>3906</v>
+      </c>
+      <c r="K837" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L837" s="1" t="s">
+        <v>3907</v>
+      </c>
+      <c r="M837" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N837" s="1" t="s">
+        <v>3942</v>
+      </c>
+      <c r="O837" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="P837" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q837" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R837" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S837" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T837" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U837" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="V837" s="1" t="s">
+        <v>3943</v>
+      </c>
+      <c r="W837" s="1" t="s">
+        <v>3939</v>
+      </c>
+      <c r="X837" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y837" s="1" t="s">
+        <v>3944</v>
+      </c>
+      <c r="Z837" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA837" s="1" t="s">
+        <v>3945</v>
+      </c>
+      <c r="AB837" s="1" t="s">
+        <v>3946</v>
+      </c>
+      <c r="AC837" s="1" t="s">
+        <v>3947</v>
+      </c>
+      <c r="AD837" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AE837" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF837" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG837" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH837" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI837" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="838" spans="1:35">
+      <c r="A838" s="1" t="s">
+        <v>3948</v>
+      </c>
+      <c r="B838" s="1" t="s">
+        <v>3949</v>
+      </c>
+      <c r="C838" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D838" s="1" t="s">
+        <v>3950</v>
+      </c>
+      <c r="E838" s="1" t="s">
+        <v>1902</v>
+      </c>
+      <c r="F838" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G838" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H838" s="1" t="s">
+        <v>3951</v>
+      </c>
+      <c r="I838" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J838" s="1" t="s">
+        <v>3894</v>
+      </c>
+      <c r="K838" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L838" s="1" t="s">
+        <v>3895</v>
+      </c>
+      <c r="M838" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N838" s="1" t="s">
+        <v>3380</v>
+      </c>
+      <c r="O838" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="P838" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q838" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R838" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S838" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T838" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U838" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V838" s="1" t="s">
+        <v>3952</v>
+      </c>
+      <c r="W838" s="1" t="s">
+        <v>3949</v>
+      </c>
+      <c r="X838" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y838" s="1" t="s">
+        <v>3953</v>
+      </c>
+      <c r="Z838" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA838" s="1" t="s">
+        <v>3954</v>
+      </c>
+      <c r="AB838" s="1" t="s">
+        <v>3955</v>
+      </c>
+      <c r="AC838" s="1" t="s">
+        <v>3956</v>
+      </c>
+      <c r="AD838" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE838" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF838" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG838" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH838" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI838" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="839" spans="1:35">
+      <c r="A839" s="1" t="s">
+        <v>3957</v>
+      </c>
+      <c r="B839" s="1" t="s">
+        <v>3958</v>
+      </c>
+      <c r="C839" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D839" s="1" t="s">
+        <v>3959</v>
+      </c>
+      <c r="E839" s="1" t="s">
+        <v>1902</v>
+      </c>
+      <c r="F839" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G839" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H839" s="1" t="s">
+        <v>3960</v>
+      </c>
+      <c r="I839" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J839" s="1" t="s">
+        <v>3894</v>
+      </c>
+      <c r="K839" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L839" s="1" t="s">
+        <v>3895</v>
+      </c>
+      <c r="M839" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N839" s="1" t="s">
+        <v>3961</v>
+      </c>
+      <c r="O839" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P839" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q839" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R839" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S839" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T839" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U839" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V839" s="1" t="s">
+        <v>3962</v>
+      </c>
+      <c r="W839" s="1" t="s">
+        <v>3958</v>
+      </c>
+      <c r="X839" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y839" s="1" t="s">
+        <v>3963</v>
+      </c>
+      <c r="Z839" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA839" s="1" t="s">
+        <v>3964</v>
+      </c>
+      <c r="AB839" s="1" t="s">
+        <v>3965</v>
+      </c>
+      <c r="AC839" s="1" t="s">
+        <v>3966</v>
+      </c>
+      <c r="AD839" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="AE839" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF839" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG839" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH839" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI839" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="840" spans="1:35">
+      <c r="A840" s="1" t="s">
+        <v>3967</v>
+      </c>
+      <c r="B840" s="1" t="s">
+        <v>3968</v>
+      </c>
+      <c r="C840" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D840" s="1" t="s">
+        <v>3969</v>
+      </c>
+      <c r="E840" s="1" t="s">
+        <v>1902</v>
+      </c>
+      <c r="F840" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G840" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H840" s="1" t="s">
+        <v>3970</v>
+      </c>
+      <c r="I840" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J840" s="1" t="s">
+        <v>3740</v>
+      </c>
+      <c r="K840" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L840" s="1" t="s">
+        <v>3741</v>
+      </c>
+      <c r="M840" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N840" s="1" t="s">
+        <v>3971</v>
+      </c>
+      <c r="O840" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P840" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q840" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R840" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S840" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T840" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U840" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V840" s="1" t="s">
+        <v>3972</v>
+      </c>
+      <c r="W840" s="1" t="s">
+        <v>3968</v>
+      </c>
+      <c r="X840" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y840" s="1" t="s">
+        <v>3973</v>
+      </c>
+      <c r="Z840" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA840" s="1" t="s">
+        <v>3057</v>
+      </c>
+      <c r="AB840" s="1" t="s">
+        <v>3058</v>
+      </c>
+      <c r="AC840" s="1" t="s">
+        <v>3974</v>
+      </c>
+      <c r="AD840" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE840" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF840" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG840" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH840" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI840" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="841" spans="1:35">
+      <c r="A841" s="1" t="s">
+        <v>3975</v>
+      </c>
+      <c r="B841" s="1" t="s">
+        <v>3976</v>
+      </c>
+      <c r="C841" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D841" s="1" t="s">
+        <v>3977</v>
+      </c>
+      <c r="E841" s="1" t="s">
+        <v>1902</v>
+      </c>
+      <c r="F841" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G841" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H841" s="1" t="s">
+        <v>3978</v>
+      </c>
+      <c r="I841" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J841" s="1" t="s">
+        <v>3906</v>
+      </c>
+      <c r="K841" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L841" s="1" t="s">
+        <v>3907</v>
+      </c>
+      <c r="M841" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N841" s="1" t="s">
+        <v>3870</v>
+      </c>
+      <c r="O841" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P841" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q841" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R841" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S841" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T841" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U841" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V841" s="1" t="s">
+        <v>3979</v>
+      </c>
+      <c r="W841" s="1" t="s">
+        <v>3976</v>
+      </c>
+      <c r="X841" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y841" s="1" t="s">
+        <v>3980</v>
+      </c>
+      <c r="Z841" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA841" s="1" t="s">
+        <v>3334</v>
+      </c>
+      <c r="AB841" s="1" t="s">
+        <v>3981</v>
+      </c>
+      <c r="AC841" s="1" t="s">
+        <v>3982</v>
+      </c>
+      <c r="AD841" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AE841" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF841" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG841" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH841" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI841" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="842" spans="1:35">
+      <c r="A842" s="1" t="s">
+        <v>3983</v>
+      </c>
+      <c r="B842" s="1" t="s">
+        <v>3984</v>
+      </c>
+      <c r="C842" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D842" s="1" t="s">
+        <v>3985</v>
+      </c>
+      <c r="E842" s="1" t="s">
+        <v>1902</v>
+      </c>
+      <c r="F842" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G842" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H842" s="1" t="s">
+        <v>3986</v>
+      </c>
+      <c r="I842" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J842" s="1" t="s">
+        <v>3916</v>
+      </c>
+      <c r="K842" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L842" s="1" t="s">
+        <v>3906</v>
+      </c>
+      <c r="M842" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N842" s="1" t="s">
+        <v>3987</v>
+      </c>
+      <c r="O842" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P842" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q842" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R842" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S842" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T842" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U842" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V842" s="1" t="s">
+        <v>3988</v>
+      </c>
+      <c r="W842" s="1" t="s">
+        <v>3984</v>
+      </c>
+      <c r="X842" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y842" s="1" t="s">
+        <v>3989</v>
+      </c>
+      <c r="Z842" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA842" s="1" t="s">
+        <v>3899</v>
+      </c>
+      <c r="AB842" s="1" t="s">
+        <v>3990</v>
+      </c>
+      <c r="AC842" s="1" t="s">
+        <v>3991</v>
+      </c>
+      <c r="AD842" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE842" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF842" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG842" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH842" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI842" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="843" spans="1:35">
+      <c r="A843" s="1" t="s">
+        <v>3992</v>
+      </c>
+      <c r="B843" s="1" t="s">
+        <v>3993</v>
+      </c>
+      <c r="C843" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D843" s="1" t="s">
+        <v>3994</v>
+      </c>
+      <c r="E843" s="1" t="s">
+        <v>1902</v>
+      </c>
+      <c r="F843" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G843" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H843" s="1" t="s">
+        <v>3995</v>
+      </c>
+      <c r="I843" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J843" s="1" t="s">
+        <v>3740</v>
+      </c>
+      <c r="K843" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L843" s="1" t="s">
+        <v>3741</v>
+      </c>
+      <c r="M843" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N843" s="1" t="s">
+        <v>3996</v>
+      </c>
+      <c r="O843" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P843" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q843" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R843" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S843" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T843" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U843" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V843" s="1" t="s">
+        <v>3997</v>
+      </c>
+      <c r="W843" s="1" t="s">
+        <v>3993</v>
+      </c>
+      <c r="X843" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y843" s="1" t="s">
+        <v>3998</v>
+      </c>
+      <c r="Z843" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA843" s="1" t="s">
+        <v>3999</v>
+      </c>
+      <c r="AB843" s="1" t="s">
+        <v>4000</v>
+      </c>
+      <c r="AC843" s="1" t="s">
+        <v>4001</v>
+      </c>
+      <c r="AD843" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE843" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF843" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG843" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH843" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI843" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="844" spans="1:35">
+      <c r="A844" s="1" t="s">
+        <v>4027</v>
+      </c>
+      <c r="B844" s="1" t="s">
+        <v>4028</v>
+      </c>
+      <c r="C844" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D844" s="1" t="s">
+        <v>4029</v>
+      </c>
+      <c r="E844" s="1" t="s">
+        <v>1903</v>
+      </c>
+      <c r="F844" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G844" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H844" s="1" t="s">
+        <v>4030</v>
+      </c>
+      <c r="I844" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J844" s="1" t="s">
+        <v>4031</v>
+      </c>
+      <c r="K844" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L844" s="1" t="s">
+        <v>4032</v>
+      </c>
+      <c r="M844" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N844" s="1" t="s">
+        <v>3098</v>
+      </c>
+      <c r="O844" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P844" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q844" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R844" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S844" s="1" t="s">
+        <v>2589</v>
+      </c>
+      <c r="T844" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U844" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="V844" s="1" t="s">
+        <v>4033</v>
+      </c>
+      <c r="W844" s="1" t="s">
+        <v>4028</v>
+      </c>
+      <c r="X844" s="1" t="s">
+        <v>2591</v>
+      </c>
+      <c r="Y844" s="1" t="s">
+        <v>4034</v>
+      </c>
+      <c r="Z844" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA844" s="1" t="s">
+        <v>4035</v>
+      </c>
+      <c r="AB844" s="1" t="s">
+        <v>4036</v>
+      </c>
+      <c r="AC844" s="1" t="s">
+        <v>4037</v>
+      </c>
+      <c r="AD844" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE844" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF844" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG844" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH844" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI844" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="845" spans="1:35">
+      <c r="A845" s="1" t="s">
+        <v>4038</v>
+      </c>
+      <c r="B845" s="1" t="s">
+        <v>4039</v>
+      </c>
+      <c r="C845" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D845" s="1" t="s">
+        <v>4040</v>
+      </c>
+      <c r="E845" s="1" t="s">
+        <v>1903</v>
+      </c>
+      <c r="F845" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G845" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H845" s="1" t="s">
+        <v>4041</v>
+      </c>
+      <c r="I845" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J845" s="1" t="s">
+        <v>4042</v>
+      </c>
+      <c r="K845" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L845" s="1" t="s">
+        <v>4043</v>
+      </c>
+      <c r="M845" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N845" s="1" t="s">
+        <v>2588</v>
+      </c>
+      <c r="O845" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P845" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q845" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R845" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S845" s="1" t="s">
+        <v>2589</v>
+      </c>
+      <c r="T845" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U845" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="V845" s="1" t="s">
+        <v>4044</v>
+      </c>
+      <c r="W845" s="1" t="s">
+        <v>4039</v>
+      </c>
+      <c r="X845" s="1" t="s">
+        <v>2591</v>
+      </c>
+      <c r="Y845" s="1" t="s">
+        <v>4045</v>
+      </c>
+      <c r="Z845" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA845" s="1" t="s">
+        <v>4035</v>
+      </c>
+      <c r="AB845" s="1" t="s">
+        <v>4036</v>
+      </c>
+      <c r="AC845" s="1" t="s">
+        <v>4046</v>
+      </c>
+      <c r="AD845" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE845" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF845" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG845" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH845" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI845" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="846" spans="1:35">
+      <c r="A846" s="1" t="s">
+        <v>4047</v>
+      </c>
+      <c r="B846" s="1" t="s">
+        <v>4048</v>
+      </c>
+      <c r="C846" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D846" s="1" t="s">
+        <v>4049</v>
+      </c>
+      <c r="E846" s="1" t="s">
+        <v>1903</v>
+      </c>
+      <c r="F846" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G846" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H846" s="1" t="s">
+        <v>4050</v>
+      </c>
+      <c r="I846" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J846" s="1" t="s">
+        <v>4042</v>
+      </c>
+      <c r="K846" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L846" s="1" t="s">
+        <v>4043</v>
+      </c>
+      <c r="M846" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N846" s="1" t="s">
+        <v>2588</v>
+      </c>
+      <c r="O846" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P846" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q846" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R846" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S846" s="1" t="s">
+        <v>2589</v>
+      </c>
+      <c r="T846" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U846" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="V846" s="1" t="s">
+        <v>4051</v>
+      </c>
+      <c r="W846" s="1" t="s">
+        <v>4048</v>
+      </c>
+      <c r="X846" s="1" t="s">
+        <v>2591</v>
+      </c>
+      <c r="Y846" s="1" t="s">
+        <v>4052</v>
+      </c>
+      <c r="Z846" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA846" s="1" t="s">
+        <v>4035</v>
+      </c>
+      <c r="AB846" s="1" t="s">
+        <v>4036</v>
+      </c>
+      <c r="AC846" s="1" t="s">
+        <v>4053</v>
+      </c>
+      <c r="AD846" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE846" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF846" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="AG846" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH846" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="AI846" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="847" spans="1:35">
+      <c r="A847" s="1" t="s">
+        <v>4054</v>
+      </c>
+      <c r="B847" s="1" t="s">
+        <v>4055</v>
+      </c>
+      <c r="C847" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D847" s="1" t="s">
+        <v>4056</v>
+      </c>
+      <c r="E847" s="1" t="s">
+        <v>1903</v>
+      </c>
+      <c r="F847" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G847" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H847" s="1" t="s">
+        <v>4057</v>
+      </c>
+      <c r="I847" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J847" s="1" t="s">
+        <v>3916</v>
+      </c>
+      <c r="K847" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L847" s="1" t="s">
+        <v>3906</v>
+      </c>
+      <c r="M847" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N847" s="1" t="s">
+        <v>4058</v>
+      </c>
+      <c r="O847" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P847" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q847" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R847" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S847" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T847" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U847" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V847" s="1" t="s">
+        <v>4059</v>
+      </c>
+      <c r="W847" s="1" t="s">
+        <v>4055</v>
+      </c>
+      <c r="X847" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y847" s="1" t="s">
+        <v>4060</v>
+      </c>
+      <c r="Z847" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA847" s="1" t="s">
+        <v>4061</v>
+      </c>
+      <c r="AB847" s="1" t="s">
+        <v>4062</v>
+      </c>
+      <c r="AC847" s="1" t="s">
+        <v>4063</v>
+      </c>
+      <c r="AD847" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE847" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF847" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG847" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH847" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI847" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="848" spans="1:35">
+      <c r="A848" s="1" t="s">
+        <v>4064</v>
+      </c>
+      <c r="B848" s="1" t="s">
+        <v>4065</v>
+      </c>
+      <c r="C848" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D848" s="1" t="s">
+        <v>4066</v>
+      </c>
+      <c r="E848" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F848" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G848" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H848" s="1" t="s">
+        <v>4067</v>
+      </c>
+      <c r="I848" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J848" s="1" t="s">
+        <v>3894</v>
+      </c>
+      <c r="K848" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L848" s="1" t="s">
+        <v>3895</v>
+      </c>
+      <c r="M848" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N848" s="1" t="s">
+        <v>4068</v>
+      </c>
+      <c r="O848" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P848" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q848" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R848" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S848" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T848" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U848" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V848" s="1" t="s">
+        <v>4069</v>
+      </c>
+      <c r="W848" s="1" t="s">
+        <v>4065</v>
+      </c>
+      <c r="X848" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y848" s="1" t="s">
+        <v>4070</v>
+      </c>
+      <c r="Z848" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA848" s="1" t="s">
+        <v>4071</v>
+      </c>
+      <c r="AB848" s="1" t="s">
+        <v>4072</v>
+      </c>
+      <c r="AC848" s="1" t="s">
+        <v>4073</v>
+      </c>
+      <c r="AD848" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE848" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF848" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG848" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH848" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI848" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="849" spans="1:35">
+      <c r="A849" s="1" t="s">
+        <v>4074</v>
+      </c>
+      <c r="B849" s="1" t="s">
+        <v>4075</v>
+      </c>
+      <c r="C849" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D849" s="1" t="s">
+        <v>3922</v>
+      </c>
+      <c r="E849" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F849" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G849" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H849" s="1" t="s">
+        <v>4076</v>
+      </c>
+      <c r="I849" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J849" s="1" t="s">
+        <v>3894</v>
+      </c>
+      <c r="K849" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L849" s="1" t="s">
+        <v>3895</v>
+      </c>
+      <c r="M849" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N849" s="1" t="s">
+        <v>4077</v>
+      </c>
+      <c r="O849" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P849" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q849" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R849" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S849" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T849" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U849" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V849" s="1" t="s">
+        <v>4078</v>
+      </c>
+      <c r="W849" s="1" t="s">
+        <v>4075</v>
+      </c>
+      <c r="X849" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y849" s="1" t="s">
+        <v>4079</v>
+      </c>
+      <c r="Z849" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA849" s="1" t="s">
+        <v>4080</v>
+      </c>
+      <c r="AB849" s="1" t="s">
+        <v>4081</v>
+      </c>
+      <c r="AC849" s="1" t="s">
+        <v>4082</v>
+      </c>
+      <c r="AD849" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE849" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF849" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG849" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH849" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI849" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="850" spans="1:35">
+      <c r="A850" s="1" t="s">
+        <v>4083</v>
+      </c>
+      <c r="B850" s="1" t="s">
+        <v>4084</v>
+      </c>
+      <c r="C850" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D850" s="1" t="s">
+        <v>3994</v>
+      </c>
+      <c r="E850" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F850" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G850" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H850" s="1" t="s">
+        <v>4085</v>
+      </c>
+      <c r="I850" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J850" s="1" t="s">
+        <v>3894</v>
+      </c>
+      <c r="K850" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L850" s="1" t="s">
+        <v>3895</v>
+      </c>
+      <c r="M850" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N850" s="1" t="s">
+        <v>4086</v>
+      </c>
+      <c r="O850" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P850" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q850" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R850" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S850" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="T850" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U850" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V850" s="1" t="s">
+        <v>4087</v>
+      </c>
+      <c r="W850" s="1" t="s">
+        <v>4084</v>
+      </c>
+      <c r="X850" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y850" s="1" t="s">
+        <v>4088</v>
+      </c>
+      <c r="Z850" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA850" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="AB850" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="AC850" s="1" t="s">
+        <v>4089</v>
+      </c>
+      <c r="AD850" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE850" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF850" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG850" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH850" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI850" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="851" spans="1:35">
+      <c r="A851" s="1" t="s">
+        <v>4090</v>
+      </c>
+      <c r="B851" s="1" t="s">
+        <v>4091</v>
+      </c>
+      <c r="C851" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D851" s="1" t="s">
+        <v>3940</v>
+      </c>
+      <c r="E851" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F851" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G851" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H851" s="1" t="s">
+        <v>4092</v>
+      </c>
+      <c r="I851" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J851" s="1" t="s">
+        <v>3906</v>
+      </c>
+      <c r="K851" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L851" s="1" t="s">
+        <v>3907</v>
+      </c>
+      <c r="M851" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N851" s="1" t="s">
+        <v>4093</v>
+      </c>
+      <c r="O851" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P851" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q851" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R851" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S851" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T851" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U851" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V851" s="1" t="s">
+        <v>4094</v>
+      </c>
+      <c r="W851" s="1" t="s">
+        <v>4091</v>
+      </c>
+      <c r="X851" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y851" s="1" t="s">
+        <v>4095</v>
+      </c>
+      <c r="Z851" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA851" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="AB851" s="1" t="s">
+        <v>2090</v>
+      </c>
+      <c r="AC851" s="1" t="s">
+        <v>4096</v>
+      </c>
+      <c r="AD851" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AE851" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF851" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG851" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH851" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI851" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="852" spans="1:35">
+      <c r="A852" s="1" t="s">
+        <v>4097</v>
+      </c>
+      <c r="B852" s="1" t="s">
+        <v>4098</v>
+      </c>
+      <c r="C852" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D852" s="1" t="s">
+        <v>4099</v>
+      </c>
+      <c r="E852" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F852" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G852" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H852" s="1" t="s">
+        <v>4100</v>
+      </c>
+      <c r="I852" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J852" s="1" t="s">
+        <v>3894</v>
+      </c>
+      <c r="K852" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L852" s="1" t="s">
+        <v>3895</v>
+      </c>
+      <c r="M852" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N852" s="1" t="s">
+        <v>4101</v>
+      </c>
+      <c r="O852" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P852" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q852" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R852" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S852" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T852" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U852" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V852" s="1" t="s">
+        <v>4102</v>
+      </c>
+      <c r="W852" s="1" t="s">
+        <v>4098</v>
+      </c>
+      <c r="X852" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y852" s="1" t="s">
+        <v>4103</v>
+      </c>
+      <c r="Z852" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA852" s="1" t="s">
+        <v>4104</v>
+      </c>
+      <c r="AB852" s="1" t="s">
+        <v>4105</v>
+      </c>
+      <c r="AC852" s="1" t="s">
+        <v>4106</v>
+      </c>
+      <c r="AD852" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE852" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF852" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG852" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH852" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI852" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="853" spans="1:35">
+      <c r="A853" s="1" t="s">
+        <v>4107</v>
+      </c>
+      <c r="B853" s="1" t="s">
+        <v>4108</v>
+      </c>
+      <c r="C853" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D853" s="1" t="s">
+        <v>3940</v>
+      </c>
+      <c r="E853" s="1" t="s">
+        <v>1903</v>
+      </c>
+      <c r="F853" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G853" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H853" s="1" t="s">
+        <v>4109</v>
+      </c>
+      <c r="I853" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J853" s="1" t="s">
+        <v>3906</v>
+      </c>
+      <c r="K853" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L853" s="1" t="s">
+        <v>3907</v>
+      </c>
+      <c r="M853" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N853" s="1" t="s">
+        <v>4110</v>
+      </c>
+      <c r="O853" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P853" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q853" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R853" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S853" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T853" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U853" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V853" s="1" t="s">
+        <v>4111</v>
+      </c>
+      <c r="W853" s="1" t="s">
+        <v>4108</v>
+      </c>
+      <c r="X853" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y853" s="1" t="s">
+        <v>4112</v>
+      </c>
+      <c r="Z853" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA853" s="1" t="s">
+        <v>2700</v>
+      </c>
+      <c r="AB853" s="1" t="s">
+        <v>4113</v>
+      </c>
+      <c r="AC853" s="1" t="s">
+        <v>4114</v>
+      </c>
+      <c r="AD853" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE853" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF853" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG853" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH853" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI853" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="854" spans="1:35">
+      <c r="A854" s="1" t="s">
+        <v>4115</v>
+      </c>
+      <c r="B854" s="1" t="s">
+        <v>4116</v>
+      </c>
+      <c r="C854" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D854" s="1" t="s">
+        <v>3904</v>
+      </c>
+      <c r="E854" s="1" t="s">
+        <v>1903</v>
+      </c>
+      <c r="F854" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G854" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H854" s="1" t="s">
+        <v>4117</v>
+      </c>
+      <c r="I854" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J854" s="1" t="s">
+        <v>3906</v>
+      </c>
+      <c r="K854" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L854" s="1" t="s">
+        <v>3907</v>
+      </c>
+      <c r="M854" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N854" s="1" t="s">
+        <v>4118</v>
+      </c>
+      <c r="O854" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P854" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q854" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R854" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S854" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T854" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U854" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V854" s="1" t="s">
+        <v>4119</v>
+      </c>
+      <c r="W854" s="1" t="s">
+        <v>4116</v>
+      </c>
+      <c r="X854" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y854" s="1" t="s">
+        <v>4120</v>
+      </c>
+      <c r="Z854" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA854" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB854" s="1" t="s">
+        <v>4121</v>
+      </c>
+      <c r="AC854" s="1" t="s">
+        <v>4122</v>
+      </c>
+      <c r="AD854" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE854" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF854" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG854" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH854" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI854" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="855" spans="1:35">
+      <c r="A855" s="1" t="s">
+        <v>4123</v>
+      </c>
+      <c r="B855" s="1" t="s">
+        <v>4124</v>
+      </c>
+      <c r="C855" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D855" s="1" t="s">
+        <v>4125</v>
+      </c>
+      <c r="E855" s="1" t="s">
+        <v>1903</v>
+      </c>
+      <c r="F855" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G855" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H855" s="1" t="s">
+        <v>4126</v>
+      </c>
+      <c r="I855" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J855" s="1" t="s">
+        <v>3740</v>
+      </c>
+      <c r="K855" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L855" s="1" t="s">
+        <v>3741</v>
+      </c>
+      <c r="M855" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N855" s="1" t="s">
+        <v>4127</v>
+      </c>
+      <c r="O855" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P855" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q855" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R855" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S855" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T855" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U855" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V855" s="1" t="s">
+        <v>4128</v>
+      </c>
+      <c r="W855" s="1" t="s">
+        <v>4124</v>
+      </c>
+      <c r="X855" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y855" s="1" t="s">
+        <v>4129</v>
+      </c>
+      <c r="Z855" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA855" s="1" t="s">
+        <v>3571</v>
+      </c>
+      <c r="AB855" s="1" t="s">
+        <v>4130</v>
+      </c>
+      <c r="AC855" s="1" t="s">
+        <v>4131</v>
+      </c>
+      <c r="AD855" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE855" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF855" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG855" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH855" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI855" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AI500"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
